--- a/beispieltage.xlsx
+++ b/beispieltage.xlsx
@@ -475,25 +475,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>150.2368070681455</v>
+        <v>33.01077985638989</v>
       </c>
       <c r="C2" t="n">
-        <v>173.4858036653927</v>
+        <v>84.6634508595431</v>
       </c>
       <c r="D2" t="n">
-        <v>51.40612931227692</v>
+        <v>111.4050357345121</v>
       </c>
       <c r="E2" t="n">
-        <v>184.7768247566415</v>
+        <v>95.40211646855923</v>
       </c>
       <c r="F2" t="n">
-        <v>131.7606140097778</v>
+        <v>127.0004721219772</v>
       </c>
       <c r="G2" t="n">
-        <v>129.4632435385238</v>
+        <v>84.61093416307409</v>
       </c>
       <c r="H2" t="n">
-        <v>196.7626208760096</v>
+        <v>114.8660004712791</v>
       </c>
     </row>
     <row r="3">
@@ -501,25 +501,25 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>151.3814320585555</v>
+        <v>32.15877399506701</v>
       </c>
       <c r="C3" t="n">
-        <v>171.4444173248443</v>
+        <v>86.18832509027325</v>
       </c>
       <c r="D3" t="n">
-        <v>50.07934080038711</v>
+        <v>110.0941462357069</v>
       </c>
       <c r="E3" t="n">
-        <v>182.5495390181161</v>
+        <v>96.17103499573275</v>
       </c>
       <c r="F3" t="n">
-        <v>131.7908407216524</v>
+        <v>125.5725740973265</v>
       </c>
       <c r="G3" t="n">
-        <v>132.1289115165802</v>
+        <v>84.63034444244788</v>
       </c>
       <c r="H3" t="n">
-        <v>194.2516375996834</v>
+        <v>113.4596379216141</v>
       </c>
     </row>
     <row r="4">
@@ -527,25 +527,25 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>153.1795836999398</v>
+        <v>31.34258852626942</v>
       </c>
       <c r="C4" t="n">
-        <v>169.5960476100053</v>
+        <v>88.17783681208759</v>
       </c>
       <c r="D4" t="n">
-        <v>48.80833369500093</v>
+        <v>108.907203616878</v>
       </c>
       <c r="E4" t="n">
-        <v>180.5609196286097</v>
+        <v>97.3758908771964</v>
       </c>
       <c r="F4" t="n">
-        <v>132.1586737805059</v>
+        <v>124.2716092119252</v>
       </c>
       <c r="G4" t="n">
-        <v>135.5521803883924</v>
+        <v>84.86655083052186</v>
       </c>
       <c r="H4" t="n">
-        <v>191.9683778857799</v>
+        <v>112.2452050995816</v>
       </c>
     </row>
     <row r="5">
@@ -553,25 +553,25 @@
         <v>15</v>
       </c>
       <c r="B5" t="n">
-        <v>155.3781901845803</v>
+        <v>30.57014464712121</v>
       </c>
       <c r="C5" t="n">
-        <v>167.9306802333469</v>
+        <v>90.42672588774236</v>
       </c>
       <c r="D5" t="n">
-        <v>47.60544330250743</v>
+        <v>107.8377771382391</v>
       </c>
       <c r="E5" t="n">
-        <v>178.7681930601358</v>
+        <v>98.84504980163857</v>
       </c>
       <c r="F5" t="n">
-        <v>132.749843799683</v>
+        <v>123.0959171235591</v>
       </c>
       <c r="G5" t="n">
-        <v>139.3873591606122</v>
+        <v>85.24617449839623</v>
       </c>
       <c r="H5" t="n">
-        <v>189.9229674197357</v>
+        <v>111.1912711343041</v>
       </c>
     </row>
     <row r="6">
@@ -579,25 +579,25 @@
         <v>20</v>
       </c>
       <c r="B6" t="n">
-        <v>157.7241797047292</v>
+        <v>29.8493635547511</v>
       </c>
       <c r="C6" t="n">
-        <v>166.4383009073419</v>
+        <v>92.72973217998103</v>
       </c>
       <c r="D6" t="n">
-        <v>46.48300492930282</v>
+        <v>106.8794360600048</v>
       </c>
       <c r="E6" t="n">
-        <v>177.1285857846903</v>
+        <v>100.4068774577256</v>
       </c>
       <c r="F6" t="n">
-        <v>133.4500813925293</v>
+        <v>122.0438374900053</v>
       </c>
       <c r="G6" t="n">
-        <v>143.2887568398675</v>
+        <v>85.69583661717195</v>
       </c>
       <c r="H6" t="n">
-        <v>188.1255318869696</v>
+        <v>110.2664051548924</v>
       </c>
     </row>
     <row r="7">
@@ -605,25 +605,25 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>159.964480452658</v>
+        <v>29.18816644628638</v>
       </c>
       <c r="C7" t="n">
-        <v>165.108895344467</v>
+        <v>94.88159555153732</v>
       </c>
       <c r="D7" t="n">
-        <v>45.45335388178108</v>
+        <v>106.0257496423923</v>
       </c>
       <c r="E7" t="n">
-        <v>175.5993242742786</v>
+        <v>101.889739534143</v>
       </c>
       <c r="F7" t="n">
-        <v>134.1451171723702</v>
+        <v>121.1137099690523</v>
       </c>
       <c r="G7" t="n">
-        <v>146.910682432787</v>
+        <v>86.14215835793688</v>
       </c>
       <c r="H7" t="n">
-        <v>186.5861969729217</v>
+        <v>109.4391762904613</v>
       </c>
     </row>
     <row r="8">
@@ -631,25 +631,25 @@
         <v>30</v>
       </c>
       <c r="B8" t="n">
-        <v>161.8507980454383</v>
+        <v>28.5945865016355</v>
       </c>
       <c r="C8" t="n">
-        <v>163.9312105475</v>
+        <v>96.69631091717348</v>
       </c>
       <c r="D8" t="n">
-        <v>44.52899985183558</v>
+        <v>105.2694917001393</v>
       </c>
       <c r="E8" t="n">
-        <v>174.1425702186703</v>
+        <v>103.1260689257263</v>
       </c>
       <c r="F8" t="n">
-        <v>134.7248939319959</v>
+        <v>120.3037680252363</v>
       </c>
       <c r="G8" t="n">
-        <v>149.9387878761554</v>
+        <v>86.51446577018322</v>
       </c>
       <c r="H8" t="n">
-        <v>185.3142328117694</v>
+        <v>108.6813184136068</v>
       </c>
     </row>
     <row r="9">
@@ -657,25 +657,25 @@
         <v>35</v>
       </c>
       <c r="B9" t="n">
-        <v>163.2574253899267</v>
+        <v>28.07289350021506</v>
       </c>
       <c r="C9" t="n">
-        <v>162.8898581046044</v>
+        <v>98.13129157951096</v>
       </c>
       <c r="D9" t="n">
-        <v>43.71659196541185</v>
+        <v>104.6007804646266</v>
       </c>
       <c r="E9" t="n">
-        <v>172.758073650336</v>
+        <v>104.0355159927195</v>
       </c>
       <c r="F9" t="n">
-        <v>135.1532748844744</v>
+        <v>119.6060797520567</v>
       </c>
       <c r="G9" t="n">
-        <v>152.3009759454343</v>
+        <v>86.7895533814491</v>
       </c>
       <c r="H9" t="n">
-        <v>184.2972805634573</v>
+        <v>107.9879779607804</v>
       </c>
     </row>
     <row r="10">
@@ -683,25 +683,25 @@
         <v>40</v>
       </c>
       <c r="B10" t="n">
-        <v>164.2329463793776</v>
+        <v>27.61855441166658</v>
       </c>
       <c r="C10" t="n">
-        <v>161.9741601443905</v>
+        <v>99.23028535505335</v>
       </c>
       <c r="D10" t="n">
-        <v>43.00907114829837</v>
+        <v>104.012759071381</v>
       </c>
       <c r="E10" t="n">
-        <v>171.4668139659564</v>
+        <v>104.6531247325123</v>
       </c>
       <c r="F10" t="n">
-        <v>135.4592921534844</v>
+        <v>119.0114379711071</v>
       </c>
       <c r="G10" t="n">
-        <v>154.0756540567646</v>
+        <v>86.98606435853853</v>
       </c>
       <c r="H10" t="n">
-        <v>183.5093057865535</v>
+        <v>107.3689590508485</v>
       </c>
     </row>
     <row r="11">
@@ -709,25 +709,25 @@
         <v>45</v>
       </c>
       <c r="B11" t="n">
-        <v>164.8427473261288</v>
+        <v>27.22591516090111</v>
       </c>
       <c r="C11" t="n">
-        <v>161.1748887319131</v>
+        <v>100.0416598528361</v>
       </c>
       <c r="D11" t="n">
-        <v>42.39763257624001</v>
+        <v>103.4995017420357</v>
       </c>
       <c r="E11" t="n">
-        <v>170.2903617001936</v>
+        <v>105.0244153970443</v>
       </c>
       <c r="F11" t="n">
-        <v>135.672769984236</v>
+        <v>118.5120736775797</v>
       </c>
       <c r="G11" t="n">
-        <v>155.3488976362549</v>
+        <v>87.12315053424248</v>
       </c>
       <c r="H11" t="n">
-        <v>182.9261195569263</v>
+        <v>106.8349324772959</v>
       </c>
     </row>
     <row r="12">
@@ -735,25 +735,25 @@
         <v>50</v>
       </c>
       <c r="B12" t="n">
-        <v>165.152214542519</v>
+        <v>26.88932167282671</v>
       </c>
       <c r="C12" t="n">
-        <v>160.4828159322349</v>
+        <v>100.6137826818848</v>
       </c>
       <c r="D12" t="n">
-        <v>41.87347142497673</v>
+        <v>103.0550826982289</v>
       </c>
       <c r="E12" t="n">
-        <v>169.2502873877089</v>
+        <v>105.1949082382529</v>
       </c>
       <c r="F12" t="n">
-        <v>135.8235326219664</v>
+        <v>118.1002178666555</v>
       </c>
       <c r="G12" t="n">
-        <v>156.2067821099952</v>
+        <v>87.2199637413691</v>
       </c>
       <c r="H12" t="n">
-        <v>182.5235329504239</v>
+        <v>106.3965690336075</v>
       </c>
     </row>
     <row r="13">
@@ -761,25 +761,25 @@
         <v>55</v>
       </c>
       <c r="B13" t="n">
-        <v>165.2267343408849</v>
+        <v>26.60311987235278</v>
       </c>
       <c r="C13" t="n">
-        <v>159.8887138104162</v>
+        <v>100.9950214512424</v>
       </c>
       <c r="D13" t="n">
-        <v>41.42778287025084</v>
+        <v>102.6735761615971</v>
       </c>
       <c r="E13" t="n">
-        <v>168.3681615631675</v>
+        <v>105.2101235080753</v>
       </c>
       <c r="F13" t="n">
-        <v>135.941404311885</v>
+        <v>117.7681015335255</v>
       </c>
       <c r="G13" t="n">
-        <v>156.735382904102</v>
+        <v>87.2956558127088</v>
       </c>
       <c r="H13" t="n">
-        <v>182.2773570429113</v>
+        <v>106.0645395132693</v>
       </c>
     </row>
     <row r="14">
@@ -787,25 +787,25 @@
         <v>60</v>
       </c>
       <c r="B14" t="n">
-        <v>165.1316930335728</v>
+        <v>26.36165568438498</v>
       </c>
       <c r="C14" t="n">
-        <v>159.3833544315276</v>
+        <v>101.2337437699362</v>
       </c>
       <c r="D14" t="n">
-        <v>41.05176208779868</v>
+        <v>102.3490563537836</v>
       </c>
       <c r="E14" t="n">
-        <v>167.6655547612264</v>
+        <v>105.1155814584557</v>
       </c>
       <c r="F14" t="n">
-        <v>136.056209299233</v>
+        <v>117.507955673378</v>
       </c>
       <c r="G14" t="n">
-        <v>157.0207754446702</v>
+        <v>87.36937858107245</v>
       </c>
       <c r="H14" t="n">
-        <v>182.1634029102495</v>
+        <v>105.8495147097629</v>
       </c>
     </row>
     <row r="15">
@@ -813,25 +813,25 @@
         <v>65</v>
       </c>
       <c r="B15" t="n">
-        <v>164.9324769329148</v>
+        <v>26.15927503383586</v>
       </c>
       <c r="C15" t="n">
-        <v>158.9575098606228</v>
+        <v>101.378317247002</v>
       </c>
       <c r="D15" t="n">
-        <v>40.7366042533673</v>
+        <v>102.0755974964209</v>
       </c>
       <c r="E15" t="n">
-        <v>167.1640375165511</v>
+        <v>104.9568023413273</v>
       </c>
       <c r="F15" t="n">
-        <v>136.1977718292226</v>
+        <v>117.3120112814026</v>
       </c>
       <c r="G15" t="n">
-        <v>157.1490351578046</v>
+        <v>87.4602838792522</v>
       </c>
       <c r="H15" t="n">
-        <v>182.1574816283029</v>
+        <v>105.7621654165764</v>
       </c>
     </row>
     <row r="16">
@@ -839,25 +839,25 @@
         <v>70</v>
       </c>
       <c r="B16" t="n">
-        <v>164.6944723512514</v>
+        <v>25.99032384561233</v>
       </c>
       <c r="C16" t="n">
-        <v>158.6019521627641</v>
+        <v>101.477109491468</v>
       </c>
       <c r="D16" t="n">
-        <v>40.473504542695</v>
+        <v>101.8472738111468</v>
       </c>
       <c r="E16" t="n">
-        <v>166.8851803638028</v>
+        <v>104.7793064086304</v>
       </c>
       <c r="F16" t="n">
-        <v>136.3959161470903</v>
+        <v>117.1724993527817</v>
       </c>
       <c r="G16" t="n">
-        <v>157.2062374696011</v>
+        <v>87.5875235400559</v>
       </c>
       <c r="H16" t="n">
-        <v>182.2354042729211</v>
+        <v>105.8131624271929</v>
       </c>
     </row>
     <row r="17">
@@ -865,25 +865,25 @@
         <v>75</v>
       </c>
       <c r="B17" t="n">
-        <v>164.4830656009192</v>
+        <v>25.8491480446247</v>
       </c>
       <c r="C17" t="n">
-        <v>158.3074534030166</v>
+        <v>101.5784881123677</v>
       </c>
       <c r="D17" t="n">
-        <v>40.25365813152553</v>
+        <v>101.6581595196009</v>
       </c>
       <c r="E17" t="n">
-        <v>166.8505538376419</v>
+        <v>104.6286139123018</v>
       </c>
       <c r="F17" t="n">
-        <v>136.680466498045</v>
+        <v>117.0816508827075</v>
       </c>
       <c r="G17" t="n">
-        <v>157.2784578061624</v>
+        <v>87.77024939627357</v>
       </c>
       <c r="H17" t="n">
-        <v>182.3729819199722</v>
+        <v>106.0131765350974</v>
       </c>
     </row>
     <row r="18">
@@ -891,25 +891,25 @@
         <v>80</v>
       </c>
       <c r="B18" t="n">
-        <v>164.3636429942609</v>
+        <v>25.73009355577961</v>
       </c>
       <c r="C18" t="n">
-        <v>158.0647856464433</v>
+        <v>101.7308207187344</v>
       </c>
       <c r="D18" t="n">
-        <v>40.06826019559661</v>
+        <v>101.5023288434218</v>
       </c>
       <c r="E18" t="n">
-        <v>167.0817284727322</v>
+        <v>104.5502451042832</v>
       </c>
       <c r="F18" t="n">
-        <v>137.0812471273256</v>
+        <v>117.0316968663673</v>
       </c>
       <c r="G18" t="n">
-        <v>157.4517715935922</v>
+        <v>88.02761328071468</v>
       </c>
       <c r="H18" t="n">
-        <v>182.546025645316</v>
+        <v>106.3728785337749</v>
       </c>
     </row>
     <row r="19">
@@ -917,25 +917,25 @@
         <v>85</v>
       </c>
       <c r="B19" t="n">
-        <v>164.4015908436106</v>
+        <v>25.6275063039882</v>
       </c>
       <c r="C19" t="n">
-        <v>157.8647209581057</v>
+        <v>101.9824749196018</v>
       </c>
       <c r="D19" t="n">
-        <v>39.90850591065326</v>
+        <v>101.3738560042466</v>
       </c>
       <c r="E19" t="n">
-        <v>167.6002748037321</v>
+        <v>104.5897202365093</v>
       </c>
       <c r="F19" t="n">
-        <v>137.6280822801506</v>
+        <v>117.0148682989493</v>
       </c>
       <c r="G19" t="n">
-        <v>157.812254257992</v>
+        <v>88.37876702617535</v>
       </c>
       <c r="H19" t="n">
-        <v>182.7303465248135</v>
+        <v>106.9029392167089</v>
       </c>
     </row>
     <row r="20">
@@ -943,25 +943,25 @@
         <v>90</v>
       </c>
       <c r="B20" t="n">
-        <v>164.6622192482183</v>
+        <v>25.53527321347008</v>
       </c>
       <c r="C20" t="n">
-        <v>157.701644588859</v>
+        <v>102.3796339318558</v>
       </c>
       <c r="D20" t="n">
-        <v>39.76487567232894</v>
+        <v>101.2691354544406</v>
       </c>
       <c r="E20" t="n">
-        <v>168.4274033649128</v>
+        <v>104.7922870133994</v>
       </c>
       <c r="F20" t="n">
-        <v>138.3518099819862</v>
+        <v>117.0244413449509</v>
       </c>
       <c r="G20" t="n">
-        <v>158.4421508381217</v>
+        <v>88.84351347102312</v>
       </c>
       <c r="H20" t="n">
-        <v>182.9031425225874</v>
+        <v>107.6133539410748</v>
       </c>
     </row>
     <row r="21">
@@ -969,25 +969,25 @@
         <v>95</v>
       </c>
       <c r="B21" t="n">
-        <v>165.1964770651123</v>
+        <v>25.44640506468454</v>
       </c>
       <c r="C21" t="n">
-        <v>157.5887050552905</v>
+        <v>102.9462151718082</v>
       </c>
       <c r="D21" t="n">
-        <v>39.62648549893446</v>
+        <v>101.196610599339</v>
       </c>
       <c r="E21" t="n">
-        <v>169.5741101736901</v>
+        <v>105.1902017049742</v>
       </c>
       <c r="F21" t="n">
-        <v>139.2815964621194</v>
+        <v>117.0765637627174</v>
       </c>
       <c r="G21" t="n">
-        <v>159.3803915122545</v>
+        <v>89.44058189884957</v>
       </c>
       <c r="H21" t="n">
-        <v>183.0843029019086</v>
+        <v>108.5075857500057</v>
       </c>
     </row>
     <row r="22">
@@ -995,25 +995,25 @@
         <v>100</v>
       </c>
       <c r="B22" t="n">
-        <v>166.0293203126169</v>
+        <v>25.35757650011431</v>
       </c>
       <c r="C22" t="n">
-        <v>157.5459677317256</v>
+        <v>103.695228666796</v>
       </c>
       <c r="D22" t="n">
-        <v>39.48815696817009</v>
+        <v>101.1691665494032</v>
       </c>
       <c r="E22" t="n">
-        <v>171.0382426981277</v>
+        <v>105.795918254957</v>
       </c>
       <c r="F22" t="n">
-        <v>140.4443971397104</v>
+        <v>117.2114762967857</v>
       </c>
       <c r="G22" t="n">
-        <v>160.6402203434986</v>
+        <v>90.18728190716259</v>
       </c>
       <c r="H22" t="n">
-        <v>183.3426221781918</v>
+        <v>109.5830747207871</v>
       </c>
     </row>
     <row r="23">
@@ -1021,25 +1021,25 @@
         <v>105</v>
       </c>
       <c r="B23" t="n">
-        <v>167.182764153006</v>
+        <v>25.2661099276378</v>
       </c>
       <c r="C23" t="n">
-        <v>157.5930046597356</v>
+        <v>104.6404245442633</v>
       </c>
       <c r="D23" t="n">
-        <v>39.34572039221115</v>
+        <v>101.1993716182623</v>
       </c>
       <c r="E23" t="n">
-        <v>172.8166617130809</v>
+        <v>106.6199541207569</v>
       </c>
       <c r="F23" t="n">
-        <v>141.8692473875807</v>
+        <v>117.4704191371671</v>
       </c>
       <c r="G23" t="n">
-        <v>162.2355947174188</v>
+        <v>91.10225874922446</v>
       </c>
       <c r="H23" t="n">
-        <v>183.7492056269013</v>
+        <v>110.8367830524727</v>
       </c>
     </row>
     <row r="24">
@@ -1047,25 +1047,25 @@
         <v>110</v>
       </c>
       <c r="B24" t="n">
-        <v>168.6788237485569</v>
+        <v>25.16932775513494</v>
       </c>
       <c r="C24" t="n">
-        <v>157.7493878808778</v>
+        <v>105.7955529316603</v>
       </c>
       <c r="D24" t="n">
-        <v>39.19500608323543</v>
+        <v>101.2997941195364</v>
       </c>
       <c r="E24" t="n">
-        <v>174.9062279934017</v>
+        <v>107.6728267597856</v>
       </c>
       <c r="F24" t="n">
-        <v>143.5851825785415</v>
+        <v>117.894632473873</v>
       </c>
       <c r="G24" t="n">
-        <v>164.1804720195845</v>
+        <v>92.20415767829064</v>
       </c>
       <c r="H24" t="n">
-        <v>184.3751585235036</v>
+        <v>112.2656729441127</v>
       </c>
     </row>
     <row r="25">
@@ -1073,25 +1073,25 @@
         <v>115</v>
       </c>
       <c r="B25" t="n">
-        <v>170.5395142615477</v>
+        <v>25.06455239048336</v>
       </c>
       <c r="C25" t="n">
-        <v>158.0346894367166</v>
+        <v>107.1743639564242</v>
       </c>
       <c r="D25" t="n">
-        <v>39.03184435341711</v>
+        <v>101.48300236685</v>
       </c>
       <c r="E25" t="n">
-        <v>177.303802313946</v>
+        <v>108.965053629454</v>
       </c>
       <c r="F25" t="n">
-        <v>145.6212380854191</v>
+        <v>118.525356496918</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4888096355471</v>
+        <v>93.51162394762669</v>
       </c>
       <c r="H25" t="n">
-        <v>185.2915861434678</v>
+        <v>113.8667065947605</v>
       </c>
     </row>
     <row r="26">
@@ -1099,25 +1099,25 @@
         <v>120</v>
       </c>
       <c r="B26" t="n">
-        <v>172.7868508542529</v>
+        <v>24.94910624156313</v>
       </c>
       <c r="C26" t="n">
-        <v>158.4684813688022</v>
+        <v>108.7906077460084</v>
       </c>
       <c r="D26" t="n">
-        <v>38.85206551493417</v>
+        <v>101.7615646738186</v>
       </c>
       <c r="E26" t="n">
-        <v>180.0062454495688</v>
+        <v>110.5071521871712</v>
       </c>
       <c r="F26" t="n">
-        <v>148.0064492810297</v>
+        <v>119.4038313963113</v>
       </c>
       <c r="G26" t="n">
-        <v>169.1745649508789</v>
+        <v>95.04330281049124</v>
       </c>
       <c r="H26" t="n">
-        <v>186.569593762257</v>
+        <v>115.6368462034694</v>
       </c>
     </row>
     <row r="27">
@@ -1125,25 +1125,25 @@
         <v>125</v>
       </c>
       <c r="B27" t="n">
-        <v>175.4428486889466</v>
+        <v>24.82031171625167</v>
       </c>
       <c r="C27" t="n">
-        <v>159.0703357187178</v>
+        <v>110.6580344278516</v>
       </c>
       <c r="D27" t="n">
-        <v>38.65149987996047</v>
+        <v>102.1480493540789</v>
       </c>
       <c r="E27" t="n">
-        <v>183.0104181751225</v>
+        <v>112.3096398903478</v>
       </c>
       <c r="F27" t="n">
-        <v>150.769851538203</v>
+        <v>120.5712973620618</v>
       </c>
       <c r="G27" t="n">
-        <v>172.2516953511398</v>
+        <v>96.81783952015191</v>
       </c>
       <c r="H27" t="n">
-        <v>188.280286655331</v>
+        <v>117.5730539692902</v>
       </c>
     </row>
     <row r="28">
@@ -1151,25 +1151,25 @@
         <v>130</v>
       </c>
       <c r="B28" t="n">
-        <v>178.5295229279063</v>
+        <v>24.67549122242831</v>
       </c>
       <c r="C28" t="n">
-        <v>159.8598245280158</v>
+        <v>112.7903941294107</v>
       </c>
       <c r="D28" t="n">
-        <v>38.42597776067281</v>
+        <v>102.6550247212478</v>
       </c>
       <c r="E28" t="n">
-        <v>186.3131812654607</v>
+        <v>114.3830341963946</v>
       </c>
       <c r="F28" t="n">
-        <v>153.9404802297445</v>
+        <v>122.0689945841851</v>
       </c>
       <c r="G28" t="n">
-        <v>175.7341582219075</v>
+        <v>98.85387932986065</v>
       </c>
       <c r="H28" t="n">
-        <v>190.4947700981636</v>
+        <v>119.6722920912743</v>
       </c>
     </row>
     <row r="29">
@@ -1177,25 +1177,25 @@
         <v>135</v>
       </c>
       <c r="B29" t="n">
-        <v>182.0688887334123</v>
+        <v>24.51196716797118</v>
       </c>
       <c r="C29" t="n">
-        <v>160.8565198382613</v>
+        <v>115.2014369781172</v>
       </c>
       <c r="D29" t="n">
-        <v>38.17132946924615</v>
+        <v>103.2950590889501</v>
       </c>
       <c r="E29" t="n">
-        <v>189.9113954954365</v>
+        <v>116.7378525627245</v>
       </c>
       <c r="F29" t="n">
-        <v>157.5473707284865</v>
+        <v>123.9381632526941</v>
       </c>
       <c r="G29" t="n">
-        <v>179.635910948725</v>
+        <v>101.1700674928866</v>
       </c>
       <c r="H29" t="n">
-        <v>193.2841493662224</v>
+        <v>121.9315227684744</v>
       </c>
     </row>
     <row r="30">
@@ -1203,25 +1203,25 @@
         <v>140</v>
       </c>
       <c r="B30" t="n">
-        <v>186.0829612677364</v>
+        <v>24.32706196076161</v>
       </c>
       <c r="C30" t="n">
-        <v>162.0799936910095</v>
+        <v>117.9049131014261</v>
       </c>
       <c r="D30" t="n">
-        <v>37.88338531786045</v>
+        <v>104.0807207708048</v>
       </c>
       <c r="E30" t="n">
-        <v>193.8019216399072</v>
+        <v>119.384612446744</v>
       </c>
       <c r="F30" t="n">
-        <v>161.6195584072346</v>
+        <v>126.220043557599</v>
       </c>
       <c r="G30" t="n">
-        <v>183.9709109171665</v>
+        <v>103.7850492624818</v>
       </c>
       <c r="H30" t="n">
-        <v>196.7195297349713</v>
+        <v>124.3477081999448</v>
       </c>
     </row>
     <row r="31">
@@ -1229,25 +1229,25 @@
         <v>145</v>
       </c>
       <c r="B31" t="n">
-        <v>190.5937556931518</v>
+        <v>24.11809800867591</v>
       </c>
       <c r="C31" t="n">
-        <v>163.549818127835</v>
+        <v>120.9145726267787</v>
       </c>
       <c r="D31" t="n">
-        <v>37.55797561868782</v>
+        <v>105.0245780804427</v>
       </c>
       <c r="E31" t="n">
-        <v>197.9816204737265</v>
+        <v>122.3338313058642</v>
       </c>
       <c r="F31" t="n">
-        <v>166.1860786388273</v>
+        <v>128.955875688908</v>
       </c>
       <c r="G31" t="n">
-        <v>188.7531155127966</v>
+        <v>106.7174698919194</v>
       </c>
       <c r="H31" t="n">
-        <v>200.8720164798688</v>
+        <v>126.9178105847367</v>
       </c>
     </row>
     <row r="32">
@@ -1255,25 +1255,25 @@
         <v>150</v>
       </c>
       <c r="B32" t="n">
-        <v>195.6239760568986</v>
+        <v>23.88329178244165</v>
       </c>
       <c r="C32" t="n">
-        <v>165.2815039422883</v>
+        <v>124.2434954043972</v>
       </c>
       <c r="D32" t="n">
-        <v>37.19232296577753</v>
+        <v>106.136591374696</v>
       </c>
       <c r="E32" t="n">
-        <v>202.4508723939912</v>
+        <v>125.5964794720366</v>
       </c>
       <c r="F32" t="n">
-        <v>171.2734257153834</v>
+        <v>132.1876123732322</v>
       </c>
       <c r="G32" t="n">
-        <v>193.9954832255934</v>
+        <v>109.9843428629823</v>
       </c>
       <c r="H32" t="n">
-        <v>205.8144480094036</v>
+        <v>129.6417652615729</v>
       </c>
     </row>
     <row r="33">
@@ -1281,25 +1281,25 @@
         <v>155</v>
       </c>
       <c r="B33" t="n">
-        <v>201.198767526851</v>
+        <v>23.62645674895763</v>
       </c>
       <c r="C33" t="n">
-        <v>167.2740040931115</v>
+        <v>127.9078533894329</v>
       </c>
       <c r="D33" t="n">
-        <v>36.79236589112979</v>
+        <v>107.4160882892194</v>
       </c>
       <c r="E33" t="n">
-        <v>207.2535732023296</v>
+        <v>129.1879241511367</v>
       </c>
       <c r="F33" t="n">
-        <v>176.8884449189437</v>
+        <v>135.9452939970054</v>
       </c>
       <c r="G33" t="n">
-        <v>199.7216816901929</v>
+        <v>113.5900639179979</v>
       </c>
       <c r="H33" t="n">
-        <v>211.597573420084</v>
+        <v>132.5504923448383</v>
       </c>
     </row>
     <row r="34">
@@ -1307,25 +1307,25 @@
         <v>160</v>
       </c>
       <c r="B34" t="n">
-        <v>207.3444547806682</v>
+        <v>23.35519300851252</v>
       </c>
       <c r="C34" t="n">
-        <v>169.5254819865868</v>
+        <v>131.9232353033316</v>
       </c>
       <c r="D34" t="n">
-        <v>36.36993967218804</v>
+        <v>108.8618894434271</v>
       </c>
       <c r="E34" t="n">
-        <v>212.4776075046833</v>
+        <v>133.1276886146464</v>
       </c>
       <c r="F34" t="n">
-        <v>183.0202917458319</v>
+        <v>140.2390846767717</v>
       </c>
       <c r="G34" t="n">
-        <v>205.9617586498928</v>
+        <v>117.5276691884878</v>
       </c>
       <c r="H34" t="n">
-        <v>218.2324932370899</v>
+        <v>135.7033455901238</v>
       </c>
     </row>
     <row r="35">
@@ -1333,25 +1333,25 @@
         <v>165</v>
       </c>
       <c r="B35" t="n">
-        <v>214.0880585361185</v>
+        <v>23.07761683825527</v>
       </c>
       <c r="C35" t="n">
-        <v>172.0351494217941</v>
+        <v>136.3034288839556</v>
       </c>
       <c r="D35" t="n">
-        <v>35.93768340425596</v>
+        <v>110.4734886889784</v>
       </c>
       <c r="E35" t="n">
-        <v>218.2146748616781</v>
+        <v>137.4359010106598</v>
       </c>
       <c r="F35" t="n">
-        <v>189.6560273067696</v>
+        <v>145.0779585273658</v>
       </c>
       <c r="G35" t="n">
-        <v>212.7434152047412</v>
+        <v>121.7888498826549</v>
       </c>
       <c r="H35" t="n">
-        <v>225.7278178196701</v>
+        <v>139.1621748073548</v>
       </c>
     </row>
     <row r="36">
@@ -1359,25 +1359,25 @@
         <v>170</v>
       </c>
       <c r="B36" t="n">
-        <v>221.4565995109851</v>
+        <v>22.80184451533751</v>
       </c>
       <c r="C36" t="n">
-        <v>174.802218197828</v>
+        <v>141.0622218691839</v>
       </c>
       <c r="D36" t="n">
-        <v>35.50823618264135</v>
+        <v>112.2503798775421</v>
       </c>
       <c r="E36" t="n">
-        <v>224.5564748339351</v>
+        <v>142.1326894872759</v>
       </c>
       <c r="F36" t="n">
-        <v>196.7827127124604</v>
+        <v>150.4708896636368</v>
       </c>
       <c r="G36" t="n">
-        <v>220.0943524548028</v>
+        <v>126.3652972086904</v>
       </c>
       <c r="H36" t="n">
-        <v>234.0921575271053</v>
+        <v>142.9888298064596</v>
       </c>
     </row>
     <row r="37">
@@ -1385,25 +1385,25 @@
         <v>175</v>
       </c>
       <c r="B37" t="n">
-        <v>229.477098423043</v>
+        <v>22.53599231690941</v>
       </c>
       <c r="C37" t="n">
-        <v>177.8259001137678</v>
+        <v>146.2134019968835</v>
       </c>
       <c r="D37" t="n">
-        <v>35.09423710264986</v>
+        <v>114.1920568607767</v>
       </c>
       <c r="E37" t="n">
-        <v>231.5947069820917</v>
+        <v>147.2381821925908</v>
       </c>
       <c r="F37" t="n">
-        <v>204.3874090736218</v>
+        <v>156.426852200428</v>
       </c>
       <c r="G37" t="n">
-        <v>228.0422715001274</v>
+        <v>131.2487023747945</v>
       </c>
       <c r="H37" t="n">
-        <v>243.3341227186493</v>
+        <v>147.245160397363</v>
       </c>
     </row>
     <row r="38">
@@ -1411,25 +1411,25 @@
         <v>180</v>
       </c>
       <c r="B38" t="n">
-        <v>238.1765759900786</v>
+        <v>22.28817652012296</v>
       </c>
       <c r="C38" t="n">
-        <v>181.1054069687092</v>
+        <v>151.7707570049228</v>
       </c>
       <c r="D38" t="n">
-        <v>34.70832525958976</v>
+        <v>116.298013490352</v>
       </c>
       <c r="E38" t="n">
-        <v>239.4210708667812</v>
+        <v>152.7725072747053</v>
       </c>
       <c r="F38" t="n">
-        <v>212.4571775009265</v>
+        <v>162.9548202525869</v>
       </c>
       <c r="G38" t="n">
-        <v>236.6148734407633</v>
+        <v>136.4307565891386</v>
       </c>
       <c r="H38" t="n">
-        <v>253.4623237535779</v>
+        <v>151.9930163900012</v>
       </c>
     </row>
     <row r="39">
@@ -1437,25 +1437,25 @@
         <v>185</v>
       </c>
       <c r="B39" t="n">
-        <v>247.5820529298518</v>
+        <v>22.06651340212785</v>
       </c>
       <c r="C39" t="n">
-        <v>184.6399505617303</v>
+        <v>157.7480746311716</v>
       </c>
       <c r="D39" t="n">
-        <v>34.36313974876603</v>
+        <v>118.5677436179258</v>
       </c>
       <c r="E39" t="n">
-        <v>248.127266048631</v>
+        <v>158.7557928817087</v>
       </c>
       <c r="F39" t="n">
-        <v>220.9790791051253</v>
+        <v>170.0637679349455</v>
       </c>
       <c r="G39" t="n">
-        <v>245.8398593767712</v>
+        <v>141.9031510599442</v>
       </c>
       <c r="H39" t="n">
-        <v>264.4853709911371</v>
+        <v>157.2942475943018</v>
       </c>
     </row>
     <row r="40">
@@ -1463,25 +1463,25 @@
         <v>190</v>
       </c>
       <c r="B40" t="n">
-        <v>257.7205499601481</v>
+        <v>21.87911924007451</v>
       </c>
       <c r="C40" t="n">
-        <v>188.4287426919244</v>
+        <v>164.1591426134993</v>
       </c>
       <c r="D40" t="n">
-        <v>34.07131966548451</v>
+        <v>121.0007410951662</v>
       </c>
       <c r="E40" t="n">
-        <v>257.8049920882661</v>
+        <v>165.2081671617008</v>
       </c>
       <c r="F40" t="n">
-        <v>229.940174996913</v>
+        <v>177.7626693623601</v>
       </c>
       <c r="G40" t="n">
-        <v>255.7449304082006</v>
+        <v>147.657576995397</v>
       </c>
       <c r="H40" t="n">
-        <v>276.4118747906131</v>
+        <v>163.2107038201906</v>
       </c>
     </row>
     <row r="41">
@@ -1489,25 +1489,25 @@
         <v>195</v>
       </c>
       <c r="B41" t="n">
-        <v>268.619087798744</v>
+        <v>21.73411031111423</v>
       </c>
       <c r="C41" t="n">
-        <v>192.4709951583797</v>
+        <v>171.0177486897735</v>
       </c>
       <c r="D41" t="n">
-        <v>33.84550410505253</v>
+        <v>123.5964997737375</v>
       </c>
       <c r="E41" t="n">
-        <v>268.5459485463148</v>
+        <v>172.1497582627792</v>
       </c>
       <c r="F41" t="n">
-        <v>239.3275262870026</v>
+        <v>186.060498649663</v>
       </c>
       <c r="G41" t="n">
-        <v>266.3577876351029</v>
+        <v>153.6857256036941</v>
       </c>
       <c r="H41" t="n">
-        <v>289.250445511247</v>
+        <v>169.8042348775904</v>
       </c>
     </row>
     <row r="42">
@@ -1515,25 +1515,25 @@
         <v>200</v>
       </c>
       <c r="B42" t="n">
-        <v>280.3046871634241</v>
+        <v>21.63960289239846</v>
       </c>
       <c r="C42" t="n">
-        <v>196.7659197601879</v>
+        <v>178.3376805978667</v>
       </c>
       <c r="D42" t="n">
-        <v>33.69833216277769</v>
+        <v>126.3545135053067</v>
       </c>
       <c r="E42" t="n">
-        <v>280.4418349834135</v>
+        <v>179.6006943330425</v>
       </c>
       <c r="F42" t="n">
-        <v>249.12819408608</v>
+        <v>194.9662299117047</v>
       </c>
       <c r="G42" t="n">
-        <v>277.70613215753</v>
+        <v>159.9792880930155</v>
       </c>
       <c r="H42" t="n">
-        <v>303.0096935123232</v>
+        <v>177.136690576444</v>
       </c>
     </row>
     <row r="43">
@@ -1541,25 +1541,25 @@
         <v>205</v>
       </c>
       <c r="B43" t="n">
-        <v>292.8043687719468</v>
+        <v>21.60371326107692</v>
       </c>
       <c r="C43" t="n">
-        <v>201.3127282964211</v>
+        <v>186.1327260756425</v>
       </c>
       <c r="D43" t="n">
-        <v>33.64244293396482</v>
+        <v>129.274276141528</v>
       </c>
       <c r="E43" t="n">
-        <v>293.5843509601904</v>
+        <v>187.5811035205804</v>
       </c>
       <c r="F43" t="n">
-        <v>259.3292395048749</v>
+        <v>204.4888372633138</v>
       </c>
       <c r="G43" t="n">
-        <v>289.8176650755368</v>
+        <v>166.5299556715692</v>
       </c>
       <c r="H43" t="n">
-        <v>317.6982291530771</v>
+        <v>185.269920726674</v>
       </c>
     </row>
     <row r="44">
@@ -1567,25 +1567,25 @@
         <v>210</v>
       </c>
       <c r="B44" t="n">
-        <v>306.1419524730968</v>
+        <v>21.63312539780812</v>
       </c>
       <c r="C44" t="n">
-        <v>206.1148945459724</v>
+        <v>194.4152338689259</v>
       </c>
       <c r="D44" t="n">
-        <v>33.68824506619954</v>
+        <v>132.3580183920824</v>
       </c>
       <c r="E44" t="n">
-        <v>308.0545556798036</v>
+        <v>196.1090939918496</v>
       </c>
       <c r="F44" t="n">
-        <v>269.9191036720841</v>
+        <v>214.6327468018454</v>
       </c>
       <c r="G44" t="n">
-        <v>302.7180347881033</v>
+        <v>173.3303057350651</v>
       </c>
       <c r="H44" t="n">
-        <v>333.3178566245297</v>
+        <v>194.2590103667571</v>
       </c>
     </row>
     <row r="45">
@@ -1593,25 +1593,25 @@
         <v>215</v>
       </c>
       <c r="B45" t="n">
-        <v>320.3152836726207</v>
+        <v>21.72516116027577</v>
       </c>
       <c r="C45" t="n">
-        <v>211.1907512030036</v>
+        <v>203.1816399682937</v>
       </c>
       <c r="D45" t="n">
-        <v>33.83156801486508</v>
+        <v>135.6175127156091</v>
       </c>
       <c r="E45" t="n">
-        <v>323.8381230224667</v>
+        <v>205.1844337106818</v>
       </c>
       <c r="F45" t="n">
-        <v>280.8964905622742</v>
+        <v>225.380996546511</v>
       </c>
       <c r="G45" t="n">
-        <v>316.4044038818295</v>
+        <v>180.3795060323523</v>
       </c>
       <c r="H45" t="n">
-        <v>349.8443011165995</v>
+        <v>204.0981625183799</v>
       </c>
     </row>
     <row r="46">
@@ -1619,25 +1619,25 @@
         <v>220</v>
       </c>
       <c r="B46" t="n">
-        <v>335.3069331028239</v>
+        <v>21.86975043989016</v>
       </c>
       <c r="C46" t="n">
-        <v>216.5559760676102</v>
+        <v>212.4251469163926</v>
       </c>
       <c r="D46" t="n">
-        <v>34.05673007517876</v>
+        <v>139.0628267132778</v>
       </c>
       <c r="E46" t="n">
-        <v>340.8525893049477</v>
+        <v>214.7950178627262</v>
       </c>
       <c r="F46" t="n">
-        <v>292.2755290576825</v>
+        <v>236.7114974577017</v>
       </c>
       <c r="G46" t="n">
-        <v>330.8630225568253</v>
+        <v>187.6866295169365</v>
       </c>
       <c r="H46" t="n">
-        <v>367.253600574211</v>
+        <v>214.7384122449607</v>
       </c>
     </row>
     <row r="47">
@@ -1645,25 +1645,25 @@
         <v>225</v>
       </c>
       <c r="B47" t="n">
-        <v>351.098465464446</v>
+        <v>22.05585470351283</v>
       </c>
       <c r="C47" t="n">
-        <v>222.2252137156815</v>
+        <v>222.1412428263707</v>
       </c>
       <c r="D47" t="n">
-        <v>34.34654146051933</v>
+        <v>142.7033644946225</v>
       </c>
       <c r="E47" t="n">
-        <v>359.0118961269165</v>
+        <v>224.9280071333328</v>
       </c>
       <c r="F47" t="n">
-        <v>304.0721942006947</v>
+        <v>248.6021988351972</v>
       </c>
       <c r="G47" t="n">
-        <v>346.08325366804</v>
+        <v>195.2619346660545</v>
       </c>
       <c r="H47" t="n">
-        <v>385.5222841636338</v>
+        <v>226.128438061258</v>
       </c>
     </row>
     <row r="48">
@@ -1671,25 +1671,25 @@
         <v>230</v>
       </c>
       <c r="B48" t="n">
-        <v>367.6714454582599</v>
+        <v>22.27243541800759</v>
       </c>
       <c r="C48" t="n">
-        <v>228.2131087231214</v>
+        <v>232.3254158113657</v>
       </c>
       <c r="D48" t="n">
-        <v>34.68381238426902</v>
+        <v>146.5485301691868</v>
       </c>
       <c r="E48" t="n">
-        <v>378.2299850880241</v>
+        <v>235.5705622078601</v>
       </c>
       <c r="F48" t="n">
-        <v>316.3024610336535</v>
+        <v>261.0310499788083</v>
       </c>
       <c r="G48" t="n">
-        <v>362.0544600703844</v>
+        <v>203.1156799569159</v>
       </c>
       <c r="H48" t="n">
-        <v>404.626881051187</v>
+        <v>238.2169184820183</v>
       </c>
     </row>
     <row r="49">
@@ -1697,25 +1697,25 @@
         <v>235</v>
       </c>
       <c r="B49" t="n">
-        <v>385.0074377850256</v>
+        <v>22.50845405023844</v>
       </c>
       <c r="C49" t="n">
-        <v>234.5343056658339</v>
+        <v>242.9731539845177</v>
       </c>
       <c r="D49" t="n">
-        <v>35.05135305981043</v>
+        <v>150.6077278465138</v>
       </c>
       <c r="E49" t="n">
-        <v>398.4207977879299</v>
+        <v>246.709843771665</v>
       </c>
       <c r="F49" t="n">
-        <v>328.9823045989187</v>
+        <v>273.9760001883178</v>
       </c>
       <c r="G49" t="n">
-        <v>378.7660046187808</v>
+        <v>211.2581238667411</v>
       </c>
       <c r="H49" t="n">
-        <v>424.5439204031435</v>
+        <v>250.9525320219905</v>
       </c>
     </row>
     <row r="50">
@@ -1723,25 +1723,25 @@
         <v>240</v>
       </c>
       <c r="B50" t="n">
-        <v>403.0880071455184</v>
+        <v>22.75287206706658</v>
       </c>
       <c r="C50" t="n">
-        <v>241.2034491196989</v>
+        <v>254.0799454589954</v>
       </c>
       <c r="D50" t="n">
-        <v>35.43197370052173</v>
+        <v>154.8903616361317</v>
       </c>
       <c r="E50" t="n">
-        <v>419.498275826309</v>
+        <v>258.3330125101065</v>
       </c>
       <c r="F50" t="n">
-        <v>342.1276999388297</v>
+        <v>287.4149987635212</v>
       </c>
       <c r="G50" t="n">
-        <v>396.207250168183</v>
+        <v>219.699524872737</v>
       </c>
       <c r="H50" t="n">
-        <v>445.2499313858094</v>
+        <v>264.2839571959518</v>
       </c>
     </row>
     <row r="51">
@@ -1749,25 +1749,25 @@
         <v>245</v>
       </c>
       <c r="B51" t="n">
-        <v>421.8947182404786</v>
+        <v>22.99465093535449</v>
       </c>
       <c r="C51" t="n">
-        <v>248.2351836606236</v>
+        <v>265.6412783479348</v>
       </c>
       <c r="D51" t="n">
-        <v>35.80848451978301</v>
+        <v>159.4058356475858</v>
       </c>
       <c r="E51" t="n">
-        <v>441.3763608028132</v>
+        <v>270.4272291085363</v>
       </c>
       <c r="F51" t="n">
-        <v>355.7546220957605</v>
+        <v>301.3259950041943</v>
       </c>
       <c r="G51" t="n">
-        <v>414.3675595735272</v>
+        <v>228.4501414521334</v>
       </c>
       <c r="H51" t="n">
-        <v>466.7214431654484</v>
+        <v>278.1598725186479</v>
       </c>
     </row>
     <row r="52">
@@ -1775,25 +1775,25 @@
         <v>250</v>
       </c>
       <c r="B52" t="n">
-        <v>441.4091357706825</v>
+        <v>23.22275212196532</v>
       </c>
       <c r="C52" t="n">
-        <v>255.644153864507</v>
+        <v>277.6526407644823</v>
       </c>
       <c r="D52" t="n">
-        <v>36.1636957309756</v>
+        <v>164.1635539904165</v>
       </c>
       <c r="E52" t="n">
-        <v>463.9689943170888</v>
+        <v>282.9796542523145</v>
       </c>
       <c r="F52" t="n">
-        <v>369.8790461120554</v>
+        <v>315.6869382101418</v>
       </c>
       <c r="G52" t="n">
-        <v>433.236295689735</v>
+        <v>237.5202320821406</v>
       </c>
       <c r="H52" t="n">
-        <v>488.9349849083806</v>
+        <v>292.528956504832</v>
       </c>
     </row>
     <row r="53">
@@ -1801,25 +1801,25 @@
         <v>255</v>
       </c>
       <c r="B53" t="n">
-        <v>461.6128244368836</v>
+        <v>23.42613709376179</v>
       </c>
       <c r="C53" t="n">
-        <v>263.4450043072451</v>
+        <v>290.1095208217814</v>
       </c>
       <c r="D53" t="n">
-        <v>36.48041754748003</v>
+        <v>169.172920774162</v>
       </c>
       <c r="E53" t="n">
-        <v>487.1901179688286</v>
+        <v>295.9774486267939</v>
       </c>
       <c r="F53" t="n">
-        <v>384.5169470300838</v>
+        <v>330.4757776811778</v>
       </c>
       <c r="G53" t="n">
-        <v>452.8028213717332</v>
+        <v>246.920055239985</v>
       </c>
       <c r="H53" t="n">
-        <v>511.8670857809063</v>
+        <v>307.3398876692539</v>
       </c>
     </row>
     <row r="54">
@@ -1827,25 +1827,25 @@
         <v>260</v>
       </c>
       <c r="B54" t="n">
-        <v>482.4873489398706</v>
+        <v>23.59376731760571</v>
       </c>
       <c r="C54" t="n">
-        <v>271.6523795647263</v>
+        <v>303.0074066329994</v>
       </c>
       <c r="D54" t="n">
-        <v>36.7414601826754</v>
+        <v>174.4433401083559</v>
       </c>
       <c r="E54" t="n">
-        <v>510.9536733576757</v>
+        <v>309.4077729173409</v>
       </c>
       <c r="F54" t="n">
-        <v>399.6842998921627</v>
+        <v>345.670462717079</v>
       </c>
       <c r="G54" t="n">
-        <v>473.0564994744725</v>
+        <v>256.6598694028594</v>
       </c>
       <c r="H54" t="n">
-        <v>535.4942749493155</v>
+        <v>322.5413445266817</v>
       </c>
     </row>
     <row r="55">
@@ -1853,25 +1853,25 @@
         <v>265</v>
       </c>
       <c r="B55" t="n">
-        <v>504.0142739803707</v>
+        <v>23.71460426035966</v>
       </c>
       <c r="C55" t="n">
-        <v>280.280924212854</v>
+        <v>316.3417863112805</v>
       </c>
       <c r="D55" t="n">
-        <v>36.92963384994209</v>
+        <v>179.9842161025411</v>
       </c>
       <c r="E55" t="n">
-        <v>535.1736020833026</v>
+        <v>323.2577878093009</v>
       </c>
       <c r="F55" t="n">
-        <v>415.3970797406892</v>
+        <v>361.2489426176244</v>
       </c>
       <c r="G55" t="n">
-        <v>493.986692852904</v>
+        <v>266.7499330480084</v>
       </c>
       <c r="H55" t="n">
-        <v>559.7930815798748</v>
+        <v>338.0820055918734</v>
       </c>
     </row>
     <row r="56">
@@ -1879,25 +1879,25 @@
         <v>270</v>
       </c>
       <c r="B56" t="n">
-        <v>526.1749711438518</v>
+        <v>23.77992910874428</v>
       </c>
       <c r="C56" t="n">
-        <v>289.3385387320531</v>
+        <v>330.1043079331623</v>
       </c>
       <c r="D56" t="n">
-        <v>37.03136115290111</v>
+        <v>185.8006221015415</v>
       </c>
       <c r="E56" t="n">
-        <v>559.7716973750306</v>
+        <v>337.514165299023</v>
       </c>
       <c r="F56" t="n">
-        <v>431.6680749311079</v>
+        <v>377.1931381118167</v>
       </c>
       <c r="G56" t="n">
-        <v>515.5761023438931</v>
+        <v>277.1984583009497</v>
       </c>
       <c r="H56" t="n">
-        <v>584.7457345557383</v>
+        <v>353.9151868923952</v>
       </c>
     </row>
     <row r="57">
@@ -1905,25 +1905,25 @@
         <v>275</v>
       </c>
       <c r="B57" t="n">
-        <v>548.9284208689011</v>
+        <v>23.79547054736647</v>
       </c>
       <c r="C57" t="n">
-        <v>298.7907328488931</v>
+        <v>344.2464709047307</v>
       </c>
       <c r="D57" t="n">
-        <v>37.05556310168833</v>
+        <v>191.8704099522357</v>
       </c>
       <c r="E57" t="n">
-        <v>584.7155342516988</v>
+        <v>352.1479651316797</v>
       </c>
       <c r="F57" t="n">
-        <v>448.463992534052</v>
+        <v>393.4944905055525</v>
       </c>
       <c r="G57" t="n">
-        <v>537.744683753573</v>
+        <v>287.9840658908297</v>
       </c>
       <c r="H57" t="n">
-        <v>610.3390620755454</v>
+        <v>370.0179602703606</v>
       </c>
     </row>
     <row r="58">
@@ -1931,25 +1931,25 @@
         <v>280</v>
       </c>
       <c r="B58" t="n">
-        <v>572.1847497223039</v>
+        <v>23.77504665764571</v>
       </c>
       <c r="C58" t="n">
-        <v>308.5742511798566</v>
+        <v>358.6767916844045</v>
       </c>
       <c r="D58" t="n">
-        <v>37.02375794226428</v>
+        <v>198.15295979921</v>
       </c>
       <c r="E58" t="n">
-        <v>609.9648052465391</v>
+        <v>367.0992513946724</v>
       </c>
       <c r="F58" t="n">
-        <v>465.6991273036974</v>
+        <v>410.1260853012732</v>
       </c>
       <c r="G58" t="n">
-        <v>560.3491580936221</v>
+        <v>299.0517196373276</v>
       </c>
       <c r="H58" t="n">
-        <v>636.5179820375735</v>
+        <v>386.353981006395</v>
       </c>
     </row>
     <row r="59">
@@ -1957,25 +1957,25 @@
         <v>285</v>
       </c>
       <c r="B59" t="n">
-        <v>595.8477215033085</v>
+        <v>23.73311092420616</v>
       </c>
       <c r="C59" t="n">
-        <v>318.6232723241733</v>
+        <v>373.2979176051132</v>
       </c>
       <c r="D59" t="n">
-        <v>36.95845340400807</v>
+        <v>204.6060040024044</v>
       </c>
       <c r="E59" t="n">
-        <v>635.4722143659936</v>
+        <v>382.3040955939202</v>
       </c>
       <c r="F59" t="n">
-        <v>483.2835753042525</v>
+        <v>427.0572827127568</v>
       </c>
       <c r="G59" t="n">
-        <v>583.2376255567241</v>
+        <v>310.3436871440862</v>
       </c>
       <c r="H59" t="n">
-        <v>663.220354631873</v>
+        <v>402.8813268103604</v>
       </c>
     </row>
     <row r="60">
@@ -1983,25 +1983,25 @@
         <v>290</v>
       </c>
       <c r="B60" t="n">
-        <v>619.8211000112269</v>
+        <v>23.6841168316691</v>
       </c>
       <c r="C60" t="n">
-        <v>328.8719748810651</v>
+        <v>388.0124959998196</v>
       </c>
       <c r="D60" t="n">
-        <v>36.8821572162944</v>
+        <v>211.1872749217532</v>
       </c>
       <c r="E60" t="n">
-        <v>661.1904656165023</v>
+        <v>397.6985692353627</v>
       </c>
       <c r="F60" t="n">
-        <v>501.1274325998454</v>
+        <v>444.2574429538226</v>
       </c>
       <c r="G60" t="n">
-        <v>606.258186335572</v>
+        <v>321.8022360146967</v>
       </c>
       <c r="H60" t="n">
-        <v>690.3840400485864</v>
+        <v>419.5580753921386</v>
       </c>
     </row>
     <row r="61">
@@ -2009,25 +2009,25 @@
         <v>295</v>
       </c>
       <c r="B61" t="n">
-        <v>644.0086490453289</v>
+        <v>23.64251786465922</v>
       </c>
       <c r="C61" t="n">
-        <v>339.2545374497366</v>
+        <v>402.7231742014731</v>
       </c>
       <c r="D61" t="n">
-        <v>36.81737710850324</v>
+        <v>217.8545049171802</v>
       </c>
       <c r="E61" t="n">
-        <v>687.0722630045404</v>
+        <v>413.218743824924</v>
       </c>
       <c r="F61" t="n">
-        <v>519.1407952546646</v>
+        <v>461.6959262382796</v>
       </c>
       <c r="G61" t="n">
-        <v>629.2589406228543</v>
+        <v>333.3696338527896</v>
       </c>
       <c r="H61" t="n">
-        <v>717.9468984777965</v>
+        <v>436.3423044615968</v>
       </c>
     </row>
     <row r="62">
@@ -2035,25 +2035,25 @@
         <v>300</v>
       </c>
       <c r="B62" t="n">
-        <v>668.3141324049196</v>
+        <v>23.6227675077985</v>
       </c>
       <c r="C62" t="n">
-        <v>349.7051386294042</v>
+        <v>417.3325995430097</v>
       </c>
       <c r="D62" t="n">
-        <v>36.78662081001034</v>
+        <v>224.5654263486163</v>
       </c>
       <c r="E62" t="n">
-        <v>713.0703105365236</v>
+        <v>428.8006908685404</v>
       </c>
       <c r="F62" t="n">
-        <v>537.2337593327769</v>
+        <v>479.3420927799194</v>
       </c>
       <c r="G62" t="n">
-        <v>652.0879886112251</v>
+        <v>344.9881482619166</v>
       </c>
       <c r="H62" t="n">
-        <v>745.8467901096204</v>
+        <v>453.1920917286199</v>
       </c>
     </row>
     <row r="63">
@@ -2061,25 +2061,25 @@
         <v>305</v>
       </c>
       <c r="B63" t="n">
-        <v>692.6413138892367</v>
+        <v>23.63931924571143</v>
       </c>
       <c r="C63" t="n">
-        <v>360.1579570192946</v>
+        <v>431.7434193573798</v>
       </c>
       <c r="D63" t="n">
-        <v>36.81239605019545</v>
+        <v>231.2777715759994</v>
       </c>
       <c r="E63" t="n">
-        <v>739.1373122188993</v>
+        <v>444.3804818721237</v>
       </c>
       <c r="F63" t="n">
-        <v>555.3164208984389</v>
+        <v>497.1653027925244</v>
       </c>
       <c r="G63" t="n">
-        <v>674.5934304933982</v>
+        <v>356.6000468457517</v>
       </c>
       <c r="H63" t="n">
-        <v>774.0215751341121</v>
+        <v>470.065514903069</v>
       </c>
     </row>
     <row r="64">
@@ -2087,25 +2087,25 @@
         <v>310</v>
       </c>
       <c r="B64" t="n">
-        <v>716.8939572975949</v>
+        <v>23.70662656301836</v>
       </c>
       <c r="C64" t="n">
-        <v>370.5471712186203</v>
+        <v>445.8582809775335</v>
       </c>
       <c r="D64" t="n">
-        <v>36.91721055843168</v>
+        <v>237.9492729592578</v>
       </c>
       <c r="E64" t="n">
-        <v>765.2259720581245</v>
+        <v>459.894188341616</v>
       </c>
       <c r="F64" t="n">
-        <v>573.2988760157585</v>
+        <v>515.1349164899208</v>
       </c>
       <c r="G64" t="n">
-        <v>696.623366462049</v>
+        <v>368.1475972078732</v>
       </c>
       <c r="H64" t="n">
-        <v>802.4091137414208</v>
+        <v>486.9206516948345</v>
       </c>
     </row>
     <row r="65">
@@ -2113,25 +2113,25 @@
         <v>315</v>
       </c>
       <c r="B65" t="n">
-        <v>740.9758264292711</v>
+        <v>23.83914294434441</v>
       </c>
       <c r="C65" t="n">
-        <v>380.8069598266102</v>
+        <v>459.5798317364163</v>
       </c>
       <c r="D65" t="n">
-        <v>37.12357206409978</v>
+        <v>244.5376628583311</v>
       </c>
       <c r="E65" t="n">
-        <v>791.2889940606469</v>
+        <v>475.2778817829458</v>
       </c>
       <c r="F65" t="n">
-        <v>591.0912207489201</v>
+        <v>533.2202940858915</v>
       </c>
       <c r="G65" t="n">
-        <v>718.0258967098594</v>
+        <v>379.5730669519089</v>
       </c>
       <c r="H65" t="n">
-        <v>830.9472661215984</v>
+        <v>503.715579813777</v>
       </c>
     </row>
     <row r="66">
@@ -2139,25 +2139,25 @@
         <v>320</v>
       </c>
       <c r="B66" t="n">
-        <v>764.790685083552</v>
+        <v>24.0513218743116</v>
       </c>
       <c r="C66" t="n">
-        <v>390.8715014424724</v>
+        <v>472.8107189669666</v>
       </c>
       <c r="D66" t="n">
-        <v>37.45398829657546</v>
+        <v>251.0006736331445</v>
       </c>
       <c r="E66" t="n">
-        <v>817.2790822329059</v>
+        <v>490.4676337020377</v>
       </c>
       <c r="F66" t="n">
-        <v>608.6035511620149</v>
+        <v>551.3907957942406</v>
       </c>
       <c r="G66" t="n">
-        <v>738.6491214294895</v>
+        <v>390.8187236814258</v>
       </c>
       <c r="H66" t="n">
-        <v>859.5738924647779</v>
+        <v>520.4083769697926</v>
       </c>
     </row>
     <row r="67">
@@ -2165,25 +2165,25 @@
         <v>325</v>
       </c>
       <c r="B67" t="n">
-        <v>788.2422970596878</v>
+        <v>24.35761683754347</v>
       </c>
       <c r="C67" t="n">
-        <v>400.6749746654228</v>
+        <v>485.4535900021204</v>
       </c>
       <c r="D67" t="n">
-        <v>37.93096698523705</v>
+        <v>257.2960376436292</v>
       </c>
       <c r="E67" t="n">
-        <v>843.1489405813293</v>
+        <v>505.3995156048109</v>
       </c>
       <c r="F67" t="n">
-        <v>625.7459633192523</v>
+        <v>569.6157818287505</v>
       </c>
       <c r="G67" t="n">
-        <v>758.3411408136272</v>
+        <v>401.826835000068</v>
       </c>
       <c r="H67" t="n">
-        <v>888.2268529610095</v>
+        <v>536.957120872725</v>
       </c>
     </row>
     <row r="68">
@@ -2191,25 +2191,25 @@
         <v>330</v>
       </c>
       <c r="B68" t="n">
-        <v>811.2331859237388</v>
+        <v>24.76932046899208</v>
       </c>
       <c r="C68" t="n">
-        <v>410.1591820104682</v>
+        <v>497.4163195256893</v>
       </c>
       <c r="D68" t="n">
-        <v>38.57209361746611</v>
+        <v>263.3863829967636</v>
       </c>
       <c r="E68" t="n">
-        <v>868.8387642407437</v>
+        <v>520.0092368996977</v>
       </c>
       <c r="F68" t="n">
-        <v>642.4298338926611</v>
+        <v>587.8571710025899</v>
       </c>
       <c r="G68" t="n">
-        <v>776.9588827554275</v>
+        <v>412.5404908621089</v>
       </c>
       <c r="H68" t="n">
-        <v>916.8330379425552</v>
+        <v>553.3125537951069</v>
       </c>
     </row>
     <row r="69">
@@ -2217,25 +2217,25 @@
         <v>335</v>
       </c>
       <c r="B69" t="n">
-        <v>833.6484320446144</v>
+        <v>25.27751248473872</v>
       </c>
       <c r="C69" t="n">
-        <v>419.3258610185222</v>
+        <v>508.6640881357686</v>
       </c>
       <c r="D69" t="n">
-        <v>39.3634770561667</v>
+        <v>269.2728254657317</v>
       </c>
       <c r="E69" t="n">
-        <v>894.2011461537253</v>
+        <v>534.2249504160172</v>
       </c>
       <c r="F69" t="n">
-        <v>658.5907302656649</v>
+        <v>606.0136246419255</v>
       </c>
       <c r="G69" t="n">
-        <v>794.4480426253923</v>
+        <v>422.9183154442787</v>
       </c>
       <c r="H69" t="n">
-        <v>945.2334813982728</v>
+        <v>569.3797667910122</v>
       </c>
     </row>
     <row r="70">
@@ -2243,25 +2243,25 @@
         <v>340</v>
       </c>
       <c r="B70" t="n">
-        <v>855.3772170646055</v>
+        <v>25.86317769582299</v>
       </c>
       <c r="C70" t="n">
-        <v>428.2302773953508</v>
+        <v>519.2134042495143</v>
       </c>
       <c r="D70" t="n">
-        <v>40.27550584511614</v>
+        <v>274.9908542824807</v>
       </c>
       <c r="E70" t="n">
-        <v>919.0744628101894</v>
+        <v>547.9810602575993</v>
       </c>
       <c r="F70" t="n">
-        <v>674.1919013218446</v>
+        <v>623.9446604182714</v>
       </c>
       <c r="G70" t="n">
-        <v>810.8301055317094</v>
+        <v>432.9367087784456</v>
       </c>
       <c r="H70" t="n">
-        <v>973.2215088203955</v>
+        <v>585.065804623536</v>
       </c>
     </row>
     <row r="71">
@@ -2269,25 +2269,25 @@
         <v>345</v>
       </c>
       <c r="B71" t="n">
-        <v>876.3129650242857</v>
+        <v>26.50686515484992</v>
       </c>
       <c r="C71" t="n">
-        <v>436.9335579476597</v>
+        <v>529.0860639290461</v>
       </c>
       <c r="D71" t="n">
-        <v>41.27788994204998</v>
+        <v>280.5797224229972</v>
       </c>
       <c r="E71" t="n">
-        <v>943.3047894859942</v>
+        <v>561.2150339851761</v>
       </c>
       <c r="F71" t="n">
-        <v>689.1975366377627</v>
+        <v>641.5099303978918</v>
       </c>
       <c r="G71" t="n">
-        <v>826.1343120377388</v>
+        <v>442.5726749685849</v>
       </c>
       <c r="H71" t="n">
-        <v>1000.591719406338</v>
+        <v>600.2836551645582</v>
       </c>
     </row>
     <row r="72">
@@ -2295,25 +2295,25 @@
         <v>350</v>
       </c>
       <c r="B72" t="n">
-        <v>896.3490999642841</v>
+        <v>27.189123914426</v>
       </c>
       <c r="C72" t="n">
-        <v>445.4968294821691</v>
+        <v>538.3038632364568</v>
       </c>
       <c r="D72" t="n">
-        <v>42.34033930470607</v>
+        <v>286.0786828632784</v>
       </c>
       <c r="E72" t="n">
-        <v>966.7382014570023</v>
+        <v>573.8643391594997</v>
       </c>
       <c r="F72" t="n">
-        <v>703.5718257899288</v>
+        <v>658.5690866470654</v>
       </c>
       <c r="G72" t="n">
-        <v>840.3899027067779</v>
+        <v>451.8032181186396</v>
       </c>
       <c r="H72" t="n">
-        <v>1027.138712353566</v>
+        <v>614.9463062859894</v>
       </c>
     </row>
     <row r="73">
@@ -2321,25 +2321,25 @@
         <v>355</v>
       </c>
       <c r="B73" t="n">
-        <v>915.3790459252001</v>
+        <v>27.89050302716003</v>
       </c>
       <c r="C73" t="n">
-        <v>453.9812188056142</v>
+        <v>546.8885982338516</v>
       </c>
       <c r="D73" t="n">
-        <v>43.43256389082581</v>
+        <v>291.5269885793297</v>
       </c>
       <c r="E73" t="n">
-        <v>989.2207739990614</v>
+        <v>585.8664433413128</v>
       </c>
       <c r="F73" t="n">
-        <v>717.2789583548468</v>
+        <v>674.9817812320457</v>
       </c>
       <c r="G73" t="n">
-        <v>853.6261181021503</v>
+        <v>460.6053423325471</v>
       </c>
       <c r="H73" t="n">
-        <v>1052.657086859484</v>
+        <v>628.9667458597085</v>
       </c>
     </row>
     <row r="74">
@@ -2347,25 +2347,25 @@
         <v>360</v>
       </c>
       <c r="B74" t="n">
-        <v>933.2962269476551</v>
+        <v>28.59155154565791</v>
       </c>
       <c r="C74" t="n">
-        <v>462.4478527247053</v>
+        <v>554.8620649833327</v>
       </c>
       <c r="D74" t="n">
-        <v>44.52427365814614</v>
+        <v>296.9638925471413</v>
       </c>
       <c r="E74" t="n">
-        <v>1010.598582388046</v>
+        <v>597.1588140913649</v>
       </c>
       <c r="F74" t="n">
-        <v>730.2831239090111</v>
+        <v>690.607666219096</v>
       </c>
       <c r="G74" t="n">
-        <v>865.8721987871718</v>
+        <v>468.9560517142403</v>
       </c>
       <c r="H74" t="n">
-        <v>1076.941442121544</v>
+        <v>642.2579617576473</v>
       </c>
     </row>
     <row r="75">
@@ -2373,25 +2373,25 @@
         <v>365</v>
       </c>
       <c r="B75" t="n">
-        <v>949.994067072233</v>
+        <v>29.27281852252437</v>
       </c>
       <c r="C75" t="n">
-        <v>470.9578580461452</v>
+        <v>562.2460595470039</v>
       </c>
       <c r="D75" t="n">
-        <v>45.58517856440216</v>
+        <v>302.4286477426988</v>
       </c>
       <c r="E75" t="n">
-        <v>1030.717701899788</v>
+        <v>607.6789189703924</v>
       </c>
       <c r="F75" t="n">
-        <v>742.5485120289401</v>
+        <v>705.3063936744771</v>
       </c>
       <c r="G75" t="n">
-        <v>877.1573853251706</v>
+        <v>476.8323503676669</v>
       </c>
       <c r="H75" t="n">
-        <v>1099.786377337158</v>
+        <v>654.7329418516683</v>
       </c>
     </row>
     <row r="76">
@@ -2399,25 +2399,25 @@
         <v>370</v>
       </c>
       <c r="B76" t="n">
-        <v>965.3659903395549</v>
+        <v>29.91485301036898</v>
       </c>
       <c r="C76" t="n">
-        <v>479.5723615766601</v>
+        <v>569.0623779869748</v>
       </c>
       <c r="D76" t="n">
-        <v>46.58498856733647</v>
+        <v>307.9605071420021</v>
       </c>
       <c r="E76" t="n">
-        <v>1049.424207810155</v>
+        <v>617.3642255391439</v>
       </c>
       <c r="F76" t="n">
-        <v>754.0393122911635</v>
+        <v>718.9376156644649</v>
       </c>
       <c r="G76" t="n">
-        <v>887.5109182794739</v>
+        <v>484.2112423967816</v>
       </c>
       <c r="H76" t="n">
-        <v>1120.986491703786</v>
+        <v>666.3046740136875</v>
       </c>
     </row>
     <row r="77">
@@ -2425,25 +2425,25 @@
         <v>375</v>
       </c>
       <c r="B77" t="n">
-        <v>979.3054207902218</v>
+        <v>30.49820406179438</v>
       </c>
       <c r="C77" t="n">
-        <v>488.35249012297</v>
+        <v>575.3328163653424</v>
       </c>
       <c r="D77" t="n">
-        <v>47.49341362468095</v>
+        <v>313.5987237210476</v>
       </c>
       <c r="E77" t="n">
-        <v>1066.564175395006</v>
+        <v>626.1522013583631</v>
       </c>
       <c r="F77" t="n">
-        <v>764.7197142721797</v>
+        <v>731.3609842553346</v>
       </c>
       <c r="G77" t="n">
-        <v>896.9620382133926</v>
+        <v>491.0697319055197</v>
       </c>
       <c r="H77" t="n">
-        <v>1140.33638441887</v>
+        <v>676.8861461155898</v>
       </c>
     </row>
     <row r="78">
@@ -2451,25 +2451,25 @@
         <v>380</v>
       </c>
       <c r="B78" t="n">
-        <v>991.7057824648546</v>
+        <v>31.0034207294103</v>
       </c>
       <c r="C78" t="n">
-        <v>497.3593704917923</v>
+        <v>581.0791707442103</v>
       </c>
       <c r="D78" t="n">
-        <v>48.28016369417843</v>
+        <v>319.3825504558301</v>
       </c>
       <c r="E78" t="n">
-        <v>1081.983679930195</v>
+        <v>633.980313988801</v>
       </c>
       <c r="F78" t="n">
-        <v>774.5539075484834</v>
+        <v>742.436151513338</v>
       </c>
       <c r="G78" t="n">
-        <v>905.5399856902478</v>
+        <v>497.384822997813</v>
       </c>
       <c r="H78" t="n">
-        <v>1157.630654679838</v>
+        <v>686.3903460292878</v>
       </c>
     </row>
     <row r="79">
@@ -2477,25 +2477,25 @@
         <v>385</v>
       </c>
       <c r="B79" t="n">
-        <v>1002.460499404044</v>
+        <v>31.41105206582147</v>
       </c>
       <c r="C79" t="n">
-        <v>506.6541294898365</v>
+        <v>586.3232371856965</v>
       </c>
       <c r="D79" t="n">
-        <v>48.91494873356412</v>
+        <v>325.351240322339</v>
       </c>
       <c r="E79" t="n">
-        <v>1095.528796691583</v>
+        <v>640.7860309911933</v>
       </c>
       <c r="F79" t="n">
-        <v>783.5060816966128</v>
+        <v>752.0227695047391</v>
       </c>
       <c r="G79" t="n">
-        <v>913.2740012733833</v>
+        <v>503.1335197776227</v>
       </c>
       <c r="H79" t="n">
-        <v>1172.663901684111</v>
+        <v>694.7302616266728</v>
       </c>
     </row>
     <row r="80">
@@ -2503,25 +2503,25 @@
         <v>390</v>
       </c>
       <c r="B80" t="n">
-        <v>1011.469350714294</v>
+        <v>31.70467935146445</v>
       </c>
       <c r="C80" t="n">
-        <v>516.2877728906186</v>
+        <v>591.0877599873486</v>
       </c>
       <c r="D80" t="n">
-        <v>49.37220064584977</v>
+        <v>331.5375470093558</v>
       </c>
       <c r="E80" t="n">
-        <v>1107.065676080112</v>
+        <v>646.5109423386552</v>
       </c>
       <c r="F80" t="n">
-        <v>791.5417148736607</v>
+        <v>759.9920462456262</v>
       </c>
       <c r="G80" t="n">
-        <v>920.1951329913663</v>
+        <v>508.2936538192823</v>
       </c>
       <c r="H80" t="n">
-        <v>1185.246773057609</v>
+        <v>701.8300244285413</v>
       </c>
     </row>
     <row r="81">
@@ -2529,25 +2529,25 @@
         <v>395</v>
       </c>
       <c r="B81" t="n">
-        <v>1018.751101644518</v>
+        <v>31.88922175007468</v>
       </c>
       <c r="C81" t="n">
-        <v>526.213375099475</v>
+        <v>595.3882935197419</v>
       </c>
       <c r="D81" t="n">
-        <v>49.65957981252883</v>
+        <v>337.9113369414525</v>
       </c>
       <c r="E81" t="n">
-        <v>1116.631730007772</v>
+        <v>651.169562054685</v>
       </c>
       <c r="F81" t="n">
-        <v>798.6518131632092</v>
+        <v>766.3462401289386</v>
       </c>
       <c r="G81" t="n">
-        <v>926.3338564606893</v>
+        <v>512.8594496209422</v>
       </c>
       <c r="H81" t="n">
-        <v>1195.377642331353</v>
+        <v>707.7132632688177</v>
       </c>
     </row>
     <row r="82">
@@ -2555,25 +2555,25 @@
         <v>400</v>
       </c>
       <c r="B82" t="n">
-        <v>1024.438826938553</v>
+        <v>31.98172874519691</v>
       </c>
       <c r="C82" t="n">
-        <v>536.2814771622955</v>
+        <v>599.2296746706828</v>
       </c>
       <c r="D82" t="n">
-        <v>49.80363658956445</v>
+        <v>344.3766340804078</v>
       </c>
       <c r="E82" t="n">
-        <v>1124.343294223373</v>
+        <v>654.8411569247749</v>
       </c>
       <c r="F82" t="n">
-        <v>804.8497307612303</v>
+        <v>771.2052814272351</v>
       </c>
       <c r="G82" t="n">
-        <v>931.7148917392922</v>
+        <v>516.8394826662907</v>
       </c>
       <c r="H82" t="n">
-        <v>1203.230935641371</v>
+        <v>712.4535807976511</v>
       </c>
     </row>
     <row r="83">
@@ -2581,25 +2581,25 @@
         <v>405</v>
       </c>
       <c r="B83" t="n">
-        <v>1028.669567576968</v>
+        <v>31.99981991140594</v>
       </c>
       <c r="C83" t="n">
-        <v>546.3309529727233</v>
+        <v>602.6154762473047</v>
       </c>
       <c r="D83" t="n">
-        <v>49.83180910877171</v>
+        <v>350.8299702503987</v>
       </c>
       <c r="E83" t="n">
-        <v>1130.311965411411</v>
+        <v>657.6064021544119</v>
       </c>
       <c r="F83" t="n">
-        <v>810.1515988932492</v>
+        <v>774.6947803708673</v>
       </c>
       <c r="G83" t="n">
-        <v>936.3615120282382</v>
+        <v>520.2441117265823</v>
       </c>
       <c r="H83" t="n">
-        <v>1208.989830361822</v>
+        <v>716.1220305595784</v>
       </c>
     </row>
     <row r="84">
@@ -2607,25 +2607,25 @@
         <v>410</v>
       </c>
       <c r="B84" t="n">
-        <v>1031.58036454034</v>
+        <v>31.96111482327504</v>
       </c>
       <c r="C84" t="n">
-        <v>556.2006764244153</v>
+        <v>605.5492710567321</v>
       </c>
       <c r="D84" t="n">
-        <v>49.77153550196339</v>
+        <v>357.167877275611</v>
       </c>
       <c r="E84" t="n">
-        <v>1134.649340256384</v>
+        <v>659.5459729490964</v>
       </c>
       <c r="F84" t="n">
-        <v>814.5735487847541</v>
+        <v>776.9403471901954</v>
       </c>
       <c r="G84" t="n">
-        <v>940.2969905285878</v>
+        <v>523.0836955730475</v>
       </c>
       <c r="H84" t="n">
-        <v>1212.837503866885</v>
+        <v>718.7896660991369</v>
       </c>
     </row>
     <row r="85">
@@ -2633,25 +2633,25 @@
         <v>415</v>
       </c>
       <c r="B85" t="n">
-        <v>1033.308258809248</v>
+        <v>31.88323305538168</v>
       </c>
       <c r="C85" t="n">
-        <v>565.729521410994</v>
+        <v>608.0346319060793</v>
       </c>
       <c r="D85" t="n">
-        <v>49.65025390095873</v>
+        <v>363.2868869802083</v>
       </c>
       <c r="E85" t="n">
-        <v>1137.467015442791</v>
+        <v>660.7405445143255</v>
       </c>
       <c r="F85" t="n">
-        <v>818.1317116612666</v>
+        <v>778.0675921155864</v>
       </c>
       <c r="G85" t="n">
-        <v>943.544600441384</v>
+        <v>525.3685929769391</v>
       </c>
       <c r="H85" t="n">
-        <v>1214.957133530735</v>
+        <v>720.5275409608638</v>
       </c>
     </row>
     <row r="86">
@@ -2659,25 +2659,25 @@
         <v>420</v>
       </c>
       <c r="B86" t="n">
-        <v>1033.990291364261</v>
+        <v>31.78379418230072</v>
       </c>
       <c r="C86" t="n">
-        <v>574.756361826104</v>
+        <v>610.0751316024873</v>
       </c>
       <c r="D86" t="n">
-        <v>49.495402437573</v>
+        <v>369.0835311883691</v>
       </c>
       <c r="E86" t="n">
-        <v>1138.876587655112</v>
+        <v>661.2707920555956</v>
       </c>
       <c r="F86" t="n">
-        <v>820.8422187482804</v>
+        <v>778.2021253773925</v>
       </c>
       <c r="G86" t="n">
-        <v>946.1276149677135</v>
+        <v>527.1091627094912</v>
       </c>
       <c r="H86" t="n">
-        <v>1215.531896727535</v>
+        <v>721.4067086892788</v>
       </c>
     </row>
     <row r="87">
@@ -2685,25 +2685,25 @@
         <v>425</v>
       </c>
       <c r="B87" t="n">
-        <v>1033.763503185957</v>
+        <v>31.68041777860782</v>
       </c>
       <c r="C87" t="n">
-        <v>583.1200715633979</v>
+        <v>611.6743429530914</v>
       </c>
       <c r="D87" t="n">
-        <v>49.3344192436226</v>
+        <v>374.4543417242757</v>
       </c>
       <c r="E87" t="n">
-        <v>1138.989653577852</v>
+        <v>661.2173907783991</v>
       </c>
       <c r="F87" t="n">
-        <v>822.7212012713404</v>
+        <v>777.4695572059644</v>
       </c>
       <c r="G87" t="n">
-        <v>948.0693073086401</v>
+        <v>528.3157635419703</v>
       </c>
       <c r="H87" t="n">
-        <v>1214.744970831449</v>
+        <v>721.4982228289358</v>
       </c>
     </row>
     <row r="88">
@@ -2711,25 +2711,25 @@
         <v>430</v>
       </c>
       <c r="B88" t="n">
-        <v>1032.764935254909</v>
+        <v>31.59072341887515</v>
       </c>
       <c r="C88" t="n">
-        <v>590.6595245165156</v>
+        <v>612.8358387650156</v>
       </c>
       <c r="D88" t="n">
-        <v>49.19474245091855</v>
+        <v>379.2958504121032</v>
       </c>
       <c r="E88" t="n">
-        <v>1137.917809895509</v>
+        <v>660.6610158882341</v>
       </c>
       <c r="F88" t="n">
-        <v>823.784790455915</v>
+        <v>775.9954978316657</v>
       </c>
       <c r="G88" t="n">
-        <v>949.3929506652257</v>
+        <v>528.9987542455956</v>
       </c>
       <c r="H88" t="n">
-        <v>1212.779533216652</v>
+        <v>720.8731369243641</v>
       </c>
     </row>
     <row r="89">
@@ -2737,25 +2737,25 @@
         <v>435</v>
       </c>
       <c r="B89" t="n">
-        <v>1031.131628551694</v>
+        <v>31.53233067768087</v>
       </c>
       <c r="C89" t="n">
-        <v>597.2135945790942</v>
+        <v>613.563191845378</v>
       </c>
       <c r="D89" t="n">
-        <v>49.10381019128123</v>
+        <v>383.504589076025</v>
       </c>
       <c r="E89" t="n">
-        <v>1135.772653292574</v>
+        <v>659.6823425905966</v>
       </c>
       <c r="F89" t="n">
-        <v>824.0491175275343</v>
+        <v>773.905557484858</v>
       </c>
       <c r="G89" t="n">
-        <v>950.1218182385176</v>
+        <v>529.1684935916239</v>
       </c>
       <c r="H89" t="n">
-        <v>1209.818761257322</v>
+        <v>719.6025045201009</v>
       </c>
     </row>
     <row r="90">
@@ -2763,25 +2763,25 @@
         <v>440</v>
       </c>
       <c r="B90" t="n">
-        <v>1029.000624056884</v>
+        <v>31.52285912959919</v>
       </c>
       <c r="C90" t="n">
-        <v>602.6211556447705</v>
+        <v>613.8599750013211</v>
       </c>
       <c r="D90" t="n">
-        <v>49.08906059652484</v>
+        <v>386.9770895402136</v>
       </c>
       <c r="E90" t="n">
-        <v>1132.665780453528</v>
+        <v>658.362046090983</v>
       </c>
       <c r="F90" t="n">
-        <v>823.5303137116989</v>
+        <v>771.325346395898</v>
       </c>
       <c r="G90" t="n">
-        <v>950.279183229604</v>
+        <v>528.835340351294</v>
       </c>
       <c r="H90" t="n">
-        <v>1206.045832327624</v>
+        <v>717.757379160666</v>
       </c>
     </row>
     <row r="91">
@@ -2789,25 +2789,25 @@
         <v>445</v>
       </c>
       <c r="B91" t="n">
-        <v>1026.508962751057</v>
+        <v>31.57992834920541</v>
       </c>
       <c r="C91" t="n">
-        <v>606.7210816071949</v>
+        <v>613.7297610399718</v>
       </c>
       <c r="D91" t="n">
-        <v>49.17793179846528</v>
+        <v>389.6098836288509</v>
       </c>
       <c r="E91" t="n">
-        <v>1128.708788062883</v>
+        <v>656.7808015948891</v>
       </c>
       <c r="F91" t="n">
-        <v>822.2445102339326</v>
+        <v>768.3804747951389</v>
       </c>
       <c r="G91" t="n">
-        <v>949.8883188395394</v>
+        <v>528.0096532958598</v>
       </c>
       <c r="H91" t="n">
-        <v>1201.643923801725</v>
+        <v>715.4088143906152</v>
       </c>
     </row>
     <row r="92">
@@ -2815,25 +2815,25 @@
         <v>450</v>
       </c>
       <c r="B92" t="n">
-        <v>1023.794137092563</v>
+        <v>31.71917287396872</v>
       </c>
       <c r="C92" t="n">
-        <v>609.3656606941004</v>
+        <v>613.1778750611172</v>
       </c>
       <c r="D92" t="n">
-        <v>49.39477072432977</v>
+        <v>391.3081172678851</v>
       </c>
       <c r="E92" t="n">
-        <v>1124.009952576698</v>
+        <v>655.0195176268307</v>
       </c>
       <c r="F92" t="n">
-        <v>820.2143564849291</v>
+        <v>765.1927805281223</v>
       </c>
       <c r="G92" t="n">
-        <v>948.9745584137836</v>
+        <v>526.7059768786788</v>
       </c>
       <c r="H92" t="n">
-        <v>1196.793671567724</v>
+        <v>712.6286835737357</v>
       </c>
     </row>
     <row r="93">
@@ -2841,25 +2841,25 @@
         <v>455</v>
       </c>
       <c r="B93" t="n">
-        <v>1020.952145956291</v>
+        <v>31.9410112781501</v>
       </c>
       <c r="C93" t="n">
-        <v>610.5411156447677</v>
+        <v>612.24296719595</v>
       </c>
       <c r="D93" t="n">
-        <v>49.74022920005768</v>
+        <v>392.0629432998525</v>
       </c>
       <c r="E93" t="n">
-        <v>1118.663081196238</v>
+        <v>653.1363255285164</v>
       </c>
       <c r="F93" t="n">
-        <v>817.5329880932397</v>
+        <v>761.8524607866599</v>
       </c>
       <c r="G93" t="n">
-        <v>947.5980597792185</v>
+        <v>524.9841187486053</v>
       </c>
       <c r="H93" t="n">
-        <v>1191.641861382279</v>
+        <v>709.4813509314823</v>
       </c>
     </row>
     <row r="94">
@@ -2867,25 +2867,25 @@
         <v>460</v>
       </c>
       <c r="B94" t="n">
-        <v>1018.040943265653</v>
+        <v>32.23621275842937</v>
       </c>
       <c r="C94" t="n">
-        <v>610.3753480463085</v>
+        <v>610.9959311289667</v>
       </c>
       <c r="D94" t="n">
-        <v>50.19993253134609</v>
+        <v>391.9564945597263</v>
       </c>
       <c r="E94" t="n">
-        <v>1112.838505089481</v>
+        <v>651.1748547338281</v>
       </c>
       <c r="F94" t="n">
-        <v>814.3636530460143</v>
+        <v>758.4416232587454</v>
       </c>
       <c r="G94" t="n">
-        <v>945.8519592906541</v>
+        <v>522.9489096609973</v>
       </c>
       <c r="H94" t="n">
-        <v>1186.325700380919</v>
+        <v>706.0657799502883</v>
       </c>
     </row>
     <row r="95">
@@ -2893,25 +2893,25 @@
         <v>465</v>
       </c>
       <c r="B95" t="n">
-        <v>1015.12154393082</v>
+        <v>32.59498694534091</v>
       </c>
       <c r="C95" t="n">
-        <v>609.0116291760045</v>
+        <v>609.5105875209608</v>
       </c>
       <c r="D95" t="n">
-        <v>50.75863463794634</v>
+        <v>391.0807736288594</v>
       </c>
       <c r="E95" t="n">
-        <v>1106.72804483884</v>
+        <v>649.1819971934697</v>
       </c>
       <c r="F95" t="n">
-        <v>810.8749955036502</v>
+        <v>755.0461741055587</v>
       </c>
       <c r="G95" t="n">
-        <v>943.8331064425439</v>
+        <v>520.7086455589147</v>
       </c>
       <c r="H95" t="n">
-        <v>1180.988829941565</v>
+        <v>702.4939637929823</v>
       </c>
     </row>
     <row r="96">
@@ -2919,25 +2919,25 @@
         <v>470</v>
       </c>
       <c r="B96" t="n">
-        <v>1012.254962861951</v>
+        <v>33.00754346941785</v>
       </c>
       <c r="C96" t="n">
-        <v>606.593230311156</v>
+        <v>607.8607570327497</v>
       </c>
       <c r="D96" t="n">
-        <v>51.40108943960765</v>
+        <v>389.5277830886166</v>
       </c>
       <c r="E96" t="n">
-        <v>1100.52352102673</v>
+        <v>647.2046448581348</v>
       </c>
       <c r="F96" t="n">
-        <v>807.2356596265552</v>
+        <v>751.7520194882874</v>
       </c>
       <c r="G96" t="n">
-        <v>941.6383507293699</v>
+        <v>518.371622385424</v>
       </c>
       <c r="H96" t="n">
-        <v>1175.774891442139</v>
+        <v>698.877895622394</v>
       </c>
     </row>
     <row r="97">
@@ -2945,25 +2945,25 @@
         <v>475</v>
       </c>
       <c r="B97" t="n">
-        <v>1009.502214969197</v>
+        <v>33.46409196119567</v>
       </c>
       <c r="C97" t="n">
-        <v>603.2634227290544</v>
+        <v>606.1202603251375</v>
       </c>
       <c r="D97" t="n">
-        <v>52.11205085608306</v>
+        <v>387.3895255203572</v>
       </c>
       <c r="E97" t="n">
-        <v>1094.416754235559</v>
+        <v>645.2896896785155</v>
       </c>
       <c r="F97" t="n">
-        <v>803.6142895751502</v>
+        <v>748.6450655681072</v>
       </c>
       <c r="G97" t="n">
-        <v>939.3645416455984</v>
+        <v>516.0461360836007</v>
       </c>
       <c r="H97" t="n">
-        <v>1170.827526260557</v>
+        <v>695.3295686013479</v>
       </c>
     </row>
     <row r="98">
@@ -2971,25 +2971,25 @@
         <v>480</v>
       </c>
       <c r="B98" t="n">
-        <v>1006.924315162728</v>
+        <v>33.95484205120692</v>
       </c>
       <c r="C98" t="n">
-        <v>599.1654777069983</v>
+        <v>604.3629180589344</v>
       </c>
       <c r="D98" t="n">
-        <v>52.87627280712086</v>
+        <v>384.7580035054452</v>
       </c>
       <c r="E98" t="n">
-        <v>1088.599565047748</v>
+        <v>643.4840236053078</v>
       </c>
       <c r="F98" t="n">
-        <v>800.1795295098397</v>
+        <v>745.8112185062051</v>
       </c>
       <c r="G98" t="n">
-        <v>937.108528685699</v>
+        <v>513.8404825965097</v>
       </c>
       <c r="H98" t="n">
-        <v>1166.290375774741</v>
+        <v>691.9609758926824</v>
       </c>
     </row>
     <row r="99">
@@ -2997,25 +2997,25 @@
         <v>485</v>
       </c>
       <c r="B99" t="n">
-        <v>1004.582278352703</v>
+        <v>34.47000336998511</v>
       </c>
       <c r="C99" t="n">
-        <v>594.4426665222753</v>
+        <v>602.6625508949415</v>
       </c>
       <c r="D99" t="n">
-        <v>53.67850921247102</v>
+        <v>381.7252196252365</v>
       </c>
       <c r="E99" t="n">
-        <v>1083.263774045721</v>
+        <v>641.8345385892134</v>
       </c>
       <c r="F99" t="n">
-        <v>797.1000235910307</v>
+        <v>743.3363844637573</v>
       </c>
       <c r="G99" t="n">
-        <v>934.9671613441401</v>
+        <v>511.8629578672167</v>
       </c>
       <c r="H99" t="n">
-        <v>1162.307081362609</v>
+        <v>688.884110659232</v>
       </c>
     </row>
     <row r="100">
@@ -3023,25 +3023,25 @@
         <v>490</v>
       </c>
       <c r="B100" t="n">
-        <v>1002.537119449283</v>
+        <v>34.99978554806606</v>
       </c>
       <c r="C100" t="n">
-        <v>589.2382604521732</v>
+        <v>601.0929794939772</v>
       </c>
       <c r="D100" t="n">
-        <v>54.5035139918869</v>
+        <v>378.3831764610887</v>
       </c>
       <c r="E100" t="n">
-        <v>1078.601201811886</v>
+        <v>640.388126580924</v>
       </c>
       <c r="F100" t="n">
-        <v>794.5444159791385</v>
+        <v>741.3064696019508</v>
       </c>
       <c r="G100" t="n">
-        <v>933.0372891154034</v>
+        <v>510.2218578387939</v>
       </c>
       <c r="H100" t="n">
-        <v>1159.021284402078</v>
+        <v>686.2109660638188</v>
       </c>
     </row>
     <row r="101">
@@ -3049,25 +3049,25 @@
         <v>495</v>
       </c>
       <c r="B101" t="n">
-        <v>1000.849853362621</v>
+        <v>35.53439821598201</v>
       </c>
       <c r="C101" t="n">
-        <v>583.6955307739954</v>
+        <v>599.7280245168507</v>
       </c>
       <c r="D101" t="n">
-        <v>55.33604106511655</v>
+        <v>374.8238765943682</v>
       </c>
       <c r="E101" t="n">
-        <v>1074.803668928651</v>
+        <v>639.1916795311332</v>
       </c>
       <c r="F101" t="n">
-        <v>792.6813508345753</v>
+        <v>739.8073800819612</v>
       </c>
       <c r="G101" t="n">
-        <v>931.4157614939623</v>
+        <v>509.0254784543106</v>
       </c>
       <c r="H101" t="n">
-        <v>1156.576626271067</v>
+        <v>684.0535352692742</v>
       </c>
     </row>
     <row r="102">
@@ -3075,25 +3075,25 @@
         <v>500</v>
       </c>
       <c r="B102" t="n">
-        <v>999.5814950028824</v>
+        <v>36.06405100426726</v>
       </c>
       <c r="C102" t="n">
-        <v>577.9577487650321</v>
+        <v>598.6415066243686</v>
       </c>
       <c r="D102" t="n">
-        <v>56.16084435191106</v>
+        <v>371.139322606433</v>
       </c>
       <c r="E102" t="n">
-        <v>1072.062995978442</v>
+        <v>638.2920893905355</v>
       </c>
       <c r="F102" t="n">
-        <v>791.6794723177579</v>
+        <v>738.9250220649751</v>
       </c>
       <c r="G102" t="n">
-        <v>930.1994279742822</v>
+        <v>508.3821156568396</v>
       </c>
       <c r="H102" t="n">
-        <v>1155.116748347501</v>
+        <v>682.5238114384357</v>
       </c>
     </row>
     <row r="103">
@@ -3101,25 +3101,25 @@
         <v>505</v>
       </c>
       <c r="B103" t="n">
-        <v>998.7930592802303</v>
+        <v>36.5789535434552</v>
       </c>
       <c r="C103" t="n">
-        <v>572.1681857025671</v>
+        <v>597.9072464773251</v>
       </c>
       <c r="D103" t="n">
-        <v>56.96267777202006</v>
+        <v>367.4215170786387</v>
       </c>
       <c r="E103" t="n">
-        <v>1070.57100354367</v>
+        <v>637.7362481098337</v>
       </c>
       <c r="F103" t="n">
-        <v>791.707424589062</v>
+        <v>738.7453017121752</v>
       </c>
       <c r="G103" t="n">
-        <v>929.4851380508203</v>
+        <v>508.4000653894269</v>
       </c>
       <c r="H103" t="n">
-        <v>1154.7852920093</v>
+        <v>681.7337877341283</v>
       </c>
     </row>
     <row r="104">
@@ -3127,25 +3127,25 @@
         <v>510</v>
       </c>
       <c r="B104" t="n">
-        <v>998.5391234993793</v>
+        <v>37.07057056474382</v>
       </c>
       <c r="C104" t="n">
-        <v>566.4618679938286</v>
+        <v>597.5926192919982</v>
       </c>
       <c r="D104" t="n">
-        <v>57.72824975421569</v>
+        <v>363.7571680954753</v>
       </c>
       <c r="E104" t="n">
-        <v>1070.506765446108</v>
+        <v>637.5662900033088</v>
       </c>
       <c r="F104" t="n">
-        <v>792.9231491386313</v>
+        <v>739.3526945653657</v>
       </c>
       <c r="G104" t="n">
-        <v>929.3588685049716</v>
+        <v>509.1807508059082</v>
       </c>
       <c r="H104" t="n">
-        <v>1155.719424572647</v>
+        <v>681.7829635240549</v>
       </c>
     </row>
     <row r="105">
@@ -3153,25 +3153,25 @@
         <v>515</v>
       </c>
       <c r="B105" t="n">
-        <v>998.8179932370448</v>
+        <v>37.53799209058685</v>
       </c>
       <c r="C105" t="n">
-        <v>560.9008101903064</v>
+        <v>597.6981379692591</v>
       </c>
       <c r="D105" t="n">
-        <v>58.4561432334174</v>
+        <v>360.1860987040112</v>
       </c>
       <c r="E105" t="n">
-        <v>1071.895043759381</v>
+        <v>637.7818090951786</v>
       </c>
       <c r="F105" t="n">
-        <v>795.3187828128357</v>
+        <v>740.7515746640034</v>
       </c>
       <c r="G105" t="n">
-        <v>929.8103959846499</v>
+        <v>510.7191225311029</v>
       </c>
       <c r="H105" t="n">
-        <v>1157.922148109921</v>
+        <v>682.6774887125756</v>
       </c>
     </row>
     <row r="106">
@@ -3179,25 +3179,25 @@
         <v>520</v>
       </c>
       <c r="B106" t="n">
-        <v>999.5675041290247</v>
+        <v>37.98536532574416</v>
       </c>
       <c r="C106" t="n">
-        <v>555.4779260828593</v>
+        <v>598.1723622242466</v>
       </c>
       <c r="D106" t="n">
-        <v>59.15281645584344</v>
+        <v>356.7037584490155</v>
       </c>
       <c r="E106" t="n">
-        <v>1074.527208594106</v>
+        <v>638.3356648893833</v>
       </c>
       <c r="F106" t="n">
-        <v>798.7132201697008</v>
+        <v>742.8180625375099</v>
       </c>
       <c r="G106" t="n">
-        <v>930.7618275009576</v>
+        <v>512.8988825290419</v>
       </c>
       <c r="H106" t="n">
-        <v>1161.202282852133</v>
+        <v>684.3002476210333</v>
       </c>
     </row>
     <row r="107">
@@ -3205,25 +3205,25 @@
         <v>525</v>
       </c>
       <c r="B107" t="n">
-        <v>1000.716885765797</v>
+        <v>38.41747399409981</v>
       </c>
       <c r="C107" t="n">
-        <v>550.1792556616839</v>
+        <v>598.96006123124</v>
       </c>
       <c r="D107" t="n">
-        <v>59.82571888889958</v>
+        <v>353.3011828195134</v>
       </c>
       <c r="E107" t="n">
-        <v>1078.160093623316</v>
+        <v>639.1744274710607</v>
       </c>
       <c r="F107" t="n">
-        <v>802.9112894141798</v>
+        <v>745.4144981775044</v>
       </c>
       <c r="G107" t="n">
-        <v>932.1301687650284</v>
+        <v>515.5946999637595</v>
       </c>
       <c r="H107" t="n">
-        <v>1165.346765559124</v>
+        <v>686.5125277354542</v>
       </c>
     </row>
     <row r="108">
@@ -3231,25 +3231,25 @@
         <v>530</v>
       </c>
       <c r="B108" t="n">
-        <v>1002.195367737833</v>
+        <v>38.83910181954096</v>
       </c>
       <c r="C108" t="n">
-        <v>544.990838916973</v>
+        <v>600.0060041645363</v>
       </c>
       <c r="D108" t="n">
-        <v>60.48229999999641</v>
+        <v>349.9694073045271</v>
       </c>
       <c r="E108" t="n">
-        <v>1082.550532520026</v>
+        <v>640.2446669253419</v>
       </c>
       <c r="F108" t="n">
-        <v>807.7178187512741</v>
+        <v>748.4032215755979</v>
       </c>
       <c r="G108" t="n">
-        <v>933.8324254880125</v>
+        <v>518.6812439993206</v>
       </c>
       <c r="H108" t="n">
-        <v>1170.142532990734</v>
+        <v>689.1756165418536</v>
       </c>
     </row>
     <row r="109">
@@ -3257,25 +3257,25 @@
         <v>535</v>
       </c>
       <c r="B109" t="n">
-        <v>1003.93217963561</v>
+        <v>39.25503252595193</v>
       </c>
       <c r="C109" t="n">
-        <v>539.8987158389306</v>
+        <v>601.2549601984333</v>
       </c>
       <c r="D109" t="n">
-        <v>61.13000925654008</v>
+        <v>346.6994673930864</v>
       </c>
       <c r="E109" t="n">
-        <v>1087.455358957277</v>
+        <v>641.4929533373609</v>
       </c>
       <c r="F109" t="n">
-        <v>812.9376363859344</v>
+        <v>751.646572723395</v>
       </c>
       <c r="G109" t="n">
-        <v>935.7856033810654</v>
+        <v>522.0331837997586</v>
       </c>
       <c r="H109" t="n">
-        <v>1175.376521906797</v>
+        <v>692.1508015262775</v>
       </c>
     </row>
     <row r="110">
@@ -3283,25 +3283,25 @@
         <v>540</v>
       </c>
       <c r="B110" t="n">
-        <v>1005.856551049624</v>
+        <v>39.6700498372214</v>
       </c>
       <c r="C110" t="n">
-        <v>534.8889264177357</v>
+        <v>602.6516985072068</v>
       </c>
       <c r="D110" t="n">
-        <v>61.77629612594352</v>
+        <v>343.4823985742045</v>
       </c>
       <c r="E110" t="n">
-        <v>1092.631406608062</v>
+        <v>642.8658567922679</v>
       </c>
       <c r="F110" t="n">
-        <v>818.3755705231241</v>
+        <v>755.0068916125365</v>
       </c>
       <c r="G110" t="n">
-        <v>937.9067081553097</v>
+        <v>525.5251885291137</v>
       </c>
       <c r="H110" t="n">
-        <v>1180.835669067199</v>
+        <v>695.299370174721</v>
       </c>
     </row>
     <row r="111">
@@ -3309,25 +3309,25 @@
         <v>545</v>
       </c>
       <c r="B111" t="n">
-        <v>1007.89771157035</v>
+        <v>40.08893747723286</v>
       </c>
       <c r="C111" t="n">
-        <v>529.9475106436034</v>
+        <v>604.1409882651395</v>
       </c>
       <c r="D111" t="n">
-        <v>62.42861007561159</v>
+        <v>340.3092363369184</v>
       </c>
       <c r="E111" t="n">
-        <v>1097.835509145433</v>
+        <v>644.3099473751939</v>
       </c>
       <c r="F111" t="n">
-        <v>823.8364493678077</v>
+        <v>758.3465182346342</v>
       </c>
       <c r="G111" t="n">
-        <v>940.1127455218792</v>
+        <v>529.031927351428</v>
       </c>
       <c r="H111" t="n">
-        <v>1186.306911231764</v>
+        <v>698.4826099732229</v>
       </c>
     </row>
     <row r="112">
@@ -3335,25 +3335,25 @@
         <v>550</v>
       </c>
       <c r="B112" t="n">
-        <v>1009.984890788259</v>
+        <v>40.51647916987508</v>
       </c>
       <c r="C112" t="n">
-        <v>525.0605085067184</v>
+        <v>605.6675986465219</v>
       </c>
       <c r="D112" t="n">
-        <v>63.0944005729573</v>
+        <v>337.1710161702447</v>
       </c>
       <c r="E112" t="n">
-        <v>1102.824500242398</v>
+        <v>645.7717951712723</v>
       </c>
       <c r="F112" t="n">
-        <v>829.1251011249805</v>
+        <v>761.5277925813035</v>
       </c>
       <c r="G112" t="n">
-        <v>942.3207211919172</v>
+        <v>532.4280694307625</v>
       </c>
       <c r="H112" t="n">
-        <v>1191.577185160349</v>
+        <v>701.5618084077973</v>
       </c>
     </row>
     <row r="113">
@@ -3361,25 +3361,25 @@
         <v>555</v>
       </c>
       <c r="B113" t="n">
-        <v>1012.04731829384</v>
+        <v>40.95745863902951</v>
       </c>
       <c r="C113" t="n">
-        <v>520.2139599972811</v>
+        <v>607.17629882565</v>
       </c>
       <c r="D113" t="n">
-        <v>63.78111708538235</v>
+        <v>334.058773563211</v>
       </c>
       <c r="E113" t="n">
-        <v>1107.355213572005</v>
+        <v>647.197970265644</v>
       </c>
       <c r="F113" t="n">
-        <v>834.046353999589</v>
+        <v>764.4130546441593</v>
       </c>
       <c r="G113" t="n">
-        <v>944.4476408765767</v>
+        <v>535.5882839311478</v>
       </c>
       <c r="H113" t="n">
-        <v>1196.43342761279</v>
+        <v>704.3982529644865</v>
       </c>
     </row>
     <row r="114">
@@ -3387,25 +3387,25 @@
         <v>560</v>
       </c>
       <c r="B114" t="n">
-        <v>1014.014223677568</v>
+        <v>41.41665960858581</v>
       </c>
       <c r="C114" t="n">
-        <v>515.3939051054791</v>
+        <v>608.6118579768051</v>
       </c>
       <c r="D114" t="n">
-        <v>64.49620908030126</v>
+        <v>330.9635440048363</v>
       </c>
       <c r="E114" t="n">
-        <v>1111.184482807252</v>
+        <v>648.535042743446</v>
       </c>
       <c r="F114" t="n">
-        <v>838.4050361966013</v>
+        <v>766.8646444148327</v>
       </c>
       <c r="G114" t="n">
-        <v>946.4105102869909</v>
+        <v>538.3872400166272</v>
       </c>
       <c r="H114" t="n">
-        <v>1200.662575348961</v>
+        <v>706.8532311292925</v>
       </c>
     </row>
     <row r="115">
@@ -3413,25 +3413,25 @@
         <v>565</v>
       </c>
       <c r="B115" t="n">
-        <v>1015.814836529925</v>
+        <v>41.89886580242806</v>
       </c>
       <c r="C115" t="n">
-        <v>510.5863838215171</v>
+        <v>609.919045274273</v>
       </c>
       <c r="D115" t="n">
-        <v>65.24712602511971</v>
+        <v>327.8763629841506</v>
       </c>
       <c r="E115" t="n">
-        <v>1114.069141621174</v>
+        <v>649.7295826898136</v>
       </c>
       <c r="F115" t="n">
-        <v>842.0059759209929</v>
+        <v>768.7449018849335</v>
       </c>
       <c r="G115" t="n">
-        <v>948.1263351342924</v>
+        <v>540.6996068512494</v>
       </c>
       <c r="H115" t="n">
-        <v>1204.051565128689</v>
+        <v>708.788030388242</v>
       </c>
     </row>
     <row r="116">
@@ -3439,25 +3439,25 @@
         <v>570</v>
       </c>
       <c r="B116" t="n">
-        <v>1017.38369953331</v>
+        <v>42.4078512039776</v>
       </c>
       <c r="C116" t="n">
-        <v>505.7821077956461</v>
+        <v>611.0503150791516</v>
       </c>
       <c r="D116" t="n">
-        <v>66.03974496608217</v>
+        <v>324.7912659270282</v>
       </c>
       <c r="E116" t="n">
-        <v>1115.78049858185</v>
+        <v>650.7329798797389</v>
       </c>
       <c r="F116" t="n">
-        <v>844.659709166253</v>
+        <v>769.9165541121458</v>
       </c>
       <c r="G116" t="n">
-        <v>949.5270245278797</v>
+        <v>542.4037188925338</v>
       </c>
       <c r="H116" t="n">
-        <v>1206.391336751658</v>
+        <v>710.0772963204738</v>
       </c>
     </row>
     <row r="117">
@@ -3465,25 +3465,25 @@
         <v>575</v>
       </c>
       <c r="B117" t="n">
-        <v>1018.731020233879</v>
+        <v>42.94528978854084</v>
       </c>
       <c r="C117" t="n">
-        <v>501.0019818358602</v>
+        <v>612.0307431607804</v>
       </c>
       <c r="D117" t="n">
-        <v>66.87667270591916</v>
+        <v>321.7216769917138</v>
       </c>
       <c r="E117" t="n">
-        <v>1116.292649773478</v>
+        <v>651.5543465700651</v>
       </c>
       <c r="F117" t="n">
-        <v>846.3505460021672</v>
+        <v>770.3557744400191</v>
       </c>
       <c r="G117" t="n">
-        <v>950.6656984724118</v>
+        <v>543.4895007498758</v>
       </c>
       <c r="H117" t="n">
-        <v>1207.64166852551</v>
+        <v>710.7098445263451</v>
       </c>
     </row>
     <row r="118">
@@ -3491,25 +3491,25 @@
         <v>580</v>
       </c>
       <c r="B118" t="n">
-        <v>1019.953104139321</v>
+        <v>43.51074585628114</v>
       </c>
       <c r="C118" t="n">
-        <v>496.2784674641638</v>
+        <v>612.931662511898</v>
       </c>
       <c r="D118" t="n">
-        <v>67.75723074984079</v>
+        <v>318.6884415554228</v>
       </c>
       <c r="E118" t="n">
-        <v>1115.858417263053</v>
+        <v>652.2629542838473</v>
       </c>
       <c r="F118" t="n">
-        <v>847.2667582118191</v>
+        <v>770.2184143370773</v>
       </c>
       <c r="G118" t="n">
-        <v>951.6643223506056</v>
+        <v>544.077852371738</v>
       </c>
       <c r="H118" t="n">
-        <v>1208.019602227735</v>
+        <v>710.8181998353944</v>
       </c>
     </row>
     <row r="119">
@@ -3517,25 +3517,25 @@
         <v>585</v>
       </c>
       <c r="B119" t="n">
-        <v>1021.154606555628</v>
+        <v>44.10269305442985</v>
       </c>
       <c r="C119" t="n">
-        <v>491.6436174910075</v>
+        <v>613.826214880751</v>
       </c>
       <c r="D119" t="n">
-        <v>68.67904218072648</v>
+        <v>315.7121425385909</v>
       </c>
       <c r="E119" t="n">
-        <v>1114.765572796697</v>
+        <v>652.9334936707529</v>
       </c>
       <c r="F119" t="n">
-        <v>847.6135829779133</v>
+        <v>769.6767691447058</v>
       </c>
       <c r="G119" t="n">
-        <v>952.6472875626486</v>
+        <v>544.3005681481532</v>
       </c>
       <c r="H119" t="n">
-        <v>1207.76722635464</v>
+        <v>710.5568046723921</v>
       </c>
     </row>
     <row r="120">
@@ -3543,25 +3543,25 @@
         <v>590</v>
       </c>
       <c r="B120" t="n">
-        <v>1022.440182788791</v>
+        <v>44.71960503022044</v>
       </c>
       <c r="C120" t="n">
-        <v>487.1294847268288</v>
+        <v>614.7875420155513</v>
       </c>
       <c r="D120" t="n">
-        <v>69.63973008145916</v>
+        <v>312.8133628616463</v>
       </c>
       <c r="E120" t="n">
-        <v>1113.301888120538</v>
+        <v>653.6406553804551</v>
       </c>
       <c r="F120" t="n">
-        <v>847.596257483053</v>
+        <v>768.9031342042997</v>
       </c>
       <c r="G120" t="n">
-        <v>953.7389855086896</v>
+        <v>544.2894424690876</v>
       </c>
       <c r="H120" t="n">
-        <v>1207.126629402556</v>
+        <v>710.0801014621239</v>
       </c>
     </row>
     <row r="121">
@@ -3569,25 +3569,25 @@
         <v>595</v>
       </c>
       <c r="B121" t="n">
-        <v>1023.91448814481</v>
+        <v>45.35995543088902</v>
       </c>
       <c r="C121" t="n">
-        <v>482.7681219820814</v>
+        <v>615.8887856645448</v>
       </c>
       <c r="D121" t="n">
-        <v>70.63691753492566</v>
+        <v>310.0126854450268</v>
       </c>
       <c r="E121" t="n">
-        <v>1111.755134980693</v>
+        <v>654.4591300626296</v>
       </c>
       <c r="F121" t="n">
-        <v>847.420018909868</v>
+        <v>768.0698048572491</v>
       </c>
       <c r="G121" t="n">
-        <v>955.0638075889209</v>
+        <v>544.1762697245249</v>
       </c>
       <c r="H121" t="n">
-        <v>1206.339899867797</v>
+        <v>709.5425326293537</v>
       </c>
     </row>
     <row r="122">
@@ -3595,25 +3595,25 @@
         <v>600</v>
       </c>
       <c r="B122" t="n">
-        <v>1025.682177929657</v>
+        <v>46.02221790366607</v>
       </c>
       <c r="C122" t="n">
-        <v>478.5915820672054</v>
+        <v>617.2030875759866</v>
       </c>
       <c r="D122" t="n">
-        <v>71.66822762400422</v>
+        <v>307.3306932091618</v>
       </c>
       <c r="E122" t="n">
-        <v>1110.413085123291</v>
+        <v>655.4636083669343</v>
       </c>
       <c r="F122" t="n">
-        <v>847.2901044410039</v>
+        <v>767.3490764449397</v>
       </c>
       <c r="G122" t="n">
-        <v>956.7461452035557</v>
+        <v>544.092844304459</v>
       </c>
       <c r="H122" t="n">
-        <v>1205.64912624668</v>
+        <v>709.0985405988685</v>
       </c>
     </row>
     <row r="123">
@@ -3621,25 +3621,25 @@
         <v>605</v>
       </c>
       <c r="B123" t="n">
-        <v>1027.847907449317</v>
+        <v>46.70486609578516</v>
       </c>
       <c r="C123" t="n">
-        <v>474.6319177926492</v>
+        <v>618.8035894981164</v>
       </c>
       <c r="D123" t="n">
-        <v>72.73128343157774</v>
+        <v>304.7879690744859</v>
       </c>
       <c r="E123" t="n">
-        <v>1109.563510294446</v>
+        <v>656.7287809430361</v>
       </c>
       <c r="F123" t="n">
-        <v>847.4117512591273</v>
+        <v>766.9132443087537</v>
       </c>
       <c r="G123" t="n">
-        <v>958.9103897527715</v>
+        <v>544.1709605988975</v>
       </c>
       <c r="H123" t="n">
-        <v>1205.296397035508</v>
+        <v>708.9025677954359</v>
       </c>
     </row>
     <row r="124">
@@ -3647,25 +3647,25 @@
         <v>610</v>
       </c>
       <c r="B124" t="n">
-        <v>1030.516332009794</v>
+        <v>47.40637365447977</v>
       </c>
       <c r="C124" t="n">
-        <v>470.9211819688516</v>
+        <v>620.763433179151</v>
       </c>
       <c r="D124" t="n">
-        <v>73.82370804052906</v>
+        <v>302.4050959614281</v>
       </c>
       <c r="E124" t="n">
-        <v>1109.494182240282</v>
+        <v>658.3293384406123</v>
       </c>
       <c r="F124" t="n">
-        <v>847.9901965468497</v>
+        <v>766.9346037900915</v>
       </c>
       <c r="G124" t="n">
-        <v>961.6809326367227</v>
+        <v>544.5424129978124</v>
       </c>
       <c r="H124" t="n">
-        <v>1205.523800730626</v>
+        <v>709.1090566438402</v>
       </c>
     </row>
     <row r="125">
@@ -3673,25 +3673,25 @@
         <v>615</v>
       </c>
       <c r="B125" t="n">
-        <v>1033.792106917078</v>
+        <v>48.12521422698335</v>
       </c>
       <c r="C125" t="n">
-        <v>467.491427406259</v>
+        <v>623.1557603673311</v>
       </c>
       <c r="D125" t="n">
-        <v>74.94312453374094</v>
+        <v>300.2026567904214</v>
       </c>
       <c r="E125" t="n">
-        <v>1110.492872706926</v>
+        <v>660.3399715093358</v>
       </c>
       <c r="F125" t="n">
-        <v>849.2306774868185</v>
+        <v>767.5854502303534</v>
       </c>
       <c r="G125" t="n">
-        <v>965.1821652555956</v>
+        <v>545.3389958911985</v>
       </c>
       <c r="H125" t="n">
-        <v>1206.573425828351</v>
+        <v>709.8724495688425</v>
       </c>
     </row>
     <row r="126">
@@ -3699,25 +3699,25 @@
         <v>620</v>
       </c>
       <c r="B126" t="n">
-        <v>1037.779887477143</v>
+        <v>48.85986146052932</v>
       </c>
       <c r="C126" t="n">
-        <v>464.3747069153163</v>
+        <v>626.0537128109141</v>
       </c>
       <c r="D126" t="n">
-        <v>76.08715599409619</v>
+        <v>298.2012344818984</v>
       </c>
       <c r="E126" t="n">
-        <v>1112.847353440508</v>
+        <v>662.8353707988641</v>
       </c>
       <c r="F126" t="n">
-        <v>851.3384312616621</v>
+        <v>769.0380789709155</v>
       </c>
       <c r="G126" t="n">
-        <v>969.5384790096015</v>
+        <v>546.6925036690391</v>
       </c>
       <c r="H126" t="n">
-        <v>1208.687360824992</v>
+        <v>711.3471889952356</v>
       </c>
     </row>
     <row r="127">
@@ -3725,25 +3725,25 @@
         <v>625</v>
       </c>
       <c r="B127" t="n">
-        <v>1042.584328995979</v>
+        <v>49.60878900234987</v>
       </c>
       <c r="C127" t="n">
-        <v>461.6030733064606</v>
+        <v>629.5304322581327</v>
       </c>
       <c r="D127" t="n">
-        <v>77.25342550447553</v>
+        <v>296.4214119562865</v>
       </c>
       <c r="E127" t="n">
-        <v>1116.845396187139</v>
+        <v>665.8902269588677</v>
       </c>
       <c r="F127" t="n">
-        <v>854.5186950540545</v>
+        <v>771.464785353166</v>
       </c>
       <c r="G127" t="n">
-        <v>974.8742652989163</v>
+        <v>548.7347307213458</v>
       </c>
       <c r="H127" t="n">
-        <v>1212.107694216862</v>
+        <v>713.6877173477844</v>
       </c>
     </row>
     <row r="128">
@@ -3751,25 +3751,25 @@
         <v>630</v>
       </c>
       <c r="B128" t="n">
-        <v>1048.305533660856</v>
+        <v>50.37088217232025</v>
       </c>
       <c r="C128" t="n">
-        <v>459.2001107492429</v>
+        <v>633.6516311527316</v>
       </c>
       <c r="D128" t="n">
-        <v>78.44019722613538</v>
+        <v>294.8783339412585</v>
       </c>
       <c r="E128" t="n">
-        <v>1122.763001376283</v>
+        <v>669.5746129334162</v>
       </c>
       <c r="F128" t="n">
-        <v>858.9739162527738</v>
+        <v>775.0358737675896</v>
       </c>
       <c r="G128" t="n">
-        <v>981.2985127546158</v>
+        <v>551.5956799538593</v>
       </c>
       <c r="H128" t="n">
-        <v>1217.072796390458</v>
+        <v>717.0396967740306</v>
       </c>
     </row>
     <row r="129">
@@ -3777,25 +3777,25 @@
         <v>635</v>
       </c>
       <c r="B129" t="n">
-        <v>1054.951582535368</v>
+        <v>51.1402317956686</v>
       </c>
       <c r="C129" t="n">
-        <v>457.1334450537721</v>
+        <v>638.4001835579742</v>
       </c>
       <c r="D129" t="n">
-        <v>79.63826908012526</v>
+        <v>293.551211140483</v>
       </c>
       <c r="E129" t="n">
-        <v>1130.67624356998</v>
+        <v>673.8907351218447</v>
       </c>
       <c r="F129" t="n">
-        <v>864.7411177781019</v>
+        <v>779.7952877570091</v>
       </c>
       <c r="G129" t="n">
-        <v>988.7765848500948</v>
+        <v>555.2991258753278</v>
       </c>
       <c r="H129" t="n">
-        <v>1223.656974687263</v>
+        <v>721.4548406535341</v>
       </c>
     </row>
     <row r="130">
@@ -3803,25 +3803,25 @@
         <v>640</v>
       </c>
       <c r="B130" t="n">
-        <v>1062.41286689876</v>
+        <v>51.90842712961486</v>
       </c>
       <c r="C130" t="n">
-        <v>455.3460744729376</v>
+        <v>643.6974322140386</v>
       </c>
       <c r="D130" t="n">
-        <v>80.8345434137134</v>
+        <v>292.403439511787</v>
       </c>
       <c r="E130" t="n">
-        <v>1140.379831938214</v>
+        <v>678.7639217193195</v>
       </c>
       <c r="F130" t="n">
-        <v>871.646249927033</v>
+        <v>785.5974521379787</v>
       </c>
       <c r="G130" t="n">
-        <v>997.1776909443324</v>
+        <v>559.7333013383931</v>
       </c>
       <c r="H130" t="n">
-        <v>1231.679028853062</v>
+        <v>726.8463717603568</v>
       </c>
     </row>
     <row r="131">
@@ -3829,25 +3829,25 @@
         <v>645</v>
       </c>
       <c r="B131" t="n">
-        <v>1070.568801551468</v>
+        <v>52.66824262507682</v>
       </c>
       <c r="C131" t="n">
-        <v>453.7809562822683</v>
+        <v>649.4611698781785</v>
       </c>
       <c r="D131" t="n">
-        <v>82.01776822037093</v>
+        <v>291.3983886991189</v>
       </c>
       <c r="E131" t="n">
-        <v>1151.635558448644</v>
+        <v>684.1128984425335</v>
       </c>
       <c r="F131" t="n">
-        <v>879.4969111369724</v>
+        <v>792.2800736478423</v>
       </c>
       <c r="G131" t="n">
-        <v>1006.365884151296</v>
+        <v>564.7746544298523</v>
       </c>
       <c r="H131" t="n">
-        <v>1240.932901683748</v>
+        <v>733.1067280567474</v>
       </c>
     </row>
     <row r="132">
@@ -3855,25 +3855,25 @@
         <v>650</v>
       </c>
       <c r="B132" t="n">
-        <v>1079.298801293946</v>
+        <v>53.41245273296974</v>
       </c>
       <c r="C132" t="n">
-        <v>452.3810477572821</v>
+        <v>655.6091893076738</v>
       </c>
       <c r="D132" t="n">
-        <v>83.17669149356468</v>
+        <v>290.4994283464209</v>
       </c>
       <c r="E132" t="n">
-        <v>1164.205215068924</v>
+        <v>689.8563910081839</v>
       </c>
       <c r="F132" t="n">
-        <v>888.1006998453548</v>
+        <v>799.6808590239614</v>
       </c>
       <c r="G132" t="n">
-        <v>1016.205217584976</v>
+        <v>570.2996332365232</v>
       </c>
       <c r="H132" t="n">
-        <v>1251.212535975258</v>
+        <v>740.1283475049609</v>
       </c>
     </row>
     <row r="133">
@@ -3881,25 +3881,25 @@
         <v>655</v>
       </c>
       <c r="B133" t="n">
-        <v>1088.482280926634</v>
+        <v>54.13383190421751</v>
       </c>
       <c r="C133" t="n">
-        <v>451.0893061735076</v>
+        <v>662.0592832597738</v>
       </c>
       <c r="D133" t="n">
-        <v>84.30006122677528</v>
+        <v>289.6699280976415</v>
       </c>
       <c r="E133" t="n">
-        <v>1177.850593766746</v>
+        <v>695.9131251329574</v>
       </c>
       <c r="F133" t="n">
-        <v>897.2652144896297</v>
+        <v>807.6375150037127</v>
       </c>
       <c r="G133" t="n">
-        <v>1026.559744359322</v>
+        <v>576.1846858452313</v>
       </c>
       <c r="H133" t="n">
-        <v>1262.311874523524</v>
+        <v>747.8036680672581</v>
       </c>
     </row>
     <row r="134">
@@ -3907,25 +3907,25 @@
         <v>660</v>
       </c>
       <c r="B134" t="n">
-        <v>1097.998655249992</v>
+        <v>54.82515458973626</v>
       </c>
       <c r="C134" t="n">
-        <v>449.8486888064636</v>
+        <v>668.7292444917559</v>
       </c>
       <c r="D134" t="n">
-        <v>85.37662541347105</v>
+        <v>288.8732575967227</v>
       </c>
       <c r="E134" t="n">
-        <v>1192.333486509772</v>
+        <v>702.2018265335553</v>
       </c>
       <c r="F134" t="n">
-        <v>906.798053507198</v>
+        <v>815.987748324435</v>
       </c>
       <c r="G134" t="n">
-        <v>1037.293517588317</v>
+        <v>582.306260342773</v>
       </c>
       <c r="H134" t="n">
-        <v>1274.024860124445</v>
+        <v>756.0251277059022</v>
       </c>
     </row>
     <row r="135">
@@ -3933,25 +3933,25 @@
         <v>665</v>
       </c>
       <c r="B135" t="n">
-        <v>1107.727339064454</v>
+        <v>55.47919524044382</v>
       </c>
       <c r="C135" t="n">
-        <v>448.6021529316673</v>
+        <v>675.5368657608748</v>
       </c>
       <c r="D135" t="n">
-        <v>86.39513204712301</v>
+        <v>288.0727864876062</v>
       </c>
       <c r="E135" t="n">
-        <v>1207.415685265672</v>
+        <v>708.6412209266673</v>
       </c>
       <c r="F135" t="n">
-        <v>916.5068153354433</v>
+        <v>824.5692657234813</v>
       </c>
       <c r="G135" t="n">
-        <v>1048.270590385938</v>
+        <v>588.5408048159314</v>
       </c>
       <c r="H135" t="n">
-        <v>1286.145435573929</v>
+        <v>764.6851643831527</v>
       </c>
     </row>
     <row r="136">
@@ -3959,25 +3959,25 @@
         <v>670</v>
       </c>
       <c r="B136" t="n">
-        <v>1117.547747170466</v>
+        <v>56.08872830725637</v>
       </c>
       <c r="C136" t="n">
-        <v>447.2926558246594</v>
+        <v>682.3999398244212</v>
       </c>
       <c r="D136" t="n">
-        <v>87.34432912119972</v>
+        <v>287.2318844142479</v>
       </c>
       <c r="E136" t="n">
-        <v>1222.8589820021</v>
+        <v>715.1500340289854</v>
       </c>
       <c r="F136" t="n">
-        <v>926.1990984118238</v>
+        <v>833.2197739382094</v>
       </c>
       <c r="G136" t="n">
-        <v>1059.355015866184</v>
+        <v>594.7647673515388</v>
       </c>
       <c r="H136" t="n">
-        <v>1298.467543667901</v>
+        <v>773.6762160612587</v>
       </c>
     </row>
     <row r="137">
@@ -3985,25 +3985,25 @@
         <v>675</v>
       </c>
       <c r="B137" t="n">
-        <v>1127.339294368476</v>
+        <v>56.64652824109595</v>
       </c>
       <c r="C137" t="n">
-        <v>445.8631547609616</v>
+        <v>689.2362594396423</v>
       </c>
       <c r="D137" t="n">
-        <v>88.21296462917863</v>
+        <v>286.313921020592</v>
       </c>
       <c r="E137" t="n">
-        <v>1238.425168686741</v>
+        <v>721.646991557204</v>
       </c>
       <c r="F137" t="n">
-        <v>935.682501173772</v>
+        <v>841.7769797059805</v>
       </c>
       <c r="G137" t="n">
-        <v>1070.410847143006</v>
+        <v>600.854596036411</v>
       </c>
       <c r="H137" t="n">
-        <v>1310.785127202278</v>
+        <v>782.8907207024859</v>
       </c>
     </row>
     <row r="138">
@@ -4011,25 +4011,25 @@
         <v>680</v>
       </c>
       <c r="B138" t="n">
-        <v>1136.981395458939</v>
+        <v>57.14536949288008</v>
       </c>
       <c r="C138" t="n">
-        <v>444.2566070160913</v>
+        <v>695.9636173638062</v>
       </c>
       <c r="D138" t="n">
-        <v>88.98978656453046</v>
+        <v>285.2822659505804</v>
       </c>
       <c r="E138" t="n">
-        <v>1253.876037287267</v>
+        <v>728.0508192280158</v>
       </c>
       <c r="F138" t="n">
-        <v>944.7646220586829</v>
+        <v>850.0785897641424</v>
       </c>
       <c r="G138" t="n">
-        <v>1081.302137330371</v>
+        <v>606.686738957339</v>
       </c>
       <c r="H138" t="n">
-        <v>1322.892128972969</v>
+        <v>792.2211162691011</v>
       </c>
     </row>
     <row r="139">
@@ -4037,25 +4037,25 @@
         <v>685</v>
       </c>
       <c r="B139" t="n">
-        <v>1146.353465242287</v>
+        <v>57.57802651352637</v>
       </c>
       <c r="C139" t="n">
-        <v>442.4159698655729</v>
+        <v>702.4998063541722</v>
       </c>
       <c r="D139" t="n">
-        <v>89.66354292072583</v>
+        <v>284.1002888481584</v>
       </c>
       <c r="E139" t="n">
-        <v>1268.973379771325</v>
+        <v>734.2802427581159</v>
       </c>
       <c r="F139" t="n">
-        <v>953.2530595039751</v>
+        <v>857.9623108500502</v>
       </c>
       <c r="G139" t="n">
-        <v>1091.892939542262</v>
+        <v>612.13764420113</v>
       </c>
       <c r="H139" t="n">
-        <v>1334.582491775887</v>
+        <v>801.5598407233455</v>
       </c>
     </row>
     <row r="140">
@@ -4063,25 +4063,25 @@
         <v>690</v>
       </c>
       <c r="B140" t="n">
-        <v>1155.335127897502</v>
+        <v>57.93738651827451</v>
       </c>
       <c r="C140" t="n">
-        <v>440.2947277008964</v>
+        <v>708.76199739505</v>
       </c>
       <c r="D140" t="n">
-        <v>90.22315729379153</v>
+        <v>282.7381194131702</v>
       </c>
       <c r="E140" t="n">
-        <v>1283.477227999998</v>
+        <v>740.2552450106182</v>
       </c>
       <c r="F140" t="n">
-        <v>960.9556725000404</v>
+        <v>865.2672846531192</v>
       </c>
       <c r="G140" t="n">
-        <v>1102.049306876309</v>
+        <v>617.0839271703743</v>
       </c>
       <c r="H140" t="n">
-        <v>1345.651241077722</v>
+        <v>810.7967343103063</v>
       </c>
     </row>
     <row r="141">
@@ -4089,25 +4089,25 @@
         <v>695</v>
       </c>
       <c r="B141" t="n">
-        <v>1163.854124810882</v>
+        <v>58.22680102038565</v>
       </c>
       <c r="C141" t="n">
-        <v>437.9107961685052</v>
+        <v>714.6969226631661</v>
       </c>
       <c r="D141" t="n">
-        <v>90.67384883713274</v>
+        <v>281.2072622943543</v>
       </c>
       <c r="E141" t="n">
-        <v>1297.212127030671</v>
+        <v>745.9293757856029</v>
       </c>
       <c r="F141" t="n">
-        <v>967.7630681274753</v>
+        <v>871.9162211606389</v>
       </c>
       <c r="G141" t="n">
-        <v>1111.690165198135</v>
+        <v>621.4553404912939</v>
       </c>
       <c r="H141" t="n">
-        <v>1355.980947870138</v>
+        <v>819.8183180055723</v>
       </c>
     </row>
     <row r="142">
@@ -4115,25 +4115,25 @@
         <v>700</v>
       </c>
       <c r="B142" t="n">
-        <v>1171.916621375242</v>
+        <v>58.45881032779054</v>
       </c>
       <c r="C142" t="n">
-        <v>435.3085524897506</v>
+        <v>720.2944318221804</v>
       </c>
       <c r="D142" t="n">
-        <v>91.03514598036875</v>
+        <v>279.5362146126621</v>
       </c>
       <c r="E142" t="n">
-        <v>1310.153500233177</v>
+        <v>751.3024117922606</v>
       </c>
       <c r="F142" t="n">
-        <v>973.7047945711221</v>
+        <v>877.954391173616</v>
       </c>
       <c r="G142" t="n">
-        <v>1120.795998781438</v>
+        <v>625.2708587227213</v>
       </c>
       <c r="H142" t="n">
-        <v>1365.598146724902</v>
+        <v>828.5647524481627</v>
       </c>
     </row>
     <row r="143">
@@ -4141,25 +4141,25 @@
         <v>705</v>
       </c>
       <c r="B143" t="n">
-        <v>1179.535968594365</v>
+        <v>58.64558432674404</v>
       </c>
       <c r="C143" t="n">
-        <v>432.5328193274134</v>
+        <v>725.5491067067226</v>
       </c>
       <c r="D143" t="n">
-        <v>91.32600031292755</v>
+        <v>277.7537595321525</v>
       </c>
       <c r="E143" t="n">
-        <v>1322.296063421748</v>
+        <v>756.3779770787477</v>
       </c>
       <c r="F143" t="n">
-        <v>978.8266722991367</v>
+        <v>883.4372529334723</v>
       </c>
       <c r="G143" t="n">
-        <v>1129.353987718491</v>
+        <v>628.5599057759188</v>
       </c>
       <c r="H143" t="n">
-        <v>1374.543200687347</v>
+        <v>836.987870507421</v>
       </c>
     </row>
     <row r="144">
@@ -4167,25 +4167,25 @@
         <v>710</v>
       </c>
       <c r="B144" t="n">
-        <v>1186.725517472044</v>
+        <v>58.79929290350269</v>
       </c>
       <c r="C144" t="n">
-        <v>429.6284193442975</v>
+        <v>730.4555291514134</v>
       </c>
       <c r="D144" t="n">
-        <v>91.56536342423952</v>
+        <v>275.8886802168997</v>
       </c>
       <c r="E144" t="n">
-        <v>1333.634532410673</v>
+        <v>761.1596956932126</v>
       </c>
       <c r="F144" t="n">
-        <v>983.1745217796853</v>
+        <v>888.420264681615</v>
       </c>
       <c r="G144" t="n">
-        <v>1137.351312101529</v>
+        <v>631.351905562155</v>
       </c>
       <c r="H144" t="n">
-        <v>1382.856472802774</v>
+        <v>845.03950505273</v>
       </c>
     </row>
     <row r="145">
@@ -4193,25 +4193,25 @@
         <v>715</v>
       </c>
       <c r="B145" t="n">
-        <v>1193.498619012091</v>
+        <v>58.93210594432277</v>
       </c>
       <c r="C145" t="n">
-        <v>426.6401752031838</v>
+        <v>735.0082809908733</v>
       </c>
       <c r="D145" t="n">
-        <v>91.77218690373489</v>
+        <v>273.9697598309623</v>
       </c>
       <c r="E145" t="n">
-        <v>1344.163623014219</v>
+        <v>765.6511916838205</v>
       </c>
       <c r="F145" t="n">
-        <v>986.7941634808889</v>
+        <v>892.9588846594634</v>
       </c>
       <c r="G145" t="n">
-        <v>1144.775152022794</v>
+        <v>633.6762819926697</v>
       </c>
       <c r="H145" t="n">
-        <v>1390.578326116505</v>
+        <v>852.671488953453</v>
       </c>
     </row>
     <row r="146">
@@ -4219,25 +4219,25 @@
         <v>720</v>
       </c>
       <c r="B146" t="n">
-        <v>1199.868624218292</v>
+        <v>59.05619333545812</v>
       </c>
       <c r="C146" t="n">
-        <v>423.6129095668651</v>
+        <v>739.2019440597177</v>
       </c>
       <c r="D146" t="n">
-        <v>91.96542234083991</v>
+        <v>272.0257815384077</v>
       </c>
       <c r="E146" t="n">
-        <v>1353.878051046654</v>
+        <v>769.8560890987171</v>
       </c>
       <c r="F146" t="n">
-        <v>989.7314178709229</v>
+        <v>897.1085711084185</v>
       </c>
       <c r="G146" t="n">
-        <v>1151.612687574513</v>
+        <v>635.5624589787373</v>
       </c>
       <c r="H146" t="n">
-        <v>1397.749123673841</v>
+        <v>859.8356550789664</v>
       </c>
     </row>
     <row r="147">
@@ -4245,25 +4245,25 @@
         <v>725</v>
       </c>
       <c r="B147" t="n">
-        <v>1205.848884094442</v>
+        <v>59.18372496316378</v>
       </c>
       <c r="C147" t="n">
-        <v>420.5914450981239</v>
+        <v>743.0311001925725</v>
       </c>
       <c r="D147" t="n">
-        <v>92.16402132498278</v>
+        <v>270.0855285032955</v>
       </c>
       <c r="E147" t="n">
-        <v>1362.772532322213</v>
+        <v>773.7780119860624</v>
       </c>
       <c r="F147" t="n">
-        <v>992.0321054179691</v>
+        <v>900.9247822699068</v>
       </c>
       <c r="G147" t="n">
-        <v>1157.85109884895</v>
+        <v>637.0398604316365</v>
       </c>
       <c r="H147" t="n">
-        <v>1404.409228520116</v>
+        <v>866.4838362986102</v>
       </c>
     </row>
     <row r="148">
@@ -4271,25 +4271,25 @@
         <v>730</v>
       </c>
       <c r="B148" t="n">
-        <v>1211.452749644337</v>
+        <v>59.32687071369837</v>
       </c>
       <c r="C148" t="n">
-        <v>417.6206044597518</v>
+        <v>746.4903312240573</v>
       </c>
       <c r="D148" t="n">
-        <v>92.38693544559719</v>
+        <v>268.1777838896916</v>
       </c>
       <c r="E148" t="n">
-        <v>1370.841782655189</v>
+        <v>777.4205843940086</v>
       </c>
       <c r="F148" t="n">
-        <v>993.742046590167</v>
+        <v>904.4629763853358</v>
       </c>
       <c r="G148" t="n">
-        <v>1163.47756593834</v>
+        <v>638.1379102626189</v>
       </c>
       <c r="H148" t="n">
-        <v>1410.599003700636</v>
+        <v>872.5678654817716</v>
       </c>
     </row>
     <row r="149">
@@ -4297,25 +4297,25 @@
         <v>735</v>
       </c>
       <c r="B149" t="n">
-        <v>1216.69357187178</v>
+        <v>59.49780047331289</v>
       </c>
       <c r="C149" t="n">
-        <v>414.7452103145422</v>
+        <v>749.5742189887964</v>
       </c>
       <c r="D149" t="n">
-        <v>92.65311629210514</v>
+        <v>266.3313308616634</v>
       </c>
       <c r="E149" t="n">
-        <v>1378.080517859846</v>
+        <v>780.7874303707148</v>
       </c>
       <c r="F149" t="n">
-        <v>994.9070618556459</v>
+        <v>907.7786116961269</v>
       </c>
       <c r="G149" t="n">
-        <v>1168.479268934931</v>
+        <v>638.8860323829293</v>
       </c>
       <c r="H149" t="n">
-        <v>1416.358812260722</v>
+        <v>878.0395754978098</v>
       </c>
     </row>
     <row r="150">
@@ -4323,25 +4323,25 @@
         <v>740</v>
       </c>
       <c r="B150" t="n">
-        <v>1221.584701780562</v>
+        <v>59.70868412826567</v>
       </c>
       <c r="C150" t="n">
-        <v>412.0100853252802</v>
+        <v>752.277345321417</v>
       </c>
       <c r="D150" t="n">
-        <v>92.98151545393979</v>
+        <v>264.5749525832724</v>
       </c>
       <c r="E150" t="n">
-        <v>1384.483453750444</v>
+        <v>783.8821739643319</v>
       </c>
       <c r="F150" t="n">
-        <v>995.572971682587</v>
+        <v>910.92714644368</v>
       </c>
       <c r="G150" t="n">
-        <v>1172.843387930971</v>
+        <v>639.3136507038463</v>
       </c>
       <c r="H150" t="n">
-        <v>1421.72901724568</v>
+        <v>882.8507992160989</v>
       </c>
     </row>
     <row r="151">
@@ -4349,25 +4349,25 @@
         <v>745</v>
       </c>
       <c r="B151" t="n">
-        <v>1226.139490374477</v>
+        <v>59.97169156480998</v>
       </c>
       <c r="C151" t="n">
-        <v>409.4600521547577</v>
+        <v>754.594292056541</v>
       </c>
       <c r="D151" t="n">
-        <v>93.39108452052669</v>
+        <v>262.9374322185849</v>
       </c>
       <c r="E151" t="n">
-        <v>1390.045306141239</v>
+        <v>786.7084392230162</v>
       </c>
       <c r="F151" t="n">
-        <v>995.7855965391533</v>
+        <v>913.964038869418</v>
       </c>
       <c r="G151" t="n">
-        <v>1176.557103018713</v>
+        <v>639.4501891366364</v>
       </c>
       <c r="H151" t="n">
-        <v>1426.749981700833</v>
+        <v>886.9533695059907</v>
       </c>
     </row>
     <row r="152">
@@ -4375,25 +4375,25 @@
         <v>750</v>
       </c>
       <c r="B152" t="n">
-        <v>1230.37561865593</v>
+        <v>60.2990359005644</v>
       </c>
       <c r="C152" t="n">
-        <v>407.1319608326329</v>
+        <v>756.5279170664244</v>
       </c>
       <c r="D152" t="n">
-        <v>93.90084240345583</v>
+        <v>261.4424332535125</v>
       </c>
       <c r="E152" t="n">
-        <v>1394.773365578243</v>
+        <v>789.2722803200005</v>
       </c>
       <c r="F152" t="n">
-        <v>995.5975836671468</v>
+        <v>916.9458918781409</v>
       </c>
       <c r="G152" t="n">
-        <v>1179.618930027917</v>
+        <v>639.3294554496033</v>
       </c>
       <c r="H152" t="n">
-        <v>1431.465521172979</v>
+        <v>890.3096106765071</v>
       </c>
     </row>
     <row r="153">
@@ -4401,25 +4401,25 @@
         <v>755</v>
       </c>
       <c r="B153" t="n">
-        <v>1234.317392656714</v>
+        <v>60.69258576710524</v>
       </c>
       <c r="C153" t="n">
-        <v>405.0115964303835</v>
+        <v>758.1156095671237</v>
       </c>
       <c r="D153" t="n">
-        <v>94.51369903447882</v>
+        <v>260.0808274793688</v>
       </c>
       <c r="E153" t="n">
-        <v>1398.74182018942</v>
+        <v>791.5896630873461</v>
       </c>
       <c r="F153" t="n">
-        <v>995.1251034989599</v>
+        <v>919.9035703256731</v>
       </c>
       <c r="G153" t="n">
-        <v>1182.086047364886</v>
+        <v>639.0260492405152</v>
       </c>
       <c r="H153" t="n">
-        <v>1435.920101874651</v>
+        <v>892.965854048698</v>
       </c>
     </row>
     <row r="154">
@@ -4427,25 +4427,25 @@
         <v>760</v>
       </c>
       <c r="B154" t="n">
-        <v>1237.970501609315</v>
+        <v>61.14125489657196</v>
       </c>
       <c r="C154" t="n">
-        <v>403.0634145479825</v>
+        <v>759.3935394411239</v>
       </c>
       <c r="D154" t="n">
-        <v>95.21239029194477</v>
+        <v>258.8297898287905</v>
       </c>
       <c r="E154" t="n">
-        <v>1402.034824282885</v>
+        <v>793.6763050477579</v>
       </c>
       <c r="F154" t="n">
-        <v>994.4690220528405</v>
+        <v>922.8249857184719</v>
       </c>
       <c r="G154" t="n">
-        <v>1184.026799029079</v>
+        <v>638.604742278185</v>
       </c>
       <c r="H154" t="n">
-        <v>1440.137844531903</v>
+        <v>895.011733430612</v>
       </c>
     </row>
     <row r="155">
@@ -4453,25 +4453,25 @@
         <v>765</v>
       </c>
       <c r="B155" t="n">
-        <v>1241.339670196348</v>
+        <v>61.63325240009848</v>
       </c>
       <c r="C155" t="n">
-        <v>401.2511908965434</v>
+        <v>760.3956936720986</v>
       </c>
       <c r="D155" t="n">
-        <v>95.97855478117015</v>
+        <v>257.6660586393677</v>
       </c>
       <c r="E155" t="n">
-        <v>1404.736787872317</v>
+        <v>795.548553193431</v>
       </c>
       <c r="F155" t="n">
-        <v>993.7177197067659</v>
+        <v>925.6955832568541</v>
       </c>
       <c r="G155" t="n">
-        <v>1185.506946285266</v>
+        <v>638.1222885964227</v>
       </c>
       <c r="H155" t="n">
-        <v>1444.141849774751</v>
+        <v>896.5382202287475</v>
       </c>
     </row>
     <row r="156">
@@ -4479,25 +4479,25 @@
         <v>770</v>
       </c>
       <c r="B156" t="n">
-        <v>1244.429623100455</v>
+        <v>62.15678738882631</v>
       </c>
       <c r="C156" t="n">
-        <v>399.538701187174</v>
+        <v>761.1560592437215</v>
       </c>
       <c r="D156" t="n">
-        <v>96.79383110748304</v>
+        <v>256.5663722486863</v>
       </c>
       <c r="E156" t="n">
-        <v>1406.932120971417</v>
+        <v>797.2227545165744</v>
       </c>
       <c r="F156" t="n">
-        <v>992.9595768387352</v>
+        <v>928.5008081411511</v>
       </c>
       <c r="G156" t="n">
-        <v>1186.592250398222</v>
+        <v>637.6354422290523</v>
       </c>
       <c r="H156" t="n">
-        <v>1447.955218233243</v>
+        <v>897.6362858496177</v>
       </c>
     </row>
     <row r="157">
@@ -4505,25 +4505,25 @@
         <v>775</v>
       </c>
       <c r="B157" t="n">
-        <v>1247.245085004237</v>
+        <v>62.70006897389067</v>
       </c>
       <c r="C157" t="n">
-        <v>397.8897211309878</v>
+        <v>761.7086231396685</v>
       </c>
       <c r="D157" t="n">
-        <v>97.63985787620217</v>
+        <v>255.5074689943356</v>
       </c>
       <c r="E157" t="n">
-        <v>1408.705233593852</v>
+        <v>798.7152560093703</v>
       </c>
       <c r="F157" t="n">
-        <v>992.2829738267683</v>
+        <v>931.2261055716934</v>
       </c>
       <c r="G157" t="n">
-        <v>1187.348472632719</v>
+        <v>637.2009572099115</v>
       </c>
       <c r="H157" t="n">
-        <v>1451.601050537424</v>
+        <v>898.3969016997152</v>
       </c>
     </row>
     <row r="158">
@@ -4531,25 +4531,25 @@
         <v>780</v>
       </c>
       <c r="B158" t="n">
-        <v>1249.790780590328</v>
+        <v>63.2513062664344</v>
       </c>
       <c r="C158" t="n">
-        <v>396.2680264390926</v>
+        <v>762.0873723436404</v>
       </c>
       <c r="D158" t="n">
-        <v>98.49827369265759</v>
+        <v>254.4660872139018</v>
       </c>
       <c r="E158" t="n">
-        <v>1410.140535753327</v>
+        <v>800.0424046640238</v>
       </c>
       <c r="F158" t="n">
-        <v>991.7762910488422</v>
+        <v>933.8569207487967</v>
       </c>
       <c r="G158" t="n">
-        <v>1187.841374253572</v>
+        <v>636.8755875728095</v>
       </c>
       <c r="H158" t="n">
-        <v>1455.102447317318</v>
+        <v>898.9110391855614</v>
       </c>
     </row>
     <row r="159">
@@ -4557,25 +4557,25 @@
         <v>785</v>
       </c>
       <c r="B159" t="n">
-        <v>1252.071434541343</v>
+        <v>63.79870837759208</v>
       </c>
       <c r="C159" t="n">
-        <v>394.6373928226107</v>
+        <v>762.3262938392979</v>
       </c>
       <c r="D159" t="n">
-        <v>99.35071716216672</v>
+        <v>253.4189652449801</v>
       </c>
       <c r="E159" t="n">
-        <v>1411.322437463536</v>
+        <v>801.2205474727272</v>
       </c>
       <c r="F159" t="n">
-        <v>991.5279088829517</v>
+        <v>936.3786988727734</v>
       </c>
       <c r="G159" t="n">
-        <v>1188.136716525534</v>
+        <v>636.7160873515684</v>
       </c>
       <c r="H159" t="n">
-        <v>1458.482509202935</v>
+        <v>899.2696697136661</v>
       </c>
     </row>
     <row r="160">
@@ -4583,25 +4583,25 @@
         <v>790</v>
       </c>
       <c r="B160" t="n">
-        <v>1254.091771539925</v>
+        <v>64.33048441850283</v>
       </c>
       <c r="C160" t="n">
-        <v>392.9615959926305</v>
+        <v>762.4593746103152</v>
       </c>
       <c r="D160" t="n">
-        <v>100.1788268900543</v>
+        <v>252.3428414251441</v>
       </c>
       <c r="E160" t="n">
-        <v>1412.335348738164</v>
+        <v>802.2660314276902</v>
       </c>
       <c r="F160" t="n">
-        <v>991.6262077070969</v>
+        <v>938.7768851439633</v>
       </c>
       <c r="G160" t="n">
-        <v>1188.300260713376</v>
+        <v>636.7792105800123</v>
       </c>
       <c r="H160" t="n">
-        <v>1461.764336824341</v>
+        <v>899.563764690535</v>
       </c>
     </row>
     <row r="161">
@@ -4609,25 +4609,25 @@
         <v>795</v>
       </c>
       <c r="B161" t="n">
-        <v>1255.856516268677</v>
+        <v>64.83484350030339</v>
       </c>
       <c r="C161" t="n">
-        <v>391.2044116602781</v>
+        <v>762.5206016403716</v>
       </c>
       <c r="D161" t="n">
-        <v>100.9642414816408</v>
+        <v>251.2144540919915</v>
       </c>
       <c r="E161" t="n">
-        <v>1413.263679590885</v>
+        <v>803.1952035210974</v>
       </c>
       <c r="F161" t="n">
-        <v>992.1595678992937</v>
+        <v>941.0369247626813</v>
       </c>
       <c r="G161" t="n">
-        <v>1188.39776808188</v>
+        <v>637.1217112919766</v>
       </c>
       <c r="H161" t="n">
-        <v>1464.971030811548</v>
+        <v>899.8842955226605</v>
       </c>
     </row>
     <row r="162">
@@ -4635,25 +4635,25 @@
         <v>800</v>
       </c>
       <c r="B162" t="n">
-        <v>1257.370393410228</v>
+        <v>65.29999473413531</v>
       </c>
       <c r="C162" t="n">
-        <v>389.3296155366581</v>
+        <v>762.5439619131616</v>
       </c>
       <c r="D162" t="n">
-        <v>101.6885995422548</v>
+        <v>250.010541583106</v>
       </c>
       <c r="E162" t="n">
-        <v>1414.191840035404</v>
+        <v>804.0244107451497</v>
       </c>
       <c r="F162" t="n">
-        <v>993.2163698375214</v>
+        <v>943.1442629292504</v>
       </c>
       <c r="G162" t="n">
-        <v>1188.494999895849</v>
+        <v>637.8003435212721</v>
       </c>
       <c r="H162" t="n">
-        <v>1468.125691794593</v>
+        <v>900.3222336165672</v>
       </c>
     </row>
     <row r="163">
@@ -4661,25 +4661,25 @@
         <v>805</v>
       </c>
       <c r="B163" t="n">
-        <v>1258.638127647199</v>
+        <v>65.71414723113463</v>
       </c>
       <c r="C163" t="n">
-        <v>387.300983332885</v>
+        <v>762.5634424123559</v>
       </c>
       <c r="D163" t="n">
-        <v>102.3335396772158</v>
+        <v>248.7078422360781</v>
       </c>
       <c r="E163" t="n">
-        <v>1415.204240085405</v>
+        <v>804.7700000920432</v>
       </c>
       <c r="F163" t="n">
-        <v>994.8849938997711</v>
+        <v>945.0843448439832</v>
       </c>
       <c r="G163" t="n">
-        <v>1188.657717420051</v>
+        <v>638.8718613017176</v>
       </c>
       <c r="H163" t="n">
-        <v>1471.251420403494</v>
+        <v>900.9685503787587</v>
       </c>
     </row>
     <row r="164">
@@ -4687,25 +4687,25 @@
         <v>810</v>
       </c>
       <c r="B164" t="n">
-        <v>1259.660383256009</v>
+        <v>66.06517285721797</v>
       </c>
       <c r="C164" t="n">
-        <v>385.0857860697527</v>
+        <v>762.6054066718157</v>
       </c>
       <c r="D164" t="n">
-        <v>102.8801753157819</v>
+        <v>247.285338924313</v>
       </c>
       <c r="E164" t="n">
-        <v>1416.376169908928</v>
+        <v>805.4457513647852</v>
       </c>
       <c r="F164" t="n">
-        <v>997.2394947155474</v>
+        <v>946.8400908323257</v>
       </c>
       <c r="G164" t="n">
-        <v>1188.940585487453</v>
+        <v>640.3838192946864</v>
       </c>
       <c r="H164" t="n">
-        <v>1474.364694082496</v>
+        <v>901.9057894538781</v>
       </c>
     </row>
     <row r="165">
@@ -4713,25 +4713,25 @@
         <v>815</v>
       </c>
       <c r="B165" t="n">
-        <v>1260.426616533772</v>
+        <v>66.34830012936818</v>
       </c>
       <c r="C165" t="n">
-        <v>382.6847559452432</v>
+        <v>762.6602685711197</v>
       </c>
       <c r="D165" t="n">
-        <v>103.3210760526716</v>
+        <v>245.7435018335012</v>
       </c>
       <c r="E165" t="n">
-        <v>1417.710695438108</v>
+        <v>806.0485141644898</v>
       </c>
       <c r="F165" t="n">
-        <v>1000.191189499238</v>
+        <v>948.391097579125</v>
       </c>
       <c r="G165" t="n">
-        <v>1189.330696062361</v>
+        <v>642.279269273341</v>
       </c>
       <c r="H165" t="n">
-        <v>1477.435303089001</v>
+        <v>903.1363972526759</v>
       </c>
     </row>
     <row r="166">
@@ -4739,25 +4739,25 @@
         <v>820</v>
       </c>
       <c r="B166" t="n">
-        <v>1260.926421369337</v>
+        <v>66.57071321462874</v>
       </c>
       <c r="C166" t="n">
-        <v>380.1179721900578</v>
+        <v>762.710904779643</v>
       </c>
       <c r="D166" t="n">
-        <v>103.6674294521183</v>
+        <v>244.0952249720656</v>
       </c>
       <c r="E166" t="n">
-        <v>1419.134080200885</v>
+        <v>806.5599180876105</v>
       </c>
       <c r="F166" t="n">
-        <v>1003.574995820746</v>
+        <v>949.7252778789937</v>
       </c>
       <c r="G166" t="n">
-        <v>1189.786200230706</v>
+        <v>644.4522024828691</v>
       </c>
       <c r="H166" t="n">
-        <v>1480.401960194208</v>
+        <v>904.5820315797224</v>
       </c>
     </row>
     <row r="167">
@@ -4765,25 +4765,25 @@
         <v>825</v>
       </c>
       <c r="B167" t="n">
-        <v>1261.147002985256</v>
+        <v>66.74075904472204</v>
       </c>
       <c r="C167" t="n">
-        <v>377.4065555201399</v>
+        <v>762.7410822819845</v>
       </c>
       <c r="D167" t="n">
-        <v>103.9322337969057</v>
+        <v>242.3540711449434</v>
       </c>
       <c r="E167" t="n">
-        <v>1420.559671697813</v>
+        <v>806.9586822867935</v>
       </c>
       <c r="F167" t="n">
-        <v>1007.231804147701</v>
+        <v>950.8303939615295</v>
       </c>
       <c r="G167" t="n">
-        <v>1190.265750917912</v>
+        <v>646.800445703533</v>
       </c>
       <c r="H167" t="n">
-        <v>1483.200318093263</v>
+        <v>906.1542356273538</v>
       </c>
     </row>
     <row r="168">
@@ -4791,25 +4791,25 @@
         <v>830</v>
       </c>
       <c r="B168" t="n">
-        <v>1261.075566604067</v>
+        <v>66.86678455136493</v>
       </c>
       <c r="C168" t="n">
-        <v>374.571626651473</v>
+        <v>762.7345680627243</v>
       </c>
       <c r="D168" t="n">
-        <v>104.1284873698086</v>
+        <v>240.5336031570973</v>
       </c>
       <c r="E168" t="n">
-        <v>1421.900817429469</v>
+        <v>807.2235259146728</v>
       </c>
       <c r="F168" t="n">
-        <v>1011.002504947689</v>
+        <v>951.694208056326</v>
       </c>
       <c r="G168" t="n">
-        <v>1190.728001049359</v>
+        <v>649.2218257155656</v>
       </c>
       <c r="H168" t="n">
-        <v>1485.766029481306</v>
+        <v>907.7645525879121</v>
       </c>
     </row>
     <row r="169">
@@ -4817,25 +4817,25 @@
         <v>835</v>
       </c>
       <c r="B169" t="n">
-        <v>1260.699317448348</v>
+        <v>66.9571366662834</v>
       </c>
       <c r="C169" t="n">
-        <v>371.6343062999953</v>
+        <v>762.6751291064605</v>
       </c>
       <c r="D169" t="n">
-        <v>104.2691884536164</v>
+        <v>238.6473838134601</v>
       </c>
       <c r="E169" t="n">
-        <v>1423.070864896414</v>
+        <v>807.3331681239076</v>
       </c>
       <c r="F169" t="n">
-        <v>1014.727988688276</v>
+        <v>952.3044823929558</v>
       </c>
       <c r="G169" t="n">
-        <v>1191.131603550464</v>
+        <v>651.6141692991879</v>
       </c>
       <c r="H169" t="n">
-        <v>1488.034747053445</v>
+        <v>909.3245256537415</v>
       </c>
     </row>
     <row r="170">
@@ -4843,25 +4843,25 @@
         <v>840</v>
       </c>
       <c r="B170" t="n">
-        <v>1260.005460740618</v>
+        <v>67.02016232119409</v>
       </c>
       <c r="C170" t="n">
-        <v>368.6157151816701</v>
+        <v>762.5465323977789</v>
       </c>
       <c r="D170" t="n">
-        <v>104.3673353311039</v>
+        <v>236.7089759189818</v>
       </c>
       <c r="E170" t="n">
-        <v>1423.983161599219</v>
+        <v>807.266328067118</v>
       </c>
       <c r="F170" t="n">
-        <v>1018.249145837066</v>
+        <v>952.6489792010181</v>
       </c>
       <c r="G170" t="n">
-        <v>1191.435211346614</v>
+        <v>653.8753032346449</v>
       </c>
       <c r="H170" t="n">
-        <v>1489.942123504822</v>
+        <v>910.7456980171775</v>
       </c>
     </row>
     <row r="171">
@@ -4869,25 +4869,25 @@
         <v>845</v>
       </c>
       <c r="B171" t="n">
-        <v>1258.981201703438</v>
+        <v>67.06420844782242</v>
       </c>
       <c r="C171" t="n">
-        <v>365.5369740124449</v>
+        <v>762.3325449212728</v>
       </c>
       <c r="D171" t="n">
-        <v>104.4359262850593</v>
+        <v>234.7319422786019</v>
       </c>
       <c r="E171" t="n">
-        <v>1424.551055038443</v>
+        <v>807.0017248969566</v>
       </c>
       <c r="F171" t="n">
-        <v>1021.406866861696</v>
+        <v>952.7154607101081</v>
       </c>
       <c r="G171" t="n">
-        <v>1191.597477363227</v>
+        <v>655.9030543022023</v>
       </c>
       <c r="H171" t="n">
-        <v>1491.423811530595</v>
+        <v>911.939612870567</v>
       </c>
     </row>
     <row r="172">
@@ -4895,25 +4895,25 @@
         <v>850</v>
       </c>
       <c r="B172" t="n">
-        <v>1257.613745559337</v>
+        <v>67.09762197788601</v>
       </c>
       <c r="C172" t="n">
-        <v>362.4192035082873</v>
+        <v>762.0169336615184</v>
       </c>
       <c r="D172" t="n">
-        <v>104.4879595982588</v>
+        <v>232.7298456972724</v>
       </c>
       <c r="E172" t="n">
-        <v>1424.687892714655</v>
+        <v>806.5180777660521</v>
       </c>
       <c r="F172" t="n">
-        <v>1024.042042229736</v>
+        <v>952.4916891498203</v>
       </c>
       <c r="G172" t="n">
-        <v>1191.577054525679</v>
+        <v>657.5952492820829</v>
       </c>
       <c r="H172" t="n">
-        <v>1492.415463825896</v>
+        <v>912.8178134062459</v>
       </c>
     </row>
     <row r="173">
@@ -4921,25 +4921,25 @@
         <v>855</v>
       </c>
       <c r="B173" t="n">
-        <v>1255.890297530899</v>
+        <v>67.12874984310781</v>
       </c>
       <c r="C173" t="n">
-        <v>359.283524385145</v>
+        <v>761.5834656031238</v>
       </c>
       <c r="D173" t="n">
-        <v>104.536433553487</v>
+        <v>230.7162489799329</v>
       </c>
       <c r="E173" t="n">
-        <v>1424.307022128423</v>
+        <v>805.7941058270666</v>
       </c>
       <c r="F173" t="n">
-        <v>1025.995562408761</v>
+        <v>951.9654267497292</v>
       </c>
       <c r="G173" t="n">
-        <v>1191.332595759397</v>
+        <v>658.8497149545138</v>
       </c>
       <c r="H173" t="n">
-        <v>1492.852733085838</v>
+        <v>913.2918428165638</v>
       </c>
     </row>
     <row r="174">
@@ -4947,25 +4947,25 @@
         <v>860</v>
       </c>
       <c r="B174" t="n">
-        <v>1253.798062840644</v>
+        <v>67.16593897520754</v>
       </c>
       <c r="C174" t="n">
-        <v>356.1510573589751</v>
+        <v>761.0159077306697</v>
       </c>
       <c r="D174" t="n">
-        <v>104.5943464335234</v>
+        <v>228.7047149315292</v>
       </c>
       <c r="E174" t="n">
-        <v>1423.321790780314</v>
+        <v>804.8085282326215</v>
       </c>
       <c r="F174" t="n">
-        <v>1027.108317866384</v>
+        <v>951.1244357394291</v>
       </c>
       <c r="G174" t="n">
-        <v>1190.822753989766</v>
+        <v>659.5642780997464</v>
       </c>
       <c r="H174" t="n">
-        <v>1492.671272005561</v>
+        <v>913.2732442938548</v>
       </c>
     </row>
     <row r="175">
@@ -4973,25 +4973,25 @@
         <v>865</v>
       </c>
       <c r="B175" t="n">
-        <v>1251.32424671113</v>
+        <v>67.21753630590821</v>
       </c>
       <c r="C175" t="n">
-        <v>353.0429231457246</v>
+        <v>760.2980270287486</v>
       </c>
       <c r="D175" t="n">
-        <v>104.6746965211525</v>
+        <v>226.708806357</v>
       </c>
       <c r="E175" t="n">
-        <v>1421.64554617089</v>
+        <v>803.5400641353684</v>
       </c>
       <c r="F175" t="n">
-        <v>1027.221199070226</v>
+        <v>949.9564783485265</v>
       </c>
       <c r="G175" t="n">
-        <v>1190.006182142197</v>
+        <v>659.6367654980348</v>
       </c>
       <c r="H175" t="n">
-        <v>1491.806733280231</v>
+        <v>912.6735610304623</v>
       </c>
     </row>
     <row r="176">
@@ -4999,25 +4999,25 @@
         <v>870</v>
       </c>
       <c r="B176" t="n">
-        <v>1248.459348839329</v>
+        <v>67.29236163149912</v>
       </c>
       <c r="C176" t="n">
-        <v>349.9804701111045</v>
+        <v>759.4193370003038</v>
       </c>
       <c r="D176" t="n">
-        <v>104.7912184688282</v>
+        <v>224.7422322480593</v>
       </c>
       <c r="E176" t="n">
-        <v>1419.194797396789</v>
+        <v>801.9694592203148</v>
       </c>
       <c r="F176" t="n">
-        <v>1026.190834650021</v>
+        <v>948.4520988692564</v>
       </c>
       <c r="G176" t="n">
-        <v>1188.84975849844</v>
+        <v>658.9751102926682</v>
       </c>
       <c r="H176" t="n">
-        <v>1490.202213010006</v>
+        <v>911.4086568290746</v>
       </c>
     </row>
     <row r="177">
@@ -5025,25 +5025,25 @@
         <v>875</v>
       </c>
       <c r="B177" t="n">
-        <v>1245.231880352093</v>
+        <v>67.39729118895302</v>
       </c>
       <c r="C177" t="n">
-        <v>346.9672525590766</v>
+        <v>758.3890498039955</v>
       </c>
       <c r="D177" t="n">
-        <v>104.9546203158194</v>
+        <v>222.807275024084</v>
       </c>
       <c r="E177" t="n">
-        <v>1415.945528117417</v>
+        <v>800.1078361620149</v>
       </c>
       <c r="F177" t="n">
-        <v>1024.041693437374</v>
+        <v>946.6286008364026</v>
       </c>
       <c r="G177" t="n">
-        <v>1187.360913545137</v>
+        <v>657.5950253028019</v>
       </c>
       <c r="H177" t="n">
-        <v>1487.878371139459</v>
+        <v>909.4601141441782</v>
       </c>
     </row>
     <row r="178">
@@ -5051,25 +5051,25 @@
         <v>880</v>
       </c>
       <c r="B178" t="n">
-        <v>1241.736434412554</v>
+        <v>67.53405327928738</v>
       </c>
       <c r="C178" t="n">
-        <v>343.9915871118997</v>
+        <v>757.2073913411311</v>
       </c>
       <c r="D178" t="n">
-        <v>105.1675934637224</v>
+        <v>220.8964321281657</v>
       </c>
       <c r="E178" t="n">
-        <v>1411.98704289796</v>
+        <v>798.0169521752406</v>
       </c>
       <c r="F178" t="n">
-        <v>1020.924813506148</v>
+        <v>944.5242614857373</v>
       </c>
       <c r="G178" t="n">
-        <v>1185.548434466003</v>
+        <v>655.5935006086652</v>
       </c>
       <c r="H178" t="n">
-        <v>1484.923847583353</v>
+        <v>906.9144256571345</v>
       </c>
     </row>
     <row r="179">
@@ -5077,25 +5077,25 @@
         <v>885</v>
       </c>
       <c r="B179" t="n">
-        <v>1238.079422452979</v>
+        <v>67.70360580777596</v>
       </c>
       <c r="C179" t="n">
-        <v>341.0411601507968</v>
+        <v>755.870823747902</v>
       </c>
       <c r="D179" t="n">
-        <v>105.4316296132052</v>
+        <v>219.0017962900212</v>
       </c>
       <c r="E179" t="n">
-        <v>1407.428104414506</v>
+        <v>795.7666457616253</v>
       </c>
       <c r="F179" t="n">
-        <v>1016.997671999188</v>
+        <v>942.1790142076932</v>
       </c>
       <c r="G179" t="n">
-        <v>1183.416204165863</v>
+        <v>653.0716611804592</v>
       </c>
       <c r="H179" t="n">
-        <v>1481.432164921022</v>
+        <v>903.8737491968983</v>
       </c>
     </row>
     <row r="180">
@@ -5103,25 +5103,25 @@
         <v>890</v>
       </c>
       <c r="B180" t="n">
-        <v>1234.367255905608</v>
+        <v>67.9069066796926</v>
       </c>
       <c r="C180" t="n">
-        <v>338.1036580570029</v>
+        <v>754.3758091605129</v>
       </c>
       <c r="D180" t="n">
-        <v>105.7482204649365</v>
+        <v>217.1154602393753</v>
       </c>
       <c r="E180" t="n">
-        <v>1402.377475343114</v>
+        <v>793.4267554227844</v>
       </c>
       <c r="F180" t="n">
-        <v>1012.417746059261</v>
+        <v>939.6327923926555</v>
       </c>
       <c r="G180" t="n">
-        <v>1180.968105549559</v>
+        <v>650.1306319883362</v>
       </c>
       <c r="H180" t="n">
-        <v>1477.496845731725</v>
+        <v>900.4402425924102</v>
       </c>
     </row>
     <row r="181">
@@ -5129,25 +5129,25 @@
         <v>895</v>
       </c>
       <c r="B181" t="n">
-        <v>1230.7063462027</v>
+        <v>68.14491380031345</v>
       </c>
       <c r="C181" t="n">
-        <v>335.1667672117403</v>
+        <v>752.718809715142</v>
       </c>
       <c r="D181" t="n">
-        <v>106.1188577195879</v>
+        <v>215.2295167059441</v>
       </c>
       <c r="E181" t="n">
-        <v>1396.943918359868</v>
+        <v>791.0671196603474</v>
       </c>
       <c r="F181" t="n">
-        <v>1007.342512829242</v>
+        <v>936.9255294310449</v>
       </c>
       <c r="G181" t="n">
-        <v>1178.208021521895</v>
+        <v>646.8715380025143</v>
       </c>
       <c r="H181" t="n">
-        <v>1473.211412594779</v>
+        <v>896.7160636726284</v>
       </c>
     </row>
     <row r="182">
@@ -5155,25 +5155,25 @@
         <v>900</v>
       </c>
       <c r="B182" t="n">
-        <v>1227.203104776496</v>
+        <v>68.41858507490916</v>
       </c>
       <c r="C182" t="n">
-        <v>332.2181739962383</v>
+        <v>750.8962875480149</v>
       </c>
       <c r="D182" t="n">
-        <v>106.5450330778232</v>
+        <v>213.3360584194489</v>
       </c>
       <c r="E182" t="n">
-        <v>1391.236196140859</v>
+        <v>788.7575769759335</v>
       </c>
       <c r="F182" t="n">
-        <v>1001.92944945194</v>
+        <v>934.0971587132643</v>
       </c>
       <c r="G182" t="n">
-        <v>1175.139834987751</v>
+        <v>643.3955041931741</v>
       </c>
       <c r="H182" t="n">
-        <v>1468.669388089457</v>
+        <v>892.8033702665023</v>
       </c>
     </row>
     <row r="183">
@@ -5181,25 +5181,25 @@
         <v>905</v>
       </c>
       <c r="B183" t="n">
-        <v>1223.963943059267</v>
+        <v>68.72887840875249</v>
       </c>
       <c r="C183" t="n">
-        <v>329.2455647917286</v>
+        <v>748.9047047952934</v>
       </c>
       <c r="D183" t="n">
-        <v>107.0282382403089</v>
+        <v>211.4271781096117</v>
       </c>
       <c r="E183" t="n">
-        <v>1385.36307136217</v>
+        <v>786.5679658711742</v>
       </c>
       <c r="F183" t="n">
-        <v>996.336033070139</v>
+        <v>931.1876136297457</v>
       </c>
       <c r="G183" t="n">
-        <v>1171.767428851897</v>
+        <v>639.8036555304764</v>
       </c>
       <c r="H183" t="n">
-        <v>1463.964294795092</v>
+        <v>888.8043202029822</v>
       </c>
     </row>
     <row r="184">
@@ -5207,25 +5207,25 @@
         <v>910</v>
       </c>
       <c r="B184" t="n">
-        <v>1221.09527248325</v>
+        <v>69.07675170712157</v>
       </c>
       <c r="C184" t="n">
-        <v>326.2366259794341</v>
+        <v>746.7405235932007</v>
       </c>
       <c r="D184" t="n">
-        <v>107.5699649077203</v>
+        <v>209.4949685061495</v>
       </c>
       <c r="E184" t="n">
-        <v>1379.433306699857</v>
+        <v>784.5681248476872</v>
       </c>
       <c r="F184" t="n">
-        <v>990.7197408266514</v>
+        <v>928.2368275708712</v>
       </c>
       <c r="G184" t="n">
-        <v>1168.09468601921</v>
+        <v>636.1971169846024</v>
       </c>
       <c r="H184" t="n">
-        <v>1459.189655290942</v>
+        <v>884.8210713110147</v>
       </c>
     </row>
     <row r="185">
@@ -5233,25 +5233,25 @@
         <v>915</v>
       </c>
       <c r="B185" t="n">
-        <v>1218.703504480693</v>
+        <v>69.46316287528512</v>
       </c>
       <c r="C185" t="n">
-        <v>323.1790439405784</v>
+        <v>744.4002060779153</v>
       </c>
       <c r="D185" t="n">
-        <v>108.1717047807174</v>
+        <v>207.5315223387795</v>
       </c>
       <c r="E185" t="n">
-        <v>1373.555664830017</v>
+        <v>782.8278924070942</v>
       </c>
       <c r="F185" t="n">
-        <v>985.2380498643414</v>
+        <v>925.2847339270734</v>
       </c>
       <c r="G185" t="n">
-        <v>1164.125489394492</v>
+        <v>632.677013525765</v>
       </c>
       <c r="H185" t="n">
-        <v>1454.438992156336</v>
+        <v>880.9557814195534</v>
       </c>
     </row>
     <row r="186">
@@ -5259,25 +5259,25 @@
         <v>920</v>
       </c>
       <c r="B186" t="n">
-        <v>1216.895050483856</v>
+        <v>69.88906981851818</v>
       </c>
       <c r="C186" t="n">
-        <v>320.0605050563934</v>
+        <v>741.8802143856495</v>
       </c>
       <c r="D186" t="n">
-        <v>108.8349495599709</v>
+        <v>205.5289323372242</v>
       </c>
       <c r="E186" t="n">
-        <v>1367.838908428721</v>
+        <v>781.4171070510256</v>
       </c>
       <c r="F186" t="n">
-        <v>980.0484373260283</v>
+        <v>922.3712660887397</v>
       </c>
       <c r="G186" t="n">
-        <v>1159.863721882606</v>
+        <v>629.3444701241498</v>
       </c>
       <c r="H186" t="n">
-        <v>1449.805827970537</v>
+        <v>877.310608357552</v>
       </c>
     </row>
     <row r="187">
@@ -5285,25 +5285,25 @@
         <v>925</v>
       </c>
       <c r="B187" t="n">
-        <v>1215.776321924999</v>
+        <v>70.35543044209457</v>
       </c>
       <c r="C187" t="n">
-        <v>316.8686957081113</v>
+        <v>739.1770106525831</v>
       </c>
       <c r="D187" t="n">
-        <v>109.5611909461489</v>
+        <v>203.4792912312065</v>
       </c>
       <c r="E187" t="n">
-        <v>1362.391800172052</v>
+        <v>780.4056072811076</v>
       </c>
       <c r="F187" t="n">
-        <v>975.3083803544695</v>
+        <v>919.5363574463096</v>
       </c>
       <c r="G187" t="n">
-        <v>1155.313266388345</v>
+        <v>626.3006117499013</v>
       </c>
       <c r="H187" t="n">
-        <v>1445.38368531288</v>
+        <v>873.98770995395</v>
       </c>
     </row>
     <row r="188">
@@ -5311,25 +5311,25 @@
         <v>930</v>
       </c>
       <c r="B188" t="n">
-        <v>1215.449904393588</v>
+        <v>70.86273856851781</v>
       </c>
       <c r="C188" t="n">
-        <v>313.5884991562785</v>
+        <v>736.2820381594005</v>
       </c>
       <c r="D188" t="n">
-        <v>110.351197945727</v>
+        <v>201.3728917082924</v>
       </c>
       <c r="E188" t="n">
-        <v>1357.322710564433</v>
+        <v>779.8609190744486</v>
       </c>
       <c r="F188" t="n">
-        <v>971.1662347240202</v>
+        <v>916.8164293951795</v>
       </c>
       <c r="G188" t="n">
-        <v>1150.470814497942</v>
+        <v>623.6407060271957</v>
       </c>
       <c r="H188" t="n">
-        <v>1441.258510436208</v>
+        <v>871.0878443679975</v>
       </c>
     </row>
     <row r="189">
@@ -5337,25 +5337,25 @@
         <v>935</v>
       </c>
       <c r="B189" t="n">
-        <v>1215.940906975526</v>
+        <v>71.40605821565246</v>
       </c>
       <c r="C189" t="n">
-        <v>310.2147312920159</v>
+        <v>733.1889029481799</v>
       </c>
       <c r="D189" t="n">
-        <v>111.1972839867116</v>
+        <v>199.2064047592908</v>
       </c>
       <c r="E189" t="n">
-        <v>1352.703328842241</v>
+        <v>779.8053196547959</v>
       </c>
       <c r="F189" t="n">
-        <v>967.6933596868596</v>
+        <v>914.2182663740847</v>
       </c>
       <c r="G189" t="n">
-        <v>1145.337789308418</v>
+        <v>621.4105767633478</v>
       </c>
       <c r="H189" t="n">
-        <v>1437.443976375361</v>
+        <v>868.662097560789</v>
       </c>
     </row>
     <row r="190">
@@ -5363,25 +5363,25 @@
         <v>940</v>
       </c>
       <c r="B190" t="n">
-        <v>1217.12273022719</v>
+        <v>71.97554987703016</v>
       </c>
       <c r="C190" t="n">
-        <v>306.7606240170244</v>
+        <v>729.9321504785879</v>
       </c>
       <c r="D190" t="n">
-        <v>112.0841264701186</v>
+        <v>196.9883273358293</v>
       </c>
       <c r="E190" t="n">
-        <v>1348.509560452849</v>
+        <v>780.1716062364145</v>
       </c>
       <c r="F190" t="n">
-        <v>964.8498442290328</v>
+        <v>911.7310352242762</v>
       </c>
       <c r="G190" t="n">
-        <v>1139.977057485197</v>
+        <v>619.5845948414965</v>
       </c>
       <c r="H190" t="n">
-        <v>1433.900104351791</v>
+        <v>866.6588989239918</v>
       </c>
     </row>
     <row r="191">
@@ -5389,25 +5389,25 @@
         <v>945</v>
       </c>
       <c r="B191" t="n">
-        <v>1218.844914700925</v>
+        <v>72.56139161881637</v>
       </c>
       <c r="C191" t="n">
-        <v>303.2403012924197</v>
+        <v>726.5545836179703</v>
       </c>
       <c r="D191" t="n">
-        <v>112.9964301619977</v>
+        <v>194.7277292312835</v>
       </c>
       <c r="E191" t="n">
-        <v>1344.700454648409</v>
+        <v>780.8782145048796</v>
       </c>
       <c r="F191" t="n">
-        <v>962.5788513227344</v>
+        <v>909.3434807598273</v>
       </c>
       <c r="G191" t="n">
-        <v>1134.463766238804</v>
+        <v>618.1262619950411</v>
       </c>
       <c r="H191" t="n">
-        <v>1430.584663721576</v>
+        <v>865.011258270919</v>
       </c>
     </row>
     <row r="192">
@@ -5415,25 +5415,25 @@
         <v>950</v>
       </c>
       <c r="B192" t="n">
-        <v>1220.957000949058</v>
+        <v>73.15376150717191</v>
       </c>
       <c r="C192" t="n">
-        <v>299.6678870793161</v>
+        <v>723.0990052337062</v>
       </c>
       <c r="D192" t="n">
-        <v>113.9188998283909</v>
+        <v>192.4336802390278</v>
       </c>
       <c r="E192" t="n">
-        <v>1341.235060681087</v>
+        <v>781.8435801457596</v>
       </c>
       <c r="F192" t="n">
-        <v>960.8235439403493</v>
+        <v>907.0443477947618</v>
       </c>
       <c r="G192" t="n">
-        <v>1128.87306277983</v>
+        <v>616.9990799575017</v>
       </c>
       <c r="H192" t="n">
-        <v>1427.455423840722</v>
+        <v>863.6521854149188</v>
       </c>
     </row>
     <row r="193">
@@ -5441,25 +5441,25 @@
         <v>955</v>
       </c>
       <c r="B193" t="n">
-        <v>1223.308529523933</v>
+        <v>73.74283760826135</v>
       </c>
       <c r="C193" t="n">
-        <v>296.0575053388351</v>
+        <v>719.6082181931312</v>
       </c>
       <c r="D193" t="n">
-        <v>114.8362402353463</v>
+        <v>190.1152501524411</v>
       </c>
       <c r="E193" t="n">
-        <v>1338.072427803053</v>
+        <v>782.9861388446317</v>
       </c>
       <c r="F193" t="n">
-        <v>959.527085054116</v>
+        <v>904.8223811431544</v>
       </c>
       <c r="G193" t="n">
-        <v>1123.280094318795</v>
+        <v>616.1665504623062</v>
       </c>
       <c r="H193" t="n">
-        <v>1424.470154065308</v>
+        <v>862.5146901693148</v>
       </c>
     </row>
     <row r="194">
@@ -5467,25 +5467,25 @@
         <v>960</v>
       </c>
       <c r="B194" t="n">
-        <v>1225.749040977898</v>
+        <v>74.31879798824724</v>
       </c>
       <c r="C194" t="n">
-        <v>292.4232800320935</v>
+        <v>716.1250253636032</v>
       </c>
       <c r="D194" t="n">
-        <v>115.7331561489088</v>
+        <v>187.7815087648997</v>
       </c>
       <c r="E194" t="n">
-        <v>1335.171605266449</v>
+        <v>784.2243262870753</v>
       </c>
       <c r="F194" t="n">
-        <v>958.632637636381</v>
+        <v>902.6663256190341</v>
       </c>
       <c r="G194" t="n">
-        <v>1117.760008066257</v>
+        <v>615.5921752429506</v>
       </c>
       <c r="H194" t="n">
-        <v>1421.586623751341</v>
+        <v>861.5317823474295</v>
       </c>
     </row>
     <row r="195">
@@ -5493,25 +5493,25 @@
         <v>965</v>
       </c>
       <c r="B195" t="n">
-        <v>1228.128075863293</v>
+        <v>74.87182071329562</v>
       </c>
       <c r="C195" t="n">
-        <v>288.7793351202116</v>
+        <v>712.6922296124669</v>
       </c>
       <c r="D195" t="n">
-        <v>116.5943523351286</v>
+        <v>185.4415258697818</v>
       </c>
       <c r="E195" t="n">
-        <v>1332.491642323435</v>
+        <v>785.4765781586669</v>
       </c>
       <c r="F195" t="n">
-        <v>958.0833646593251</v>
+        <v>900.564926036464</v>
       </c>
       <c r="G195" t="n">
-        <v>1112.387951232743</v>
+        <v>615.2394560328249</v>
       </c>
       <c r="H195" t="n">
-        <v>1418.762602254888</v>
+        <v>860.636471762587</v>
       </c>
     </row>
     <row r="196">
@@ -5519,25 +5519,25 @@
         <v>970</v>
       </c>
       <c r="B196" t="n">
-        <v>1230.295174732451</v>
+        <v>75.39208384956582</v>
       </c>
       <c r="C196" t="n">
-        <v>285.139794564292</v>
+        <v>709.3526338070963</v>
       </c>
       <c r="D196" t="n">
-        <v>117.4045335600456</v>
+        <v>183.1043712604544</v>
       </c>
       <c r="E196" t="n">
-        <v>1329.991588226178</v>
+        <v>786.6613301449738</v>
       </c>
       <c r="F196" t="n">
-        <v>957.8224290953495</v>
+        <v>898.5069272094839</v>
       </c>
       <c r="G196" t="n">
-        <v>1107.239071028835</v>
+        <v>615.0718945654602</v>
       </c>
       <c r="H196" t="n">
-        <v>1415.955858931976</v>
+        <v>859.7617682281285</v>
       </c>
     </row>
     <row r="197">
@@ -5545,25 +5545,25 @@
         <v>975</v>
       </c>
       <c r="B197" t="n">
-        <v>1232.09987813771</v>
+        <v>75.86976546322305</v>
       </c>
       <c r="C197" t="n">
-        <v>281.518782325458</v>
+        <v>706.1490408148462</v>
       </c>
       <c r="D197" t="n">
-        <v>118.1484045897089</v>
+        <v>180.7791147302979</v>
       </c>
       <c r="E197" t="n">
-        <v>1327.630492226853</v>
+        <v>787.6970179315722</v>
       </c>
       <c r="F197" t="n">
-        <v>957.7929939166775</v>
+        <v>896.4810739521458</v>
       </c>
       <c r="G197" t="n">
-        <v>1102.388514665082</v>
+        <v>615.0529925742738</v>
       </c>
       <c r="H197" t="n">
-        <v>1413.124163138639</v>
+        <v>858.840681557382</v>
       </c>
     </row>
     <row r="198">
@@ -5571,25 +5571,25 @@
         <v>980</v>
       </c>
       <c r="B198" t="n">
-        <v>1233.391726631425</v>
+        <v>76.29504362043005</v>
       </c>
       <c r="C198" t="n">
-        <v>277.9304223648253</v>
+        <v>703.1242535030583</v>
       </c>
       <c r="D198" t="n">
-        <v>118.8106701901636</v>
+        <v>178.4748260726875</v>
       </c>
       <c r="E198" t="n">
-        <v>1325.367403577589</v>
+        <v>788.5020772040468</v>
       </c>
       <c r="F198" t="n">
-        <v>957.938222095626</v>
+        <v>894.4761110785003</v>
       </c>
       <c r="G198" t="n">
-        <v>1097.911429352014</v>
+        <v>615.1462517927434</v>
       </c>
       <c r="H198" t="n">
-        <v>1410.225284230934</v>
+        <v>857.8062215636656</v>
       </c>
     </row>
     <row r="199">
@@ -5597,25 +5597,25 @@
         <v>985</v>
       </c>
       <c r="B199" t="n">
-        <v>1234.020260765928</v>
+        <v>76.65809638735028</v>
       </c>
       <c r="C199" t="n">
-        <v>274.3888386435141</v>
+        <v>700.3210747390923</v>
       </c>
       <c r="D199" t="n">
-        <v>119.376035127456</v>
+        <v>176.2005750810015</v>
       </c>
       <c r="E199" t="n">
-        <v>1323.161371530557</v>
+        <v>788.9949436479652</v>
       </c>
       <c r="F199" t="n">
-        <v>958.2012766044554</v>
+        <v>892.4807834025866</v>
       </c>
       <c r="G199" t="n">
-        <v>1093.882962300186</v>
+        <v>615.3151739543099</v>
       </c>
       <c r="H199" t="n">
-        <v>1407.216991564882</v>
+        <v>856.5913980603128</v>
       </c>
     </row>
     <row r="200">
@@ -5623,25 +5623,25 @@
         <v>990</v>
       </c>
       <c r="B200" t="n">
-        <v>1233.83814582926</v>
+        <v>76.949296575685</v>
       </c>
       <c r="C200" t="n">
-        <v>270.9126133600011</v>
+        <v>697.783231568266</v>
       </c>
       <c r="D200" t="n">
-        <v>119.8295074356661</v>
+        <v>173.9682944346964</v>
       </c>
       <c r="E200" t="n">
-        <v>1320.968524272936</v>
+        <v>789.0959637172135</v>
       </c>
       <c r="F200" t="n">
-        <v>958.5235172318133</v>
+        <v>890.4893547239767</v>
       </c>
       <c r="G200" t="n">
-        <v>1090.379626475134</v>
+        <v>615.5221028663445</v>
       </c>
       <c r="H200" t="n">
-        <v>1404.066866592203</v>
+        <v>855.1270888683972</v>
       </c>
     </row>
     <row r="201">
@@ -5649,25 +5649,25 @@
         <v>995</v>
       </c>
       <c r="B201" t="n">
-        <v>1232.719372182931</v>
+        <v>77.16658103448239</v>
       </c>
       <c r="C201" t="n">
-        <v>267.5180011535818</v>
+        <v>695.5050079886797</v>
       </c>
       <c r="D201" t="n">
-        <v>120.1678742672006</v>
+        <v>171.7884221559804</v>
       </c>
       <c r="E201" t="n">
-        <v>1318.688202074989</v>
+        <v>788.7246858945797</v>
       </c>
       <c r="F201" t="n">
-        <v>958.7752966490366</v>
+        <v>888.4949181326821</v>
       </c>
       <c r="G201" t="n">
-        <v>1087.385160984703</v>
+        <v>615.6837846545967</v>
       </c>
       <c r="H201" t="n">
-        <v>1400.760847611637</v>
+        <v>853.3312529786895</v>
       </c>
     </row>
     <row r="202">
@@ -5675,25 +5675,25 @@
         <v>1000</v>
       </c>
       <c r="B202" t="n">
-        <v>1230.616026738088</v>
+        <v>77.31649582854101</v>
       </c>
       <c r="C202" t="n">
-        <v>264.202110244362</v>
+        <v>693.394425118268</v>
       </c>
       <c r="D202" t="n">
-        <v>120.401329499786</v>
+        <v>169.6591012696105</v>
       </c>
       <c r="E202" t="n">
-        <v>1316.170780899963</v>
+        <v>787.8289389978643</v>
       </c>
       <c r="F202" t="n">
-        <v>958.8497989257966</v>
+        <v>886.438296130829</v>
       </c>
       <c r="G202" t="n">
-        <v>1084.732375369861</v>
+        <v>615.7316267755622</v>
       </c>
       <c r="H202" t="n">
-        <v>1397.220295157607</v>
+        <v>851.1327886448203</v>
       </c>
     </row>
     <row r="203">
@@ -5701,25 +5701,25 @@
         <v>1005</v>
       </c>
       <c r="B203" t="n">
-        <v>1227.498017062734</v>
+        <v>77.40592353032022</v>
       </c>
       <c r="C203" t="n">
-        <v>260.9609328866458</v>
+        <v>691.3471279309427</v>
       </c>
       <c r="D203" t="n">
-        <v>120.5405910386458</v>
+        <v>167.5777581756552</v>
       </c>
       <c r="E203" t="n">
-        <v>1313.264350848834</v>
+        <v>786.3660740333586</v>
       </c>
       <c r="F203" t="n">
-        <v>958.6584474291037</v>
+        <v>884.2525467602754</v>
       </c>
       <c r="G203" t="n">
-        <v>1082.234656065812</v>
+        <v>615.6087491689998</v>
       </c>
       <c r="H203" t="n">
-        <v>1393.354553741398</v>
+        <v>848.4631595968592</v>
       </c>
     </row>
     <row r="204">
@@ -5727,25 +5727,25 @@
         <v>1010</v>
       </c>
       <c r="B204" t="n">
-        <v>1223.335250724899</v>
+        <v>77.44174671228473</v>
       </c>
       <c r="C204" t="n">
-        <v>257.7904613347507</v>
+        <v>689.2587614005782</v>
       </c>
       <c r="D204" t="n">
-        <v>120.5963767890115</v>
+        <v>165.5418192741912</v>
       </c>
       <c r="E204" t="n">
-        <v>1309.817002022526</v>
+        <v>784.2934420073718</v>
       </c>
       <c r="F204" t="n">
-        <v>958.1126655258613</v>
+        <v>881.8707280629321</v>
       </c>
       <c r="G204" t="n">
-        <v>1079.705389507695</v>
+        <v>615.2582717746005</v>
       </c>
       <c r="H204" t="n">
-        <v>1389.072967874377</v>
+        <v>845.2538295648152</v>
       </c>
     </row>
     <row r="205">
@@ -5753,25 +5753,25 @@
         <v>1015</v>
       </c>
       <c r="B205" t="n">
-        <v>1218.097635292594</v>
+        <v>77.43084794689254</v>
       </c>
       <c r="C205" t="n">
-        <v>254.6866878429874</v>
+        <v>687.0249705010743</v>
       </c>
       <c r="D205" t="n">
-        <v>120.5794046561043</v>
+        <v>163.5487109652909</v>
       </c>
       <c r="E205" t="n">
-        <v>1305.676824522014</v>
+        <v>781.5683939261967</v>
       </c>
       <c r="F205" t="n">
-        <v>957.1238765829904</v>
+        <v>879.2258980806582</v>
       </c>
       <c r="G205" t="n">
-        <v>1076.957962130689</v>
+        <v>614.6233145320649</v>
       </c>
       <c r="H205" t="n">
-        <v>1384.284882067818</v>
+        <v>841.4362622787468</v>
       </c>
     </row>
     <row r="206">
@@ -5779,25 +5779,25 @@
         <v>1020</v>
       </c>
       <c r="B206" t="n">
-        <v>1211.755078333854</v>
+        <v>77.38010980660765</v>
       </c>
       <c r="C206" t="n">
-        <v>251.6456046656691</v>
+        <v>684.5414002063204</v>
       </c>
       <c r="D206" t="n">
-        <v>120.5003925451545</v>
+        <v>161.5958596490287</v>
       </c>
       <c r="E206" t="n">
-        <v>1300.69190844821</v>
+        <v>778.1482807961456</v>
       </c>
       <c r="F206" t="n">
-        <v>955.6035039673893</v>
+        <v>876.2511148553868</v>
       </c>
       <c r="G206" t="n">
-        <v>1073.805760369955</v>
+        <v>613.6469973810808</v>
       </c>
       <c r="H206" t="n">
-        <v>1378.899640833147</v>
+        <v>836.9419214686681</v>
       </c>
     </row>
     <row r="207">
@@ -5805,25 +5805,25 @@
         <v>1025</v>
       </c>
       <c r="B207" t="n">
-        <v>1204.277487416695</v>
+        <v>77.29641486388915</v>
       </c>
       <c r="C207" t="n">
-        <v>248.6632040571098</v>
+        <v>681.7036954901953</v>
       </c>
       <c r="D207" t="n">
-        <v>120.3700583613852</v>
+        <v>159.6806917254792</v>
       </c>
       <c r="E207" t="n">
-        <v>1294.710343902094</v>
+        <v>773.990453623518</v>
       </c>
       <c r="F207" t="n">
-        <v>953.4629710460721</v>
+        <v>872.8794364289662</v>
       </c>
       <c r="G207" t="n">
-        <v>1070.06217066065</v>
+        <v>612.2724402614089</v>
       </c>
       <c r="H207" t="n">
-        <v>1372.826588681627</v>
+        <v>831.702270864648</v>
       </c>
     </row>
     <row r="208">
@@ -5831,25 +5831,25 @@
         <v>1030</v>
       </c>
       <c r="B208" t="n">
-        <v>1195.634770109143</v>
+        <v>77.18664569120277</v>
       </c>
       <c r="C208" t="n">
-        <v>245.7354782716205</v>
+        <v>678.4075013265884</v>
       </c>
       <c r="D208" t="n">
-        <v>120.1991200100295</v>
+        <v>157.8006335947149</v>
       </c>
       <c r="E208" t="n">
-        <v>1287.580220984595</v>
+        <v>769.0522634146214</v>
       </c>
       <c r="F208" t="n">
-        <v>950.6137011859123</v>
+        <v>869.0439208433185</v>
       </c>
       <c r="G208" t="n">
-        <v>1065.540579437935</v>
+        <v>610.4427631127207</v>
       </c>
       <c r="H208" t="n">
-        <v>1365.975070124642</v>
+        <v>825.6487741966987</v>
       </c>
     </row>
     <row r="209">
@@ -5857,25 +5857,25 @@
         <v>1035</v>
       </c>
       <c r="B209" t="n">
-        <v>1185.796833979203</v>
+        <v>77.0576848610043</v>
       </c>
       <c r="C209" t="n">
-        <v>242.8584195634963</v>
+        <v>674.5484626894042</v>
       </c>
       <c r="D209" t="n">
-        <v>119.9982953963051</v>
+        <v>155.9531116567986</v>
       </c>
       <c r="E209" t="n">
-        <v>1279.149629796672</v>
+        <v>763.2910611757427</v>
       </c>
       <c r="F209" t="n">
-        <v>946.9671177538493</v>
+        <v>864.6776261403063</v>
       </c>
       <c r="G209" t="n">
-        <v>1060.054373136996</v>
+        <v>608.1010858747295</v>
       </c>
       <c r="H209" t="n">
-        <v>1358.254429673482</v>
+        <v>818.7128951948707</v>
       </c>
     </row>
     <row r="210">
@@ -5883,25 +5883,25 @@
         <v>1040</v>
       </c>
       <c r="B210" t="n">
-        <v>1174.733586594915</v>
+        <v>76.91641494575738</v>
       </c>
       <c r="C210" t="n">
-        <v>240.0280201870632</v>
+        <v>670.0222245525185</v>
       </c>
       <c r="D210" t="n">
-        <v>119.7783024254418</v>
+        <v>154.1355523118124</v>
       </c>
       <c r="E210" t="n">
-        <v>1269.266660439255</v>
+        <v>756.6641979132002</v>
       </c>
       <c r="F210" t="n">
-        <v>942.4346441167977</v>
+        <v>859.7136103618557</v>
       </c>
       <c r="G210" t="n">
-        <v>1053.416938192977</v>
+        <v>605.1905284871328</v>
       </c>
       <c r="H210" t="n">
-        <v>1349.574011839546</v>
+        <v>810.8260975891836</v>
       </c>
     </row>
     <row r="211">
@@ -5909,25 +5909,25 @@
         <v>1045</v>
       </c>
       <c r="B211" t="n">
-        <v>1162.414935524305</v>
+        <v>76.76971851792449</v>
       </c>
       <c r="C211" t="n">
-        <v>237.2402723966251</v>
+        <v>664.724431889842</v>
       </c>
       <c r="D211" t="n">
-        <v>119.5498590026682</v>
+        <v>152.3453819598246</v>
       </c>
       <c r="E211" t="n">
-        <v>1257.779403013314</v>
+        <v>749.1290246332974</v>
       </c>
       <c r="F211" t="n">
-        <v>936.9277036417574</v>
+        <v>854.0849315498332</v>
       </c>
       <c r="G211" t="n">
-        <v>1045.441661041076</v>
+        <v>601.6542108896825</v>
       </c>
       <c r="H211" t="n">
-        <v>1339.843161134133</v>
+        <v>801.9198451096985</v>
       </c>
     </row>
     <row r="212">
@@ -5935,25 +5935,25 @@
         <v>1050</v>
       </c>
       <c r="B212" t="n">
-        <v>1148.810250547003</v>
+        <v>76.62490210824093</v>
       </c>
       <c r="C212" t="n">
-        <v>234.4870010385156</v>
+        <v>658.5562550170248</v>
       </c>
       <c r="D212" t="n">
-        <v>119.3243432434185</v>
+        <v>150.5773508728049</v>
       </c>
       <c r="E212" t="n">
-        <v>1244.544200707675</v>
+        <v>740.6427759890565</v>
       </c>
       <c r="F212" t="n">
-        <v>930.3658164360859</v>
+        <v>847.7204064375954</v>
       </c>
       <c r="G212" t="n">
-        <v>1035.950546382871</v>
+        <v>597.4404523965462</v>
       </c>
       <c r="H212" t="n">
-        <v>1328.96401005832</v>
+        <v>791.9319765694695</v>
       </c>
     </row>
     <row r="213">
@@ -5961,25 +5961,25 @@
         <v>1055</v>
       </c>
       <c r="B213" t="n">
-        <v>1133.965793422529</v>
+        <v>76.48861532054346</v>
       </c>
       <c r="C213" t="n">
-        <v>231.7526296993008</v>
+        <v>651.4996239623035</v>
       </c>
       <c r="D213" t="n">
-        <v>119.112110261877</v>
+        <v>148.8214565556873</v>
       </c>
       <c r="E213" t="n">
-        <v>1229.557443334848</v>
+        <v>731.2285213987948</v>
       </c>
       <c r="F213" t="n">
-        <v>922.8004679475879</v>
+        <v>840.5629664678853</v>
       </c>
       <c r="G213" t="n">
-        <v>1024.914145038893</v>
+        <v>592.5823147224646</v>
       </c>
       <c r="H213" t="n">
-        <v>1316.856217704777</v>
+        <v>780.8882254985529</v>
       </c>
     </row>
     <row r="214">
@@ -5987,25 +5987,25 @@
         <v>1060</v>
       </c>
       <c r="B214" t="n">
-        <v>1118.021743754185</v>
+        <v>76.36639866065437</v>
       </c>
       <c r="C214" t="n">
-        <v>229.0265469074832</v>
+        <v>643.6423391913507</v>
       </c>
       <c r="D214" t="n">
-        <v>118.9217880262405</v>
+        <v>147.0708847831206</v>
       </c>
       <c r="E214" t="n">
-        <v>1213.009186400619</v>
+        <v>720.9919735348902</v>
       </c>
       <c r="F214" t="n">
-        <v>914.2987635090329</v>
+        <v>832.6373357244913</v>
       </c>
       <c r="G214" t="n">
-        <v>1012.492180837709</v>
+        <v>587.1228899927715</v>
       </c>
       <c r="H214" t="n">
-        <v>1303.572425954818</v>
+        <v>768.9287640122468</v>
       </c>
     </row>
     <row r="215">
@@ -6013,25 +6013,25 @@
         <v>1065</v>
       </c>
       <c r="B215" t="n">
-        <v>1101.122400847344</v>
+        <v>76.26392256237082</v>
       </c>
       <c r="C215" t="n">
-        <v>226.2977692313611</v>
+        <v>635.0870468991421</v>
       </c>
       <c r="D215" t="n">
-        <v>118.7622068354084</v>
+        <v>145.3185824730927</v>
       </c>
       <c r="E215" t="n">
-        <v>1195.11519560535</v>
+        <v>710.0431870903477</v>
       </c>
       <c r="F215" t="n">
-        <v>904.9112081783956</v>
+        <v>823.9815446579875</v>
       </c>
       <c r="G215" t="n">
-        <v>998.8678523165862</v>
+        <v>581.0946103585115</v>
       </c>
       <c r="H215" t="n">
-        <v>1289.188150672117</v>
+        <v>756.2099814481176</v>
       </c>
     </row>
     <row r="216">
@@ -6039,25 +6039,25 @@
         <v>1070</v>
       </c>
       <c r="B216" t="n">
-        <v>1083.412064007314</v>
+        <v>76.18685745948142</v>
       </c>
       <c r="C216" t="n">
-        <v>223.5553132392595</v>
+        <v>625.9363932806965</v>
       </c>
       <c r="D216" t="n">
-        <v>118.6421969882666</v>
+        <v>143.5574965436084</v>
       </c>
       <c r="E216" t="n">
-        <v>1176.091236649454</v>
+        <v>698.4922167581399</v>
       </c>
       <c r="F216" t="n">
-        <v>894.6883070137245</v>
+        <v>814.633623718954</v>
       </c>
       <c r="G216" t="n">
-        <v>984.2243580128769</v>
+        <v>574.5299079707753</v>
       </c>
       <c r="H216" t="n">
-        <v>1273.778907720365</v>
+        <v>742.8882671437729</v>
       </c>
     </row>
     <row r="217">
@@ -6065,25 +6065,25 @@
         <v>1075</v>
       </c>
       <c r="B217" t="n">
-        <v>1065.035032539429</v>
+        <v>76.14087378578213</v>
       </c>
       <c r="C217" t="n">
-        <v>220.788195499453</v>
+        <v>616.293024531024</v>
       </c>
       <c r="D217" t="n">
-        <v>118.5705887837127</v>
+        <v>141.7805739126401</v>
       </c>
       <c r="E217" t="n">
-        <v>1156.153075233249</v>
+        <v>686.4491172312521</v>
       </c>
       <c r="F217" t="n">
-        <v>883.6805650730847</v>
+        <v>804.6316033579827</v>
       </c>
       <c r="G217" t="n">
-        <v>968.7448964639162</v>
+        <v>567.4612149806646</v>
       </c>
       <c r="H217" t="n">
-        <v>1257.42021296327</v>
+        <v>729.1200104367506</v>
       </c>
     </row>
     <row r="218">
@@ -6091,25 +6091,25 @@
         <v>1080</v>
       </c>
       <c r="B218" t="n">
-        <v>1046.135605749006</v>
+        <v>76.13164197506237</v>
       </c>
       <c r="C218" t="n">
-        <v>217.9854325802644</v>
+        <v>606.2595868451322</v>
       </c>
       <c r="D218" t="n">
-        <v>118.5562125206341</v>
+        <v>139.9807614981916</v>
       </c>
       <c r="E218" t="n">
-        <v>1135.516477057113</v>
+        <v>674.0239432026676</v>
       </c>
       <c r="F218" t="n">
-        <v>871.9384874146265</v>
+        <v>794.0135140256325</v>
       </c>
       <c r="G218" t="n">
-        <v>952.6126662070462</v>
+        <v>559.9209635393364</v>
       </c>
       <c r="H218" t="n">
-        <v>1240.187582264497</v>
+        <v>715.0616006646381</v>
       </c>
     </row>
     <row r="219">
@@ -6117,25 +6117,25 @@
         <v>1085</v>
       </c>
       <c r="B219" t="n">
-        <v>1026.85808294143</v>
+        <v>76.16483246112234</v>
       </c>
       <c r="C219" t="n">
-        <v>215.1360410499949</v>
+        <v>595.9387264180178</v>
       </c>
       <c r="D219" t="n">
-        <v>118.6078984979348</v>
+        <v>138.151006218252</v>
       </c>
       <c r="E219" t="n">
-        <v>1114.397207821417</v>
+        <v>661.3267493653926</v>
       </c>
       <c r="F219" t="n">
-        <v>859.5125790962753</v>
+        <v>782.8173861725052</v>
       </c>
       <c r="G219" t="n">
-        <v>936.0108657795565</v>
+        <v>551.941585797803</v>
       </c>
       <c r="H219" t="n">
-        <v>1222.156531487765</v>
+        <v>700.8694271650104</v>
       </c>
     </row>
     <row r="220">
@@ -6143,25 +6143,25 @@
         <v>1090</v>
       </c>
       <c r="B220" t="n">
-        <v>1007.346763421996</v>
+        <v>76.24611567774676</v>
       </c>
       <c r="C220" t="n">
-        <v>212.2290374769511</v>
+        <v>585.4330894446978</v>
       </c>
       <c r="D220" t="n">
-        <v>118.7344770144948</v>
+        <v>136.2842549908149</v>
       </c>
       <c r="E220" t="n">
-        <v>1093.011033226562</v>
+        <v>648.4675904123961</v>
       </c>
       <c r="F220" t="n">
-        <v>846.4533451761049</v>
+        <v>771.0812502491522</v>
       </c>
       <c r="G220" t="n">
-        <v>919.1226937188022</v>
+        <v>543.5555139071716</v>
       </c>
       <c r="H220" t="n">
-        <v>1203.402576496727</v>
+        <v>686.6998792754734</v>
       </c>
     </row>
     <row r="221">
@@ -6169,25 +6169,25 @@
         <v>1095</v>
       </c>
       <c r="B221" t="n">
-        <v>987.7459464960526</v>
+        <v>76.38116205873604</v>
       </c>
       <c r="C221" t="n">
-        <v>209.2534384294337</v>
+        <v>574.8453221201604</v>
       </c>
       <c r="D221" t="n">
-        <v>118.9447783692187</v>
+        <v>134.3734547338692</v>
       </c>
       <c r="E221" t="n">
-        <v>1071.573718972879</v>
+        <v>635.5565210366693</v>
       </c>
       <c r="F221" t="n">
-        <v>832.8112907121856</v>
+        <v>758.8431367061771</v>
       </c>
       <c r="G221" t="n">
-        <v>902.1313485620857</v>
+        <v>534.7951800185475</v>
       </c>
       <c r="H221" t="n">
-        <v>1184.001233155098</v>
+        <v>672.7093463335639</v>
       </c>
     </row>
     <row r="222">
@@ -6195,25 +6195,25 @@
         <v>1100</v>
       </c>
       <c r="B222" t="n">
-        <v>968.199931468905</v>
+        <v>76.57564203787791</v>
       </c>
       <c r="C222" t="n">
-        <v>206.1982604757497</v>
+        <v>564.2780706394278</v>
       </c>
       <c r="D222" t="n">
-        <v>119.2476328609911</v>
+        <v>132.4115523654085</v>
       </c>
       <c r="E222" t="n">
-        <v>1050.301030760739</v>
+        <v>622.7035959311895</v>
       </c>
       <c r="F222" t="n">
-        <v>818.6369207626572</v>
+        <v>746.1410759941274</v>
       </c>
       <c r="G222" t="n">
-        <v>885.2200288467701</v>
+        <v>525.6930162830812</v>
       </c>
       <c r="H222" t="n">
-        <v>1164.028017326535</v>
+        <v>659.0542176768773</v>
       </c>
     </row>
     <row r="223">
@@ -6221,25 +6221,25 @@
         <v>1105</v>
       </c>
       <c r="B223" t="n">
-        <v>948.8530176459313</v>
+        <v>76.83522604897023</v>
       </c>
       <c r="C223" t="n">
-        <v>203.0525201842041</v>
+        <v>553.8339811974826</v>
       </c>
       <c r="D223" t="n">
-        <v>119.6518707887123</v>
+        <v>130.3914948034245</v>
       </c>
       <c r="E223" t="n">
-        <v>1029.408734290509</v>
+        <v>610.0188697889598</v>
       </c>
       <c r="F223" t="n">
-        <v>803.9807403854411</v>
+        <v>733.0130985636127</v>
       </c>
       <c r="G223" t="n">
-        <v>868.5719331101238</v>
+        <v>516.2814548517816</v>
       </c>
       <c r="H223" t="n">
-        <v>1143.558444874766</v>
+        <v>645.8908826429758</v>
       </c>
     </row>
     <row r="224">
@@ -6247,25 +6247,25 @@
         <v>1110</v>
       </c>
       <c r="B224" t="n">
-        <v>929.8507883626114</v>
+        <v>77.16442748054773</v>
       </c>
       <c r="C224" t="n">
-        <v>199.8086020059054</v>
+        <v>543.6089823844198</v>
       </c>
       <c r="D224" t="n">
-        <v>120.1645206393091</v>
+        <v>128.3083916737286</v>
       </c>
       <c r="E224" t="n">
-        <v>1009.106513598876</v>
+        <v>597.6127325613954</v>
       </c>
       <c r="F224" t="n">
-        <v>788.8891555385909</v>
+        <v>719.4987303273051</v>
       </c>
       <c r="G224" t="n">
-        <v>852.3590775833914</v>
+        <v>506.590295612052</v>
       </c>
       <c r="H224" t="n">
-        <v>1122.66943895303</v>
+        <v>633.3701968740335</v>
       </c>
     </row>
     <row r="225">
@@ -6273,25 +6273,25 @@
         <v>1115</v>
       </c>
       <c r="B225" t="n">
-        <v>911.2879175612825</v>
+        <v>77.55954140190924</v>
       </c>
       <c r="C225" t="n">
-        <v>196.479301569179</v>
+        <v>533.6493595246092</v>
       </c>
       <c r="D225" t="n">
-        <v>120.7798128990785</v>
+        <v>126.1704597721662</v>
       </c>
       <c r="E225" t="n">
-        <v>989.5144330242366</v>
+        <v>585.5513705395474</v>
       </c>
       <c r="F225" t="n">
-        <v>773.3705731631729</v>
+        <v>705.6641955000432</v>
       </c>
       <c r="G225" t="n">
-        <v>836.6559252149818</v>
+        <v>496.6249371357073</v>
       </c>
       <c r="H225" t="n">
-        <v>1101.460021632132</v>
+        <v>621.5590115472595</v>
       </c>
     </row>
     <row r="226">
@@ -6299,25 +6299,25 @@
         <v>1120</v>
       </c>
       <c r="B226" t="n">
-        <v>893.1519199457784</v>
+        <v>78.00806465643352</v>
       </c>
       <c r="C226" t="n">
-        <v>193.0943480678727</v>
+        <v>523.9317501396349</v>
       </c>
       <c r="D226" t="n">
-        <v>121.4782769923822</v>
+        <v>123.9967898936784</v>
       </c>
       <c r="E226" t="n">
-        <v>970.5875267840787</v>
+        <v>573.819244877245</v>
       </c>
       <c r="F226" t="n">
-        <v>757.4875649382689</v>
+        <v>691.5686904828458</v>
       </c>
       <c r="G226" t="n">
-        <v>821.4107321188509</v>
+        <v>486.4255602329163</v>
       </c>
       <c r="H226" t="n">
-        <v>1079.991470658399</v>
+        <v>610.3879325688239</v>
       </c>
     </row>
     <row r="227">
@@ -6325,25 +6325,25 @@
         <v>1125</v>
       </c>
       <c r="B227" t="n">
-        <v>875.4171426180715</v>
+        <v>78.49660196114563</v>
       </c>
       <c r="C227" t="n">
-        <v>189.68586423547</v>
+        <v>514.4200910746267</v>
       </c>
       <c r="D227" t="n">
-        <v>122.2390530773204</v>
+        <v>121.8080098602315</v>
       </c>
       <c r="E227" t="n">
-        <v>952.2516344629474</v>
+        <v>562.3915556493657</v>
       </c>
       <c r="F227" t="n">
-        <v>741.3184548133019</v>
+        <v>677.2637057965669</v>
       </c>
       <c r="G227" t="n">
-        <v>806.551941207617</v>
+        <v>476.0424611365689</v>
       </c>
       <c r="H227" t="n">
-        <v>1058.310087050709</v>
+        <v>599.7657087416975</v>
       </c>
     </row>
     <row r="228">
@@ -6351,25 +6351,25 @@
         <v>1130</v>
       </c>
       <c r="B228" t="n">
-        <v>858.0579326801112</v>
+        <v>79.01175803307355</v>
       </c>
       <c r="C228" t="n">
-        <v>186.2859728054695</v>
+        <v>505.0783191747543</v>
       </c>
       <c r="D228" t="n">
-        <v>123.0412813119983</v>
+        <v>119.6247474938006</v>
       </c>
       <c r="E228" t="n">
-        <v>934.4325956453436</v>
+        <v>551.2435029307846</v>
       </c>
       <c r="F228" t="n">
-        <v>724.9415667377313</v>
+        <v>662.8007319619794</v>
       </c>
       <c r="G228" t="n">
-        <v>792.0079953939877</v>
+        <v>465.5259360795797</v>
       </c>
       <c r="H228" t="n">
-        <v>1036.462171827814</v>
+        <v>589.6010888688305</v>
       </c>
     </row>
     <row r="229">
@@ -6377,25 +6377,25 @@
         <v>1135</v>
       </c>
       <c r="B229" t="n">
-        <v>841.0486372338529</v>
+        <v>79.54013758924</v>
       </c>
       <c r="C229" t="n">
-        <v>182.9267965113561</v>
+        <v>495.8703712851295</v>
       </c>
       <c r="D229" t="n">
-        <v>123.8641018545126</v>
+        <v>117.4676306163527</v>
       </c>
       <c r="E229" t="n">
-        <v>917.056249915819</v>
+        <v>540.3502867963743</v>
       </c>
       <c r="F229" t="n">
-        <v>708.4352246610416</v>
+        <v>648.2312594999204</v>
       </c>
       <c r="G229" t="n">
-        <v>777.7073375905733</v>
+        <v>454.9262812948777</v>
       </c>
       <c r="H229" t="n">
-        <v>1014.494026008551</v>
+        <v>579.802821753191</v>
       </c>
     </row>
     <row r="230">
@@ -6403,25 +6403,25 @@
         <v>1140</v>
       </c>
       <c r="B230" t="n">
-        <v>824.3636033812468</v>
+        <v>80.06834534666793</v>
       </c>
       <c r="C230" t="n">
-        <v>179.6404580866231</v>
+        <v>486.7601842508913</v>
       </c>
       <c r="D230" t="n">
-        <v>124.6866548629606</v>
+        <v>115.35728704986</v>
       </c>
       <c r="E230" t="n">
-        <v>900.0484368588776</v>
+        <v>529.6871073210096</v>
       </c>
       <c r="F230" t="n">
-        <v>691.8777525326849</v>
+        <v>633.606778931188</v>
       </c>
       <c r="G230" t="n">
-        <v>763.5784107100316</v>
+        <v>444.2937930153731</v>
       </c>
       <c r="H230" t="n">
-        <v>992.4519506117181</v>
+        <v>570.2796561977294</v>
       </c>
     </row>
     <row r="231">
@@ -6429,25 +6429,25 @@
         <v>1145</v>
       </c>
       <c r="B231" t="n">
-        <v>807.9771782242555</v>
+        <v>80.5829860223815</v>
       </c>
       <c r="C231" t="n">
-        <v>176.4590802647632</v>
+        <v>477.7116949171814</v>
       </c>
       <c r="D231" t="n">
-        <v>125.4880804954414</v>
+        <v>113.3143446162943</v>
       </c>
       <c r="E231" t="n">
-        <v>883.3349960590641</v>
+        <v>519.2291645795614</v>
       </c>
       <c r="F231" t="n">
-        <v>675.3474743021093</v>
+        <v>618.9787807766289</v>
       </c>
       <c r="G231" t="n">
-        <v>749.5496576650053</v>
+        <v>433.6787674739717</v>
       </c>
       <c r="H231" t="n">
-        <v>970.382246656176</v>
+        <v>560.9403410054157</v>
       </c>
     </row>
     <row r="232">
@@ -6455,25 +6455,25 @@
         <v>1150</v>
       </c>
       <c r="B232" t="n">
-        <v>791.8637088648318</v>
+        <v>81.07066433340778</v>
       </c>
       <c r="C232" t="n">
-        <v>173.4147857792651</v>
+        <v>468.6888401291501</v>
       </c>
       <c r="D232" t="n">
-        <v>126.2475189100584</v>
+        <v>111.3594311376247</v>
       </c>
       <c r="E232" t="n">
-        <v>866.8417671008788</v>
+        <v>508.9516586469085</v>
       </c>
       <c r="F232" t="n">
-        <v>658.9227139187684</v>
+        <v>604.3987555570252</v>
       </c>
       <c r="G232" t="n">
-        <v>735.5495213681689</v>
+        <v>423.1315009035836</v>
       </c>
       <c r="H232" t="n">
-        <v>948.3312151606945</v>
+        <v>551.6936249791989</v>
       </c>
     </row>
     <row r="233">
@@ -6481,25 +6481,25 @@
         <v>1155</v>
       </c>
       <c r="B233" t="n">
-        <v>775.9975424049436</v>
+        <v>81.51798499677089</v>
       </c>
       <c r="C233" t="n">
-        <v>170.539697363607</v>
+        <v>459.6555567319301</v>
       </c>
       <c r="D233" t="n">
-        <v>126.9441102649108</v>
+        <v>109.5131744358139</v>
       </c>
       <c r="E233" t="n">
-        <v>850.4945895688737</v>
+        <v>498.8297895979298</v>
       </c>
       <c r="F233" t="n">
-        <v>642.6817953321411</v>
+        <v>589.9181937932142</v>
       </c>
       <c r="G233" t="n">
-        <v>721.5064447321648</v>
+        <v>412.7022895371355</v>
       </c>
       <c r="H233" t="n">
-        <v>926.3451571441169</v>
+        <v>542.4482569220525</v>
       </c>
     </row>
     <row r="234">
@@ -6507,25 +6507,25 @@
         <v>1160</v>
       </c>
       <c r="B234" t="n">
-        <v>760.3530259465306</v>
+        <v>81.91155272949612</v>
       </c>
       <c r="C234" t="n">
-        <v>167.8659377512888</v>
+        <v>450.5757815706496</v>
       </c>
       <c r="D234" t="n">
-        <v>127.5569947180994</v>
+        <v>107.7962023328381</v>
       </c>
       <c r="E234" t="n">
-        <v>834.2193030475599</v>
+        <v>488.8387575074945</v>
       </c>
       <c r="F234" t="n">
-        <v>626.7030424916679</v>
+        <v>575.5885860059982</v>
       </c>
       <c r="G234" t="n">
-        <v>707.3488706696349</v>
+        <v>402.4414296075287</v>
       </c>
       <c r="H234" t="n">
-        <v>904.4703736252336</v>
+        <v>533.1129856369212</v>
       </c>
     </row>
     <row r="235">
@@ -6533,25 +6533,25 @@
         <v>1165</v>
       </c>
       <c r="B235" t="n">
-        <v>744.9045065915573</v>
+        <v>82.23797224860574</v>
       </c>
       <c r="C235" t="n">
-        <v>165.4256296757978</v>
+        <v>441.4134514904596</v>
       </c>
       <c r="D235" t="n">
-        <v>128.0653124277203</v>
+        <v>106.2291426506658</v>
       </c>
       <c r="E235" t="n">
-        <v>817.9417471214728</v>
+        <v>478.9537624504743</v>
       </c>
       <c r="F235" t="n">
-        <v>611.0647793468297</v>
+        <v>561.4614227162217</v>
       </c>
       <c r="G235" t="n">
-        <v>693.0052420932356</v>
+        <v>392.399217347691</v>
       </c>
       <c r="H235" t="n">
-        <v>882.7531656229124</v>
+        <v>523.5965599267748</v>
       </c>
     </row>
     <row r="236">
@@ -6559,25 +6559,25 @@
         <v>1170</v>
       </c>
       <c r="B236" t="n">
-        <v>729.621586863489</v>
+        <v>82.48489790377693</v>
       </c>
       <c r="C236" t="n">
-        <v>163.2477548791675</v>
+        <v>432.1366254603539</v>
       </c>
       <c r="D236" t="n">
-        <v>128.4498380952589</v>
+        <v>104.8306062032004</v>
       </c>
       <c r="E236" t="n">
-        <v>801.5852166081762</v>
+        <v>469.1476266477846</v>
       </c>
       <c r="F236" t="n">
-        <v>595.8444059454609</v>
+        <v>547.5879866946244</v>
       </c>
       <c r="G236" t="n">
-        <v>678.4118724416397</v>
+        <v>382.6253557011063</v>
       </c>
       <c r="H236" t="n">
-        <v>861.2418842640401</v>
+        <v>513.8078307285224</v>
       </c>
     </row>
     <row r="237">
@@ -6585,25 +6585,25 @@
         <v>1175</v>
       </c>
       <c r="B237" t="n">
-        <v>714.4499954199511</v>
+        <v>82.64626850767871</v>
       </c>
       <c r="C237" t="n">
-        <v>161.3243444130786</v>
+        <v>422.7289422193667</v>
       </c>
       <c r="D237" t="n">
-        <v>128.7011329197818</v>
+        <v>103.5954756785146</v>
       </c>
       <c r="E237" t="n">
-        <v>785.072401308411</v>
+        <v>459.3849846486032</v>
       </c>
       <c r="F237" t="n">
-        <v>581.0888723505694</v>
+        <v>533.9812341252359</v>
       </c>
       <c r="G237" t="n">
-        <v>663.5459648154357</v>
+        <v>373.1499939557083</v>
       </c>
       <c r="H237" t="n">
-        <v>839.9530830361102</v>
+        <v>503.6854468174592</v>
       </c>
     </row>
     <row r="238">
@@ -6611,25 +6611,25 @@
         <v>1180</v>
       </c>
       <c r="B238" t="n">
-        <v>699.3644924589723</v>
+        <v>82.72241699508116</v>
       </c>
       <c r="C238" t="n">
-        <v>159.6117430326183</v>
+        <v>413.2121046913805</v>
       </c>
       <c r="D238" t="n">
-        <v>128.8197153648914</v>
+        <v>102.4957175775166</v>
       </c>
       <c r="E238" t="n">
-        <v>768.3945346303357</v>
+        <v>449.6545219350177</v>
       </c>
       <c r="F238" t="n">
-        <v>566.7812174366442</v>
+        <v>520.6255093353002</v>
       </c>
       <c r="G238" t="n">
-        <v>648.4544381905197</v>
+        <v>363.962240414576</v>
       </c>
       <c r="H238" t="n">
-        <v>818.8862043213915</v>
+        <v>493.246974600029</v>
       </c>
     </row>
     <row r="239">
@@ -6637,25 +6637,25 @@
         <v>1185</v>
       </c>
       <c r="B239" t="n">
-        <v>684.3486155526964</v>
+        <v>82.71444642558654</v>
       </c>
       <c r="C239" t="n">
-        <v>158.0631898172053</v>
+        <v>403.6174403566833</v>
       </c>
       <c r="D239" t="n">
-        <v>128.8073031732402</v>
+        <v>101.5013040713106</v>
       </c>
       <c r="E239" t="n">
-        <v>751.5605236889729</v>
+        <v>439.9507307634433</v>
       </c>
       <c r="F239" t="n">
-        <v>552.897853716605</v>
+        <v>507.508235822881</v>
       </c>
       <c r="G239" t="n">
-        <v>633.1989794011927</v>
+        <v>355.0469482196635</v>
       </c>
       <c r="H239" t="n">
-        <v>798.0478249562462</v>
+        <v>482.5244574927592</v>
       </c>
     </row>
     <row r="240">
@@ -6663,25 +6663,25 @@
         <v>1190</v>
       </c>
       <c r="B240" t="n">
-        <v>669.3859022732372</v>
+        <v>82.62345985880015</v>
       </c>
       <c r="C240" t="n">
-        <v>156.6319238462753</v>
+        <v>393.9762766955799</v>
       </c>
       <c r="D240" t="n">
-        <v>128.6656140874855</v>
+        <v>100.5822073310114</v>
       </c>
       <c r="E240" t="n">
-        <v>734.5792755993691</v>
+        <v>430.2681033902915</v>
       </c>
       <c r="F240" t="n">
-        <v>539.4151937033943</v>
+        <v>494.6168370860042</v>
       </c>
       <c r="G240" t="n">
-        <v>617.8412752818111</v>
+        <v>346.3889705129397</v>
       </c>
       <c r="H240" t="n">
-        <v>777.4445217769792</v>
+        <v>471.5499389121965</v>
       </c>
     </row>
     <row r="241">
@@ -6689,25 +6689,25 @@
         <v>1195</v>
       </c>
       <c r="B241" t="n">
-        <v>654.4598901927375</v>
+        <v>82.45056035432293</v>
       </c>
       <c r="C241" t="n">
-        <v>155.271184199216</v>
+        <v>384.3199411883753</v>
       </c>
       <c r="D241" t="n">
-        <v>128.3963658502778</v>
+        <v>99.70839952770328</v>
       </c>
       <c r="E241" t="n">
-        <v>717.4596974765221</v>
+        <v>420.6011320719834</v>
       </c>
       <c r="F241" t="n">
-        <v>526.3096499099643</v>
+        <v>481.9387366227294</v>
       </c>
       <c r="G241" t="n">
-        <v>602.443012666722</v>
+        <v>337.9731604363798</v>
       </c>
       <c r="H241" t="n">
-        <v>757.0828716199374</v>
+        <v>460.3554622748455</v>
       </c>
     </row>
     <row r="242">
@@ -6715,25 +6715,25 @@
         <v>1200</v>
       </c>
       <c r="B242" t="n">
-        <v>639.5541168833056</v>
+        <v>82.19685097176476</v>
       </c>
       <c r="C242" t="n">
-        <v>153.9342099554607</v>
+        <v>374.6797613153586</v>
       </c>
       <c r="D242" t="n">
-        <v>128.0012762042815</v>
+        <v>98.84985283249952</v>
       </c>
       <c r="E242" t="n">
-        <v>700.2106964354564</v>
+        <v>410.9443090649276</v>
       </c>
       <c r="F242" t="n">
-        <v>513.5576348492988</v>
+        <v>469.461357931087</v>
       </c>
       <c r="G242" t="n">
-        <v>587.06587839026</v>
+        <v>329.7843711319796</v>
       </c>
       <c r="H242" t="n">
-        <v>736.9694513214279</v>
+        <v>448.9730709972309</v>
       </c>
     </row>
     <row r="243">
@@ -6741,25 +6741,25 @@
         <v>1205</v>
       </c>
       <c r="B243" t="n">
-        <v>624.6521199170915</v>
+        <v>81.86343477072883</v>
       </c>
       <c r="C243" t="n">
-        <v>152.574240194431</v>
+        <v>365.0870645568548</v>
       </c>
       <c r="D243" t="n">
-        <v>127.4820628921506</v>
+        <v>97.97653941650623</v>
       </c>
       <c r="E243" t="n">
-        <v>682.8411795911932</v>
+        <v>401.2921266255426</v>
       </c>
       <c r="F243" t="n">
-        <v>501.1355610343051</v>
+        <v>457.1721245091443</v>
       </c>
       <c r="G243" t="n">
-        <v>571.7715592867788</v>
+        <v>321.8074557416848</v>
       </c>
       <c r="H243" t="n">
-        <v>717.1108377178215</v>
+        <v>437.4348084958814</v>
       </c>
     </row>
     <row r="244">
@@ -6767,25 +6767,25 @@
         <v>1210</v>
       </c>
       <c r="B244" t="n">
-        <v>609.7374368662025</v>
+        <v>81.45141481081646</v>
       </c>
       <c r="C244" t="n">
-        <v>151.1445139955429</v>
+        <v>355.5731783931343</v>
       </c>
       <c r="D244" t="n">
-        <v>126.8404436565361</v>
+        <v>97.05843145082568</v>
       </c>
       <c r="E244" t="n">
-        <v>665.3600540587795</v>
+        <v>391.6390770102352</v>
       </c>
       <c r="F244" t="n">
-        <v>489.0198409779283</v>
+        <v>445.0584598549258</v>
       </c>
       <c r="G244" t="n">
-        <v>556.6217421905859</v>
+        <v>314.0272674074665</v>
       </c>
       <c r="H244" t="n">
-        <v>697.5136076454189</v>
+        <v>425.7727181873444</v>
       </c>
     </row>
     <row r="245">
@@ -6793,25 +6793,25 @@
         <v>1215</v>
       </c>
       <c r="B245" t="n">
-        <v>594.7936053027809</v>
+        <v>80.96189415163383</v>
       </c>
       <c r="C245" t="n">
-        <v>149.5982704382139</v>
+        <v>346.1694303045123</v>
       </c>
       <c r="D245" t="n">
-        <v>126.0781362400968</v>
+        <v>96.06550110656099</v>
       </c>
       <c r="E245" t="n">
-        <v>647.7762269532205</v>
+        <v>381.9796524754273</v>
       </c>
       <c r="F245" t="n">
-        <v>477.1868871931213</v>
+        <v>433.1077874664834</v>
       </c>
       <c r="G245" t="n">
-        <v>541.6781139360427</v>
+        <v>306.4286592712997</v>
       </c>
       <c r="H245" t="n">
-        <v>678.1843379405497</v>
+        <v>414.0188434881235</v>
       </c>
     </row>
     <row r="246">
@@ -6819,25 +6819,25 @@
         <v>1220</v>
       </c>
       <c r="B246" t="n">
-        <v>579.8041627989392</v>
+        <v>80.39597585278881</v>
       </c>
       <c r="C246" t="n">
-        <v>147.8887486018627</v>
+        <v>336.907147771291</v>
       </c>
       <c r="D246" t="n">
-        <v>125.1968583854938</v>
+        <v>94.96772055481648</v>
       </c>
       <c r="E246" t="n">
-        <v>630.0986053895271</v>
+        <v>372.3083452775289</v>
       </c>
       <c r="F246" t="n">
-        <v>465.6131121928746</v>
+        <v>421.3075308418452</v>
       </c>
       <c r="G246" t="n">
-        <v>527.002361357502</v>
+        <v>298.9964844751848</v>
       </c>
       <c r="H246" t="n">
-        <v>659.1296054395289</v>
+        <v>402.2052278147469</v>
       </c>
     </row>
     <row r="247">
@@ -6845,25 +6845,25 @@
         <v>1225</v>
       </c>
       <c r="B247" t="n">
-        <v>564.7526469268286</v>
+        <v>79.75476297388329</v>
       </c>
       <c r="C247" t="n">
-        <v>145.9691875659088</v>
+        <v>327.8176582737584</v>
       </c>
       <c r="D247" t="n">
-        <v>124.1983278353791</v>
+        <v>93.73506196669672</v>
       </c>
       <c r="E247" t="n">
-        <v>612.3360964827301</v>
+        <v>362.6196476729605</v>
       </c>
       <c r="F247" t="n">
-        <v>454.2749284900803</v>
+        <v>409.6451134790832</v>
       </c>
       <c r="G247" t="n">
-        <v>512.656171289265</v>
+        <v>291.715596161058</v>
       </c>
       <c r="H247" t="n">
-        <v>640.3559869787281</v>
+        <v>390.363914583741</v>
       </c>
     </row>
     <row r="248">
@@ -6871,25 +6871,25 @@
         <v>1230</v>
       </c>
       <c r="B248" t="n">
-        <v>549.629282244211</v>
+        <v>79.04812475500437</v>
       </c>
       <c r="C248" t="n">
-        <v>143.7962915783098</v>
+        <v>318.9304559526415</v>
       </c>
       <c r="D248" t="n">
-        <v>123.0979134914976</v>
+        <v>92.33972269379149</v>
       </c>
       <c r="E248" t="n">
-        <v>594.5063204092443</v>
+        <v>352.9116867415229</v>
       </c>
       <c r="F248" t="n">
-        <v>443.1509134973901</v>
+        <v>398.1087255132145</v>
       </c>
       <c r="G248" t="n">
-        <v>498.6967632989681</v>
+        <v>284.5722376752989</v>
       </c>
       <c r="H248" t="n">
-        <v>621.8689690498192</v>
+        <v>378.5313805752876</v>
       </c>
     </row>
     <row r="249">
@@ -6897,25 +6897,25 @@
         <v>1235</v>
       </c>
       <c r="B249" t="n">
-        <v>534.4720445236585</v>
+        <v>78.38571634988433</v>
       </c>
       <c r="C249" t="n">
-        <v>141.377643412994</v>
+        <v>310.2686863003365</v>
       </c>
       <c r="D249" t="n">
-        <v>122.0663761488696</v>
+        <v>90.78657206363435</v>
       </c>
       <c r="E249" t="n">
-        <v>576.673085563199</v>
+        <v>343.2073936051825</v>
       </c>
       <c r="F249" t="n">
-        <v>432.2369779016549</v>
+        <v>386.703273012261</v>
       </c>
       <c r="G249" t="n">
-        <v>485.1565425110184</v>
+        <v>277.5637830389062</v>
       </c>
       <c r="H249" t="n">
-        <v>603.6827048114967</v>
+        <v>366.7607305076212</v>
       </c>
     </row>
     <row r="250">
@@ -6923,25 +6923,25 @@
         <v>1240</v>
       </c>
       <c r="B250" t="n">
-        <v>519.331131664328</v>
+        <v>77.97381707561263</v>
       </c>
       <c r="C250" t="n">
-        <v>138.7650713928784</v>
+        <v>301.826733579802</v>
       </c>
       <c r="D250" t="n">
-        <v>121.4249448513068</v>
+        <v>89.10889197044742</v>
       </c>
       <c r="E250" t="n">
-        <v>558.9012406721737</v>
+        <v>333.5336533384802</v>
       </c>
       <c r="F250" t="n">
-        <v>421.5277403054104</v>
+        <v>375.4388528376454</v>
       </c>
       <c r="G250" t="n">
-        <v>472.0147959241942</v>
+        <v>270.6867765525421</v>
       </c>
       <c r="H250" t="n">
-        <v>585.8057221727629</v>
+        <v>355.093359904387</v>
       </c>
     </row>
     <row r="251">
@@ -6949,25 +6949,25 @@
         <v>1245</v>
       </c>
       <c r="B251" t="n">
-        <v>504.253934873957</v>
+        <v>78.02606359503791</v>
       </c>
       <c r="C251" t="n">
-        <v>136.0128473914115</v>
+        <v>293.5917916982809</v>
       </c>
       <c r="D251" t="n">
-        <v>121.506305889894</v>
+        <v>87.34153345029915</v>
       </c>
       <c r="E251" t="n">
-        <v>541.2514880061816</v>
+        <v>323.9154423060825</v>
       </c>
       <c r="F251" t="n">
-        <v>411.0123989590302</v>
+        <v>364.3226568434065</v>
       </c>
       <c r="G251" t="n">
-        <v>459.2397861227612</v>
+        <v>263.9342818025192</v>
       </c>
       <c r="H251" t="n">
-        <v>568.240772720519</v>
+        <v>343.5670957277633</v>
       </c>
     </row>
     <row r="252">
@@ -6975,25 +6975,25 @@
         <v>1250</v>
       </c>
       <c r="B252" t="n">
-        <v>489.2878453602383</v>
+        <v>78.75609257101421</v>
       </c>
       <c r="C252" t="n">
-        <v>133.1752432820445</v>
+        <v>285.5510545630045</v>
       </c>
       <c r="D252" t="n">
-        <v>122.6431455557247</v>
+        <v>85.51934753925977</v>
       </c>
       <c r="E252" t="n">
-        <v>523.7845298351621</v>
+        <v>314.3777368726379</v>
       </c>
       <c r="F252" t="n">
-        <v>400.6801521129261</v>
+        <v>353.3618768835043</v>
       </c>
       <c r="G252" t="n">
-        <v>446.7997756909863</v>
+        <v>257.2993623751744</v>
       </c>
       <c r="H252" t="n">
-        <v>550.9906080415486</v>
+        <v>332.2197649398886</v>
       </c>
     </row>
     <row r="253">
@@ -7001,25 +7001,25 @@
         <v>1255</v>
       </c>
       <c r="B253" t="n">
-        <v>474.4802543309146</v>
+        <v>80.37754066638772</v>
       </c>
       <c r="C253" t="n">
-        <v>130.3065309382372</v>
+        <v>277.6917160811917</v>
       </c>
       <c r="D253" t="n">
-        <v>125.1681501398796</v>
+        <v>83.67718527340492</v>
       </c>
       <c r="E253" t="n">
-        <v>506.5610684291361</v>
+        <v>304.9455134028211</v>
       </c>
       <c r="F253" t="n">
-        <v>390.5201980175228</v>
+        <v>342.5637048119714</v>
       </c>
       <c r="G253" t="n">
-        <v>434.6630272131124</v>
+        <v>250.7750818568533</v>
       </c>
       <c r="H253" t="n">
-        <v>534.0579797227289</v>
+        <v>321.0891945029339</v>
       </c>
     </row>
     <row r="254">
@@ -7027,25 +7027,25 @@
         <v>1260</v>
       </c>
       <c r="B254" t="n">
-        <v>459.87855299368</v>
+        <v>83.104044544012</v>
       </c>
       <c r="C254" t="n">
-        <v>127.4609822334412</v>
+        <v>270.0009701600731</v>
       </c>
       <c r="D254" t="n">
-        <v>129.4140059334516</v>
+        <v>81.84989768880513</v>
       </c>
       <c r="E254" t="n">
-        <v>489.6418060580358</v>
+        <v>295.6437482612807</v>
       </c>
       <c r="F254" t="n">
-        <v>380.5217349232464</v>
+        <v>331.9353324827773</v>
       </c>
       <c r="G254" t="n">
-        <v>422.7978032734034</v>
+        <v>244.354503833902</v>
       </c>
       <c r="H254" t="n">
-        <v>517.4456393508708</v>
+        <v>310.2132113790413</v>
       </c>
     </row>
     <row r="255">
@@ -7053,25 +7053,25 @@
         <v>1265</v>
       </c>
       <c r="B255" t="n">
-        <v>445.5301325562766</v>
+        <v>87.14924086673315</v>
       </c>
       <c r="C255" t="n">
-        <v>124.6928690411067</v>
+        <v>262.4660107068836</v>
       </c>
       <c r="D255" t="n">
-        <v>135.7133992275211</v>
+        <v>80.07233582152983</v>
       </c>
       <c r="E255" t="n">
-        <v>473.0874449918656</v>
+        <v>286.4974178126876</v>
       </c>
       <c r="F255" t="n">
-        <v>370.6739610804694</v>
+        <v>321.4839517499609</v>
       </c>
       <c r="G255" t="n">
-        <v>411.1723664561157</v>
+        <v>238.0306918926324</v>
       </c>
       <c r="H255" t="n">
-        <v>501.1563385128653</v>
+        <v>299.6296425303728</v>
       </c>
     </row>
     <row r="256">
@@ -7079,25 +7079,25 @@
         <v>1270</v>
       </c>
       <c r="B256" t="n">
-        <v>431.4823842263995</v>
+        <v>92.72676629740438</v>
       </c>
       <c r="C256" t="n">
-        <v>122.0564632346792</v>
+        <v>255.0740316288559</v>
       </c>
       <c r="D256" t="n">
-        <v>144.3990163131805</v>
+        <v>78.37935070764576</v>
       </c>
       <c r="E256" t="n">
-        <v>456.9586875005684</v>
+        <v>277.5314984216908</v>
       </c>
       <c r="F256" t="n">
-        <v>360.9660747396073</v>
+        <v>311.2167544674862</v>
       </c>
       <c r="G256" t="n">
-        <v>399.754979345518</v>
+        <v>231.7967096193839</v>
       </c>
       <c r="H256" t="n">
-        <v>485.1928287955058</v>
+        <v>289.3763149190708</v>
       </c>
     </row>
     <row r="257">
@@ -7105,25 +7105,25 @@
         <v>1275</v>
       </c>
       <c r="B257" t="n">
-        <v>417.7826992117838</v>
+        <v>100.0502574988859</v>
       </c>
       <c r="C257" t="n">
-        <v>119.6060366876205</v>
+        <v>247.8122268332192</v>
       </c>
       <c r="D257" t="n">
-        <v>155.8035434815323</v>
+        <v>76.80579338322974</v>
       </c>
       <c r="E257" t="n">
-        <v>441.3162358541594</v>
+        <v>268.770966452961</v>
       </c>
       <c r="F257" t="n">
-        <v>351.3872741510846</v>
+        <v>301.1409324893895</v>
       </c>
       <c r="G257" t="n">
-        <v>388.5139045258666</v>
+        <v>225.6456206005019</v>
       </c>
       <c r="H257" t="n">
-        <v>469.5578617856825</v>
+        <v>279.4910555073093</v>
       </c>
     </row>
     <row r="258">
@@ -7131,25 +7131,25 @@
         <v>1280</v>
       </c>
       <c r="B258" t="n">
-        <v>404.4784687201388</v>
+        <v>109.3333511340132</v>
       </c>
       <c r="C258" t="n">
-        <v>117.3958612733825</v>
+        <v>240.6677902271969</v>
       </c>
       <c r="D258" t="n">
-        <v>170.2596670236411</v>
+        <v>75.38651488435249</v>
       </c>
       <c r="E258" t="n">
-        <v>426.2207923225852</v>
+        <v>260.2407982711559</v>
       </c>
       <c r="F258" t="n">
-        <v>341.9267575653164</v>
+        <v>291.2636776696448</v>
       </c>
       <c r="G258" t="n">
-        <v>377.4174045814167</v>
+        <v>219.5704884223252</v>
       </c>
       <c r="H258" t="n">
-        <v>454.2541890701968</v>
+        <v>270.0116912572249</v>
       </c>
     </row>
     <row r="259">
@@ -7157,25 +7157,25 @@
         <v>1285</v>
       </c>
       <c r="B259" t="n">
-        <v>391.6170839591963</v>
+        <v>120.7896838656428</v>
       </c>
       <c r="C259" t="n">
-        <v>115.4802088654117</v>
+        <v>233.6279157180283</v>
       </c>
       <c r="D259" t="n">
-        <v>188.100073230604</v>
+        <v>74.15636624708127</v>
       </c>
       <c r="E259" t="n">
-        <v>411.7330591758536</v>
+        <v>251.96597024094</v>
       </c>
       <c r="F259" t="n">
-        <v>332.5737232326953</v>
+        <v>281.592181862288</v>
       </c>
       <c r="G259" t="n">
-        <v>366.43374209643</v>
+        <v>213.564376671179</v>
       </c>
       <c r="H259" t="n">
-        <v>439.2845622359456</v>
+        <v>260.9760491309914</v>
       </c>
     </row>
     <row r="260">
@@ -7183,25 +7183,25 @@
         <v>1290</v>
       </c>
       <c r="B260" t="n">
-        <v>379.2408954914237</v>
+        <v>134.5951228741221</v>
       </c>
       <c r="C260" t="n">
-        <v>113.9066129142091</v>
+        <v>226.6811433744952</v>
       </c>
       <c r="D260" t="n">
-        <v>209.5986317611824</v>
+        <v>73.14587138541799</v>
       </c>
       <c r="E260" t="n">
-        <v>397.906001929432</v>
+        <v>243.9687149125473</v>
       </c>
       <c r="F260" t="n">
-        <v>323.3149550148041</v>
+        <v>272.1323471257411</v>
       </c>
       <c r="G260" t="n">
-        <v>355.5344520905036</v>
+        <v>207.6187985179304</v>
       </c>
       <c r="H260" t="n">
-        <v>424.650536842217</v>
+        <v>252.4171132087989</v>
       </c>
     </row>
     <row r="261">
@@ -7209,25 +7209,25 @@
         <v>1295</v>
       </c>
       <c r="B261" t="n">
-        <v>367.3611120972808</v>
+        <v>150.5143257735878</v>
       </c>
       <c r="C261" t="n">
-        <v>112.6543124873046</v>
+        <v>219.8252757833861</v>
       </c>
       <c r="D261" t="n">
-        <v>234.3888550263833</v>
+        <v>72.34169853172028</v>
       </c>
       <c r="E261" t="n">
-        <v>384.7479673850191</v>
+        <v>236.2571127359401</v>
       </c>
       <c r="F261" t="n">
-        <v>314.1334397371814</v>
+        <v>262.8906551892239</v>
       </c>
       <c r="G261" t="n">
-        <v>344.7177363256462</v>
+        <v>201.7228288420868</v>
       </c>
       <c r="H261" t="n">
-        <v>410.3569193121875</v>
+        <v>244.3348102072913</v>
       </c>
     </row>
     <row r="262">
@@ -7235,25 +7235,25 @@
         <v>1300</v>
       </c>
       <c r="B262" t="n">
-        <v>355.968914427143</v>
+        <v>167.9158497983184</v>
       </c>
       <c r="C262" t="n">
-        <v>111.6587301444944</v>
+        <v>213.0787217376732</v>
       </c>
       <c r="D262" t="n">
-        <v>261.4874270121902</v>
+        <v>71.70237886328594</v>
       </c>
       <c r="E262" t="n">
-        <v>372.2335879654099</v>
+        <v>228.8317051065661</v>
       </c>
       <c r="F262" t="n">
-        <v>305.0470042210591</v>
+        <v>253.8872013085567</v>
       </c>
       <c r="G262" t="n">
-        <v>334.0219655535719</v>
+        <v>195.8879152526996</v>
       </c>
       <c r="H262" t="n">
-        <v>396.4312717436356</v>
+        <v>236.6995358253391</v>
       </c>
     </row>
     <row r="263">
@@ -7261,25 +7261,25 @@
         <v>1305</v>
       </c>
       <c r="B263" t="n">
-        <v>345.0539100467606</v>
+        <v>186.1366847196396</v>
       </c>
       <c r="C263" t="n">
-        <v>110.8540081516644</v>
+        <v>206.4637480105729</v>
       </c>
       <c r="D263" t="n">
-        <v>289.86187318456</v>
+        <v>71.18562140836194</v>
       </c>
       <c r="E263" t="n">
-        <v>360.333048388163</v>
+        <v>221.6923357248101</v>
       </c>
       <c r="F263" t="n">
-        <v>296.0832368139963</v>
+        <v>245.1445744643126</v>
       </c>
       <c r="G263" t="n">
-        <v>323.4915796117963</v>
+        <v>190.1317737863597</v>
       </c>
       <c r="H263" t="n">
-        <v>382.9054346495575</v>
+        <v>229.4778758798058</v>
       </c>
     </row>
     <row r="264">
@@ -7287,25 +7287,25 @@
         <v>1310</v>
       </c>
       <c r="B264" t="n">
-        <v>334.6057065218547</v>
+        <v>204.5138203088467</v>
       </c>
       <c r="C264" t="n">
-        <v>110.174288774698</v>
+        <v>200.0026213753164</v>
       </c>
       <c r="D264" t="n">
-        <v>318.4797190094039</v>
+        <v>70.74913519519355</v>
       </c>
       <c r="E264" t="n">
-        <v>349.0165333708395</v>
+        <v>214.838848291047</v>
       </c>
       <c r="F264" t="n">
-        <v>287.2697258635848</v>
+        <v>236.6853636370179</v>
       </c>
       <c r="G264" t="n">
-        <v>313.1710183378805</v>
+        <v>184.4721204796784</v>
       </c>
       <c r="H264" t="n">
-        <v>369.8112485428812</v>
+        <v>222.6364161875683</v>
       </c>
     </row>
     <row r="265">
@@ -7313,25 +7313,25 @@
         <v>1315</v>
       </c>
       <c r="B265" t="n">
-        <v>324.6139114181752</v>
+        <v>222.3842463373134</v>
       </c>
       <c r="C265" t="n">
-        <v>109.5537142794916</v>
+        <v>193.717608605133</v>
       </c>
       <c r="D265" t="n">
-        <v>346.3084899527541</v>
+        <v>70.35062925203449</v>
       </c>
       <c r="E265" t="n">
-        <v>338.2542276309921</v>
+        <v>208.2710865056664</v>
       </c>
       <c r="F265" t="n">
-        <v>278.6340597174224</v>
+        <v>228.5321578072392</v>
       </c>
       <c r="G265" t="n">
-        <v>303.1047215693737</v>
+        <v>178.926671369271</v>
       </c>
       <c r="H265" t="n">
-        <v>357.1805539365886</v>
+        <v>216.1417425654834</v>
       </c>
     </row>
     <row r="266">
@@ -7339,25 +7339,25 @@
         <v>1320</v>
       </c>
       <c r="B266" t="n">
-        <v>315.0681323014477</v>
+        <v>239.0849525762934</v>
       </c>
       <c r="C266" t="n">
-        <v>108.9264269319336</v>
+        <v>187.6309764732452</v>
       </c>
       <c r="D266" t="n">
-        <v>372.3157114804568</v>
+        <v>69.9478126071331</v>
       </c>
       <c r="E266" t="n">
-        <v>328.0163158861939</v>
+        <v>201.9888940690465</v>
       </c>
       <c r="F266" t="n">
-        <v>270.2038267231125</v>
+        <v>220.7075459555124</v>
       </c>
       <c r="G266" t="n">
-        <v>293.3371291438237</v>
+        <v>173.513142491757</v>
       </c>
       <c r="H266" t="n">
-        <v>345.045191343619</v>
+        <v>209.9604408304314</v>
       </c>
     </row>
     <row r="267">
@@ -7365,25 +7365,25 @@
         <v>1325</v>
       </c>
       <c r="B267" t="n">
-        <v>305.957976737415</v>
+        <v>253.9529287971412</v>
       </c>
       <c r="C267" t="n">
-        <v>108.2265689979089</v>
+        <v>181.7649917528878</v>
       </c>
       <c r="D267" t="n">
-        <v>395.4689090585144</v>
+        <v>69.49839428873578</v>
       </c>
       <c r="E267" t="n">
-        <v>318.2729828539918</v>
+        <v>195.9921146815667</v>
       </c>
       <c r="F267" t="n">
-        <v>262.0066152282275</v>
+        <v>213.2341170624052</v>
       </c>
       <c r="G267" t="n">
-        <v>283.9126808987724</v>
+        <v>168.2492498837349</v>
       </c>
       <c r="H267" t="n">
-        <v>333.4370012769662</v>
+        <v>204.0590967992731</v>
       </c>
     </row>
     <row r="268">
@@ -7391,25 +7391,25 @@
         <v>1330</v>
       </c>
       <c r="B268" t="n">
-        <v>297.2730522918037</v>
+        <v>266.3251647711396</v>
       </c>
       <c r="C268" t="n">
-        <v>107.3882827433017</v>
+        <v>176.1419212172775</v>
       </c>
       <c r="D268" t="n">
-        <v>414.7356081528179</v>
+        <v>68.96008332508835</v>
       </c>
       <c r="E268" t="n">
-        <v>308.9944132519574</v>
+        <v>190.2805920436056</v>
       </c>
       <c r="F268" t="n">
-        <v>254.0700135803533</v>
+        <v>206.1344601084483</v>
       </c>
       <c r="G268" t="n">
-        <v>274.8758166717594</v>
+        <v>163.1527095818128</v>
       </c>
       <c r="H268" t="n">
-        <v>322.3878242495609</v>
+        <v>198.4042962888889</v>
       </c>
     </row>
     <row r="269">
@@ -7417,25 +7417,25 @@
         <v>1335</v>
       </c>
       <c r="B269" t="n">
-        <v>289.0029665303593</v>
+        <v>275.5386502696588</v>
       </c>
       <c r="C269" t="n">
-        <v>106.3457104340122</v>
+        <v>170.7840316396435</v>
       </c>
       <c r="D269" t="n">
-        <v>429.0833342293952</v>
+        <v>68.29058874444691</v>
       </c>
       <c r="E269" t="n">
-        <v>300.1507917976342</v>
+        <v>184.8541698555503</v>
       </c>
       <c r="F269" t="n">
-        <v>246.4216101270845</v>
+        <v>199.4311640741975</v>
       </c>
       <c r="G269" t="n">
-        <v>266.2709763003347</v>
+        <v>158.241237622604</v>
       </c>
       <c r="H269" t="n">
-        <v>311.9295007743705</v>
+        <v>192.9626251161326</v>
       </c>
     </row>
     <row r="270">
@@ -7443,25 +7443,25 @@
         <v>1340</v>
       </c>
       <c r="B270" t="n">
-        <v>281.1373270188103</v>
+        <v>280.9303750639805</v>
       </c>
       <c r="C270" t="n">
-        <v>105.0329943359239</v>
+        <v>165.7135897932183</v>
       </c>
       <c r="D270" t="n">
-        <v>437.4796127541347</v>
+        <v>67.44761957505675</v>
       </c>
       <c r="E270" t="n">
-        <v>291.7123032085938</v>
+        <v>179.71269181778</v>
       </c>
       <c r="F270" t="n">
-        <v>239.088993216031</v>
+        <v>193.1468179401987</v>
       </c>
       <c r="G270" t="n">
-        <v>258.1425996220585</v>
+        <v>153.5325500427317</v>
       </c>
       <c r="H270" t="n">
-        <v>302.0938713643488</v>
+        <v>187.7006690978809</v>
       </c>
     </row>
     <row r="271">
@@ -7469,25 +7469,25 @@
         <v>1345</v>
       </c>
       <c r="B271" t="n">
-        <v>273.6657413228968</v>
+        <v>281.8373289254372</v>
       </c>
       <c r="C271" t="n">
-        <v>103.3842767149249</v>
+        <v>160.9528624512175</v>
       </c>
       <c r="D271" t="n">
-        <v>438.8919691930053</v>
+        <v>66.38888484516634</v>
       </c>
       <c r="E271" t="n">
-        <v>283.6491322023963</v>
+        <v>174.8560016306734</v>
       </c>
       <c r="F271" t="n">
-        <v>232.0997511947538</v>
+        <v>187.3040106870102</v>
       </c>
       <c r="G271" t="n">
-        <v>250.5351264744479</v>
+        <v>149.0443628787877</v>
       </c>
       <c r="H271" t="n">
-        <v>292.9127765324741</v>
+        <v>182.5850140510057</v>
       </c>
     </row>
     <row r="272">
@@ -7495,25 +7495,25 @@
         <v>1350</v>
       </c>
       <c r="B272" t="n">
-        <v>266.5789952506498</v>
+        <v>277.6593770118606</v>
       </c>
       <c r="C272" t="n">
-        <v>101.3445890728851</v>
+        <v>156.5215679943757</v>
       </c>
       <c r="D272" t="n">
-        <v>432.3858418835585</v>
+        <v>65.07908617664266</v>
       </c>
       <c r="E272" t="n">
-        <v>275.9325674768669</v>
+        <v>170.2844137516196</v>
       </c>
       <c r="F272" t="n">
-        <v>225.4832777081369</v>
+        <v>181.9247820263429</v>
       </c>
       <c r="G272" t="n">
-        <v>243.4885351360065</v>
+        <v>144.7955514507662</v>
       </c>
       <c r="H272" t="n">
-        <v>284.4180856895544</v>
+        <v>177.5839702443196</v>
       </c>
     </row>
     <row r="273">
@@ -7521,25 +7521,25 @@
         <v>1355</v>
       </c>
       <c r="B273" t="n">
-        <v>259.8606431445315</v>
+        <v>268.4779086607309</v>
       </c>
       <c r="C273" t="n">
-        <v>98.94071859326002</v>
+        <v>152.4163387266065</v>
       </c>
       <c r="D273" t="n">
-        <v>418.0879745993541</v>
+        <v>63.53542513334318</v>
       </c>
       <c r="E273" t="n">
-        <v>268.5357978780853</v>
+        <v>165.9880860897491</v>
       </c>
       <c r="F273" t="n">
-        <v>219.2703243714554</v>
+        <v>177.0056895894084</v>
       </c>
       <c r="G273" t="n">
-        <v>236.9992603659386</v>
+        <v>140.8058631081693</v>
       </c>
       <c r="H273" t="n">
-        <v>276.6099609622036</v>
+        <v>172.6825803824082</v>
       </c>
     </row>
     <row r="274">
@@ -7547,25 +7547,25 @@
         <v>1360</v>
       </c>
       <c r="B274" t="n">
-        <v>253.4894293467927</v>
+        <v>255.0312258675099</v>
       </c>
       <c r="C274" t="n">
-        <v>96.23562852107774</v>
+        <v>148.6142005961474</v>
       </c>
       <c r="D274" t="n">
-        <v>397.1480901889685</v>
+        <v>61.79833397205261</v>
       </c>
       <c r="E274" t="n">
-        <v>261.4479585697651</v>
+        <v>161.9477444972809</v>
       </c>
       <c r="F274" t="n">
-        <v>213.4560100132507</v>
+        <v>172.5080195147205</v>
       </c>
       <c r="G274" t="n">
-        <v>231.0267204191891</v>
+        <v>137.0721633750385</v>
       </c>
       <c r="H274" t="n">
-        <v>269.4365325935913</v>
+        <v>167.8931362012548</v>
       </c>
     </row>
     <row r="275">
@@ -7573,25 +7573,25 @@
         <v>1365</v>
       </c>
       <c r="B275" t="n">
-        <v>247.4455587009486</v>
+        <v>238.1107706905975</v>
       </c>
       <c r="C275" t="n">
-        <v>93.29204764637107</v>
+        <v>145.0907499558213</v>
       </c>
       <c r="D275" t="n">
-        <v>370.7986640127017</v>
+        <v>59.90809439275763</v>
       </c>
       <c r="E275" t="n">
-        <v>254.6627591617633</v>
+        <v>158.144602440908</v>
       </c>
       <c r="F275" t="n">
-        <v>208.0259983764442</v>
+        <v>168.3900431611717</v>
       </c>
       <c r="G275" t="n">
-        <v>225.5279043266742</v>
+        <v>133.5852461307665</v>
       </c>
       <c r="H275" t="n">
-        <v>262.841000795661</v>
+        <v>163.2323273844135</v>
       </c>
     </row>
     <row r="276">
@@ -7599,25 +7599,25 @@
         <v>1370</v>
       </c>
       <c r="B276" t="n">
-        <v>241.7092360505094</v>
+        <v>218.5079851884404</v>
       </c>
       <c r="C276" t="n">
-        <v>90.17270475920138</v>
+        <v>141.8215831584323</v>
       </c>
       <c r="D276" t="n">
-        <v>340.2721714309259</v>
+        <v>57.90498809546321</v>
       </c>
       <c r="E276" t="n">
-        <v>248.1739092639114</v>
+        <v>154.559873387326</v>
       </c>
       <c r="F276" t="n">
-        <v>202.9659532039809</v>
+        <v>164.6100318876396</v>
       </c>
       <c r="G276" t="n">
-        <v>220.459801119294</v>
+        <v>130.3359052547615</v>
       </c>
       <c r="H276" t="n">
-        <v>256.766565780332</v>
+        <v>158.7168436154174</v>
       </c>
     </row>
     <row r="277">
@@ -7625,25 +7625,25 @@
         <v>1375</v>
       </c>
       <c r="B277" t="n">
-        <v>236.2606662389939</v>
+        <v>197.0143114193776</v>
       </c>
       <c r="C277" t="n">
-        <v>86.9403286495652</v>
+        <v>138.7822965567964</v>
       </c>
       <c r="D277" t="n">
-        <v>306.8010878038465</v>
+        <v>55.82929678013266</v>
       </c>
       <c r="E277" t="n">
-        <v>241.9751184860662</v>
+        <v>151.1747708032328</v>
       </c>
       <c r="F277" t="n">
-        <v>198.261538238796</v>
+        <v>161.1262570530125</v>
       </c>
       <c r="G277" t="n">
-        <v>215.7793998279618</v>
+        <v>127.3149346264257</v>
       </c>
       <c r="H277" t="n">
-        <v>251.1564277595353</v>
+        <v>154.3633745778168</v>
       </c>
     </row>
     <row r="278">
@@ -7651,25 +7651,25 @@
         <v>1380</v>
       </c>
       <c r="B278" t="n">
-        <v>231.0800541099113</v>
+        <v>174.4211914418601</v>
       </c>
       <c r="C278" t="n">
-        <v>83.65764810751995</v>
+        <v>135.9484865037241</v>
       </c>
       <c r="D278" t="n">
-        <v>271.6178884918425</v>
+        <v>53.72130214676834</v>
       </c>
       <c r="E278" t="n">
-        <v>236.06009643806</v>
+        <v>147.9705081553224</v>
       </c>
       <c r="F278" t="n">
-        <v>193.898417223843</v>
+        <v>157.896990016174</v>
       </c>
       <c r="G278" t="n">
-        <v>211.443689483584</v>
+        <v>124.5131281251724</v>
       </c>
       <c r="H278" t="n">
-        <v>245.9537869452034</v>
+        <v>150.1886099551483</v>
       </c>
     </row>
     <row r="279">
@@ -7677,25 +7677,25 @@
         <v>1385</v>
       </c>
       <c r="B279" t="n">
-        <v>226.1476045067788</v>
+        <v>151.5200673142849</v>
       </c>
       <c r="C279" t="n">
-        <v>80.38739192310517</v>
+        <v>133.2957493520313</v>
       </c>
       <c r="D279" t="n">
-        <v>235.9550488552093</v>
+        <v>51.62128589536128</v>
       </c>
       <c r="E279" t="n">
-        <v>230.4225527297483</v>
+        <v>144.9282989102909</v>
       </c>
       <c r="F279" t="n">
-        <v>189.8622539020405</v>
+        <v>154.8805021360119</v>
       </c>
       <c r="G279" t="n">
-        <v>207.4096591170715</v>
+        <v>121.9212796303931</v>
       </c>
       <c r="H279" t="n">
-        <v>241.1018435492699</v>
+        <v>146.2092394309629</v>
       </c>
     </row>
     <row r="280">
@@ -7703,25 +7703,25 @@
         <v>1390</v>
       </c>
       <c r="B280" t="n">
-        <v>221.4435222731065</v>
+        <v>129.1023810950839</v>
       </c>
       <c r="C280" t="n">
-        <v>77.19228888637309</v>
+        <v>130.7996814545288</v>
       </c>
       <c r="D280" t="n">
-        <v>201.0450442542962</v>
+        <v>49.56952972591059</v>
       </c>
       <c r="E280" t="n">
-        <v>225.0561969709665</v>
+        <v>142.029356534833</v>
       </c>
       <c r="F280" t="n">
-        <v>186.1387120163383</v>
+        <v>152.0350647714095</v>
       </c>
       <c r="G280" t="n">
-        <v>203.6342977593312</v>
+        <v>119.5301830214989</v>
       </c>
       <c r="H280" t="n">
-        <v>236.5437977836623</v>
+        <v>142.4419526887964</v>
       </c>
     </row>
     <row r="281">
@@ -7729,25 +7729,25 @@
         <v>1395</v>
       </c>
       <c r="B281" t="n">
-        <v>216.9480122524111</v>
+        <v>107.9595748426061</v>
       </c>
       <c r="C281" t="n">
-        <v>74.13506778732159</v>
+        <v>128.4358791640324</v>
       </c>
       <c r="D281" t="n">
-        <v>168.1203500493242</v>
+        <v>47.6063153383804</v>
       </c>
       <c r="E281" t="n">
-        <v>219.95473877157</v>
+        <v>139.2548944956451</v>
       </c>
       <c r="F281" t="n">
-        <v>182.7134553096696</v>
+        <v>149.3189492812556</v>
       </c>
       <c r="G281" t="n">
-        <v>200.0745944412769</v>
+        <v>117.3306321778904</v>
       </c>
       <c r="H281" t="n">
-        <v>232.2228498603169</v>
+        <v>138.9034394122009</v>
       </c>
     </row>
     <row r="282">
@@ -7755,25 +7755,25 @@
         <v>1400</v>
       </c>
       <c r="B282" t="n">
-        <v>212.6412792882034</v>
+        <v>88.88309061532576</v>
       </c>
       <c r="C282" t="n">
-        <v>71.27845741601166</v>
+        <v>126.1799388333494</v>
       </c>
       <c r="D282" t="n">
-        <v>138.4134416007084</v>
+        <v>45.77192443277546</v>
       </c>
       <c r="E282" t="n">
-        <v>215.1118877413912</v>
+        <v>136.5861262594222</v>
       </c>
       <c r="F282" t="n">
-        <v>179.5721475249824</v>
+        <v>146.6904270244337</v>
       </c>
       <c r="G282" t="n">
-        <v>196.6875381938088</v>
+        <v>115.3134209789778</v>
       </c>
       <c r="H282" t="n">
-        <v>228.082199991161</v>
+        <v>135.6103892847089</v>
       </c>
     </row>
     <row r="283">
@@ -7781,25 +7781,25 @@
         <v>1405</v>
       </c>
       <c r="B283" t="n">
-        <v>208.5035282240023</v>
+        <v>72.66437047161915</v>
       </c>
       <c r="C283" t="n">
-        <v>68.68518656247886</v>
+        <v>124.0074568152984</v>
       </c>
       <c r="D283" t="n">
-        <v>113.1567942687119</v>
+        <v>44.10663870908413</v>
       </c>
       <c r="E283" t="n">
-        <v>210.5213534902869</v>
+        <v>134.0042652928621</v>
       </c>
       <c r="F283" t="n">
-        <v>176.7004524052048</v>
+        <v>144.107769359832</v>
       </c>
       <c r="G283" t="n">
-        <v>193.4301180478439</v>
+        <v>113.4693433041585</v>
       </c>
       <c r="H283" t="n">
-        <v>224.0650483881305</v>
+        <v>132.5794919898739</v>
       </c>
     </row>
     <row r="284">
@@ -7807,25 +7807,25 @@
         <v>1410</v>
       </c>
       <c r="B284" t="n">
-        <v>204.5154795081243</v>
+        <v>60.04245352463149</v>
       </c>
       <c r="C284" t="n">
-        <v>66.40863659811015</v>
+        <v>121.8959714408543</v>
       </c>
       <c r="D284" t="n">
-        <v>93.50127878048666</v>
+        <v>42.6447373616917</v>
       </c>
       <c r="E284" t="n">
-        <v>206.1799631121771</v>
+        <v>131.4908544722946</v>
       </c>
       <c r="F284" t="n">
-        <v>174.0820623137534</v>
+        <v>141.5310142867289</v>
       </c>
       <c r="G284" t="n">
-        <v>190.2621052948285</v>
+        <v>111.7879270986708</v>
       </c>
       <c r="H284" t="n">
-        <v>220.1155318027406</v>
+        <v>129.8278225620184</v>
       </c>
     </row>
     <row r="285">
@@ -7833,25 +7833,25 @@
         <v>1415</v>
       </c>
       <c r="B285" t="n">
-        <v>200.6771478966679</v>
+        <v>51.18461707661036</v>
       </c>
       <c r="C285" t="n">
-        <v>64.43826219472966</v>
+        <v>119.8413003062464</v>
       </c>
       <c r="D285" t="n">
-        <v>79.70738818308436</v>
+        <v>41.37944863961076</v>
       </c>
       <c r="E285" t="n">
-        <v>202.1029715820392</v>
+        <v>129.0432167079501</v>
       </c>
       <c r="F285" t="n">
-        <v>171.6778373675867</v>
+        <v>138.9499393575536</v>
       </c>
       <c r="G285" t="n">
-        <v>187.1727232352999</v>
+        <v>110.2440384323792</v>
       </c>
       <c r="H285" t="n">
-        <v>216.2117523749346</v>
+        <v>127.3655040697087</v>
       </c>
     </row>
     <row r="286">
@@ -7859,25 +7859,25 @@
         <v>1420</v>
       </c>
       <c r="B286" t="n">
-        <v>197.0020294513365</v>
+        <v>45.70543318693132</v>
       </c>
       <c r="C286" t="n">
-        <v>62.74378712892671</v>
+        <v>117.8487864031003</v>
       </c>
       <c r="D286" t="n">
-        <v>71.17491373734462</v>
+        <v>40.29133046931303</v>
       </c>
       <c r="E286" t="n">
-        <v>198.2973045796787</v>
+        <v>126.6728595414679</v>
       </c>
       <c r="F286" t="n">
-        <v>169.4583644553205</v>
+        <v>136.3863959768226</v>
       </c>
       <c r="G286" t="n">
-        <v>184.1685032980899</v>
+        <v>108.8187894847495</v>
       </c>
       <c r="H286" t="n">
-        <v>212.3767992942261</v>
+        <v>125.1783733818017</v>
       </c>
     </row>
     <row r="287">
@@ -7885,25 +7885,25 @@
         <v>1425</v>
       </c>
       <c r="B287" t="n">
-        <v>193.5025776350599</v>
+        <v>43.17455955218669</v>
       </c>
       <c r="C287" t="n">
-        <v>61.29670232403071</v>
+        <v>115.9232943714249</v>
       </c>
       <c r="D287" t="n">
-        <v>67.23370368696982</v>
+        <v>39.36207556202825</v>
       </c>
       <c r="E287" t="n">
-        <v>194.766144565104</v>
+        <v>124.3911318324026</v>
       </c>
       <c r="F287" t="n">
-        <v>167.4020634034731</v>
+        <v>133.8644198645742</v>
       </c>
       <c r="G287" t="n">
-        <v>181.2554156411913</v>
+        <v>107.4983224072022</v>
       </c>
       <c r="H287" t="n">
-        <v>208.637244191081</v>
+        <v>123.2483271902996</v>
       </c>
     </row>
     <row r="288">
@@ -7911,25 +7911,25 @@
         <v>1430</v>
       </c>
       <c r="B288" t="n">
-        <v>190.1912459107463</v>
+        <v>43.16165386897846</v>
       </c>
       <c r="C288" t="n">
-        <v>60.06849870337086</v>
+        <v>114.0696888512399</v>
       </c>
       <c r="D288" t="n">
-        <v>67.21360627567714</v>
+        <v>38.57337662898603</v>
       </c>
       <c r="E288" t="n">
-        <v>191.5126739983231</v>
+        <v>122.2093824402955</v>
       </c>
       <c r="F288" t="n">
-        <v>165.4873540385811</v>
+        <v>131.4080467408423</v>
       </c>
       <c r="G288" t="n">
-        <v>178.439430422614</v>
+        <v>106.2687793511697</v>
       </c>
       <c r="H288" t="n">
-        <v>205.0196586959613</v>
+        <v>121.557262187208</v>
       </c>
     </row>
     <row r="289">
@@ -7937,25 +7937,25 @@
         <v>1435</v>
       </c>
       <c r="B289" t="n">
-        <v>187.0804877413187</v>
+        <v>45.2363738339101</v>
       </c>
       <c r="C289" t="n">
-        <v>59.03066719027075</v>
+        <v>112.2928344825576</v>
       </c>
       <c r="D289" t="n">
-        <v>70.44446974718625</v>
+        <v>37.90692638141235</v>
       </c>
       <c r="E289" t="n">
-        <v>188.5400753393336</v>
+        <v>120.1389602246976</v>
       </c>
       <c r="F289" t="n">
-        <v>163.6926561871705</v>
+        <v>129.0413123256644</v>
       </c>
       <c r="G289" t="n">
-        <v>175.7265178003566</v>
+        <v>105.1163024680775</v>
       </c>
       <c r="H289" t="n">
-        <v>201.5506144393346</v>
+        <v>120.0870750645226</v>
       </c>
     </row>
   </sheetData>

--- a/beispieltage.xlsx
+++ b/beispieltage.xlsx
@@ -475,25 +475,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>33.01077985638989</v>
+        <v>5.182419717488288</v>
       </c>
       <c r="C2" t="n">
-        <v>84.6634508595431</v>
+        <v>6.823558438738863</v>
       </c>
       <c r="D2" t="n">
-        <v>111.4050357345121</v>
+        <v>7.891784751581781</v>
       </c>
       <c r="E2" t="n">
-        <v>95.40211646855923</v>
+        <v>5.364900515044981</v>
       </c>
       <c r="F2" t="n">
-        <v>127.0004721219772</v>
+        <v>6.874937464524318</v>
       </c>
       <c r="G2" t="n">
-        <v>84.61093416307409</v>
+        <v>2.02191026620388</v>
       </c>
       <c r="H2" t="n">
-        <v>114.8660004712791</v>
+        <v>7.580426419741652</v>
       </c>
     </row>
     <row r="3">
@@ -501,25 +501,25 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>32.15877399506701</v>
+        <v>5.183608597099932</v>
       </c>
       <c r="C3" t="n">
-        <v>86.18832509027325</v>
+        <v>6.743266456937048</v>
       </c>
       <c r="D3" t="n">
-        <v>110.0941462357069</v>
+        <v>7.796199355622777</v>
       </c>
       <c r="E3" t="n">
-        <v>96.17103499573275</v>
+        <v>5.456255895809289</v>
       </c>
       <c r="F3" t="n">
-        <v>125.5725740973265</v>
+        <v>6.802050262346879</v>
       </c>
       <c r="G3" t="n">
-        <v>84.63034444244788</v>
+        <v>1.969724907197854</v>
       </c>
       <c r="H3" t="n">
-        <v>113.4596379216141</v>
+        <v>7.486008247814251</v>
       </c>
     </row>
     <row r="4">
@@ -527,25 +527,25 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>31.34258852626942</v>
+        <v>5.198076238369463</v>
       </c>
       <c r="C4" t="n">
-        <v>88.17783681208759</v>
+        <v>6.670566221533776</v>
       </c>
       <c r="D4" t="n">
-        <v>108.907203616878</v>
+        <v>7.707340801097913</v>
       </c>
       <c r="E4" t="n">
-        <v>97.3758908771964</v>
+        <v>5.577635028174774</v>
       </c>
       <c r="F4" t="n">
-        <v>124.2716092119252</v>
+        <v>6.742914641210395</v>
       </c>
       <c r="G4" t="n">
-        <v>84.86655083052186</v>
+        <v>1.919733547234002</v>
       </c>
       <c r="H4" t="n">
-        <v>112.2452050995816</v>
+        <v>7.399802664567696</v>
       </c>
     </row>
     <row r="5">
@@ -553,25 +553,25 @@
         <v>15</v>
       </c>
       <c r="B5" t="n">
-        <v>30.57014464712121</v>
+        <v>5.22132818802677</v>
       </c>
       <c r="C5" t="n">
-        <v>90.42672588774236</v>
+        <v>6.605063849717146</v>
       </c>
       <c r="D5" t="n">
-        <v>107.8377771382391</v>
+        <v>7.625462247494286</v>
       </c>
       <c r="E5" t="n">
-        <v>98.84504980163857</v>
+        <v>5.715999267347935</v>
       </c>
       <c r="F5" t="n">
-        <v>123.0959171235591</v>
+        <v>6.695191696627405</v>
       </c>
       <c r="G5" t="n">
-        <v>85.24617449839623</v>
+        <v>1.872421359636174</v>
       </c>
       <c r="H5" t="n">
-        <v>111.1912711343041</v>
+        <v>7.321443383224985</v>
       </c>
     </row>
     <row r="6">
@@ -579,25 +579,25 @@
         <v>20</v>
       </c>
       <c r="B6" t="n">
-        <v>29.8493635547511</v>
+        <v>5.248869992801782</v>
       </c>
       <c r="C6" t="n">
-        <v>92.72973217998103</v>
+        <v>6.546365458675296</v>
       </c>
       <c r="D6" t="n">
-        <v>106.8794360600048</v>
+        <v>7.550816854297683</v>
       </c>
       <c r="E6" t="n">
-        <v>100.4068774577256</v>
+        <v>5.85830996853391</v>
       </c>
       <c r="F6" t="n">
-        <v>122.0438374900053</v>
+        <v>6.656542524109942</v>
       </c>
       <c r="G6" t="n">
-        <v>85.69583661717195</v>
+        <v>1.828273517728505</v>
       </c>
       <c r="H6" t="n">
-        <v>110.2664051548924</v>
+        <v>7.250564117008945</v>
       </c>
     </row>
     <row r="7">
@@ -605,25 +605,25 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>29.18816644628638</v>
+        <v>5.276207199423634</v>
       </c>
       <c r="C7" t="n">
-        <v>94.88159555153732</v>
+        <v>6.494077165596534</v>
       </c>
       <c r="D7" t="n">
-        <v>106.0257496423923</v>
+        <v>7.483657780995192</v>
       </c>
       <c r="E7" t="n">
-        <v>101.889739534143</v>
+        <v>5.991528486938404</v>
       </c>
       <c r="F7" t="n">
-        <v>121.1137099690523</v>
+        <v>6.624628219170216</v>
       </c>
       <c r="G7" t="n">
-        <v>86.14215835793688</v>
+        <v>1.78777519483504</v>
       </c>
       <c r="H7" t="n">
-        <v>109.4391762904613</v>
+        <v>7.186798579142803</v>
       </c>
     </row>
     <row r="8">
@@ -631,25 +631,25 @@
         <v>30</v>
       </c>
       <c r="B8" t="n">
-        <v>28.5945865016355</v>
+        <v>5.299011028423721</v>
       </c>
       <c r="C8" t="n">
-        <v>96.69631091717348</v>
+        <v>6.447756366633533</v>
       </c>
       <c r="D8" t="n">
-        <v>105.2694917001393</v>
+        <v>7.424252793685052</v>
       </c>
       <c r="E8" t="n">
-        <v>103.1260689257263</v>
+        <v>6.103308184704669</v>
       </c>
       <c r="F8" t="n">
-        <v>120.3037680252363</v>
+        <v>6.597270876992833</v>
       </c>
       <c r="G8" t="n">
-        <v>86.51446577018322</v>
+        <v>1.751418423225174</v>
       </c>
       <c r="H8" t="n">
-        <v>108.6813184136068</v>
+        <v>7.129782844673221</v>
       </c>
     </row>
     <row r="9">
@@ -657,25 +657,25 @@
         <v>35</v>
       </c>
       <c r="B9" t="n">
-        <v>28.07289350021506</v>
+        <v>5.315860144613757</v>
       </c>
       <c r="C9" t="n">
-        <v>98.13129157951096</v>
+        <v>6.406797803458376</v>
       </c>
       <c r="D9" t="n">
-        <v>104.6007804646266</v>
+        <v>7.372453776497648</v>
       </c>
       <c r="E9" t="n">
-        <v>104.0355159927195</v>
+        <v>6.188990893146075</v>
       </c>
       <c r="F9" t="n">
-        <v>119.6060797520567</v>
+        <v>6.573648091135071</v>
       </c>
       <c r="G9" t="n">
-        <v>86.7895533814491</v>
+        <v>1.719464726888172</v>
       </c>
       <c r="H9" t="n">
-        <v>107.9879779607804</v>
+        <v>7.079117006874903</v>
       </c>
     </row>
     <row r="10">
@@ -683,25 +683,25 @@
         <v>40</v>
       </c>
       <c r="B10" t="n">
-        <v>27.61855441166658</v>
+        <v>5.327896441960486</v>
       </c>
       <c r="C10" t="n">
-        <v>99.23028535505335</v>
+        <v>6.370781493122087</v>
       </c>
       <c r="D10" t="n">
-        <v>104.012759071381</v>
+        <v>7.32778852432704</v>
       </c>
       <c r="E10" t="n">
-        <v>104.6531247325123</v>
+        <v>6.25136041892407</v>
       </c>
       <c r="F10" t="n">
-        <v>119.0114379711071</v>
+        <v>6.553916290871717</v>
       </c>
       <c r="G10" t="n">
-        <v>86.98606435853853</v>
+        <v>1.691636457714578</v>
       </c>
       <c r="H10" t="n">
-        <v>107.3689590508485</v>
+        <v>7.034692701199414</v>
       </c>
     </row>
     <row r="11">
@@ -709,25 +709,25 @@
         <v>45</v>
       </c>
       <c r="B11" t="n">
-        <v>27.22591516090111</v>
+        <v>5.336292970222352</v>
       </c>
       <c r="C11" t="n">
-        <v>100.0416598528361</v>
+        <v>6.339344481699685</v>
       </c>
       <c r="D11" t="n">
-        <v>103.4995017420357</v>
+        <v>7.289819198679003</v>
       </c>
       <c r="E11" t="n">
-        <v>105.0244153970443</v>
+        <v>6.293795548548858</v>
       </c>
       <c r="F11" t="n">
-        <v>118.5120736775797</v>
+        <v>6.538281675712959</v>
       </c>
       <c r="G11" t="n">
-        <v>87.12315053424248</v>
+        <v>1.667587303605193</v>
       </c>
       <c r="H11" t="n">
-        <v>106.8349324772959</v>
+        <v>6.99651449803266</v>
       </c>
     </row>
     <row r="12">
@@ -735,25 +735,25 @@
         <v>50</v>
       </c>
       <c r="B12" t="n">
-        <v>26.88932167282671</v>
+        <v>5.342222779158859</v>
       </c>
       <c r="C12" t="n">
-        <v>100.6137826818848</v>
+        <v>6.312123815266519</v>
       </c>
       <c r="D12" t="n">
-        <v>103.0550826982289</v>
+        <v>7.258107961058596</v>
       </c>
       <c r="E12" t="n">
-        <v>105.1949082382529</v>
+        <v>6.319675068530285</v>
       </c>
       <c r="F12" t="n">
-        <v>118.1002178666555</v>
+        <v>6.526950445169218</v>
       </c>
       <c r="G12" t="n">
-        <v>87.2199637413691</v>
+        <v>1.646970952460635</v>
       </c>
       <c r="H12" t="n">
-        <v>106.3965690336075</v>
+        <v>6.964586967759971</v>
       </c>
     </row>
     <row r="13">
@@ -761,25 +761,25 @@
         <v>55</v>
       </c>
       <c r="B13" t="n">
-        <v>26.60311987235278</v>
+        <v>5.346858918528414</v>
       </c>
       <c r="C13" t="n">
-        <v>100.9950214512424</v>
+        <v>6.288756539897824</v>
       </c>
       <c r="D13" t="n">
-        <v>102.6735761615971</v>
+        <v>7.232216972971173</v>
       </c>
       <c r="E13" t="n">
-        <v>105.2101235080753</v>
+        <v>6.332377765378691</v>
       </c>
       <c r="F13" t="n">
-        <v>117.7681015335255</v>
+        <v>6.520128798750692</v>
       </c>
       <c r="G13" t="n">
-        <v>87.2956558127088</v>
+        <v>1.629441092181608</v>
       </c>
       <c r="H13" t="n">
-        <v>106.0645395132693</v>
+        <v>6.938914680767404</v>
       </c>
     </row>
     <row r="14">
@@ -787,25 +787,25 @@
         <v>60</v>
       </c>
       <c r="B14" t="n">
-        <v>26.36165568438498</v>
+        <v>5.351374438090688</v>
       </c>
       <c r="C14" t="n">
-        <v>101.2337437699362</v>
+        <v>6.26887970166925</v>
       </c>
       <c r="D14" t="n">
-        <v>102.3490563537836</v>
+        <v>7.21170839592254</v>
       </c>
       <c r="E14" t="n">
-        <v>105.1155814584557</v>
+        <v>6.335282425604293</v>
       </c>
       <c r="F14" t="n">
-        <v>117.507955673378</v>
+        <v>6.518022935967671</v>
       </c>
       <c r="G14" t="n">
-        <v>87.36937858107245</v>
+        <v>1.61465141066858</v>
       </c>
       <c r="H14" t="n">
-        <v>105.8495147097629</v>
+        <v>6.91950220744033</v>
       </c>
     </row>
     <row r="15">
@@ -813,25 +813,25 @@
         <v>65</v>
       </c>
       <c r="B15" t="n">
-        <v>26.15927503383586</v>
+        <v>5.356942387604198</v>
       </c>
       <c r="C15" t="n">
-        <v>101.378317247002</v>
+        <v>6.252130346655782</v>
       </c>
       <c r="D15" t="n">
-        <v>102.0755974964209</v>
+        <v>7.196144391418072</v>
       </c>
       <c r="E15" t="n">
-        <v>104.9568023413273</v>
+        <v>6.331767835717035</v>
       </c>
       <c r="F15" t="n">
-        <v>117.3120112814026</v>
+        <v>6.520839056330511</v>
       </c>
       <c r="G15" t="n">
-        <v>87.4602838792522</v>
+        <v>1.602255595822447</v>
       </c>
       <c r="H15" t="n">
-        <v>105.7621654165764</v>
+        <v>6.906354118164659</v>
       </c>
     </row>
     <row r="16">
@@ -839,25 +839,25 @@
         <v>70</v>
       </c>
       <c r="B16" t="n">
-        <v>25.99032384561233</v>
+        <v>5.364735816828425</v>
       </c>
       <c r="C16" t="n">
-        <v>101.477109491468</v>
+        <v>6.238145520932743</v>
       </c>
       <c r="D16" t="n">
-        <v>101.8472738111468</v>
+        <v>7.18508712096293</v>
       </c>
       <c r="E16" t="n">
-        <v>104.7793064086304</v>
+        <v>6.325212782226963</v>
       </c>
       <c r="F16" t="n">
-        <v>117.1724993527817</v>
+        <v>6.52878335934951</v>
       </c>
       <c r="G16" t="n">
-        <v>87.5875235400559</v>
+        <v>1.591907335543754</v>
       </c>
       <c r="H16" t="n">
-        <v>105.8131624271929</v>
+        <v>6.899474983325799</v>
       </c>
     </row>
     <row r="17">
@@ -865,25 +865,25 @@
         <v>75</v>
       </c>
       <c r="B17" t="n">
-        <v>25.8491480446247</v>
+        <v>5.375927775521757</v>
       </c>
       <c r="C17" t="n">
-        <v>101.5784881123677</v>
+        <v>6.226562270575556</v>
       </c>
       <c r="D17" t="n">
-        <v>101.6581595196009</v>
+        <v>7.178098746062752</v>
       </c>
       <c r="E17" t="n">
-        <v>104.6286139123018</v>
+        <v>6.318996051644133</v>
       </c>
       <c r="F17" t="n">
-        <v>117.0816508827075</v>
+        <v>6.542062044534887</v>
       </c>
       <c r="G17" t="n">
-        <v>87.77024939627357</v>
+        <v>1.583260317733263</v>
       </c>
       <c r="H17" t="n">
-        <v>106.0131765350974</v>
+        <v>6.89886937330968</v>
       </c>
     </row>
     <row r="18">
@@ -891,25 +891,25 @@
         <v>80</v>
       </c>
       <c r="B18" t="n">
-        <v>25.73009355577961</v>
+        <v>5.391691313443775</v>
       </c>
       <c r="C18" t="n">
-        <v>101.7308207187344</v>
+        <v>6.217017641659583</v>
       </c>
       <c r="D18" t="n">
-        <v>101.5023288434218</v>
+        <v>7.174741428223225</v>
       </c>
       <c r="E18" t="n">
-        <v>104.5502451042832</v>
+        <v>6.316496430478812</v>
       </c>
       <c r="F18" t="n">
-        <v>117.0316968663673</v>
+        <v>6.560881311397042</v>
       </c>
       <c r="G18" t="n">
-        <v>88.02761328071468</v>
+        <v>1.575968230291501</v>
       </c>
       <c r="H18" t="n">
-        <v>106.3728785337749</v>
+        <v>6.904541858501752</v>
       </c>
     </row>
     <row r="19">
@@ -917,25 +917,25 @@
         <v>85</v>
       </c>
       <c r="B19" t="n">
-        <v>25.6275063039882</v>
+        <v>5.41319948035324</v>
       </c>
       <c r="C19" t="n">
-        <v>101.9824749196018</v>
+        <v>6.209148680260109</v>
       </c>
       <c r="D19" t="n">
-        <v>101.3738560042466</v>
+        <v>7.174577328949624</v>
       </c>
       <c r="E19" t="n">
-        <v>104.5897202365093</v>
+        <v>6.321092705240963</v>
       </c>
       <c r="F19" t="n">
-        <v>117.0148682989493</v>
+        <v>6.585447359446154</v>
       </c>
       <c r="G19" t="n">
-        <v>88.37876702617535</v>
+        <v>1.569684761119277</v>
       </c>
       <c r="H19" t="n">
-        <v>106.9029392167089</v>
+        <v>6.916497009287788</v>
       </c>
     </row>
     <row r="20">
@@ -943,25 +943,25 @@
         <v>90</v>
       </c>
       <c r="B20" t="n">
-        <v>25.53527321347008</v>
+        <v>5.441665200100164</v>
       </c>
       <c r="C20" t="n">
-        <v>102.3796339318558</v>
+        <v>6.202734546584488</v>
       </c>
       <c r="D20" t="n">
-        <v>101.2691354544406</v>
+        <v>7.177179079306114</v>
       </c>
       <c r="E20" t="n">
-        <v>104.7922870133994</v>
+        <v>6.336086625247554</v>
       </c>
       <c r="F20" t="n">
-        <v>117.0244413449509</v>
+        <v>6.615981064825306</v>
       </c>
       <c r="G20" t="n">
-        <v>88.84351347102312</v>
+        <v>1.564035484325043</v>
       </c>
       <c r="H20" t="n">
-        <v>107.6133539410748</v>
+        <v>6.934780633393073</v>
       </c>
     </row>
     <row r="21">
@@ -969,25 +969,25 @@
         <v>95</v>
       </c>
       <c r="B21" t="n">
-        <v>25.44640506468454</v>
+        <v>5.478235641304536</v>
       </c>
       <c r="C21" t="n">
-        <v>102.9462151718082</v>
+        <v>6.198292399209513</v>
       </c>
       <c r="D21" t="n">
-        <v>101.196610599339</v>
+        <v>7.183256992048408</v>
       </c>
       <c r="E21" t="n">
-        <v>105.1902017049742</v>
+        <v>6.36346552066484</v>
       </c>
       <c r="F21" t="n">
-        <v>117.0765637627174</v>
+        <v>6.653040087078053</v>
       </c>
       <c r="G21" t="n">
-        <v>89.44058189884957</v>
+        <v>1.558592310211928</v>
       </c>
       <c r="H21" t="n">
-        <v>108.5075857500057</v>
+        <v>6.960169433829599</v>
       </c>
     </row>
     <row r="22">
@@ -995,25 +995,25 @@
         <v>100</v>
       </c>
       <c r="B22" t="n">
-        <v>25.35757650011431</v>
+        <v>5.523971016813707</v>
       </c>
       <c r="C22" t="n">
-        <v>103.695228666796</v>
+        <v>6.196611451150945</v>
       </c>
       <c r="D22" t="n">
-        <v>101.1691665494032</v>
+        <v>7.194997014485316</v>
       </c>
       <c r="E22" t="n">
-        <v>105.795918254957</v>
+        <v>6.403848598959172</v>
       </c>
       <c r="F22" t="n">
-        <v>117.2114762967857</v>
+        <v>6.69768050091537</v>
       </c>
       <c r="G22" t="n">
-        <v>90.18728190716259</v>
+        <v>1.553151560632002</v>
       </c>
       <c r="H22" t="n">
-        <v>109.5830747207871</v>
+        <v>6.994022835068103</v>
       </c>
     </row>
     <row r="23">
@@ -1021,25 +1021,25 @@
         <v>105</v>
       </c>
       <c r="B23" t="n">
-        <v>25.2661099276378</v>
+        <v>5.580013348389998</v>
       </c>
       <c r="C23" t="n">
-        <v>104.6404245442633</v>
+        <v>6.198461511618566</v>
       </c>
       <c r="D23" t="n">
-        <v>101.1993716182623</v>
+        <v>7.214677531846101</v>
       </c>
       <c r="E23" t="n">
-        <v>106.6199541207569</v>
+        <v>6.457767362609361</v>
       </c>
       <c r="F23" t="n">
-        <v>117.4704191371671</v>
+        <v>6.751022238880594</v>
       </c>
       <c r="G23" t="n">
-        <v>91.10225874922446</v>
+        <v>1.547549233067815</v>
       </c>
       <c r="H23" t="n">
-        <v>110.8367830524727</v>
+        <v>7.037677555989051</v>
       </c>
     </row>
     <row r="24">
@@ -1047,25 +1047,25 @@
         <v>110</v>
       </c>
       <c r="B24" t="n">
-        <v>25.16932775513494</v>
+        <v>5.647504657795303</v>
       </c>
       <c r="C24" t="n">
-        <v>105.7955529316603</v>
+        <v>6.204612389821606</v>
       </c>
       <c r="D24" t="n">
-        <v>101.2997941195364</v>
+        <v>7.244576929360139</v>
       </c>
       <c r="E24" t="n">
-        <v>107.6728267597856</v>
+        <v>6.525753314094461</v>
       </c>
       <c r="F24" t="n">
-        <v>117.894632473873</v>
+        <v>6.814185233516445</v>
       </c>
       <c r="G24" t="n">
-        <v>92.20415767829064</v>
+        <v>1.541621325002015</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2656729441127</v>
+        <v>7.092470315473221</v>
       </c>
     </row>
     <row r="25">
@@ -1073,25 +1073,25 @@
         <v>115</v>
       </c>
       <c r="B25" t="n">
-        <v>25.06455239048336</v>
+        <v>5.727586966792135</v>
       </c>
       <c r="C25" t="n">
-        <v>107.1743639564242</v>
+        <v>6.215833894969562</v>
       </c>
       <c r="D25" t="n">
-        <v>101.48300236685</v>
+        <v>7.286973592256773</v>
       </c>
       <c r="E25" t="n">
-        <v>108.965053629454</v>
+        <v>6.608337955893077</v>
       </c>
       <c r="F25" t="n">
-        <v>118.525356496918</v>
+        <v>6.888289417366536</v>
       </c>
       <c r="G25" t="n">
-        <v>93.51162394762669</v>
+        <v>1.535203833917105</v>
       </c>
       <c r="H25" t="n">
-        <v>113.8667065947605</v>
+        <v>7.15973783240122</v>
       </c>
     </row>
     <row r="26">
@@ -1099,25 +1099,25 @@
         <v>120</v>
       </c>
       <c r="B26" t="n">
-        <v>24.94910624156313</v>
+        <v>5.821402297142589</v>
       </c>
       <c r="C26" t="n">
-        <v>108.7906077460084</v>
+        <v>6.232895836271392</v>
       </c>
       <c r="D26" t="n">
-        <v>101.7615646738186</v>
+        <v>7.344145905765552</v>
       </c>
       <c r="E26" t="n">
-        <v>110.5071521871712</v>
+        <v>6.706052790484235</v>
       </c>
       <c r="F26" t="n">
-        <v>119.4038313963113</v>
+        <v>6.974454722973717</v>
       </c>
       <c r="G26" t="n">
-        <v>95.04330281049124</v>
+        <v>1.528132757295741</v>
       </c>
       <c r="H26" t="n">
-        <v>115.6368462034694</v>
+        <v>7.240816825653575</v>
       </c>
     </row>
     <row r="27">
@@ -1125,25 +1125,25 @@
         <v>125</v>
       </c>
       <c r="B27" t="n">
-        <v>24.82031171625167</v>
+        <v>5.930092670609304</v>
       </c>
       <c r="C27" t="n">
-        <v>110.6580344278516</v>
+        <v>6.25656802293733</v>
       </c>
       <c r="D27" t="n">
-        <v>102.1480493540789</v>
+        <v>7.418372255115467</v>
       </c>
       <c r="E27" t="n">
-        <v>112.3096398903478</v>
+        <v>6.819429320346676</v>
       </c>
       <c r="F27" t="n">
-        <v>120.5712973620618</v>
+        <v>7.073801082881244</v>
       </c>
       <c r="G27" t="n">
-        <v>96.81783952015191</v>
+        <v>1.520244092620415</v>
       </c>
       <c r="H27" t="n">
-        <v>117.5730539692902</v>
+        <v>7.337044014110642</v>
       </c>
     </row>
     <row r="28">
@@ -1151,25 +1151,25 @@
         <v>130</v>
       </c>
       <c r="B28" t="n">
-        <v>24.67549122242831</v>
+        <v>6.054800108953964</v>
       </c>
       <c r="C28" t="n">
-        <v>112.7903941294107</v>
+        <v>6.287620264176429</v>
       </c>
       <c r="D28" t="n">
-        <v>102.6550247212478</v>
+        <v>7.511931025536291</v>
       </c>
       <c r="E28" t="n">
-        <v>114.3830341963946</v>
+        <v>6.948999047959614</v>
       </c>
       <c r="F28" t="n">
-        <v>122.0689945841851</v>
+        <v>7.187448429631816</v>
       </c>
       <c r="G28" t="n">
-        <v>98.85387932986065</v>
+        <v>1.511373837373734</v>
       </c>
       <c r="H28" t="n">
-        <v>119.6722920912743</v>
+        <v>7.449756116653341</v>
       </c>
     </row>
     <row r="29">
@@ -1177,25 +1177,25 @@
         <v>135</v>
       </c>
       <c r="B29" t="n">
-        <v>24.51196716797118</v>
+        <v>6.196666633939307</v>
       </c>
       <c r="C29" t="n">
-        <v>115.2014369781172</v>
+        <v>6.326822369198198</v>
       </c>
       <c r="D29" t="n">
-        <v>103.2950590889501</v>
+        <v>7.627100602257376</v>
       </c>
       <c r="E29" t="n">
-        <v>116.7378525627245</v>
+        <v>7.095293475801555</v>
       </c>
       <c r="F29" t="n">
-        <v>123.9381632526941</v>
+        <v>7.316516695769144</v>
       </c>
       <c r="G29" t="n">
-        <v>101.1700674928866</v>
+        <v>1.501357989038234</v>
       </c>
       <c r="H29" t="n">
-        <v>121.9315227684744</v>
+        <v>7.580289852162075</v>
       </c>
     </row>
     <row r="30">
@@ -1203,25 +1203,25 @@
         <v>140</v>
       </c>
       <c r="B30" t="n">
-        <v>24.32706196076161</v>
+        <v>6.35683426732701</v>
       </c>
       <c r="C30" t="n">
-        <v>117.9049131014261</v>
+        <v>6.37494414721179</v>
       </c>
       <c r="D30" t="n">
-        <v>104.0807207708048</v>
+        <v>7.76615937050828</v>
       </c>
       <c r="E30" t="n">
-        <v>119.384612446744</v>
+        <v>7.25884410635145</v>
       </c>
       <c r="F30" t="n">
-        <v>126.220043557599</v>
+        <v>7.462125813836054</v>
       </c>
       <c r="G30" t="n">
-        <v>103.7850492624818</v>
+        <v>1.490032545096649</v>
       </c>
       <c r="H30" t="n">
-        <v>124.3477081999448</v>
+        <v>7.729981939517534</v>
       </c>
     </row>
     <row r="31">
@@ -1229,25 +1229,25 @@
         <v>145</v>
       </c>
       <c r="B31" t="n">
-        <v>24.11809800867591</v>
+        <v>6.536445030880063</v>
       </c>
       <c r="C31" t="n">
-        <v>120.9145726267787</v>
+        <v>6.432755407427113</v>
       </c>
       <c r="D31" t="n">
-        <v>105.0245780804427</v>
+        <v>7.931385715517896</v>
       </c>
       <c r="E31" t="n">
-        <v>122.3338313058642</v>
+        <v>7.440182442088166</v>
       </c>
       <c r="F31" t="n">
-        <v>128.955875688908</v>
+        <v>7.625395716375783</v>
       </c>
       <c r="G31" t="n">
-        <v>106.7174698919194</v>
+        <v>1.477233503031399</v>
       </c>
       <c r="H31" t="n">
-        <v>126.9178105847367</v>
+        <v>7.900169097600048</v>
       </c>
     </row>
     <row r="32">
@@ -1255,25 +1255,25 @@
         <v>150</v>
       </c>
       <c r="B32" t="n">
-        <v>23.88329178244165</v>
+        <v>6.736541000357665</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2434954043972</v>
+        <v>6.500866221700126</v>
       </c>
       <c r="D32" t="n">
-        <v>106.136591374696</v>
+        <v>8.125219260368572</v>
       </c>
       <c r="E32" t="n">
-        <v>125.5964794720366</v>
+        <v>7.639844242006438</v>
       </c>
       <c r="F32" t="n">
-        <v>132.1876123732322</v>
+        <v>7.807532931555128</v>
       </c>
       <c r="G32" t="n">
-        <v>109.9843428629823</v>
+        <v>1.462851621674551</v>
       </c>
       <c r="H32" t="n">
-        <v>129.6417652615729</v>
+        <v>8.092227551161027</v>
       </c>
     </row>
     <row r="33">
@@ -1281,25 +1281,25 @@
         <v>155</v>
       </c>
       <c r="B33" t="n">
-        <v>23.62645674895763</v>
+        <v>6.957391414977368</v>
       </c>
       <c r="C33" t="n">
-        <v>127.9078533894329</v>
+        <v>6.579235407714684</v>
       </c>
       <c r="D33" t="n">
-        <v>107.4160882892194</v>
+        <v>8.349958628068974</v>
       </c>
       <c r="E33" t="n">
-        <v>129.1879241511367</v>
+        <v>7.85873558437491</v>
       </c>
       <c r="F33" t="n">
-        <v>135.9452939970054</v>
+        <v>8.010414739199922</v>
       </c>
       <c r="G33" t="n">
-        <v>113.5900639179979</v>
+        <v>1.447120475873655</v>
       </c>
       <c r="H33" t="n">
-        <v>132.5504923448383</v>
+        <v>8.307550232200967</v>
       </c>
     </row>
     <row r="34">
@@ -1307,25 +1307,25 @@
         <v>160</v>
       </c>
       <c r="B34" t="n">
-        <v>23.35519300851252</v>
+        <v>7.198569737794878</v>
       </c>
       <c r="C34" t="n">
-        <v>131.9232353033316</v>
+        <v>6.667790728409908</v>
       </c>
       <c r="D34" t="n">
-        <v>108.8618894434271</v>
+        <v>8.606668221342854</v>
       </c>
       <c r="E34" t="n">
-        <v>133.1276886146464</v>
+        <v>8.098117155880315</v>
       </c>
       <c r="F34" t="n">
-        <v>140.2390846767717</v>
+        <v>8.23608396858627</v>
       </c>
       <c r="G34" t="n">
-        <v>117.5276691884878</v>
+        <v>1.430505571771392</v>
       </c>
       <c r="H34" t="n">
-        <v>135.7033455901238</v>
+        <v>8.547687451014474</v>
       </c>
     </row>
     <row r="35">
@@ -1333,25 +1333,25 @@
         <v>165</v>
       </c>
       <c r="B35" t="n">
-        <v>23.07761683825527</v>
+        <v>7.459567055312616</v>
       </c>
       <c r="C35" t="n">
-        <v>136.3034288839556</v>
+        <v>6.766501182199926</v>
       </c>
       <c r="D35" t="n">
-        <v>110.4734886889784</v>
+        <v>8.89628450652777</v>
       </c>
       <c r="E35" t="n">
-        <v>137.4359010106598</v>
+        <v>8.359255540842192</v>
       </c>
       <c r="F35" t="n">
-        <v>145.0779585273658</v>
+        <v>8.48654622269537</v>
       </c>
       <c r="G35" t="n">
-        <v>121.7888498826549</v>
+        <v>1.413504031343135</v>
       </c>
       <c r="H35" t="n">
-        <v>139.1621748073548</v>
+        <v>8.814283693658316</v>
       </c>
     </row>
     <row r="36">
@@ -1359,25 +1359,25 @@
         <v>170</v>
       </c>
       <c r="B36" t="n">
-        <v>22.80184451533751</v>
+        <v>7.739874454032289</v>
       </c>
       <c r="C36" t="n">
-        <v>141.0622218691839</v>
+        <v>6.87533576749945</v>
       </c>
       <c r="D36" t="n">
-        <v>112.2503798775421</v>
+        <v>9.21974394996384</v>
       </c>
       <c r="E36" t="n">
-        <v>142.1326894872759</v>
+        <v>8.643417323580646</v>
       </c>
       <c r="F36" t="n">
-        <v>150.4708896636368</v>
+        <v>8.763807104508345</v>
       </c>
       <c r="G36" t="n">
-        <v>126.3652972086904</v>
+        <v>1.396612976564422</v>
       </c>
       <c r="H36" t="n">
-        <v>142.9888298064596</v>
+        <v>9.10898344618934</v>
       </c>
     </row>
     <row r="37">
@@ -1385,25 +1385,25 @@
         <v>175</v>
       </c>
       <c r="B37" t="n">
-        <v>22.53599231690941</v>
+        <v>8.038983020456163</v>
       </c>
       <c r="C37" t="n">
-        <v>146.2134019968835</v>
+        <v>6.99426348272257</v>
       </c>
       <c r="D37" t="n">
-        <v>114.1920568607767</v>
+        <v>9.577983017988435</v>
       </c>
       <c r="E37" t="n">
-        <v>147.2381821925908</v>
+        <v>8.951869088415226</v>
       </c>
       <c r="F37" t="n">
-        <v>156.426852200428</v>
+        <v>9.069872217006862</v>
       </c>
       <c r="G37" t="n">
-        <v>131.2487023747945</v>
+        <v>1.380329529410701</v>
       </c>
       <c r="H37" t="n">
-        <v>147.245160397363</v>
+        <v>9.433431194665108</v>
       </c>
     </row>
     <row r="38">
@@ -1411,25 +1411,25 @@
         <v>180</v>
       </c>
       <c r="B38" t="n">
-        <v>22.28817652012296</v>
+        <v>8.356383841084739</v>
       </c>
       <c r="C38" t="n">
-        <v>151.7707570049228</v>
+        <v>7.123253326284057</v>
       </c>
       <c r="D38" t="n">
-        <v>116.298013490352</v>
+        <v>9.971938176941643</v>
       </c>
       <c r="E38" t="n">
-        <v>152.7725072747053</v>
+        <v>9.285877419665846</v>
       </c>
       <c r="F38" t="n">
-        <v>162.9548202525869</v>
+        <v>9.406747163172254</v>
       </c>
       <c r="G38" t="n">
-        <v>136.4307565891386</v>
+        <v>1.36515081185753</v>
       </c>
       <c r="H38" t="n">
-        <v>151.9930163900012</v>
+        <v>9.789271425142601</v>
       </c>
     </row>
     <row r="39">
@@ -1437,25 +1437,25 @@
         <v>185</v>
       </c>
       <c r="B39" t="n">
-        <v>22.06651340212785</v>
+        <v>8.691568002421583</v>
       </c>
       <c r="C39" t="n">
-        <v>157.7480746311716</v>
+        <v>7.262274296597958</v>
       </c>
       <c r="D39" t="n">
-        <v>118.5677436179258</v>
+        <v>10.40254589316063</v>
       </c>
       <c r="E39" t="n">
-        <v>158.7557928817087</v>
+        <v>9.646708901652069</v>
       </c>
       <c r="F39" t="n">
-        <v>170.0637679349455</v>
+        <v>9.776437545985871</v>
       </c>
       <c r="G39" t="n">
-        <v>141.9031510599442</v>
+        <v>1.351573945880331</v>
       </c>
       <c r="H39" t="n">
-        <v>157.2942475943018</v>
+        <v>10.17814862367852</v>
       </c>
     </row>
     <row r="40">
@@ -1463,25 +1463,25 @@
         <v>190</v>
       </c>
       <c r="B40" t="n">
-        <v>21.87911924007451</v>
+        <v>9.044026590968061</v>
       </c>
       <c r="C40" t="n">
-        <v>164.1591426134993</v>
+        <v>7.411295392078928</v>
       </c>
       <c r="D40" t="n">
-        <v>121.0007410951662</v>
+        <v>10.87074263298585</v>
       </c>
       <c r="E40" t="n">
-        <v>165.2081671617008</v>
+        <v>10.03563011869379</v>
       </c>
       <c r="F40" t="n">
-        <v>177.7626693623601</v>
+        <v>10.18094896842866</v>
       </c>
       <c r="G40" t="n">
-        <v>147.657576995397</v>
+        <v>1.340096053454564</v>
       </c>
       <c r="H40" t="n">
-        <v>163.2107038201906</v>
+        <v>10.60170727633008</v>
       </c>
     </row>
     <row r="41">
@@ -1489,25 +1489,25 @@
         <v>195</v>
       </c>
       <c r="B41" t="n">
-        <v>21.73411031111423</v>
+        <v>9.41325069322626</v>
       </c>
       <c r="C41" t="n">
-        <v>171.0177486897735</v>
+        <v>7.570285611141426</v>
       </c>
       <c r="D41" t="n">
-        <v>123.5964997737375</v>
+        <v>11.37746486275408</v>
       </c>
       <c r="E41" t="n">
-        <v>172.1497582627792</v>
+        <v>10.45390765511061</v>
       </c>
       <c r="F41" t="n">
-        <v>186.060498649663</v>
+        <v>10.62228703348231</v>
       </c>
       <c r="G41" t="n">
-        <v>153.6857256036941</v>
+        <v>1.331214256555747</v>
       </c>
       <c r="H41" t="n">
-        <v>169.8042348775904</v>
+        <v>11.06159186915427</v>
       </c>
     </row>
     <row r="42">
@@ -1515,25 +1515,25 @@
         <v>200</v>
       </c>
       <c r="B42" t="n">
-        <v>21.63960289239846</v>
+        <v>9.798731395697201</v>
       </c>
       <c r="C42" t="n">
-        <v>178.3376805978667</v>
+        <v>7.739213952200038</v>
       </c>
       <c r="D42" t="n">
-        <v>126.3545135053067</v>
+        <v>11.9236490488061</v>
       </c>
       <c r="E42" t="n">
-        <v>179.6006943330425</v>
+        <v>10.90280809522244</v>
       </c>
       <c r="F42" t="n">
-        <v>194.9662299117047</v>
+        <v>11.10245734412833</v>
       </c>
       <c r="G42" t="n">
-        <v>159.9792880930155</v>
+        <v>1.325425677159406</v>
       </c>
       <c r="H42" t="n">
-        <v>177.136690576444</v>
+        <v>11.55944688820811</v>
       </c>
     </row>
     <row r="43">
@@ -1541,25 +1541,25 @@
         <v>205</v>
       </c>
       <c r="B43" t="n">
-        <v>21.60371326107692</v>
+        <v>10.19995978488362</v>
       </c>
       <c r="C43" t="n">
-        <v>186.1327260756425</v>
+        <v>7.918049413668592</v>
       </c>
       <c r="D43" t="n">
-        <v>129.274276141528</v>
+        <v>12.5102316574779</v>
       </c>
       <c r="E43" t="n">
-        <v>187.5811035205804</v>
+        <v>11.38359802334873</v>
       </c>
       <c r="F43" t="n">
-        <v>204.4888372633138</v>
+        <v>11.62346550334796</v>
       </c>
       <c r="G43" t="n">
-        <v>166.5299556715692</v>
+        <v>1.323227437240961</v>
       </c>
       <c r="H43" t="n">
-        <v>185.269920726674</v>
+        <v>12.09691681954848</v>
       </c>
     </row>
     <row r="44">
@@ -1567,25 +1567,25 @@
         <v>210</v>
       </c>
       <c r="B44" t="n">
-        <v>21.63312539780812</v>
+        <v>10.61648122627273</v>
       </c>
       <c r="C44" t="n">
-        <v>194.4152338689259</v>
+        <v>8.10692862651505</v>
       </c>
       <c r="D44" t="n">
-        <v>132.3580183920824</v>
+        <v>13.13775459928308</v>
       </c>
       <c r="E44" t="n">
-        <v>196.1090939918496</v>
+        <v>11.89742054919022</v>
       </c>
       <c r="F44" t="n">
-        <v>214.6327468018454</v>
+        <v>12.187029172309</v>
       </c>
       <c r="G44" t="n">
-        <v>173.3303057350651</v>
+        <v>1.325028930615747</v>
       </c>
       <c r="H44" t="n">
-        <v>194.2590103667571</v>
+        <v>12.67540880067004</v>
       </c>
     </row>
     <row r="45">
@@ -1593,25 +1593,25 @@
         <v>215</v>
       </c>
       <c r="B45" t="n">
-        <v>21.72516116027577</v>
+        <v>11.04824474448158</v>
       </c>
       <c r="C45" t="n">
-        <v>203.1816399682937</v>
+        <v>8.306572653831054</v>
       </c>
       <c r="D45" t="n">
-        <v>135.6175127156091</v>
+        <v>13.80483311271941</v>
       </c>
       <c r="E45" t="n">
-        <v>205.1844337106818</v>
+        <v>12.44417882572663</v>
       </c>
       <c r="F45" t="n">
-        <v>225.380996546511</v>
+        <v>12.79241929514574</v>
       </c>
       <c r="G45" t="n">
-        <v>180.3795060323523</v>
+        <v>1.330666121066892</v>
       </c>
       <c r="H45" t="n">
-        <v>204.0981625183799</v>
+        <v>13.29472494892654</v>
       </c>
     </row>
     <row r="46">
@@ -1619,25 +1619,25 @@
         <v>220</v>
       </c>
       <c r="B46" t="n">
-        <v>21.86975043989016</v>
+        <v>11.49580605791236</v>
       </c>
       <c r="C46" t="n">
-        <v>212.4251469163926</v>
+        <v>8.517598136188264</v>
       </c>
       <c r="D46" t="n">
-        <v>139.0628267132778</v>
+        <v>14.50963224644277</v>
       </c>
       <c r="E46" t="n">
-        <v>214.7950178627262</v>
+        <v>13.02302653453837</v>
       </c>
       <c r="F46" t="n">
-        <v>236.7114974577017</v>
+        <v>13.43783477829457</v>
       </c>
       <c r="G46" t="n">
-        <v>187.6866295169365</v>
+        <v>1.339522214443272</v>
       </c>
       <c r="H46" t="n">
-        <v>214.7384122449607</v>
+        <v>13.95346026200772</v>
       </c>
     </row>
     <row r="47">
@@ -1645,25 +1645,25 @@
         <v>225</v>
       </c>
       <c r="B47" t="n">
-        <v>22.05585470351283</v>
+        <v>11.95979349829584</v>
       </c>
       <c r="C47" t="n">
-        <v>222.1412428263707</v>
+        <v>8.740581075295632</v>
       </c>
       <c r="D47" t="n">
-        <v>142.7033644946225</v>
+        <v>15.25034242139664</v>
       </c>
       <c r="E47" t="n">
-        <v>224.9280071333328</v>
+        <v>13.63311351729091</v>
       </c>
       <c r="F47" t="n">
-        <v>248.6021988351972</v>
+        <v>14.1215288511553</v>
       </c>
       <c r="G47" t="n">
-        <v>195.2619346660545</v>
+        <v>1.35092110059016</v>
       </c>
       <c r="H47" t="n">
-        <v>226.128438061258</v>
+        <v>14.65008679528817</v>
       </c>
     </row>
     <row r="48">
@@ -1671,25 +1671,25 @@
         <v>230</v>
       </c>
       <c r="B48" t="n">
-        <v>22.27243541800759</v>
+        <v>12.4408353973611</v>
       </c>
       <c r="C48" t="n">
-        <v>232.3254158113657</v>
+        <v>8.976097472862692</v>
       </c>
       <c r="D48" t="n">
-        <v>146.5485301691868</v>
+        <v>16.02515405853034</v>
       </c>
       <c r="E48" t="n">
-        <v>235.5705622078601</v>
+        <v>14.27358961564966</v>
       </c>
       <c r="F48" t="n">
-        <v>261.0310499788083</v>
+        <v>14.84175474312571</v>
       </c>
       <c r="G48" t="n">
-        <v>203.1156799569159</v>
+        <v>1.364186669352965</v>
       </c>
       <c r="H48" t="n">
-        <v>238.2169184820183</v>
+        <v>15.38307660414309</v>
       </c>
     </row>
     <row r="49">
@@ -1697,25 +1697,25 @@
         <v>235</v>
       </c>
       <c r="B49" t="n">
-        <v>22.50845405023844</v>
+        <v>12.9395600868379</v>
       </c>
       <c r="C49" t="n">
-        <v>242.9731539845177</v>
+        <v>9.224723330598973</v>
       </c>
       <c r="D49" t="n">
-        <v>150.6077278465138</v>
+        <v>16.83225757878735</v>
       </c>
       <c r="E49" t="n">
-        <v>246.709843771665</v>
+        <v>14.94360467127984</v>
       </c>
       <c r="F49" t="n">
-        <v>273.9760001883178</v>
+        <v>15.59676568360565</v>
       </c>
       <c r="G49" t="n">
-        <v>211.2581238667411</v>
+        <v>1.378642810577104</v>
       </c>
       <c r="H49" t="n">
-        <v>250.9525320219905</v>
+        <v>16.15090174394752</v>
       </c>
     </row>
     <row r="50">
@@ -1723,25 +1723,25 @@
         <v>240</v>
       </c>
       <c r="B50" t="n">
-        <v>22.75287206706658</v>
+        <v>13.45659589845514</v>
       </c>
       <c r="C50" t="n">
-        <v>254.0799454589954</v>
+        <v>9.487034650213063</v>
       </c>
       <c r="D50" t="n">
-        <v>154.8903616361317</v>
+        <v>17.66984340311664</v>
       </c>
       <c r="E50" t="n">
-        <v>258.3330125101065</v>
+        <v>15.64230852584763</v>
       </c>
       <c r="F50" t="n">
-        <v>287.4149987635212</v>
+        <v>16.38481490199426</v>
       </c>
       <c r="G50" t="n">
-        <v>219.699524872737</v>
+        <v>1.393613414107828</v>
       </c>
       <c r="H50" t="n">
-        <v>264.2839571959518</v>
+        <v>16.95203427007614</v>
       </c>
     </row>
     <row r="51">
@@ -1749,25 +1749,25 @@
         <v>245</v>
       </c>
       <c r="B51" t="n">
-        <v>22.99465093535449</v>
+        <v>13.99257116394318</v>
       </c>
       <c r="C51" t="n">
-        <v>265.6412783479348</v>
+        <v>9.763607433414633</v>
       </c>
       <c r="D51" t="n">
-        <v>159.4058356475858</v>
+        <v>18.53610195246105</v>
       </c>
       <c r="E51" t="n">
-        <v>270.4272291085363</v>
+        <v>16.36885102101835</v>
       </c>
       <c r="F51" t="n">
-        <v>301.3259950041943</v>
+        <v>17.20415562769071</v>
       </c>
       <c r="G51" t="n">
-        <v>228.4501414521334</v>
+        <v>1.408422369790462</v>
       </c>
       <c r="H51" t="n">
-        <v>278.1598725186479</v>
+        <v>17.78494623790341</v>
       </c>
     </row>
     <row r="52">
@@ -1775,25 +1775,25 @@
         <v>250</v>
       </c>
       <c r="B52" t="n">
-        <v>23.22275212196532</v>
+        <v>14.54811421503111</v>
       </c>
       <c r="C52" t="n">
-        <v>277.6526407644823</v>
+        <v>10.05501768191301</v>
       </c>
       <c r="D52" t="n">
-        <v>164.1635539904165</v>
+        <v>19.42922364777057</v>
       </c>
       <c r="E52" t="n">
-        <v>282.9796542523145</v>
+        <v>17.12238199845771</v>
       </c>
       <c r="F52" t="n">
-        <v>315.6869382101418</v>
+        <v>18.05304109009299</v>
       </c>
       <c r="G52" t="n">
-        <v>237.5202320821406</v>
+        <v>1.422393567470376</v>
       </c>
       <c r="H52" t="n">
-        <v>292.528956504832</v>
+        <v>18.64810970280387</v>
       </c>
     </row>
     <row r="53">
@@ -1801,25 +1801,25 @@
         <v>255</v>
       </c>
       <c r="B53" t="n">
-        <v>23.42613709376179</v>
+        <v>15.12385338344908</v>
       </c>
       <c r="C53" t="n">
-        <v>290.1095208217814</v>
+        <v>10.36184139741742</v>
       </c>
       <c r="D53" t="n">
-        <v>169.172920774162</v>
+        <v>20.34739890998958</v>
       </c>
       <c r="E53" t="n">
-        <v>295.9774486267939</v>
+        <v>17.90205129983078</v>
       </c>
       <c r="F53" t="n">
-        <v>330.4757776811778</v>
+        <v>18.92972451860112</v>
       </c>
       <c r="G53" t="n">
-        <v>246.920055239985</v>
+        <v>1.43485089699291</v>
       </c>
       <c r="H53" t="n">
-        <v>307.3398876692539</v>
+        <v>19.53999672015438</v>
       </c>
     </row>
     <row r="54">
@@ -1827,25 +1827,25 @@
         <v>260</v>
       </c>
       <c r="B54" t="n">
-        <v>23.59376731760571</v>
+        <v>15.72041700092514</v>
       </c>
       <c r="C54" t="n">
-        <v>303.0074066329994</v>
+        <v>10.6846545816368</v>
       </c>
       <c r="D54" t="n">
-        <v>174.4433401083559</v>
+        <v>21.28881816006639</v>
       </c>
       <c r="E54" t="n">
-        <v>309.4077729173409</v>
+        <v>18.70700876680404</v>
       </c>
       <c r="F54" t="n">
-        <v>345.670462717079</v>
+        <v>19.83245914261378</v>
       </c>
       <c r="G54" t="n">
-        <v>256.6598694028594</v>
+        <v>1.44511824820335</v>
       </c>
       <c r="H54" t="n">
-        <v>322.5413445266817</v>
+        <v>20.45907934532856</v>
       </c>
     </row>
     <row r="55">
@@ -1853,25 +1853,25 @@
         <v>265</v>
       </c>
       <c r="B55" t="n">
-        <v>23.71460426035966</v>
+        <v>16.33843339919051</v>
       </c>
       <c r="C55" t="n">
-        <v>316.3417863112805</v>
+        <v>11.02403323628064</v>
       </c>
       <c r="D55" t="n">
-        <v>179.9842161025411</v>
+        <v>22.25167181894425</v>
       </c>
       <c r="E55" t="n">
-        <v>323.2577878093009</v>
+        <v>19.5364042410428</v>
       </c>
       <c r="F55" t="n">
-        <v>361.2489426176244</v>
+        <v>20.75949819153076</v>
       </c>
       <c r="G55" t="n">
-        <v>266.7499330480084</v>
+        <v>1.45251951094703</v>
       </c>
       <c r="H55" t="n">
-        <v>338.0820055918734</v>
+        <v>21.40382963370079</v>
       </c>
     </row>
     <row r="56">
@@ -1879,25 +1879,25 @@
         <v>270</v>
       </c>
       <c r="B56" t="n">
-        <v>23.77992910874428</v>
+        <v>16.97840557093316</v>
       </c>
       <c r="C56" t="n">
-        <v>330.1043079331623</v>
+        <v>11.38028810371942</v>
       </c>
       <c r="D56" t="n">
-        <v>185.8006221015415</v>
+        <v>23.23444388443596</v>
       </c>
       <c r="E56" t="n">
-        <v>337.514165299023</v>
+        <v>20.38928245274306</v>
       </c>
       <c r="F56" t="n">
-        <v>377.1931381118167</v>
+        <v>21.70928268607247</v>
       </c>
       <c r="G56" t="n">
-        <v>277.1984583009497</v>
+        <v>1.456520657910587</v>
       </c>
       <c r="H56" t="n">
-        <v>353.9151868923952</v>
+        <v>22.37290034461448</v>
       </c>
     </row>
     <row r="57">
@@ -1905,25 +1905,25 @@
         <v>275</v>
       </c>
       <c r="B57" t="n">
-        <v>23.79547054736647</v>
+        <v>17.63902403581332</v>
       </c>
       <c r="C57" t="n">
-        <v>344.2464709047307</v>
+        <v>11.75206260957444</v>
       </c>
       <c r="D57" t="n">
-        <v>191.8704099522357</v>
+        <v>24.23671563485465</v>
       </c>
       <c r="E57" t="n">
-        <v>352.1479651316797</v>
+        <v>21.26329755046734</v>
       </c>
       <c r="F57" t="n">
-        <v>393.4944905055525</v>
+        <v>22.68073256481715</v>
       </c>
       <c r="G57" t="n">
-        <v>287.9840658908297</v>
+        <v>1.457472571026196</v>
       </c>
       <c r="H57" t="n">
-        <v>370.0179602703606</v>
+        <v>23.36514622763608</v>
       </c>
     </row>
     <row r="58">
@@ -1931,25 +1931,25 @@
         <v>280</v>
       </c>
       <c r="B58" t="n">
-        <v>23.77504665764571</v>
+        <v>18.31691782778632</v>
       </c>
       <c r="C58" t="n">
-        <v>358.6767916844045</v>
+        <v>12.13686878770162</v>
       </c>
       <c r="D58" t="n">
-        <v>198.15295979921</v>
+        <v>25.25776503156164</v>
       </c>
       <c r="E58" t="n">
-        <v>367.0992513946724</v>
+        <v>22.15413779837942</v>
       </c>
       <c r="F58" t="n">
-        <v>410.1260853012732</v>
+        <v>23.67093784997629</v>
       </c>
       <c r="G58" t="n">
-        <v>299.0517196373276</v>
+        <v>1.4562216077808</v>
       </c>
       <c r="H58" t="n">
-        <v>386.353981006395</v>
+        <v>24.37796443603198</v>
       </c>
     </row>
     <row r="59">
@@ -1957,25 +1957,25 @@
         <v>285</v>
       </c>
       <c r="B59" t="n">
-        <v>23.73311092420616</v>
+        <v>19.00855083757527</v>
       </c>
       <c r="C59" t="n">
-        <v>373.2979176051132</v>
+        <v>12.53211774514727</v>
       </c>
       <c r="D59" t="n">
-        <v>204.6060040024044</v>
+        <v>26.29677037108645</v>
       </c>
       <c r="E59" t="n">
-        <v>382.3040955939202</v>
+        <v>23.05722518889113</v>
       </c>
       <c r="F59" t="n">
-        <v>427.0572827127568</v>
+        <v>24.67656528219989</v>
       </c>
       <c r="G59" t="n">
-        <v>310.3436871440862</v>
+        <v>1.453653044107628</v>
       </c>
       <c r="H59" t="n">
-        <v>402.8813268103604</v>
+        <v>25.40846661815386</v>
       </c>
     </row>
     <row r="60">
@@ -1983,25 +1983,25 @@
         <v>290</v>
       </c>
       <c r="B60" t="n">
-        <v>23.6841168316691</v>
+        <v>19.71038695590017</v>
       </c>
       <c r="C60" t="n">
-        <v>388.0124959998196</v>
+        <v>12.93522058895738</v>
       </c>
       <c r="D60" t="n">
-        <v>211.1872749217532</v>
+        <v>27.35290994996698</v>
       </c>
       <c r="E60" t="n">
-        <v>397.6985692353627</v>
+        <v>23.9679817144155</v>
       </c>
       <c r="F60" t="n">
-        <v>444.2574429538226</v>
+        <v>25.69428160213796</v>
       </c>
       <c r="G60" t="n">
-        <v>321.8022360146967</v>
+        <v>1.450652155939733</v>
       </c>
       <c r="H60" t="n">
-        <v>419.5580753921386</v>
+        <v>26.4537644223542</v>
       </c>
     </row>
     <row r="61">
@@ -2009,25 +2009,25 @@
         <v>295</v>
       </c>
       <c r="B61" t="n">
-        <v>23.64251786465922</v>
+        <v>20.41889007348336</v>
       </c>
       <c r="C61" t="n">
-        <v>402.7231742014731</v>
+        <v>13.34358842617729</v>
       </c>
       <c r="D61" t="n">
-        <v>217.8545049171802</v>
+        <v>28.42536206473429</v>
       </c>
       <c r="E61" t="n">
-        <v>413.218743824924</v>
+        <v>24.88182936736446</v>
       </c>
       <c r="F61" t="n">
-        <v>461.6959262382796</v>
+        <v>26.72075355044172</v>
       </c>
       <c r="G61" t="n">
-        <v>333.3696338527896</v>
+        <v>1.448104219210377</v>
       </c>
       <c r="H61" t="n">
-        <v>436.3423044615968</v>
+        <v>27.51096949698672</v>
       </c>
     </row>
     <row r="62">
@@ -2035,25 +2035,25 @@
         <v>300</v>
       </c>
       <c r="B62" t="n">
-        <v>23.6227675077985</v>
+        <v>21.13052408104239</v>
       </c>
       <c r="C62" t="n">
-        <v>417.3325995430097</v>
+        <v>13.75463236385275</v>
       </c>
       <c r="D62" t="n">
-        <v>224.5654263486163</v>
+        <v>29.51330501192522</v>
       </c>
       <c r="E62" t="n">
-        <v>428.8006908685404</v>
+        <v>25.79419014015015</v>
       </c>
       <c r="F62" t="n">
-        <v>479.3420927799194</v>
+        <v>27.75264786776164</v>
       </c>
       <c r="G62" t="n">
-        <v>344.9881482619166</v>
+        <v>1.446894509852657</v>
       </c>
       <c r="H62" t="n">
-        <v>453.1920917286199</v>
+        <v>28.5771934904021</v>
       </c>
     </row>
     <row r="63">
@@ -2061,25 +2061,25 @@
         <v>305</v>
       </c>
       <c r="B63" t="n">
-        <v>23.63931924571143</v>
+        <v>21.84175286930228</v>
       </c>
       <c r="C63" t="n">
-        <v>431.7434193573798</v>
+        <v>14.16576350902996</v>
       </c>
       <c r="D63" t="n">
-        <v>231.2777715759994</v>
+        <v>30.61591708806963</v>
       </c>
       <c r="E63" t="n">
-        <v>444.3804818721237</v>
+        <v>26.70048602518471</v>
       </c>
       <c r="F63" t="n">
-        <v>497.1653027925244</v>
+        <v>28.78663129474747</v>
       </c>
       <c r="G63" t="n">
-        <v>356.6000468457517</v>
+        <v>1.447908303799826</v>
       </c>
       <c r="H63" t="n">
-        <v>470.065514903069</v>
+        <v>29.64954805095218</v>
       </c>
     </row>
     <row r="64">
@@ -2087,25 +2087,25 @@
         <v>310</v>
       </c>
       <c r="B64" t="n">
-        <v>23.70662656301836</v>
+        <v>22.54904032898223</v>
       </c>
       <c r="C64" t="n">
-        <v>445.8582809775335</v>
+        <v>14.57439296875454</v>
       </c>
       <c r="D64" t="n">
-        <v>237.9492729592578</v>
+        <v>31.73237658970534</v>
       </c>
       <c r="E64" t="n">
-        <v>459.894188341616</v>
+        <v>27.59613901488086</v>
       </c>
       <c r="F64" t="n">
-        <v>515.1349164899208</v>
+        <v>29.81937057204981</v>
       </c>
       <c r="G64" t="n">
-        <v>368.1475972078732</v>
+        <v>1.452030876984874</v>
       </c>
       <c r="H64" t="n">
-        <v>486.9206516948345</v>
+        <v>30.72514482699017</v>
       </c>
     </row>
     <row r="65">
@@ -2113,25 +2113,25 @@
         <v>315</v>
       </c>
       <c r="B65" t="n">
-        <v>23.83914294434441</v>
+        <v>23.24885035080441</v>
       </c>
       <c r="C65" t="n">
-        <v>459.5798317364163</v>
+        <v>14.97793185007277</v>
       </c>
       <c r="D65" t="n">
-        <v>244.5376628583311</v>
+        <v>32.8618618133621</v>
       </c>
       <c r="E65" t="n">
-        <v>475.2778817829458</v>
+        <v>28.47657110165072</v>
       </c>
       <c r="F65" t="n">
-        <v>533.2202940858915</v>
+        <v>30.84753244031941</v>
       </c>
       <c r="G65" t="n">
-        <v>379.5730669519089</v>
+        <v>1.460147505341095</v>
       </c>
       <c r="H65" t="n">
-        <v>503.715579813777</v>
+        <v>31.80109546686841</v>
       </c>
     </row>
     <row r="66">
@@ -2139,25 +2139,25 @@
         <v>320</v>
       </c>
       <c r="B66" t="n">
-        <v>24.0513218743116</v>
+        <v>23.93764682548732</v>
       </c>
       <c r="C66" t="n">
-        <v>472.8107189669666</v>
+        <v>15.37379126003011</v>
       </c>
       <c r="D66" t="n">
-        <v>251.0006736331445</v>
+        <v>34.00355105557765</v>
       </c>
       <c r="E66" t="n">
-        <v>490.4676337020377</v>
+        <v>29.33720427790589</v>
       </c>
       <c r="F66" t="n">
-        <v>551.3907957942406</v>
+        <v>31.86778364020747</v>
       </c>
       <c r="G66" t="n">
-        <v>390.8187236814258</v>
+        <v>1.473143464801585</v>
       </c>
       <c r="H66" t="n">
-        <v>520.4083769697926</v>
+        <v>32.87451161893804</v>
       </c>
     </row>
     <row r="67">
@@ -2165,25 +2165,25 @@
         <v>325</v>
       </c>
       <c r="B67" t="n">
-        <v>24.35761683754347</v>
+        <v>24.61189364375418</v>
       </c>
       <c r="C67" t="n">
-        <v>485.4535900021204</v>
+        <v>15.75938230567228</v>
       </c>
       <c r="D67" t="n">
-        <v>257.2960376436292</v>
+        <v>35.15662261288129</v>
       </c>
       <c r="E67" t="n">
-        <v>505.3995156048109</v>
+        <v>30.17346053605853</v>
       </c>
       <c r="F67" t="n">
-        <v>569.6157818287505</v>
+        <v>32.87679091236276</v>
       </c>
       <c r="G67" t="n">
-        <v>401.826835000068</v>
+        <v>1.491904031299537</v>
       </c>
       <c r="H67" t="n">
-        <v>536.957120872725</v>
+        <v>33.94250493155124</v>
       </c>
     </row>
     <row r="68">
@@ -2191,25 +2191,25 @@
         <v>330</v>
       </c>
       <c r="B68" t="n">
-        <v>24.76932046899208</v>
+        <v>25.26810506530417</v>
       </c>
       <c r="C68" t="n">
-        <v>497.4163195256893</v>
+        <v>16.13241595855177</v>
       </c>
       <c r="D68" t="n">
-        <v>263.3863829967636</v>
+        <v>36.31991905355903</v>
       </c>
       <c r="E68" t="n">
-        <v>520.0092368996977</v>
+        <v>30.98088015946134</v>
       </c>
       <c r="F68" t="n">
-        <v>587.8571710025899</v>
+        <v>33.87088692743419</v>
       </c>
       <c r="G68" t="n">
-        <v>412.5404908621089</v>
+        <v>1.517120878725765</v>
       </c>
       <c r="H68" t="n">
-        <v>553.3125537951069</v>
+        <v>35.00172153048346</v>
       </c>
     </row>
     <row r="69">
@@ -2217,25 +2217,25 @@
         <v>335</v>
       </c>
       <c r="B69" t="n">
-        <v>25.27751248473872</v>
+        <v>25.90374682096208</v>
       </c>
       <c r="C69" t="n">
-        <v>508.6640881357686</v>
+        <v>16.49296055977607</v>
       </c>
       <c r="D69" t="n">
-        <v>269.2728254657317</v>
+        <v>37.48811348909041</v>
       </c>
       <c r="E69" t="n">
-        <v>534.2249504160172</v>
+        <v>31.75616307934857</v>
       </c>
       <c r="F69" t="n">
-        <v>606.0136246419255</v>
+        <v>34.84407559068372</v>
       </c>
       <c r="G69" t="n">
-        <v>422.9183154442787</v>
+        <v>1.548247639690246</v>
       </c>
       <c r="H69" t="n">
-        <v>569.3797667910122</v>
+        <v>36.04595907001164</v>
       </c>
     </row>
     <row r="70">
@@ -2243,25 +2243,25 @@
         <v>340</v>
       </c>
       <c r="B70" t="n">
-        <v>25.86317769582299</v>
+        <v>26.51737341267979</v>
       </c>
       <c r="C70" t="n">
-        <v>519.2134042495143</v>
+        <v>16.84318982480195</v>
       </c>
       <c r="D70" t="n">
-        <v>274.9908542824807</v>
+        <v>38.6508831699375</v>
       </c>
       <c r="E70" t="n">
-        <v>547.9810602575993</v>
+        <v>32.49758844141426</v>
       </c>
       <c r="F70" t="n">
-        <v>623.9446604182714</v>
+        <v>35.79035861075599</v>
       </c>
       <c r="G70" t="n">
-        <v>432.9367087784456</v>
+        <v>1.584119633869158</v>
       </c>
       <c r="H70" t="n">
-        <v>585.065804623536</v>
+        <v>37.06904194168602</v>
       </c>
     </row>
     <row r="71">
@@ -2269,25 +2269,25 @@
         <v>345</v>
       </c>
       <c r="B71" t="n">
-        <v>26.50686515484992</v>
+        <v>27.10757634182583</v>
       </c>
       <c r="C71" t="n">
-        <v>529.0860639290461</v>
+        <v>17.18550799840859</v>
       </c>
       <c r="D71" t="n">
-        <v>280.5797224229972</v>
+        <v>39.79745741878518</v>
       </c>
       <c r="E71" t="n">
-        <v>561.2150339851761</v>
+        <v>33.20369233372452</v>
       </c>
       <c r="F71" t="n">
-        <v>641.5099303978918</v>
+        <v>36.70404607349833</v>
       </c>
       <c r="G71" t="n">
-        <v>442.5726749685849</v>
+        <v>1.623545490734558</v>
       </c>
       <c r="H71" t="n">
-        <v>600.2836551645582</v>
+        <v>38.06514092866283</v>
       </c>
     </row>
     <row r="72">
@@ -2295,25 +2295,25 @@
         <v>350</v>
       </c>
       <c r="B72" t="n">
-        <v>27.189123914426</v>
+        <v>27.67294710976667</v>
       </c>
       <c r="C72" t="n">
-        <v>538.3038632364568</v>
+        <v>17.5223193253758</v>
       </c>
       <c r="D72" t="n">
-        <v>286.0786828632784</v>
+        <v>40.91706555832432</v>
       </c>
       <c r="E72" t="n">
-        <v>573.8643391594997</v>
+        <v>33.87301084434485</v>
       </c>
       <c r="F72" t="n">
-        <v>658.5690866470654</v>
+        <v>37.5794480647586</v>
       </c>
       <c r="G72" t="n">
-        <v>451.8032181186396</v>
+        <v>1.665333839758593</v>
       </c>
       <c r="H72" t="n">
-        <v>614.9463062859894</v>
+        <v>39.02842681409872</v>
       </c>
     </row>
     <row r="73">
@@ -2321,25 +2321,25 @@
         <v>355</v>
       </c>
       <c r="B73" t="n">
-        <v>27.89050302716003</v>
+        <v>28.21207721786851</v>
       </c>
       <c r="C73" t="n">
-        <v>546.8885982338516</v>
+        <v>17.85602805048394</v>
       </c>
       <c r="D73" t="n">
-        <v>291.5269885793297</v>
+        <v>41.99893691123994</v>
       </c>
       <c r="E73" t="n">
-        <v>585.8664433413128</v>
+        <v>34.50408006134097</v>
       </c>
       <c r="F73" t="n">
-        <v>674.9817812320457</v>
+        <v>38.41087467038513</v>
       </c>
       <c r="G73" t="n">
-        <v>460.6053423325471</v>
+        <v>1.708293310413552</v>
       </c>
       <c r="H73" t="n">
-        <v>628.9667458597085</v>
+        <v>39.95307038114932</v>
       </c>
     </row>
     <row r="74">
@@ -2347,25 +2347,25 @@
         <v>360</v>
       </c>
       <c r="B74" t="n">
-        <v>28.59155154565791</v>
+        <v>28.72355816749722</v>
       </c>
       <c r="C74" t="n">
-        <v>554.8620649833327</v>
+        <v>18.1890384185124</v>
       </c>
       <c r="D74" t="n">
-        <v>296.9638925471413</v>
+        <v>43.03230080022304</v>
       </c>
       <c r="E74" t="n">
-        <v>597.1588140913649</v>
+        <v>35.09543607277863</v>
       </c>
       <c r="F74" t="n">
-        <v>690.607666219096</v>
+        <v>39.19263597622713</v>
       </c>
       <c r="G74" t="n">
-        <v>468.9560517142403</v>
+        <v>1.751232532171547</v>
       </c>
       <c r="H74" t="n">
-        <v>642.2579617576473</v>
+        <v>40.83324241296963</v>
       </c>
     </row>
     <row r="75">
@@ -2373,25 +2373,25 @@
         <v>365</v>
       </c>
       <c r="B75" t="n">
-        <v>29.27281852252437</v>
+        <v>29.20598146001959</v>
       </c>
       <c r="C75" t="n">
-        <v>562.2460595470039</v>
+        <v>18.5237546742403</v>
       </c>
       <c r="D75" t="n">
-        <v>302.4286477426988</v>
+        <v>44.00638654795811</v>
       </c>
       <c r="E75" t="n">
-        <v>607.6789189703924</v>
+        <v>35.64561496672352</v>
       </c>
       <c r="F75" t="n">
-        <v>705.3063936744771</v>
+        <v>39.91904206813117</v>
       </c>
       <c r="G75" t="n">
-        <v>476.8323503676669</v>
+        <v>1.792960134504618</v>
       </c>
       <c r="H75" t="n">
-        <v>654.7329418516683</v>
+        <v>41.66311369271608</v>
       </c>
     </row>
     <row r="76">
@@ -2399,25 +2399,25 @@
         <v>370</v>
       </c>
       <c r="B76" t="n">
-        <v>29.91485301036898</v>
+        <v>29.65793859680288</v>
       </c>
       <c r="C76" t="n">
-        <v>569.0623779869748</v>
+        <v>18.86258106244763</v>
       </c>
       <c r="D76" t="n">
-        <v>307.9605071420021</v>
+        <v>44.91042347713681</v>
       </c>
       <c r="E76" t="n">
-        <v>617.3642255391439</v>
+        <v>36.15315283124171</v>
       </c>
       <c r="F76" t="n">
-        <v>718.9376156644649</v>
+        <v>40.58440303194539</v>
       </c>
       <c r="G76" t="n">
-        <v>484.2112423967816</v>
+        <v>1.8322847468851</v>
       </c>
       <c r="H76" t="n">
-        <v>666.3046740136875</v>
+        <v>42.43685500354428</v>
       </c>
     </row>
     <row r="77">
@@ -2425,25 +2425,25 @@
         <v>375</v>
       </c>
       <c r="B77" t="n">
-        <v>30.49820406179438</v>
+        <v>30.07802107921308</v>
       </c>
       <c r="C77" t="n">
-        <v>575.3328163653424</v>
+        <v>19.20792182791416</v>
       </c>
       <c r="D77" t="n">
-        <v>313.5987237210476</v>
+        <v>45.73364091044517</v>
       </c>
       <c r="E77" t="n">
-        <v>626.1522013583631</v>
+        <v>36.6165857543985</v>
       </c>
       <c r="F77" t="n">
-        <v>731.3609842553346</v>
+        <v>41.1830289535183</v>
       </c>
       <c r="G77" t="n">
-        <v>491.0697319055197</v>
+        <v>1.868014998784906</v>
       </c>
       <c r="H77" t="n">
-        <v>676.8861461155898</v>
+        <v>43.14863712861128</v>
       </c>
     </row>
     <row r="78">
@@ -2451,25 +2451,25 @@
         <v>380</v>
       </c>
       <c r="B78" t="n">
-        <v>31.0034207294103</v>
+        <v>30.46482040861606</v>
       </c>
       <c r="C78" t="n">
-        <v>581.0791707442103</v>
+        <v>19.5621812154196</v>
       </c>
       <c r="D78" t="n">
-        <v>319.3825504558301</v>
+        <v>46.46526817057268</v>
       </c>
       <c r="E78" t="n">
-        <v>633.980313988801</v>
+        <v>37.03444982425997</v>
       </c>
       <c r="F78" t="n">
-        <v>742.436151513338</v>
+        <v>41.70922991869814</v>
       </c>
       <c r="G78" t="n">
-        <v>497.384822997813</v>
+        <v>1.89895951967638</v>
       </c>
       <c r="H78" t="n">
-        <v>686.3903460292878</v>
+        <v>43.79263085107173</v>
       </c>
     </row>
     <row r="79">
@@ -2477,25 +2477,25 @@
         <v>385</v>
       </c>
       <c r="B79" t="n">
-        <v>31.41105206582147</v>
+        <v>30.81692808637939</v>
       </c>
       <c r="C79" t="n">
-        <v>586.3232371856965</v>
+        <v>19.92776346974327</v>
       </c>
       <c r="D79" t="n">
-        <v>325.351240322339</v>
+        <v>47.09453458020527</v>
       </c>
       <c r="E79" t="n">
-        <v>640.7860309911933</v>
+        <v>37.40528112889196</v>
       </c>
       <c r="F79" t="n">
-        <v>752.0227695047391</v>
+        <v>42.15731601333297</v>
       </c>
       <c r="G79" t="n">
-        <v>503.1335197776227</v>
+        <v>1.923926939031565</v>
       </c>
       <c r="H79" t="n">
-        <v>694.7302616266728</v>
+        <v>44.36300695408192</v>
       </c>
     </row>
     <row r="80">
@@ -2503,25 +2503,25 @@
         <v>390</v>
       </c>
       <c r="B80" t="n">
-        <v>31.70467935146445</v>
+        <v>31.13298629643105</v>
       </c>
       <c r="C80" t="n">
-        <v>591.0877599873486</v>
+        <v>20.30667475432304</v>
       </c>
       <c r="D80" t="n">
-        <v>331.5375470093558</v>
+        <v>47.61102301856695</v>
       </c>
       <c r="E80" t="n">
-        <v>646.5109423386552</v>
+        <v>37.72779099301351</v>
       </c>
       <c r="F80" t="n">
-        <v>759.9920462456262</v>
+        <v>42.52216185910221</v>
       </c>
       <c r="G80" t="n">
-        <v>508.2936538192823</v>
+        <v>1.941911610277198</v>
       </c>
       <c r="H80" t="n">
-        <v>701.8300244285413</v>
+        <v>44.85478083384096</v>
       </c>
     </row>
     <row r="81">
@@ -2529,25 +2529,25 @@
         <v>395</v>
       </c>
       <c r="B81" t="n">
-        <v>31.88922175007468</v>
+        <v>31.41264128928271</v>
       </c>
       <c r="C81" t="n">
-        <v>595.3882935197419</v>
+        <v>20.69706938766397</v>
       </c>
       <c r="D81" t="n">
-        <v>337.9113369414525</v>
+        <v>48.01201677771956</v>
       </c>
       <c r="E81" t="n">
-        <v>651.169562054685</v>
+        <v>38.00293823115761</v>
       </c>
       <c r="F81" t="n">
-        <v>766.3462401289386</v>
+        <v>42.80543870808508</v>
       </c>
       <c r="G81" t="n">
-        <v>512.8594496209422</v>
+        <v>1.953214832192073</v>
       </c>
       <c r="H81" t="n">
-        <v>707.7132632688177</v>
+        <v>45.26966699847036</v>
       </c>
     </row>
     <row r="82">
@@ -2555,25 +2555,25 @@
         <v>400</v>
       </c>
       <c r="B82" t="n">
-        <v>31.98172874519691</v>
+        <v>31.6564183133103</v>
       </c>
       <c r="C82" t="n">
-        <v>599.2296746706828</v>
+        <v>21.09306883742497</v>
       </c>
       <c r="D82" t="n">
-        <v>344.3766340804078</v>
+        <v>48.30612923328298</v>
       </c>
       <c r="E82" t="n">
-        <v>654.8411569247749</v>
+        <v>38.23329545116928</v>
       </c>
       <c r="F82" t="n">
-        <v>771.2052814272351</v>
+        <v>43.01408714844283</v>
       </c>
       <c r="G82" t="n">
-        <v>516.8394826662907</v>
+        <v>1.95888088564331</v>
       </c>
       <c r="H82" t="n">
-        <v>712.4535807976511</v>
+        <v>45.61208688280392</v>
       </c>
     </row>
     <row r="83">
@@ -2581,25 +2581,25 @@
         <v>405</v>
       </c>
       <c r="B83" t="n">
-        <v>31.99981991140594</v>
+        <v>31.86495184325316</v>
       </c>
       <c r="C83" t="n">
-        <v>602.6154762473047</v>
+        <v>21.48833567783692</v>
       </c>
       <c r="D83" t="n">
-        <v>350.8299702503987</v>
+        <v>48.50308688063771</v>
       </c>
       <c r="E83" t="n">
-        <v>657.6064021544119</v>
+        <v>38.42139693990911</v>
       </c>
       <c r="F83" t="n">
-        <v>774.6947803708673</v>
+        <v>43.15516899501951</v>
       </c>
       <c r="G83" t="n">
-        <v>520.2441117265823</v>
+        <v>1.959988969573613</v>
       </c>
       <c r="H83" t="n">
-        <v>716.1220305595784</v>
+        <v>45.88616483593026</v>
       </c>
     </row>
     <row r="84">
@@ -2607,25 +2607,25 @@
         <v>410</v>
       </c>
       <c r="B84" t="n">
-        <v>31.96111482327504</v>
+        <v>32.03887635384917</v>
       </c>
       <c r="C84" t="n">
-        <v>605.5492710567321</v>
+        <v>21.87653248313118</v>
       </c>
       <c r="D84" t="n">
-        <v>357.167877275611</v>
+        <v>48.61261621516649</v>
       </c>
       <c r="E84" t="n">
-        <v>659.5459729490964</v>
+        <v>38.56977698423808</v>
       </c>
       <c r="F84" t="n">
-        <v>776.9403471901954</v>
+        <v>43.23574606265838</v>
       </c>
       <c r="G84" t="n">
-        <v>523.0836955730475</v>
+        <v>1.957618282925596</v>
       </c>
       <c r="H84" t="n">
-        <v>718.7896660991369</v>
+        <v>46.09602520693779</v>
       </c>
     </row>
     <row r="85">
@@ -2633,25 +2633,25 @@
         <v>415</v>
       </c>
       <c r="B85" t="n">
-        <v>31.88323305538168</v>
+        <v>32.17882631983752</v>
       </c>
       <c r="C85" t="n">
-        <v>608.0346319060793</v>
+        <v>22.25132182753777</v>
       </c>
       <c r="D85" t="n">
-        <v>363.2868869802083</v>
+        <v>48.64444373225142</v>
       </c>
       <c r="E85" t="n">
-        <v>660.7405445143255</v>
+        <v>38.68096987101647</v>
       </c>
       <c r="F85" t="n">
-        <v>778.0675921155864</v>
+        <v>43.26288016620367</v>
       </c>
       <c r="G85" t="n">
-        <v>525.3685929769391</v>
+        <v>1.952848024642127</v>
       </c>
       <c r="H85" t="n">
-        <v>720.5275409608638</v>
+        <v>46.24579234491547</v>
       </c>
     </row>
     <row r="86">
@@ -2659,25 +2659,25 @@
         <v>420</v>
       </c>
       <c r="B86" t="n">
-        <v>31.78379418230072</v>
+        <v>32.28543621595635</v>
       </c>
       <c r="C86" t="n">
-        <v>610.0751316024873</v>
+        <v>22.60636628528761</v>
       </c>
       <c r="D86" t="n">
-        <v>369.0835311883691</v>
+        <v>48.60829592727357</v>
       </c>
       <c r="E86" t="n">
-        <v>661.2707920555956</v>
+        <v>38.75750988710551</v>
       </c>
       <c r="F86" t="n">
-        <v>778.2021253773925</v>
+        <v>43.24363312049768</v>
       </c>
       <c r="G86" t="n">
-        <v>527.1091627094912</v>
+        <v>1.946757393665919</v>
       </c>
       <c r="H86" t="n">
-        <v>721.4067086892788</v>
+        <v>46.33959059895202</v>
       </c>
     </row>
     <row r="87">
@@ -2685,25 +2685,25 @@
         <v>425</v>
       </c>
       <c r="B87" t="n">
-        <v>31.68041777860782</v>
+        <v>32.35934051694569</v>
       </c>
       <c r="C87" t="n">
-        <v>611.6743429530914</v>
+        <v>22.93532843061188</v>
       </c>
       <c r="D87" t="n">
-        <v>374.4543417242757</v>
+        <v>48.51389929561437</v>
       </c>
       <c r="E87" t="n">
-        <v>661.2173907783991</v>
+        <v>38.80193131936598</v>
       </c>
       <c r="F87" t="n">
-        <v>777.4695572059644</v>
+        <v>43.18506674038522</v>
       </c>
       <c r="G87" t="n">
-        <v>528.3157635419703</v>
+        <v>1.940425588939729</v>
       </c>
       <c r="H87" t="n">
-        <v>721.4982228289358</v>
+        <v>46.38154431813568</v>
       </c>
     </row>
     <row r="88">
@@ -2711,25 +2711,25 @@
         <v>430</v>
       </c>
       <c r="B88" t="n">
-        <v>31.59072341887515</v>
+        <v>32.40117369754272</v>
       </c>
       <c r="C88" t="n">
-        <v>612.8358387650156</v>
+        <v>23.23187083774131</v>
       </c>
       <c r="D88" t="n">
-        <v>379.2958504121032</v>
+        <v>48.37098033265617</v>
       </c>
       <c r="E88" t="n">
-        <v>660.6610158882341</v>
+        <v>38.81676845465877</v>
       </c>
       <c r="F88" t="n">
-        <v>775.9954978316657</v>
+        <v>43.09424284070945</v>
       </c>
       <c r="G88" t="n">
-        <v>528.9987542455956</v>
+        <v>1.934931809406102</v>
       </c>
       <c r="H88" t="n">
-        <v>720.8731369243641</v>
+        <v>46.37577785155509</v>
       </c>
     </row>
     <row r="89">
@@ -2737,25 +2737,25 @@
         <v>435</v>
       </c>
       <c r="B89" t="n">
-        <v>31.53233067768087</v>
+        <v>32.41157023248697</v>
       </c>
       <c r="C89" t="n">
-        <v>613.563191845378</v>
+        <v>23.48965608090652</v>
       </c>
       <c r="D89" t="n">
-        <v>383.504589076025</v>
+        <v>48.18926553378107</v>
       </c>
       <c r="E89" t="n">
-        <v>659.6823425905966</v>
+        <v>38.80455557984428</v>
       </c>
       <c r="F89" t="n">
-        <v>773.905557484858</v>
+        <v>42.97822323631406</v>
       </c>
       <c r="G89" t="n">
-        <v>529.1684935916239</v>
+        <v>1.931355254007953</v>
       </c>
       <c r="H89" t="n">
-        <v>719.6025045201009</v>
+        <v>46.32641554829905</v>
       </c>
     </row>
     <row r="90">
@@ -2763,25 +2763,25 @@
         <v>440</v>
       </c>
       <c r="B90" t="n">
-        <v>31.52285912959919</v>
+        <v>32.39116459651677</v>
       </c>
       <c r="C90" t="n">
-        <v>613.8599750013211</v>
+        <v>23.70234673433808</v>
       </c>
       <c r="D90" t="n">
-        <v>386.9770895402136</v>
+        <v>47.97848139437016</v>
       </c>
       <c r="E90" t="n">
-        <v>658.362046090983</v>
+        <v>38.76782698178373</v>
       </c>
       <c r="F90" t="n">
-        <v>771.325346395898</v>
+        <v>42.84406974204181</v>
       </c>
       <c r="G90" t="n">
-        <v>528.835340351294</v>
+        <v>1.93077512168795</v>
       </c>
       <c r="H90" t="n">
-        <v>717.757379160666</v>
+        <v>46.23758175745638</v>
       </c>
     </row>
     <row r="91">
@@ -2789,25 +2789,25 @@
         <v>445</v>
       </c>
       <c r="B91" t="n">
-        <v>31.57992834920541</v>
+        <v>32.34059126437142</v>
       </c>
       <c r="C91" t="n">
-        <v>613.7297610399718</v>
+        <v>23.86360537226713</v>
       </c>
       <c r="D91" t="n">
-        <v>389.6098836288509</v>
+        <v>47.74835440980572</v>
       </c>
       <c r="E91" t="n">
-        <v>656.7808015948891</v>
+        <v>38.70911694733783</v>
       </c>
       <c r="F91" t="n">
-        <v>768.3804747951389</v>
+        <v>42.69884417273739</v>
       </c>
       <c r="G91" t="n">
-        <v>528.0096532958598</v>
+        <v>1.934270611388831</v>
       </c>
       <c r="H91" t="n">
-        <v>715.4088143906152</v>
+        <v>46.11340082811518</v>
       </c>
     </row>
     <row r="92">
@@ -2815,25 +2815,25 @@
         <v>450</v>
       </c>
       <c r="B92" t="n">
-        <v>31.71917287396872</v>
+        <v>32.26074108381908</v>
       </c>
       <c r="C92" t="n">
-        <v>613.1778750611172</v>
+        <v>23.96762218265797</v>
       </c>
       <c r="D92" t="n">
-        <v>391.3081172678851</v>
+        <v>47.50884493814191</v>
       </c>
       <c r="E92" t="n">
-        <v>655.0195176268307</v>
+        <v>38.63101562504755</v>
       </c>
       <c r="F92" t="n">
-        <v>765.1927805281223</v>
+        <v>42.54962306811077</v>
       </c>
       <c r="G92" t="n">
-        <v>526.7059768786788</v>
+        <v>1.942799338530584</v>
       </c>
       <c r="H92" t="n">
-        <v>712.6286835737357</v>
+        <v>45.95760711547506</v>
       </c>
     </row>
     <row r="93">
@@ -2841,25 +2841,25 @@
         <v>455</v>
       </c>
       <c r="B93" t="n">
-        <v>31.9410112781501</v>
+        <v>32.15527727335208</v>
       </c>
       <c r="C93" t="n">
-        <v>612.24296719595</v>
+        <v>24.01385527711596</v>
       </c>
       <c r="D93" t="n">
-        <v>392.0629432998525</v>
+        <v>47.26906033802627</v>
       </c>
       <c r="E93" t="n">
-        <v>653.1363255285164</v>
+        <v>38.53642109521635</v>
       </c>
       <c r="F93" t="n">
-        <v>761.8524607866599</v>
+        <v>42.40083050794182</v>
       </c>
       <c r="G93" t="n">
-        <v>524.9841187486053</v>
+        <v>1.956386940786693</v>
       </c>
       <c r="H93" t="n">
-        <v>709.4813509314823</v>
+        <v>45.77294284101951</v>
       </c>
     </row>
     <row r="94">
@@ -2867,25 +2867,25 @@
         <v>460</v>
       </c>
       <c r="B94" t="n">
-        <v>32.23621275842937</v>
+        <v>32.0306207167361</v>
       </c>
       <c r="C94" t="n">
-        <v>610.9959311289667</v>
+        <v>24.00733529178322</v>
       </c>
       <c r="D94" t="n">
-        <v>391.9564945597263</v>
+        <v>47.03423258565203</v>
       </c>
       <c r="E94" t="n">
-        <v>651.1748547338281</v>
+        <v>38.42908259446878</v>
       </c>
       <c r="F94" t="n">
-        <v>758.4416232587454</v>
+        <v>42.25469513147143</v>
       </c>
       <c r="G94" t="n">
-        <v>522.9489096609973</v>
+        <v>1.974468031453799</v>
       </c>
       <c r="H94" t="n">
-        <v>706.0657799502883</v>
+        <v>45.56606840403975</v>
       </c>
     </row>
     <row r="95">
@@ -2893,25 +2893,25 @@
         <v>465</v>
       </c>
       <c r="B95" t="n">
-        <v>32.59498694534091</v>
+        <v>31.89340454048352</v>
       </c>
       <c r="C95" t="n">
-        <v>609.5105875209608</v>
+        <v>23.95369738476763</v>
       </c>
       <c r="D95" t="n">
-        <v>391.0807736288594</v>
+        <v>46.80910884008362</v>
       </c>
       <c r="E95" t="n">
-        <v>649.1819971934697</v>
+        <v>38.31301843028825</v>
       </c>
       <c r="F95" t="n">
-        <v>755.0461741055587</v>
+        <v>42.11362975028604</v>
       </c>
       <c r="G95" t="n">
-        <v>520.7086455589147</v>
+        <v>1.996442950402131</v>
       </c>
       <c r="H95" t="n">
-        <v>702.4939637929823</v>
+        <v>45.34463676764278</v>
       </c>
     </row>
     <row r="96">
@@ -2919,25 +2919,25 @@
         <v>470</v>
       </c>
       <c r="B96" t="n">
-        <v>33.00754346941785</v>
+        <v>31.75026187110723</v>
       </c>
       <c r="C96" t="n">
-        <v>607.8607570327497</v>
+        <v>23.85857671417777</v>
       </c>
       <c r="D96" t="n">
-        <v>389.5277830886166</v>
+        <v>46.59843626038383</v>
       </c>
       <c r="E96" t="n">
-        <v>647.2046448581348</v>
+        <v>38.19224691015778</v>
       </c>
       <c r="F96" t="n">
-        <v>751.7520194882874</v>
+        <v>41.98004717597321</v>
       </c>
       <c r="G96" t="n">
-        <v>518.371622385424</v>
+        <v>2.021712037501843</v>
       </c>
       <c r="H96" t="n">
-        <v>698.877895622394</v>
+        <v>45.11630089493639</v>
       </c>
     </row>
     <row r="97">
@@ -2945,25 +2945,25 @@
         <v>475</v>
       </c>
       <c r="B97" t="n">
-        <v>33.46409196119567</v>
+        <v>31.60782583512054</v>
       </c>
       <c r="C97" t="n">
-        <v>606.1202603251375</v>
+        <v>23.72760843812187</v>
       </c>
       <c r="D97" t="n">
-        <v>387.3895255203572</v>
+        <v>46.40696200561635</v>
       </c>
       <c r="E97" t="n">
-        <v>645.2896896785155</v>
+        <v>38.07078634156082</v>
       </c>
       <c r="F97" t="n">
-        <v>748.6450655681072</v>
+        <v>41.85636022011844</v>
       </c>
       <c r="G97" t="n">
-        <v>516.0461360836007</v>
+        <v>2.049675632623234</v>
       </c>
       <c r="H97" t="n">
-        <v>695.3295686013479</v>
+        <v>44.88871374902761</v>
       </c>
     </row>
     <row r="98">
@@ -2971,25 +2971,25 @@
         <v>480</v>
       </c>
       <c r="B98" t="n">
-        <v>33.95484205120692</v>
+        <v>31.47272955903621</v>
       </c>
       <c r="C98" t="n">
-        <v>604.3629180589344</v>
+        <v>23.56642771470851</v>
       </c>
       <c r="D98" t="n">
-        <v>384.7580035054452</v>
+        <v>46.23943323484517</v>
       </c>
       <c r="E98" t="n">
-        <v>643.4840236053078</v>
+        <v>37.95265503198022</v>
       </c>
       <c r="F98" t="n">
-        <v>745.8112185062051</v>
+        <v>41.74498169431034</v>
       </c>
       <c r="G98" t="n">
-        <v>513.8404825965097</v>
+        <v>2.079734075636424</v>
       </c>
       <c r="H98" t="n">
-        <v>691.9609758926824</v>
+        <v>44.66952829302343</v>
       </c>
     </row>
     <row r="99">
@@ -2997,25 +2997,25 @@
         <v>485</v>
       </c>
       <c r="B99" t="n">
-        <v>34.47000336998511</v>
+        <v>31.35160616936703</v>
       </c>
       <c r="C99" t="n">
-        <v>602.6625508949415</v>
+        <v>23.38066970204575</v>
       </c>
       <c r="D99" t="n">
-        <v>381.7252196252365</v>
+        <v>46.10059710713379</v>
       </c>
       <c r="E99" t="n">
-        <v>641.8345385892134</v>
+        <v>37.84187128889946</v>
       </c>
       <c r="F99" t="n">
-        <v>743.3363844637573</v>
+        <v>41.64832441013546</v>
       </c>
       <c r="G99" t="n">
-        <v>511.8629578672167</v>
+        <v>2.111287706411589</v>
       </c>
       <c r="H99" t="n">
-        <v>688.884110659232</v>
+        <v>44.46639749003113</v>
       </c>
     </row>
     <row r="100">
@@ -3023,25 +3023,25 @@
         <v>490</v>
       </c>
       <c r="B100" t="n">
-        <v>34.99978554806606</v>
+        <v>31.25108879262613</v>
       </c>
       <c r="C100" t="n">
-        <v>601.0929794939772</v>
+        <v>23.17596955824168</v>
       </c>
       <c r="D100" t="n">
-        <v>378.3831764610887</v>
+        <v>45.99520078154536</v>
       </c>
       <c r="E100" t="n">
-        <v>640.388126580924</v>
+        <v>37.74245341980157</v>
       </c>
       <c r="F100" t="n">
-        <v>741.3064696019508</v>
+        <v>41.56880117918099</v>
       </c>
       <c r="G100" t="n">
-        <v>510.2218578387939</v>
+        <v>2.143736864819046</v>
       </c>
       <c r="H100" t="n">
-        <v>686.2109660638188</v>
+        <v>44.28697430315834</v>
       </c>
     </row>
     <row r="101">
@@ -3049,25 +3049,25 @@
         <v>495</v>
       </c>
       <c r="B101" t="n">
-        <v>35.53439821598201</v>
+        <v>31.17781055532653</v>
       </c>
       <c r="C101" t="n">
-        <v>599.7280245168507</v>
+        <v>22.95796244140505</v>
       </c>
       <c r="D101" t="n">
-        <v>374.8238765943682</v>
+        <v>45.92799141714327</v>
       </c>
       <c r="E101" t="n">
-        <v>639.1916795311332</v>
+        <v>37.65841973217014</v>
       </c>
       <c r="F101" t="n">
-        <v>739.8073800819612</v>
+        <v>41.50882481303288</v>
       </c>
       <c r="G101" t="n">
-        <v>509.0254784543106</v>
+        <v>2.176481890728898</v>
       </c>
       <c r="H101" t="n">
-        <v>684.0535352692742</v>
+        <v>44.13891169551214</v>
       </c>
     </row>
     <row r="102">
@@ -3075,25 +3075,25 @@
         <v>500</v>
       </c>
       <c r="B102" t="n">
-        <v>36.06405100426726</v>
+        <v>31.13840458398143</v>
       </c>
       <c r="C102" t="n">
-        <v>598.6415066243686</v>
+        <v>22.73228350964402</v>
       </c>
       <c r="D102" t="n">
-        <v>371.139322606433</v>
+        <v>45.90371617299185</v>
       </c>
       <c r="E102" t="n">
-        <v>638.2920893905355</v>
+        <v>37.59378853348785</v>
       </c>
       <c r="F102" t="n">
-        <v>738.9250220649751</v>
+        <v>41.47080812327957</v>
       </c>
       <c r="G102" t="n">
-        <v>508.3821156568396</v>
+        <v>2.20892312401137</v>
       </c>
       <c r="H102" t="n">
-        <v>682.5238114384357</v>
+        <v>44.02986263019949</v>
       </c>
     </row>
     <row r="103">
@@ -3101,25 +3101,25 @@
         <v>505</v>
       </c>
       <c r="B103" t="n">
-        <v>36.5789535434552</v>
+        <v>31.1395040051024</v>
       </c>
       <c r="C103" t="n">
-        <v>597.9072464773251</v>
+        <v>22.50456792106661</v>
       </c>
       <c r="D103" t="n">
-        <v>367.4215170786387</v>
+        <v>45.92712220815442</v>
       </c>
       <c r="E103" t="n">
-        <v>637.7362481098337</v>
+        <v>37.55257813123806</v>
       </c>
       <c r="F103" t="n">
-        <v>738.7453017121752</v>
+        <v>41.45716392150719</v>
       </c>
       <c r="G103" t="n">
-        <v>508.4000653894269</v>
+        <v>2.240460904536632</v>
       </c>
       <c r="H103" t="n">
-        <v>681.7337877341283</v>
+        <v>43.96748007032802</v>
       </c>
     </row>
     <row r="104">
@@ -3127,25 +3127,25 @@
         <v>510</v>
       </c>
       <c r="B104" t="n">
-        <v>37.07057056474382</v>
+        <v>31.18732098686187</v>
       </c>
       <c r="C104" t="n">
-        <v>597.5926192919982</v>
+        <v>22.28012654584787</v>
       </c>
       <c r="D104" t="n">
-        <v>363.7571680954753</v>
+        <v>46.00250239459339</v>
       </c>
       <c r="E104" t="n">
-        <v>637.5662900033088</v>
+        <v>37.53846493225635</v>
       </c>
       <c r="F104" t="n">
-        <v>739.3526945653657</v>
+        <v>41.46968565599374</v>
       </c>
       <c r="G104" t="n">
-        <v>509.1807508059082</v>
+        <v>2.270572447090557</v>
       </c>
       <c r="H104" t="n">
-        <v>681.7829635240549</v>
+        <v>43.95936901242043</v>
       </c>
     </row>
     <row r="105">
@@ -3153,25 +3153,25 @@
         <v>515</v>
       </c>
       <c r="B105" t="n">
-        <v>37.53799209058685</v>
+        <v>31.28154625503006</v>
       </c>
       <c r="C105" t="n">
-        <v>597.6981379692591</v>
+        <v>22.06139854562067</v>
       </c>
       <c r="D105" t="n">
-        <v>360.1860987040112</v>
+        <v>46.12830175771322</v>
       </c>
       <c r="E105" t="n">
-        <v>637.7818090951786</v>
+        <v>37.55169906210564</v>
       </c>
       <c r="F105" t="n">
-        <v>740.7515746640034</v>
+        <v>41.50721191586867</v>
       </c>
       <c r="G105" t="n">
-        <v>510.7191225311029</v>
+        <v>2.299202015548444</v>
       </c>
       <c r="H105" t="n">
-        <v>682.6774887125756</v>
+        <v>44.00756456646365</v>
       </c>
     </row>
     <row r="106">
@@ -3179,25 +3179,25 @@
         <v>520</v>
       </c>
       <c r="B106" t="n">
-        <v>37.98536532574416</v>
+        <v>31.41505655490382</v>
       </c>
       <c r="C106" t="n">
-        <v>598.1723622242466</v>
+        <v>21.84810520500221</v>
       </c>
       <c r="D106" t="n">
-        <v>356.7037584490155</v>
+        <v>46.29689675926252</v>
       </c>
       <c r="E106" t="n">
-        <v>638.3356648893833</v>
+        <v>37.58910116810539</v>
       </c>
       <c r="F106" t="n">
-        <v>742.8180625375099</v>
+        <v>41.56619919730193</v>
       </c>
       <c r="G106" t="n">
-        <v>512.8988825290419</v>
+        <v>2.326603626201829</v>
       </c>
       <c r="H106" t="n">
-        <v>684.3002476210333</v>
+        <v>44.10334274066319</v>
       </c>
     </row>
     <row r="107">
@@ -3205,25 +3205,25 @@
         <v>525</v>
       </c>
       <c r="B107" t="n">
-        <v>38.41747399409981</v>
+        <v>31.58017537278026</v>
       </c>
       <c r="C107" t="n">
-        <v>598.96006123124</v>
+        <v>21.6396974476952</v>
       </c>
       <c r="D107" t="n">
-        <v>353.3011828195134</v>
+        <v>46.50022703081136</v>
       </c>
       <c r="E107" t="n">
-        <v>639.1744274710607</v>
+        <v>37.64709590854403</v>
       </c>
       <c r="F107" t="n">
-        <v>745.4144981775044</v>
+        <v>41.64260383687172</v>
       </c>
       <c r="G107" t="n">
-        <v>515.5946999637595</v>
+        <v>2.353070282138613</v>
       </c>
       <c r="H107" t="n">
-        <v>686.5125277354542</v>
+        <v>44.23651276061759</v>
       </c>
     </row>
     <row r="108">
@@ -3231,25 +3231,25 @@
         <v>530</v>
       </c>
       <c r="B108" t="n">
-        <v>38.83910181954096</v>
+        <v>31.76922619495839</v>
       </c>
       <c r="C108" t="n">
-        <v>600.0060041645363</v>
+        <v>21.4356261974023</v>
       </c>
       <c r="D108" t="n">
-        <v>349.9694073045271</v>
+        <v>46.73023220393013</v>
       </c>
       <c r="E108" t="n">
-        <v>640.2446669253419</v>
+        <v>37.72210794171031</v>
       </c>
       <c r="F108" t="n">
-        <v>748.4032215755979</v>
+        <v>41.73238217115586</v>
       </c>
       <c r="G108" t="n">
-        <v>518.6812439993206</v>
+        <v>2.378894986446884</v>
       </c>
       <c r="H108" t="n">
-        <v>689.1756165418536</v>
+        <v>44.39688385192396</v>
       </c>
     </row>
     <row r="109">
@@ -3257,25 +3257,25 @@
         <v>535</v>
       </c>
       <c r="B109" t="n">
-        <v>39.25503252595193</v>
+        <v>31.97453250773522</v>
       </c>
       <c r="C109" t="n">
-        <v>601.2549601984333</v>
+        <v>21.23534237782655</v>
       </c>
       <c r="D109" t="n">
-        <v>346.6994673930864</v>
+        <v>46.97885191018936</v>
       </c>
       <c r="E109" t="n">
-        <v>641.4929533373609</v>
+        <v>37.81056192589269</v>
       </c>
       <c r="F109" t="n">
-        <v>751.646572723395</v>
+        <v>41.83149053673384</v>
       </c>
       <c r="G109" t="n">
-        <v>522.0331837997586</v>
+        <v>2.404370742214556</v>
       </c>
       <c r="H109" t="n">
-        <v>692.1508015262775</v>
+        <v>44.57426524017986</v>
       </c>
     </row>
     <row r="110">
@@ -3283,25 +3283,25 @@
         <v>540</v>
       </c>
       <c r="B110" t="n">
-        <v>39.6700498372214</v>
+        <v>32.18841779740822</v>
       </c>
       <c r="C110" t="n">
-        <v>602.6516985072068</v>
+        <v>21.03829691267002</v>
       </c>
       <c r="D110" t="n">
-        <v>343.4823985742045</v>
+        <v>47.23802578116112</v>
       </c>
       <c r="E110" t="n">
-        <v>642.8658567922679</v>
+        <v>37.9088825193804</v>
       </c>
       <c r="F110" t="n">
-        <v>755.0068916125365</v>
+        <v>41.93588527018233</v>
       </c>
       <c r="G110" t="n">
-        <v>525.5251885291137</v>
+        <v>2.42979055252981</v>
       </c>
       <c r="H110" t="n">
-        <v>695.299370174721</v>
+        <v>44.75846615098349</v>
       </c>
     </row>
     <row r="111">
@@ -3309,25 +3309,25 @@
         <v>545</v>
       </c>
       <c r="B111" t="n">
-        <v>40.08893747723286</v>
+        <v>32.40320555027496</v>
       </c>
       <c r="C111" t="n">
-        <v>604.1409882651395</v>
+        <v>20.84394072563625</v>
       </c>
       <c r="D111" t="n">
-        <v>340.3092363369184</v>
+        <v>47.49969344841447</v>
       </c>
       <c r="E111" t="n">
-        <v>644.3099473751939</v>
+        <v>38.0134943804614</v>
       </c>
       <c r="F111" t="n">
-        <v>758.3465182346342</v>
+        <v>42.04152270808068</v>
       </c>
       <c r="G111" t="n">
-        <v>529.031927351428</v>
+        <v>2.455447420480513</v>
       </c>
       <c r="H111" t="n">
-        <v>698.4826099732229</v>
+        <v>44.93929580993335</v>
       </c>
     </row>
     <row r="112">
@@ -3335,25 +3335,25 @@
         <v>550</v>
       </c>
       <c r="B112" t="n">
-        <v>40.51647916987508</v>
+        <v>32.61121925263421</v>
       </c>
       <c r="C112" t="n">
-        <v>605.6675986465219</v>
+        <v>20.6517247404275</v>
       </c>
       <c r="D112" t="n">
-        <v>337.1710161702447</v>
+        <v>47.75579454352176</v>
       </c>
       <c r="E112" t="n">
-        <v>645.7717951712723</v>
+        <v>38.12082216742456</v>
       </c>
       <c r="F112" t="n">
-        <v>761.5277925813035</v>
+        <v>42.14435918700628</v>
       </c>
       <c r="G112" t="n">
-        <v>532.4280694307625</v>
+        <v>2.48163434915485</v>
       </c>
       <c r="H112" t="n">
-        <v>701.5618084077973</v>
+        <v>45.10656344262592</v>
       </c>
     </row>
     <row r="113">
@@ -3361,25 +3361,25 @@
         <v>555</v>
       </c>
       <c r="B113" t="n">
-        <v>40.95745863902951</v>
+        <v>32.8047823907828</v>
       </c>
       <c r="C113" t="n">
-        <v>607.17629882565</v>
+        <v>20.46109988074667</v>
       </c>
       <c r="D113" t="n">
-        <v>334.058773563211</v>
+        <v>47.99826869805248</v>
       </c>
       <c r="E113" t="n">
-        <v>647.197970265644</v>
+        <v>38.2272905385585</v>
       </c>
       <c r="F113" t="n">
-        <v>764.4130546441593</v>
+        <v>42.24035104353893</v>
       </c>
       <c r="G113" t="n">
-        <v>535.5882839311478</v>
+        <v>2.508644341640557</v>
       </c>
       <c r="H113" t="n">
-        <v>704.3982529644865</v>
+        <v>45.25007827465988</v>
       </c>
     </row>
     <row r="114">
@@ -3387,25 +3387,25 @@
         <v>560</v>
       </c>
       <c r="B114" t="n">
-        <v>41.41665960858581</v>
+        <v>32.97621845101842</v>
       </c>
       <c r="C114" t="n">
-        <v>608.6118579768051</v>
+        <v>20.27151707029622</v>
       </c>
       <c r="D114" t="n">
-        <v>330.9635440048363</v>
+        <v>48.21905554357849</v>
       </c>
       <c r="E114" t="n">
-        <v>648.535042743446</v>
+        <v>38.32932415215203</v>
       </c>
       <c r="F114" t="n">
-        <v>766.8646444148327</v>
+        <v>42.32545461425524</v>
       </c>
       <c r="G114" t="n">
-        <v>538.3872400166272</v>
+        <v>2.536770401025881</v>
       </c>
       <c r="H114" t="n">
-        <v>706.8532311292925</v>
+        <v>45.35964953163301</v>
       </c>
     </row>
     <row r="115">
@@ -3413,25 +3413,25 @@
         <v>565</v>
       </c>
       <c r="B115" t="n">
-        <v>41.89886580242806</v>
+        <v>33.11785091963903</v>
       </c>
       <c r="C115" t="n">
-        <v>609.919045274273</v>
+        <v>20.08242723277922</v>
       </c>
       <c r="D115" t="n">
-        <v>327.8763629841506</v>
+        <v>48.41009471166911</v>
       </c>
       <c r="E115" t="n">
-        <v>649.7295826898136</v>
+        <v>38.42334766649341</v>
       </c>
       <c r="F115" t="n">
-        <v>768.7449018849335</v>
+        <v>42.39562623573408</v>
       </c>
       <c r="G115" t="n">
-        <v>540.6996068512494</v>
+        <v>2.566305530398719</v>
       </c>
       <c r="H115" t="n">
-        <v>708.788030388242</v>
+        <v>45.42508643914341</v>
       </c>
     </row>
     <row r="116">
@@ -3439,25 +3439,25 @@
         <v>570</v>
       </c>
       <c r="B116" t="n">
-        <v>42.4078512039776</v>
+        <v>33.22222778216769</v>
       </c>
       <c r="C116" t="n">
-        <v>611.0503150791516</v>
+        <v>19.89346503803049</v>
       </c>
       <c r="D116" t="n">
-        <v>324.7912659270282</v>
+        <v>48.56341195539838</v>
       </c>
       <c r="E116" t="n">
-        <v>650.7329798797389</v>
+        <v>38.50615436315117</v>
       </c>
       <c r="F116" t="n">
-        <v>769.9165541121458</v>
+        <v>42.44747635947635</v>
       </c>
       <c r="G116" t="n">
-        <v>542.4037188925338</v>
+        <v>2.597480886243626</v>
       </c>
       <c r="H116" t="n">
-        <v>710.0772963204738</v>
+        <v>45.43640506896873</v>
       </c>
     </row>
     <row r="117">
@@ -3465,25 +3465,25 @@
         <v>575</v>
       </c>
       <c r="B117" t="n">
-        <v>42.94528978854084</v>
+        <v>33.28873192092988</v>
       </c>
       <c r="C117" t="n">
-        <v>612.0307431607804</v>
+        <v>19.70545271574247</v>
       </c>
       <c r="D117" t="n">
-        <v>321.7216769917138</v>
+        <v>48.67667981923397</v>
       </c>
       <c r="E117" t="n">
-        <v>651.5543465700651</v>
+        <v>38.57840288454953</v>
       </c>
       <c r="F117" t="n">
-        <v>770.3557744400191</v>
+        <v>42.48205378994792</v>
       </c>
       <c r="G117" t="n">
-        <v>543.4895007498758</v>
+        <v>2.630398999548127</v>
       </c>
       <c r="H117" t="n">
-        <v>710.7098445263451</v>
+        <v>45.39242292102914</v>
       </c>
     </row>
     <row r="118">
@@ -3491,25 +3491,25 @@
         <v>580</v>
       </c>
       <c r="B118" t="n">
-        <v>43.51074585628114</v>
+        <v>33.32476845776895</v>
       </c>
       <c r="C118" t="n">
-        <v>612.931662511898</v>
+        <v>19.51966704526964</v>
       </c>
       <c r="D118" t="n">
-        <v>318.6884415554228</v>
+        <v>48.75615963022043</v>
       </c>
       <c r="E118" t="n">
-        <v>652.2629542838473</v>
+        <v>38.64416472465653</v>
       </c>
       <c r="F118" t="n">
-        <v>770.2184143370773</v>
+        <v>42.50425741839118</v>
       </c>
       <c r="G118" t="n">
-        <v>544.077852371738</v>
+        <v>2.66503318369722</v>
       </c>
       <c r="H118" t="n">
-        <v>710.8181998353944</v>
+        <v>45.30592369985078</v>
       </c>
     </row>
     <row r="119">
@@ -3517,25 +3517,25 @@
         <v>585</v>
       </c>
       <c r="B119" t="n">
-        <v>44.10269305442985</v>
+        <v>33.33840979907438</v>
       </c>
       <c r="C119" t="n">
-        <v>613.826214880751</v>
+        <v>19.33736873048869</v>
       </c>
       <c r="D119" t="n">
-        <v>315.7121425385909</v>
+        <v>48.80884871069529</v>
       </c>
       <c r="E119" t="n">
-        <v>652.9334936707529</v>
+        <v>38.70779085127683</v>
       </c>
       <c r="F119" t="n">
-        <v>769.6767691447058</v>
+        <v>42.51948935759126</v>
       </c>
       <c r="G119" t="n">
-        <v>544.3005681481532</v>
+        <v>2.701289949583828</v>
       </c>
       <c r="H119" t="n">
-        <v>710.5568046723921</v>
+        <v>45.19125142455572</v>
       </c>
     </row>
     <row r="120">
@@ -3543,25 +3543,25 @@
         <v>590</v>
       </c>
       <c r="B120" t="n">
-        <v>44.71960503022044</v>
+        <v>33.33772835123162</v>
       </c>
       <c r="C120" t="n">
-        <v>614.7875420155513</v>
+        <v>19.15981847527583</v>
       </c>
       <c r="D120" t="n">
-        <v>312.8133628616463</v>
+        <v>48.84174438299738</v>
       </c>
       <c r="E120" t="n">
-        <v>653.6406553804551</v>
+        <v>38.77363223221486</v>
       </c>
       <c r="F120" t="n">
-        <v>768.9031342042997</v>
+        <v>42.53315172033284</v>
       </c>
       <c r="G120" t="n">
-        <v>544.2894424690876</v>
+        <v>2.739075808101002</v>
       </c>
       <c r="H120" t="n">
-        <v>710.0801014621239</v>
+        <v>45.06275011426618</v>
       </c>
     </row>
     <row r="121">
@@ -3569,25 +3569,25 @@
         <v>595</v>
       </c>
       <c r="B121" t="n">
-        <v>45.35995543088902</v>
+        <v>33.33079652062715</v>
       </c>
       <c r="C121" t="n">
-        <v>615.8887856645448</v>
+        <v>18.98827698350789</v>
       </c>
       <c r="D121" t="n">
-        <v>310.0126854450268</v>
+        <v>48.86184396946424</v>
       </c>
       <c r="E121" t="n">
-        <v>654.4591300626296</v>
+        <v>38.84603983527571</v>
       </c>
       <c r="F121" t="n">
-        <v>768.0698048572491</v>
+        <v>42.55064661940099</v>
       </c>
       <c r="G121" t="n">
-        <v>544.1762697245249</v>
+        <v>2.778297270141951</v>
       </c>
       <c r="H121" t="n">
-        <v>709.5425326293537</v>
+        <v>44.93476378810409</v>
       </c>
     </row>
     <row r="122">
@@ -3595,25 +3595,25 @@
         <v>600</v>
       </c>
       <c r="B122" t="n">
-        <v>46.02221790366607</v>
+        <v>33.32568671364812</v>
       </c>
       <c r="C122" t="n">
-        <v>617.2030875759866</v>
+        <v>18.82400495906114</v>
       </c>
       <c r="D122" t="n">
-        <v>307.3306932091618</v>
+        <v>48.87614479243415</v>
       </c>
       <c r="E122" t="n">
-        <v>655.4636083669343</v>
+        <v>38.92936462826433</v>
       </c>
       <c r="F122" t="n">
-        <v>767.3490764449397</v>
+        <v>42.57737616758013</v>
       </c>
       <c r="G122" t="n">
-        <v>544.092844304459</v>
+        <v>2.818860846599546</v>
       </c>
       <c r="H122" t="n">
-        <v>709.0985405988685</v>
+        <v>44.82163646519148</v>
       </c>
     </row>
     <row r="123">
@@ -3621,25 +3621,25 @@
         <v>605</v>
       </c>
       <c r="B123" t="n">
-        <v>46.70486609578516</v>
+        <v>33.33047133668247</v>
       </c>
       <c r="C123" t="n">
-        <v>618.8035894981164</v>
+        <v>18.66826310581226</v>
       </c>
       <c r="D123" t="n">
-        <v>304.7879690744859</v>
+        <v>48.89164417424408</v>
       </c>
       <c r="E123" t="n">
-        <v>656.7287809430361</v>
+        <v>39.02795757898525</v>
       </c>
       <c r="F123" t="n">
-        <v>766.9132443087537</v>
+        <v>42.61874247765526</v>
       </c>
       <c r="G123" t="n">
-        <v>544.1709605988975</v>
+        <v>2.86067304836684</v>
       </c>
       <c r="H123" t="n">
-        <v>708.9025677954359</v>
+        <v>44.73771216465025</v>
       </c>
     </row>
     <row r="124">
@@ -3647,25 +3647,25 @@
         <v>610</v>
       </c>
       <c r="B124" t="n">
-        <v>47.40637365447977</v>
+        <v>33.35322279611601</v>
       </c>
       <c r="C124" t="n">
-        <v>620.763433179151</v>
+        <v>18.52231212763747</v>
       </c>
       <c r="D124" t="n">
-        <v>302.4050959614281</v>
+        <v>48.91533943723406</v>
       </c>
       <c r="E124" t="n">
-        <v>658.3293384406123</v>
+        <v>39.14616965524312</v>
       </c>
       <c r="F124" t="n">
-        <v>766.9346037900915</v>
+        <v>42.68014766241118</v>
       </c>
       <c r="G124" t="n">
-        <v>544.5424129978124</v>
+        <v>2.903640386336885</v>
       </c>
       <c r="H124" t="n">
-        <v>709.1090566438402</v>
+        <v>44.6973349056025</v>
       </c>
     </row>
     <row r="125">
@@ -3673,25 +3673,25 @@
         <v>615</v>
       </c>
       <c r="B125" t="n">
-        <v>48.12521422698335</v>
+        <v>33.4020134983359</v>
       </c>
       <c r="C125" t="n">
-        <v>623.1557603673311</v>
+        <v>18.38741272841331</v>
       </c>
       <c r="D125" t="n">
-        <v>300.2026567904214</v>
+        <v>48.95422790374118</v>
       </c>
       <c r="E125" t="n">
-        <v>660.3399715093358</v>
+        <v>39.28835182484288</v>
       </c>
       <c r="F125" t="n">
-        <v>767.5854502303534</v>
+        <v>42.76699383463252</v>
       </c>
       <c r="G125" t="n">
-        <v>545.3389958911985</v>
+        <v>2.94766937140273</v>
       </c>
       <c r="H125" t="n">
-        <v>709.8724495688425</v>
+        <v>44.71484870717092</v>
       </c>
     </row>
     <row r="126">
@@ -3699,25 +3699,25 @@
         <v>620</v>
       </c>
       <c r="B126" t="n">
-        <v>48.85986146052932</v>
+        <v>33.48491584972864</v>
       </c>
       <c r="C126" t="n">
-        <v>626.0537128109141</v>
+        <v>18.26482561201627</v>
       </c>
       <c r="D126" t="n">
-        <v>298.2012344818984</v>
+        <v>49.01530689610381</v>
       </c>
       <c r="E126" t="n">
-        <v>662.8353707988641</v>
+        <v>39.45885505558938</v>
       </c>
       <c r="F126" t="n">
-        <v>769.0380789709155</v>
+        <v>42.88468310710424</v>
       </c>
       <c r="G126" t="n">
-        <v>546.6925036690391</v>
+        <v>2.992666514457422</v>
       </c>
       <c r="H126" t="n">
-        <v>711.3471889952356</v>
+        <v>44.80459758847717</v>
       </c>
     </row>
     <row r="127">
@@ -3725,25 +3725,25 @@
         <v>625</v>
       </c>
       <c r="B127" t="n">
-        <v>49.60878900234987</v>
+        <v>33.61000225668243</v>
       </c>
       <c r="C127" t="n">
-        <v>629.5304322581327</v>
+        <v>18.15581148232255</v>
       </c>
       <c r="D127" t="n">
-        <v>296.4214119562865</v>
+        <v>49.10557373665935</v>
       </c>
       <c r="E127" t="n">
-        <v>665.8902269588677</v>
+        <v>39.66203031528726</v>
       </c>
       <c r="F127" t="n">
-        <v>771.464785353166</v>
+        <v>43.03861759261094</v>
       </c>
       <c r="G127" t="n">
-        <v>548.7347307213458</v>
+        <v>3.038538326393929</v>
       </c>
       <c r="H127" t="n">
-        <v>713.6877173477844</v>
+        <v>44.98092556864309</v>
       </c>
     </row>
     <row r="128">
@@ -3751,25 +3751,25 @@
         <v>630</v>
       </c>
       <c r="B128" t="n">
-        <v>50.37088217232025</v>
+        <v>33.78523539717388</v>
       </c>
       <c r="C128" t="n">
-        <v>633.6516311527316</v>
+        <v>18.06129795390208</v>
       </c>
       <c r="D128" t="n">
-        <v>294.8783339412585</v>
+        <v>49.23213335134285</v>
       </c>
       <c r="E128" t="n">
-        <v>669.5746129334162</v>
+        <v>39.90186432670465</v>
       </c>
       <c r="F128" t="n">
-        <v>775.0358737675896</v>
+        <v>43.2338647149376</v>
       </c>
       <c r="G128" t="n">
-        <v>551.5956799538593</v>
+        <v>3.085216533054616</v>
       </c>
       <c r="H128" t="n">
-        <v>717.0396967740306</v>
+        <v>45.25772114638752</v>
       </c>
     </row>
     <row r="129">
@@ -3777,25 +3777,25 @@
         <v>635</v>
       </c>
       <c r="B129" t="n">
-        <v>51.1402317956686</v>
+        <v>34.01207145986383</v>
       </c>
       <c r="C129" t="n">
-        <v>638.4001835579742</v>
+        <v>17.98001168235459</v>
       </c>
       <c r="D129" t="n">
-        <v>293.551211140483</v>
+        <v>49.39830832603054</v>
       </c>
       <c r="E129" t="n">
-        <v>673.8907351218447</v>
+        <v>40.17789981683278</v>
       </c>
       <c r="F129" t="n">
-        <v>779.7952877570091</v>
+        <v>43.47216592020053</v>
       </c>
       <c r="G129" t="n">
-        <v>555.2991258753278</v>
+        <v>3.132339197484702</v>
       </c>
       <c r="H129" t="n">
-        <v>721.4548406535341</v>
+        <v>45.63782047040493</v>
       </c>
     </row>
     <row r="130">
@@ -3803,25 +3803,25 @@
         <v>640</v>
       </c>
       <c r="B130" t="n">
-        <v>51.90842712961486</v>
+        <v>34.28366470697656</v>
       </c>
       <c r="C130" t="n">
-        <v>643.6974322140386</v>
+        <v>17.90971067009695</v>
       </c>
       <c r="D130" t="n">
-        <v>292.403439511787</v>
+        <v>49.60031153853229</v>
       </c>
       <c r="E130" t="n">
-        <v>678.7639217193195</v>
+        <v>40.48548410089992</v>
       </c>
       <c r="F130" t="n">
-        <v>785.5974521379787</v>
+        <v>43.75121426920575</v>
       </c>
       <c r="G130" t="n">
-        <v>559.7333013383931</v>
+        <v>3.179391161688909</v>
       </c>
       <c r="H130" t="n">
-        <v>726.8463717603568</v>
+        <v>46.10821071078039</v>
       </c>
     </row>
     <row r="131">
@@ -3829,25 +3829,25 @@
         <v>645</v>
       </c>
       <c r="B131" t="n">
-        <v>52.66824262507682</v>
+        <v>34.59244758382846</v>
       </c>
       <c r="C131" t="n">
-        <v>649.4611698781785</v>
+        <v>17.84815130782104</v>
       </c>
       <c r="D131" t="n">
-        <v>291.3983886991189</v>
+        <v>49.83371604597496</v>
       </c>
       <c r="E131" t="n">
-        <v>684.1128984425335</v>
+        <v>40.8196302491712</v>
       </c>
       <c r="F131" t="n">
-        <v>792.2800736478423</v>
+        <v>44.06818981413667</v>
       </c>
       <c r="G131" t="n">
-        <v>564.7746544298523</v>
+        <v>3.225929860785955</v>
       </c>
       <c r="H131" t="n">
-        <v>733.1067280567474</v>
+        <v>46.65422450722625</v>
       </c>
     </row>
     <row r="132">
@@ -3855,25 +3855,25 @@
         <v>650</v>
       </c>
       <c r="B132" t="n">
-        <v>53.41245273296974</v>
+        <v>34.93085253573703</v>
       </c>
       <c r="C132" t="n">
-        <v>655.6091893076738</v>
+        <v>17.79308998621828</v>
       </c>
       <c r="D132" t="n">
-        <v>290.4994283464209</v>
+        <v>50.09409490548952</v>
       </c>
       <c r="E132" t="n">
-        <v>689.8563910081839</v>
+        <v>41.17535133191239</v>
       </c>
       <c r="F132" t="n">
-        <v>799.6808590239614</v>
+        <v>44.42027260717724</v>
       </c>
       <c r="G132" t="n">
-        <v>570.2996332365232</v>
+        <v>3.271512729894396</v>
       </c>
       <c r="H132" t="n">
-        <v>740.1283475049609</v>
+        <v>47.26119449945434</v>
       </c>
     </row>
     <row r="133">
@@ -3881,25 +3881,25 @@
         <v>655</v>
       </c>
       <c r="B133" t="n">
-        <v>54.13383190421751</v>
+        <v>35.29131200802042</v>
       </c>
       <c r="C133" t="n">
-        <v>662.0592832597738</v>
+        <v>17.74228309598054</v>
       </c>
       <c r="D133" t="n">
-        <v>289.6699280976415</v>
+        <v>50.37702117420472</v>
       </c>
       <c r="E133" t="n">
-        <v>695.9131251329574</v>
+        <v>41.54766041938822</v>
       </c>
       <c r="F133" t="n">
-        <v>807.6375150037127</v>
+        <v>44.8046427005111</v>
       </c>
       <c r="G133" t="n">
-        <v>576.1846858452313</v>
+        <v>3.315697204133322</v>
       </c>
       <c r="H133" t="n">
-        <v>747.8036680672581</v>
+        <v>47.91445332717888</v>
       </c>
     </row>
     <row r="134">
@@ -3907,25 +3907,25 @@
         <v>660</v>
       </c>
       <c r="B134" t="n">
-        <v>54.82515458973626</v>
+        <v>35.66625844599484</v>
       </c>
       <c r="C134" t="n">
-        <v>668.7292444917559</v>
+        <v>17.69348702779927</v>
       </c>
       <c r="D134" t="n">
-        <v>288.8732575967227</v>
+        <v>50.67806790924985</v>
       </c>
       <c r="E134" t="n">
-        <v>702.2018265335553</v>
+        <v>41.93157058186446</v>
       </c>
       <c r="F134" t="n">
-        <v>815.987748324435</v>
+        <v>45.2184801463221</v>
       </c>
       <c r="G134" t="n">
-        <v>582.306260342773</v>
+        <v>3.358040718621346</v>
       </c>
       <c r="H134" t="n">
-        <v>756.0251277059022</v>
+        <v>48.59933363011184</v>
       </c>
     </row>
     <row r="135">
@@ -3933,25 +3933,25 @@
         <v>665</v>
       </c>
       <c r="B135" t="n">
-        <v>55.47919524044382</v>
+        <v>36.0481242949758</v>
       </c>
       <c r="C135" t="n">
-        <v>675.5368657608748</v>
+        <v>17.64445817236588</v>
       </c>
       <c r="D135" t="n">
-        <v>288.0727864876062</v>
+        <v>50.99280816775246</v>
       </c>
       <c r="E135" t="n">
-        <v>708.6412209266673</v>
+        <v>42.32209488960624</v>
       </c>
       <c r="F135" t="n">
-        <v>824.5692657234813</v>
+        <v>45.65896499679421</v>
       </c>
       <c r="G135" t="n">
-        <v>588.5408048159314</v>
+        <v>3.398100708477183</v>
       </c>
       <c r="H135" t="n">
-        <v>764.6851643831527</v>
+        <v>49.3011680479654</v>
       </c>
     </row>
     <row r="136">
@@ -3959,25 +3959,25 @@
         <v>670</v>
       </c>
       <c r="B136" t="n">
-        <v>56.08872830725637</v>
+        <v>36.42934200028176</v>
       </c>
       <c r="C136" t="n">
-        <v>682.3999398244212</v>
+        <v>17.59295292037269</v>
       </c>
       <c r="D136" t="n">
-        <v>287.2318844142479</v>
+        <v>51.31681500684237</v>
       </c>
       <c r="E136" t="n">
-        <v>715.1500340289854</v>
+        <v>42.7142464128794</v>
       </c>
       <c r="F136" t="n">
-        <v>833.2197739382094</v>
+        <v>46.12327730411093</v>
       </c>
       <c r="G136" t="n">
-        <v>594.7647673515388</v>
+        <v>3.435434608819454</v>
       </c>
       <c r="H136" t="n">
-        <v>773.6762160612587</v>
+        <v>50.00528922045201</v>
       </c>
     </row>
     <row r="137">
@@ -3985,25 +3985,25 @@
         <v>675</v>
       </c>
       <c r="B137" t="n">
-        <v>56.64652824109595</v>
+        <v>36.80234400723018</v>
       </c>
       <c r="C137" t="n">
-        <v>689.2362594396423</v>
+        <v>17.53672766251126</v>
       </c>
       <c r="D137" t="n">
-        <v>286.313921020592</v>
+        <v>51.64566148364835</v>
       </c>
       <c r="E137" t="n">
-        <v>721.646991557204</v>
+        <v>43.10303822194882</v>
       </c>
       <c r="F137" t="n">
-        <v>841.7769797059805</v>
+        <v>46.60859712045622</v>
       </c>
       <c r="G137" t="n">
-        <v>600.854596036411</v>
+        <v>3.469599854767126</v>
       </c>
       <c r="H137" t="n">
-        <v>782.8907207024859</v>
+        <v>50.69702978728483</v>
       </c>
     </row>
     <row r="138">
@@ -4011,25 +4011,25 @@
         <v>680</v>
       </c>
       <c r="B138" t="n">
-        <v>57.14536949288008</v>
+        <v>37.15956276113702</v>
       </c>
       <c r="C138" t="n">
-        <v>695.9636173638062</v>
+        <v>17.47353878947304</v>
       </c>
       <c r="D138" t="n">
-        <v>285.2822659505804</v>
+        <v>51.97492065529982</v>
       </c>
       <c r="E138" t="n">
-        <v>728.0508192280158</v>
+        <v>43.48348338707971</v>
       </c>
       <c r="F138" t="n">
-        <v>850.0785897641424</v>
+        <v>47.11210449801428</v>
       </c>
       <c r="G138" t="n">
-        <v>606.686738957339</v>
+        <v>3.500153881438904</v>
       </c>
       <c r="H138" t="n">
-        <v>792.2211162691011</v>
+        <v>51.36172238817617</v>
       </c>
     </row>
     <row r="139">
@@ -4037,25 +4037,25 @@
         <v>685</v>
       </c>
       <c r="B139" t="n">
-        <v>57.57802651352637</v>
+        <v>37.49343070731922</v>
       </c>
       <c r="C139" t="n">
-        <v>702.4998063541722</v>
+        <v>17.4011426919497</v>
       </c>
       <c r="D139" t="n">
-        <v>284.1002888481584</v>
+        <v>52.30016557892441</v>
       </c>
       <c r="E139" t="n">
-        <v>734.2802427581159</v>
+        <v>43.85059497853757</v>
       </c>
       <c r="F139" t="n">
-        <v>857.9623108500502</v>
+        <v>47.63097948896812</v>
       </c>
       <c r="G139" t="n">
-        <v>612.13764420113</v>
+        <v>3.526654123953491</v>
       </c>
       <c r="H139" t="n">
-        <v>801.5598407233455</v>
+        <v>51.9846996628383</v>
       </c>
     </row>
     <row r="140">
@@ -4063,25 +4063,25 @@
         <v>690</v>
       </c>
       <c r="B140" t="n">
-        <v>57.93738651827451</v>
+        <v>37.79639053918542</v>
       </c>
       <c r="C140" t="n">
-        <v>708.76199739505</v>
+        <v>17.31770981405668</v>
       </c>
       <c r="D140" t="n">
-        <v>282.7381194131702</v>
+        <v>52.61685545112038</v>
       </c>
       <c r="E140" t="n">
-        <v>740.2552450106182</v>
+        <v>44.19945774631647</v>
       </c>
       <c r="F140" t="n">
-        <v>865.2672846531192</v>
+        <v>48.16207644127876</v>
       </c>
       <c r="G140" t="n">
-        <v>617.0839271703743</v>
+        <v>3.548664924244313</v>
       </c>
       <c r="H140" t="n">
-        <v>810.7967343103063</v>
+        <v>52.55155748993052</v>
       </c>
     </row>
     <row r="141">
@@ -4089,25 +4089,25 @@
         <v>695</v>
       </c>
       <c r="B141" t="n">
-        <v>58.22680102038565</v>
+        <v>38.06413960509175</v>
       </c>
       <c r="C141" t="n">
-        <v>714.6969226631661</v>
+        <v>17.22394481552919</v>
       </c>
       <c r="D141" t="n">
-        <v>281.2072622943543</v>
+        <v>52.92220569500439</v>
       </c>
       <c r="E141" t="n">
-        <v>745.9293757856029</v>
+        <v>44.5275199387836</v>
       </c>
       <c r="F141" t="n">
-        <v>871.9162211606389</v>
+        <v>48.69972484175576</v>
       </c>
       <c r="G141" t="n">
-        <v>621.4553404912939</v>
+        <v>3.566391562498622</v>
       </c>
       <c r="H141" t="n">
-        <v>819.8183180055723</v>
+        <v>53.05517607479798</v>
       </c>
     </row>
     <row r="142">
@@ -4115,25 +4115,25 @@
         <v>700</v>
       </c>
       <c r="B142" t="n">
-        <v>58.45881032779054</v>
+        <v>38.29784009676669</v>
       </c>
       <c r="C142" t="n">
-        <v>720.2944318221804</v>
+        <v>17.12159314502555</v>
       </c>
       <c r="D142" t="n">
-        <v>279.5362146126621</v>
+        <v>53.21707188579065</v>
       </c>
       <c r="E142" t="n">
-        <v>751.3024117922606</v>
+        <v>44.83536416584338</v>
       </c>
       <c r="F142" t="n">
-        <v>877.954391173616</v>
+        <v>49.23742498781318</v>
       </c>
       <c r="G142" t="n">
-        <v>625.2708587227213</v>
+        <v>3.58060213257717</v>
       </c>
       <c r="H142" t="n">
-        <v>828.5647524481627</v>
+        <v>53.4993996369168</v>
       </c>
     </row>
     <row r="143">
@@ -4141,25 +4141,25 @@
         <v>705</v>
       </c>
       <c r="B143" t="n">
-        <v>58.64558432674404</v>
+        <v>38.49929422877503</v>
       </c>
       <c r="C143" t="n">
-        <v>725.5491067067226</v>
+        <v>17.01241777134433</v>
       </c>
       <c r="D143" t="n">
-        <v>277.7537595321525</v>
+        <v>53.50260519815122</v>
       </c>
       <c r="E143" t="n">
-        <v>756.3779770787477</v>
+        <v>45.12386525774438</v>
       </c>
       <c r="F143" t="n">
-        <v>883.4372529334723</v>
+        <v>49.76875764943296</v>
       </c>
       <c r="G143" t="n">
-        <v>628.5599057759188</v>
+        <v>3.592042040013073</v>
       </c>
       <c r="H143" t="n">
-        <v>836.987870507421</v>
+        <v>53.88922461365829</v>
       </c>
     </row>
     <row r="144">
@@ -4167,25 +4167,25 @@
         <v>710</v>
       </c>
       <c r="B144" t="n">
-        <v>58.79929290350269</v>
+        <v>38.67030421568199</v>
       </c>
       <c r="C144" t="n">
-        <v>730.4555291514134</v>
+        <v>16.8981816632851</v>
       </c>
       <c r="D144" t="n">
-        <v>275.8886802168997</v>
+        <v>53.7799568067574</v>
       </c>
       <c r="E144" t="n">
-        <v>761.1596956932126</v>
+        <v>45.39389804473464</v>
       </c>
       <c r="F144" t="n">
-        <v>888.420264681615</v>
+        <v>50.28730359659722</v>
       </c>
       <c r="G144" t="n">
-        <v>631.351905562155</v>
+        <v>3.601456690339538</v>
       </c>
       <c r="H144" t="n">
-        <v>845.03950505273</v>
+        <v>54.22964744239469</v>
       </c>
     </row>
     <row r="145">
@@ -4193,25 +4193,25 @@
         <v>715</v>
       </c>
       <c r="B145" t="n">
-        <v>58.93210594432277</v>
+        <v>38.81267227205102</v>
       </c>
       <c r="C145" t="n">
-        <v>735.0082809908733</v>
+        <v>16.78064778964644</v>
       </c>
       <c r="D145" t="n">
-        <v>273.9697598309623</v>
+        <v>54.05027788628094</v>
       </c>
       <c r="E145" t="n">
-        <v>765.6511916838205</v>
+        <v>45.64633735706235</v>
       </c>
       <c r="F145" t="n">
-        <v>892.9588846594634</v>
+        <v>50.78664359928958</v>
       </c>
       <c r="G145" t="n">
-        <v>633.6762819926697</v>
+        <v>3.60959148908977</v>
       </c>
       <c r="H145" t="n">
-        <v>852.671488953453</v>
+        <v>54.52566456049767</v>
       </c>
     </row>
     <row r="146">
@@ -4219,25 +4219,25 @@
         <v>720</v>
       </c>
       <c r="B146" t="n">
-        <v>59.05619333545812</v>
+        <v>38.92820061244765</v>
       </c>
       <c r="C146" t="n">
-        <v>739.2019440597177</v>
+        <v>16.66157911922747</v>
       </c>
       <c r="D146" t="n">
-        <v>272.0257815384077</v>
+        <v>54.31471961139334</v>
       </c>
       <c r="E146" t="n">
-        <v>769.8560890987171</v>
+        <v>45.88205802497527</v>
       </c>
       <c r="F146" t="n">
-        <v>897.1085711084185</v>
+        <v>51.26035842749262</v>
       </c>
       <c r="G146" t="n">
-        <v>635.5624589787373</v>
+        <v>3.617191841796811</v>
       </c>
       <c r="H146" t="n">
-        <v>859.8356550789664</v>
+        <v>54.78227240533836</v>
       </c>
     </row>
     <row r="147">
@@ -4245,25 +4245,25 @@
         <v>725</v>
       </c>
       <c r="B147" t="n">
-        <v>59.18372496316378</v>
+        <v>39.01869145143774</v>
       </c>
       <c r="C147" t="n">
-        <v>743.0311001925725</v>
+        <v>16.54273862082685</v>
       </c>
       <c r="D147" t="n">
-        <v>270.0855285032955</v>
+        <v>54.57443315676658</v>
       </c>
       <c r="E147" t="n">
-        <v>773.7780119860624</v>
+        <v>46.10193487872193</v>
       </c>
       <c r="F147" t="n">
-        <v>900.9247822699068</v>
+        <v>51.70202885118795</v>
       </c>
       <c r="G147" t="n">
-        <v>637.0398604316365</v>
+        <v>3.625003153993783</v>
       </c>
       <c r="H147" t="n">
-        <v>866.4838362986102</v>
+        <v>55.00446741428852</v>
       </c>
     </row>
     <row r="148">
@@ -4271,25 +4271,25 @@
         <v>730</v>
       </c>
       <c r="B148" t="n">
-        <v>59.32687071369837</v>
+        <v>39.0859470035854</v>
       </c>
       <c r="C148" t="n">
-        <v>746.4903312240573</v>
+        <v>16.42588926324361</v>
       </c>
       <c r="D148" t="n">
-        <v>268.1777838896916</v>
+        <v>54.83056969707271</v>
       </c>
       <c r="E148" t="n">
-        <v>777.4205843940086</v>
+        <v>46.30684274855054</v>
       </c>
       <c r="F148" t="n">
-        <v>904.4629763853358</v>
+        <v>52.10523564035812</v>
       </c>
       <c r="G148" t="n">
-        <v>638.1379102626189</v>
+        <v>3.633770831214024</v>
       </c>
       <c r="H148" t="n">
-        <v>872.5678654817716</v>
+        <v>55.19724602472003</v>
       </c>
     </row>
     <row r="149">
@@ -4297,25 +4297,25 @@
         <v>735</v>
       </c>
       <c r="B149" t="n">
-        <v>59.49780047331289</v>
+        <v>39.13176948345442</v>
       </c>
       <c r="C149" t="n">
-        <v>749.5742189887964</v>
+        <v>16.31279401527688</v>
       </c>
       <c r="D149" t="n">
-        <v>266.3313308616634</v>
+        <v>55.08428040698301</v>
       </c>
       <c r="E149" t="n">
-        <v>780.7874303707148</v>
+        <v>46.49765646470917</v>
       </c>
       <c r="F149" t="n">
-        <v>907.7786116961269</v>
+        <v>52.46355956498616</v>
       </c>
       <c r="G149" t="n">
-        <v>638.8860323829293</v>
+        <v>3.644240278990415</v>
       </c>
       <c r="H149" t="n">
-        <v>878.0395754978098</v>
+        <v>55.36560467400497</v>
       </c>
     </row>
     <row r="150">
@@ -4323,25 +4323,25 @@
         <v>740</v>
       </c>
       <c r="B150" t="n">
-        <v>59.70868412826567</v>
+        <v>39.15796110561059</v>
       </c>
       <c r="C150" t="n">
-        <v>752.277345321417</v>
+        <v>16.20521584572544</v>
       </c>
       <c r="D150" t="n">
-        <v>264.5749525832724</v>
+        <v>55.33671646116903</v>
       </c>
       <c r="E150" t="n">
-        <v>783.8821739643319</v>
+        <v>46.67525085744611</v>
       </c>
       <c r="F150" t="n">
-        <v>910.92714644368</v>
+        <v>52.77058139505497</v>
       </c>
       <c r="G150" t="n">
-        <v>639.3136507038463</v>
+        <v>3.657156902856269</v>
       </c>
       <c r="H150" t="n">
-        <v>882.8507992160989</v>
+        <v>55.5145397995142</v>
       </c>
     </row>
     <row r="151">
@@ -4349,25 +4349,25 @@
         <v>745</v>
       </c>
       <c r="B151" t="n">
-        <v>59.97169156480998</v>
+        <v>39.16632408461897</v>
       </c>
       <c r="C151" t="n">
-        <v>754.594292056541</v>
+        <v>16.10491772338833</v>
       </c>
       <c r="D151" t="n">
-        <v>262.9374322185849</v>
+        <v>55.58902903430269</v>
       </c>
       <c r="E151" t="n">
-        <v>786.7084392230162</v>
+        <v>46.84050075700957</v>
       </c>
       <c r="F151" t="n">
-        <v>913.964038869418</v>
+        <v>53.01988190054628</v>
       </c>
       <c r="G151" t="n">
-        <v>639.4501891366364</v>
+        <v>3.673266108344611</v>
       </c>
       <c r="H151" t="n">
-        <v>886.9533695059907</v>
+        <v>55.64904783861958</v>
       </c>
     </row>
     <row r="152">
@@ -4375,25 +4375,25 @@
         <v>750</v>
       </c>
       <c r="B152" t="n">
-        <v>60.2990359005644</v>
+        <v>39.1589291462882</v>
       </c>
       <c r="C152" t="n">
-        <v>756.5279170664244</v>
+        <v>16.01334903677764</v>
       </c>
       <c r="D152" t="n">
-        <v>261.4424332535125</v>
+        <v>55.84253765995589</v>
       </c>
       <c r="E152" t="n">
-        <v>789.2722803200005</v>
+        <v>46.99451614316181</v>
       </c>
       <c r="F152" t="n">
-        <v>916.9458918781409</v>
+        <v>53.20572508796953</v>
       </c>
       <c r="G152" t="n">
-        <v>639.3294554496033</v>
+        <v>3.693315948909568</v>
       </c>
       <c r="H152" t="n">
-        <v>890.3096106765071</v>
+        <v>55.77424370063447</v>
       </c>
     </row>
     <row r="153">
@@ -4401,25 +4401,25 @@
         <v>755</v>
       </c>
       <c r="B153" t="n">
-        <v>60.69258576710524</v>
+        <v>39.14034551598156</v>
       </c>
       <c r="C153" t="n">
-        <v>758.1156095671237</v>
+        <v>15.92995068311134</v>
       </c>
       <c r="D153" t="n">
-        <v>260.0808274793688</v>
+        <v>56.09798980674903</v>
       </c>
       <c r="E153" t="n">
-        <v>791.5896630873461</v>
+        <v>47.13865866443622</v>
       </c>
       <c r="F153" t="n">
-        <v>919.9035703256731</v>
+        <v>53.32938620592284</v>
       </c>
       <c r="G153" t="n">
-        <v>639.0260492405152</v>
+        <v>3.717420878235196</v>
       </c>
       <c r="H153" t="n">
-        <v>892.965854048698</v>
+        <v>55.89398677119827</v>
       </c>
     </row>
     <row r="154">
@@ -4427,25 +4427,25 @@
         <v>760</v>
       </c>
       <c r="B154" t="n">
-        <v>61.14125489657196</v>
+        <v>39.11454046453883</v>
       </c>
       <c r="C154" t="n">
-        <v>759.3935394411239</v>
+        <v>15.85332462701342</v>
       </c>
       <c r="D154" t="n">
-        <v>258.8297898287905</v>
+        <v>56.3541719685123</v>
       </c>
       <c r="E154" t="n">
-        <v>793.6763050477579</v>
+        <v>47.27308828494454</v>
       </c>
       <c r="F154" t="n">
-        <v>922.8249857184719</v>
+        <v>53.39833969205943</v>
       </c>
       <c r="G154" t="n">
-        <v>638.604742278185</v>
+        <v>3.744901862415031</v>
       </c>
       <c r="H154" t="n">
-        <v>895.011733430612</v>
+        <v>56.00907259396794</v>
       </c>
     </row>
     <row r="155">
@@ -4453,25 +4453,25 @@
         <v>765</v>
       </c>
       <c r="B155" t="n">
-        <v>61.63325240009848</v>
+        <v>39.0849901765309</v>
       </c>
       <c r="C155" t="n">
-        <v>760.3956936720986</v>
+        <v>15.78204609166128</v>
       </c>
       <c r="D155" t="n">
-        <v>257.6660586393677</v>
+        <v>56.60971277207791</v>
       </c>
       <c r="E155" t="n">
-        <v>795.548553193431</v>
+        <v>47.3978342436802</v>
       </c>
       <c r="F155" t="n">
-        <v>925.6955832568541</v>
+        <v>53.42059074177684</v>
       </c>
       <c r="G155" t="n">
-        <v>638.1222885964227</v>
+        <v>3.775036709506031</v>
       </c>
       <c r="H155" t="n">
-        <v>896.5382202287475</v>
+        <v>56.12000812017855</v>
       </c>
     </row>
     <row r="156">
@@ -4479,25 +4479,25 @@
         <v>770</v>
       </c>
       <c r="B156" t="n">
-        <v>62.15678738882631</v>
+        <v>39.05517083652944</v>
       </c>
       <c r="C156" t="n">
-        <v>761.1560592437215</v>
+        <v>15.71469030023203</v>
       </c>
       <c r="D156" t="n">
-        <v>256.5663722486863</v>
+        <v>56.86324084428109</v>
       </c>
       <c r="E156" t="n">
-        <v>797.2227545165744</v>
+        <v>47.51292577963729</v>
       </c>
       <c r="F156" t="n">
-        <v>928.5008081411511</v>
+        <v>53.40414455047425</v>
       </c>
       <c r="G156" t="n">
-        <v>637.6354422290523</v>
+        <v>3.807103227565611</v>
       </c>
       <c r="H156" t="n">
-        <v>897.6362858496177</v>
+        <v>56.22730030106504</v>
       </c>
     </row>
     <row r="157">
@@ -4505,25 +4505,25 @@
         <v>775</v>
       </c>
       <c r="B157" t="n">
-        <v>62.70006897389067</v>
+        <v>39.02855862910708</v>
       </c>
       <c r="C157" t="n">
-        <v>761.7086231396685</v>
+        <v>15.64983247590306</v>
       </c>
       <c r="D157" t="n">
-        <v>255.5074689943356</v>
+        <v>57.11338481195347</v>
       </c>
       <c r="E157" t="n">
-        <v>798.7152560093703</v>
+        <v>47.61839213180879</v>
       </c>
       <c r="F157" t="n">
-        <v>931.2261055716934</v>
+        <v>53.35700631354867</v>
       </c>
       <c r="G157" t="n">
-        <v>637.2009572099115</v>
+        <v>3.840379224650803</v>
       </c>
       <c r="H157" t="n">
-        <v>898.3969016997152</v>
+        <v>56.3314560878638</v>
       </c>
     </row>
     <row r="158">
@@ -4531,25 +4531,25 @@
         <v>780</v>
       </c>
       <c r="B158" t="n">
-        <v>63.2513062664344</v>
+        <v>39.00862973883457</v>
       </c>
       <c r="C158" t="n">
-        <v>762.0873723436404</v>
+        <v>15.58604784185148</v>
       </c>
       <c r="D158" t="n">
-        <v>254.4660872139018</v>
+        <v>57.35877330192856</v>
       </c>
       <c r="E158" t="n">
-        <v>800.0424046640238</v>
+        <v>47.71426253918923</v>
       </c>
       <c r="F158" t="n">
-        <v>933.8569207487967</v>
+        <v>53.28718122639997</v>
       </c>
       <c r="G158" t="n">
-        <v>636.8755875728095</v>
+        <v>3.874142508819109</v>
       </c>
       <c r="H158" t="n">
-        <v>898.9110391855614</v>
+        <v>56.43298243180915</v>
       </c>
     </row>
     <row r="159">
@@ -4557,25 +4557,25 @@
         <v>785</v>
       </c>
       <c r="B159" t="n">
-        <v>63.79870837759208</v>
+        <v>38.99886035028356</v>
       </c>
       <c r="C159" t="n">
-        <v>762.3262938392979</v>
+        <v>15.52191162125503</v>
       </c>
       <c r="D159" t="n">
-        <v>253.4189652449801</v>
+        <v>57.59803494103858</v>
       </c>
       <c r="E159" t="n">
-        <v>801.2205474727272</v>
+        <v>47.80056624077167</v>
       </c>
       <c r="F159" t="n">
-        <v>936.3786988727734</v>
+        <v>53.20267448442641</v>
       </c>
       <c r="G159" t="n">
-        <v>636.7160873515684</v>
+        <v>3.907670888127513</v>
       </c>
       <c r="H159" t="n">
-        <v>899.2696697136661</v>
+        <v>56.53238628413606</v>
       </c>
     </row>
     <row r="160">
@@ -4583,25 +4583,25 @@
         <v>790</v>
       </c>
       <c r="B160" t="n">
-        <v>64.33048441850283</v>
+        <v>39.00272664802575</v>
       </c>
       <c r="C160" t="n">
-        <v>762.4593746103152</v>
+        <v>15.45599903729007</v>
       </c>
       <c r="D160" t="n">
-        <v>252.3428414251441</v>
+        <v>57.82979835611876</v>
       </c>
       <c r="E160" t="n">
-        <v>802.2660314276902</v>
+        <v>47.87733247555007</v>
       </c>
       <c r="F160" t="n">
-        <v>938.7768851439633</v>
+        <v>53.11149128302668</v>
       </c>
       <c r="G160" t="n">
-        <v>636.7792105800123</v>
+        <v>3.940242170633301</v>
       </c>
       <c r="H160" t="n">
-        <v>899.563764690535</v>
+        <v>56.63017459607978</v>
       </c>
     </row>
     <row r="161">
@@ -4609,25 +4609,25 @@
         <v>795</v>
       </c>
       <c r="B161" t="n">
-        <v>64.83484350030339</v>
+        <v>39.02370481663355</v>
       </c>
       <c r="C161" t="n">
-        <v>762.5206016403716</v>
+        <v>15.38688531313448</v>
       </c>
       <c r="D161" t="n">
-        <v>251.2144540919915</v>
+        <v>58.05269217400014</v>
       </c>
       <c r="E161" t="n">
-        <v>803.1952035210974</v>
+        <v>47.94459048251776</v>
       </c>
       <c r="F161" t="n">
-        <v>941.0369247626813</v>
+        <v>53.02163681759814</v>
       </c>
       <c r="G161" t="n">
-        <v>637.1217112919766</v>
+        <v>3.971134164393583</v>
       </c>
       <c r="H161" t="n">
-        <v>899.8842955226605</v>
+        <v>56.72685431887595</v>
       </c>
     </row>
     <row r="162">
@@ -4635,25 +4635,25 @@
         <v>800</v>
       </c>
       <c r="B162" t="n">
-        <v>65.29999473413531</v>
+        <v>39.06527104067789</v>
       </c>
       <c r="C162" t="n">
-        <v>762.5439619131616</v>
+        <v>15.31314567196524</v>
       </c>
       <c r="D162" t="n">
-        <v>250.010541583106</v>
+        <v>58.26534502151674</v>
       </c>
       <c r="E162" t="n">
-        <v>804.0244107451497</v>
+        <v>48.00236950066897</v>
       </c>
       <c r="F162" t="n">
-        <v>943.1442629292504</v>
+        <v>52.94111628354025</v>
       </c>
       <c r="G162" t="n">
-        <v>637.8003435212721</v>
+        <v>3.999624677465787</v>
       </c>
       <c r="H162" t="n">
-        <v>900.3222336165672</v>
+        <v>56.82293240375924</v>
       </c>
     </row>
     <row r="163">
@@ -4661,25 +4661,25 @@
         <v>805</v>
       </c>
       <c r="B163" t="n">
-        <v>65.71414723113463</v>
+        <v>39.13090150473019</v>
       </c>
       <c r="C163" t="n">
-        <v>762.5634424123559</v>
+        <v>15.23335533695978</v>
       </c>
       <c r="D163" t="n">
-        <v>248.7078422360781</v>
+        <v>58.46638552550053</v>
       </c>
       <c r="E163" t="n">
-        <v>804.7700000920432</v>
+        <v>48.05069876899709</v>
       </c>
       <c r="F163" t="n">
-        <v>945.0843448439832</v>
+        <v>52.87793487625128</v>
       </c>
       <c r="G163" t="n">
-        <v>638.8718613017176</v>
+        <v>4.024991517906995</v>
       </c>
       <c r="H163" t="n">
-        <v>900.9685503787587</v>
+        <v>56.91891580196476</v>
       </c>
     </row>
     <row r="164">
@@ -4687,25 +4687,25 @@
         <v>810</v>
       </c>
       <c r="B164" t="n">
-        <v>66.06517285721797</v>
+        <v>39.22350893179952</v>
       </c>
       <c r="C164" t="n">
-        <v>762.6054066718157</v>
+        <v>15.14622700911417</v>
       </c>
       <c r="D164" t="n">
-        <v>247.285338924313</v>
+        <v>58.65408433030991</v>
       </c>
       <c r="E164" t="n">
-        <v>805.4457513647852</v>
+        <v>48.08936541497696</v>
       </c>
       <c r="F164" t="n">
-        <v>946.8400908323257</v>
+        <v>52.8396576719506</v>
       </c>
       <c r="G164" t="n">
-        <v>640.3838192946864</v>
+        <v>4.046491837504603</v>
       </c>
       <c r="H164" t="n">
-        <v>901.9057894538781</v>
+        <v>57.01512636855315</v>
       </c>
     </row>
     <row r="165">
@@ -4713,25 +4713,25 @@
         <v>815</v>
       </c>
       <c r="B165" t="n">
-        <v>66.34830012936818</v>
+        <v>39.33960524299213</v>
       </c>
       <c r="C165" t="n">
-        <v>762.6602685711197</v>
+        <v>15.05178948730195</v>
       </c>
       <c r="D165" t="n">
-        <v>245.7435018335012</v>
+        <v>58.82612724826302</v>
       </c>
       <c r="E165" t="n">
-        <v>806.0485141644898</v>
+        <v>48.11765820863469</v>
       </c>
       <c r="F165" t="n">
-        <v>948.391097579125</v>
+        <v>52.82813075029201</v>
       </c>
       <c r="G165" t="n">
-        <v>642.279269273341</v>
+        <v>4.063833382923803</v>
       </c>
       <c r="H165" t="n">
-        <v>903.1363972526759</v>
+        <v>57.11046493464227</v>
       </c>
     </row>
     <row r="166">
@@ -4739,25 +4739,25 @@
         <v>820</v>
       </c>
       <c r="B166" t="n">
-        <v>66.57071321462874</v>
+        <v>39.47269740207574</v>
       </c>
       <c r="C166" t="n">
-        <v>762.710904779643</v>
+        <v>14.95083252953902</v>
       </c>
       <c r="D166" t="n">
-        <v>244.0952249720656</v>
+        <v>58.98190992946157</v>
       </c>
       <c r="E166" t="n">
-        <v>806.5599180876105</v>
+        <v>48.13556983292695</v>
       </c>
       <c r="F166" t="n">
-        <v>949.7252778789937</v>
+        <v>52.83838396514506</v>
       </c>
       <c r="G166" t="n">
-        <v>644.4522024828691</v>
+        <v>4.077456184396009</v>
       </c>
       <c r="H166" t="n">
-        <v>904.5820315797224</v>
+        <v>57.20217825318178</v>
       </c>
     </row>
     <row r="167">
@@ -4765,25 +4765,25 @@
         <v>825</v>
       </c>
       <c r="B167" t="n">
-        <v>66.74075904472204</v>
+        <v>39.6165272993414</v>
       </c>
       <c r="C167" t="n">
-        <v>762.7410822819845</v>
+        <v>14.84418685762779</v>
       </c>
       <c r="D167" t="n">
-        <v>242.3540711449434</v>
+        <v>59.12107156392802</v>
       </c>
       <c r="E167" t="n">
-        <v>806.9586822867935</v>
+        <v>48.14314828614496</v>
       </c>
       <c r="F167" t="n">
-        <v>950.8303939615295</v>
+        <v>52.86465943173703</v>
       </c>
       <c r="G167" t="n">
-        <v>646.800445703533</v>
+        <v>4.087871491489226</v>
       </c>
       <c r="H167" t="n">
-        <v>906.1542356273538</v>
+        <v>57.28720588407941</v>
       </c>
     </row>
     <row r="168">
@@ -4791,25 +4791,25 @@
         <v>830</v>
       </c>
       <c r="B168" t="n">
-        <v>66.86678455136493</v>
+        <v>39.7648368250784</v>
       </c>
       <c r="C168" t="n">
-        <v>762.7345680627243</v>
+        <v>14.7326831933722</v>
       </c>
       <c r="D168" t="n">
-        <v>240.5336031570973</v>
+        <v>59.24325134168463</v>
       </c>
       <c r="E168" t="n">
-        <v>807.2235259146728</v>
+        <v>48.14044156657953</v>
       </c>
       <c r="F168" t="n">
-        <v>951.694208056326</v>
+        <v>52.90119926529388</v>
       </c>
       <c r="G168" t="n">
-        <v>649.2218257155656</v>
+        <v>4.095590553771102</v>
       </c>
       <c r="H168" t="n">
-        <v>907.7645525879121</v>
+        <v>57.36248738724286</v>
       </c>
     </row>
     <row r="169">
@@ -4817,25 +4817,25 @@
         <v>835</v>
       </c>
       <c r="B169" t="n">
-        <v>66.9571366662834</v>
+        <v>39.91136786957525</v>
       </c>
       <c r="C169" t="n">
-        <v>762.6751291064605</v>
+        <v>14.61715225857443</v>
       </c>
       <c r="D169" t="n">
-        <v>238.6473838134601</v>
+        <v>59.34808845275236</v>
       </c>
       <c r="E169" t="n">
-        <v>807.3331681239076</v>
+        <v>48.12749767252233</v>
       </c>
       <c r="F169" t="n">
-        <v>952.3044823929558</v>
+        <v>52.94224558104392</v>
       </c>
       <c r="G169" t="n">
-        <v>651.6141692991879</v>
+        <v>4.101124620809857</v>
       </c>
       <c r="H169" t="n">
-        <v>909.3245256537415</v>
+        <v>57.4249623225786</v>
       </c>
     </row>
     <row r="170">
@@ -4843,25 +4843,25 @@
         <v>840</v>
       </c>
       <c r="B170" t="n">
-        <v>67.02016232119409</v>
+        <v>40.049862323122</v>
       </c>
       <c r="C170" t="n">
-        <v>762.5465323977789</v>
+        <v>14.49842477503764</v>
       </c>
       <c r="D170" t="n">
-        <v>236.7089759189818</v>
+        <v>59.43522208715439</v>
       </c>
       <c r="E170" t="n">
-        <v>807.266328067118</v>
+        <v>48.10436460226396</v>
       </c>
       <c r="F170" t="n">
-        <v>952.6489792010181</v>
+        <v>52.9820404942119</v>
       </c>
       <c r="G170" t="n">
-        <v>653.8753032346449</v>
+        <v>4.104984942173138</v>
       </c>
       <c r="H170" t="n">
-        <v>910.7456980171775</v>
+        <v>57.4715702499947</v>
       </c>
     </row>
     <row r="171">
@@ -4869,25 +4869,25 @@
         <v>845</v>
       </c>
       <c r="B171" t="n">
-        <v>67.06420844782242</v>
+        <v>40.1740620760099</v>
       </c>
       <c r="C171" t="n">
-        <v>762.3325449212728</v>
+        <v>14.37733146456437</v>
       </c>
       <c r="D171" t="n">
-        <v>234.7319422786019</v>
+        <v>59.50429143491329</v>
       </c>
       <c r="E171" t="n">
-        <v>807.0017248969566</v>
+        <v>48.07109035409564</v>
       </c>
       <c r="F171" t="n">
-        <v>952.7154607101081</v>
+        <v>53.01482612002577</v>
       </c>
       <c r="G171" t="n">
-        <v>655.9030543022023</v>
+        <v>4.107682767429125</v>
       </c>
       <c r="H171" t="n">
-        <v>911.939612870567</v>
+        <v>57.49925072939868</v>
       </c>
     </row>
     <row r="172">
@@ -4895,25 +4895,25 @@
         <v>850</v>
       </c>
       <c r="B172" t="n">
-        <v>67.09762197788601</v>
+        <v>40.27770901852757</v>
       </c>
       <c r="C172" t="n">
-        <v>762.0169336615184</v>
+        <v>14.25470304895794</v>
       </c>
       <c r="D172" t="n">
-        <v>232.7298456972724</v>
+        <v>59.5549356860511</v>
       </c>
       <c r="E172" t="n">
-        <v>806.5180777660521</v>
+        <v>48.02772292630799</v>
       </c>
       <c r="F172" t="n">
-        <v>952.4916891498203</v>
+        <v>53.03484457371125</v>
       </c>
       <c r="G172" t="n">
-        <v>657.5952492820829</v>
+        <v>4.109729346145517</v>
       </c>
       <c r="H172" t="n">
-        <v>912.8178134062459</v>
+        <v>57.50494332069829</v>
       </c>
     </row>
     <row r="173">
@@ -4921,25 +4921,25 @@
         <v>855</v>
       </c>
       <c r="B173" t="n">
-        <v>67.12874984310781</v>
+        <v>40.35454504096398</v>
       </c>
       <c r="C173" t="n">
-        <v>761.5834656031238</v>
+        <v>14.13137025002088</v>
       </c>
       <c r="D173" t="n">
-        <v>230.7162489799329</v>
+        <v>59.58679403059007</v>
       </c>
       <c r="E173" t="n">
-        <v>805.7941058270666</v>
+        <v>47.97431031719307</v>
       </c>
       <c r="F173" t="n">
-        <v>951.9654267497292</v>
+        <v>53.03633797049683</v>
       </c>
       <c r="G173" t="n">
-        <v>658.8497149545138</v>
+        <v>4.111635927890354</v>
       </c>
       <c r="H173" t="n">
-        <v>913.2918428165638</v>
+        <v>57.48558758379939</v>
       </c>
     </row>
     <row r="174">
@@ -4947,25 +4947,25 @@
         <v>860</v>
       </c>
       <c r="B174" t="n">
-        <v>67.16593897520754</v>
+        <v>40.39831203360947</v>
       </c>
       <c r="C174" t="n">
-        <v>761.0159077306697</v>
+        <v>14.00816378955616</v>
       </c>
       <c r="D174" t="n">
-        <v>228.7047149315292</v>
+        <v>59.59950565855184</v>
       </c>
       <c r="E174" t="n">
-        <v>804.8085282326215</v>
+        <v>47.91090052504126</v>
       </c>
       <c r="F174" t="n">
-        <v>951.1244357394291</v>
+        <v>53.01354842560738</v>
       </c>
       <c r="G174" t="n">
-        <v>659.5642780997464</v>
+        <v>4.113913762231459</v>
       </c>
       <c r="H174" t="n">
-        <v>913.2732442938548</v>
+        <v>57.43812307861067</v>
       </c>
     </row>
     <row r="175">
@@ -4973,25 +4973,25 @@
         <v>865</v>
       </c>
       <c r="B175" t="n">
-        <v>67.21753630590821</v>
+        <v>40.40275188675464</v>
       </c>
       <c r="C175" t="n">
-        <v>760.2980270287486</v>
+        <v>13.88591438936624</v>
       </c>
       <c r="D175" t="n">
-        <v>226.708806357</v>
+        <v>59.59270975996073</v>
       </c>
       <c r="E175" t="n">
-        <v>803.5400641353684</v>
+        <v>47.8375415481438</v>
       </c>
       <c r="F175" t="n">
-        <v>949.9564783485265</v>
+        <v>52.96071805427042</v>
       </c>
       <c r="G175" t="n">
-        <v>659.6367654980348</v>
+        <v>4.117074098736877</v>
       </c>
       <c r="H175" t="n">
-        <v>912.6735610304623</v>
+        <v>57.35948936503945</v>
       </c>
     </row>
     <row r="176">
@@ -4999,25 +4999,25 @@
         <v>870</v>
       </c>
       <c r="B176" t="n">
-        <v>67.29236163149912</v>
+        <v>40.36222550542592</v>
       </c>
       <c r="C176" t="n">
-        <v>759.4193370003038</v>
+        <v>13.76546172519364</v>
       </c>
       <c r="D176" t="n">
-        <v>224.7422322480593</v>
+        <v>59.56635095325855</v>
       </c>
       <c r="E176" t="n">
-        <v>801.9694592203148</v>
+        <v>47.75448950077178</v>
       </c>
       <c r="F176" t="n">
-        <v>948.4520988692564</v>
+        <v>52.87223231525937</v>
       </c>
       <c r="G176" t="n">
-        <v>658.9751102926682</v>
+        <v>4.121657149929321</v>
       </c>
       <c r="H176" t="n">
-        <v>911.4086568290746</v>
+        <v>57.24682913583199</v>
       </c>
     </row>
     <row r="177">
@@ -5025,25 +5025,25 @@
         <v>875</v>
       </c>
       <c r="B177" t="n">
-        <v>67.39729118895302</v>
+        <v>40.27769529979662</v>
       </c>
       <c r="C177" t="n">
-        <v>758.3890498039955</v>
+        <v>13.64694559522515</v>
       </c>
       <c r="D177" t="n">
-        <v>222.807275024084</v>
+        <v>59.52204088093693</v>
       </c>
       <c r="E177" t="n">
-        <v>800.1078361620149</v>
+        <v>47.66282579598019</v>
       </c>
       <c r="F177" t="n">
-        <v>946.6286008364026</v>
+        <v>52.74654075835078</v>
       </c>
       <c r="G177" t="n">
-        <v>657.5950253028019</v>
+        <v>4.128084085323374</v>
       </c>
       <c r="H177" t="n">
-        <v>909.4601141441782</v>
+        <v>57.10032104026076</v>
       </c>
     </row>
     <row r="178">
@@ -5051,25 +5051,25 @@
         <v>880</v>
       </c>
       <c r="B178" t="n">
-        <v>67.53405327928738</v>
+        <v>40.15510191228075</v>
       </c>
       <c r="C178" t="n">
-        <v>757.2073913411311</v>
+        <v>13.52990646785015</v>
       </c>
       <c r="D178" t="n">
-        <v>220.8964321281657</v>
+        <v>59.46166196042618</v>
       </c>
       <c r="E178" t="n">
-        <v>798.0169521752406</v>
+        <v>47.56389707014465</v>
       </c>
       <c r="F178" t="n">
-        <v>944.5242614857373</v>
+        <v>52.58923380165049</v>
       </c>
       <c r="G178" t="n">
-        <v>655.5935006086652</v>
+        <v>4.136460763356352</v>
       </c>
       <c r="H178" t="n">
-        <v>906.9144256571345</v>
+        <v>56.92431891793902</v>
       </c>
     </row>
     <row r="179">
@@ -5077,25 +5077,25 @@
         <v>885</v>
       </c>
       <c r="B179" t="n">
-        <v>67.70360580777596</v>
+        <v>40.00063924730313</v>
       </c>
       <c r="C179" t="n">
-        <v>755.870823747902</v>
+        <v>13.4138600227638</v>
       </c>
       <c r="D179" t="n">
-        <v>219.0017962900212</v>
+        <v>59.38698353465263</v>
       </c>
       <c r="E179" t="n">
-        <v>795.7666457616253</v>
+        <v>47.45910710273254</v>
       </c>
       <c r="F179" t="n">
-        <v>942.1790142076932</v>
+        <v>52.40690895244263</v>
       </c>
       <c r="G179" t="n">
-        <v>653.0716611804592</v>
+        <v>4.146845855726279</v>
       </c>
       <c r="H179" t="n">
-        <v>903.8737491968983</v>
+        <v>56.72371943413515</v>
       </c>
     </row>
     <row r="180">
@@ -5103,25 +5103,25 @@
         <v>890</v>
       </c>
       <c r="B180" t="n">
-        <v>67.9069066796926</v>
+        <v>39.82050120928559</v>
       </c>
       <c r="C180" t="n">
-        <v>754.3758091605129</v>
+        <v>13.29832193966173</v>
       </c>
       <c r="D180" t="n">
-        <v>217.1154602393753</v>
+        <v>59.29977494653721</v>
       </c>
       <c r="E180" t="n">
-        <v>793.4267554227844</v>
+        <v>47.34985967321089</v>
       </c>
       <c r="F180" t="n">
-        <v>939.6327923926555</v>
+        <v>52.20616371801082</v>
       </c>
       <c r="G180" t="n">
-        <v>650.1306319883362</v>
+        <v>4.159298034131173</v>
       </c>
       <c r="H180" t="n">
-        <v>900.4402425924102</v>
+        <v>56.50341925411719</v>
       </c>
     </row>
     <row r="181">
@@ -5129,25 +5129,25 @@
         <v>895</v>
       </c>
       <c r="B181" t="n">
-        <v>68.14491380031345</v>
+        <v>39.620881702654</v>
       </c>
       <c r="C181" t="n">
-        <v>752.718809715142</v>
+        <v>13.18280789823908</v>
       </c>
       <c r="D181" t="n">
-        <v>215.2295167059441</v>
+        <v>59.20180553900434</v>
       </c>
       <c r="E181" t="n">
-        <v>791.0671196603474</v>
+        <v>47.23755856104684</v>
       </c>
       <c r="F181" t="n">
-        <v>936.9255294310449</v>
+        <v>51.99359560563885</v>
       </c>
       <c r="G181" t="n">
-        <v>646.8715380025143</v>
+        <v>4.173875970269199</v>
       </c>
       <c r="H181" t="n">
-        <v>896.7160636726284</v>
+        <v>56.26831504315363</v>
       </c>
     </row>
     <row r="182">
@@ -5155,25 +5155,25 @@
         <v>900</v>
       </c>
       <c r="B182" t="n">
-        <v>68.41858507490916</v>
+        <v>39.40797463183191</v>
       </c>
       <c r="C182" t="n">
-        <v>750.8962875480149</v>
+        <v>13.06683357819125</v>
       </c>
       <c r="D182" t="n">
-        <v>213.3360584194489</v>
+        <v>59.09484465497489</v>
       </c>
       <c r="E182" t="n">
-        <v>788.7575769759335</v>
+        <v>47.12360754570762</v>
       </c>
       <c r="F182" t="n">
-        <v>934.0971587132643</v>
+        <v>51.77580212261083</v>
       </c>
       <c r="G182" t="n">
-        <v>643.3955041931741</v>
+        <v>4.190638335838185</v>
       </c>
       <c r="H182" t="n">
-        <v>892.8033702665023</v>
+        <v>56.02330346651441</v>
       </c>
     </row>
     <row r="183">
@@ -5181,25 +5181,25 @@
         <v>905</v>
       </c>
       <c r="B183" t="n">
-        <v>68.72887840875249</v>
+        <v>39.18797390124167</v>
       </c>
       <c r="C183" t="n">
-        <v>748.9047047952934</v>
+        <v>12.94991465921371</v>
       </c>
       <c r="D183" t="n">
-        <v>211.4271781096117</v>
+        <v>58.98066163737577</v>
       </c>
       <c r="E183" t="n">
-        <v>786.5679658711742</v>
+        <v>47.00941040666023</v>
       </c>
       <c r="F183" t="n">
-        <v>931.1876136297457</v>
+        <v>51.5593807762103</v>
       </c>
       <c r="G183" t="n">
-        <v>639.8036555304764</v>
+        <v>4.20964380253609</v>
       </c>
       <c r="H183" t="n">
-        <v>888.8043202029822</v>
+        <v>55.77328118946766</v>
       </c>
     </row>
     <row r="184">
@@ -5207,25 +5207,25 @@
         <v>910</v>
       </c>
       <c r="B184" t="n">
-        <v>69.07675170712157</v>
+        <v>38.96707341530691</v>
       </c>
       <c r="C184" t="n">
-        <v>746.7405235932007</v>
+        <v>12.83156682100166</v>
       </c>
       <c r="D184" t="n">
-        <v>209.4949685061495</v>
+        <v>58.86102582912698</v>
       </c>
       <c r="E184" t="n">
-        <v>784.5681248476872</v>
+        <v>46.89637092337179</v>
       </c>
       <c r="F184" t="n">
-        <v>928.2368275708712</v>
+        <v>51.35092907372137</v>
       </c>
       <c r="G184" t="n">
-        <v>636.1971169846024</v>
+        <v>4.230951042061197</v>
       </c>
       <c r="H184" t="n">
-        <v>884.8210713110147</v>
+        <v>55.52314487728154</v>
       </c>
     </row>
     <row r="185">
@@ -5233,25 +5233,25 @@
         <v>915</v>
       </c>
       <c r="B185" t="n">
-        <v>69.46316287528512</v>
+        <v>38.75146707845311</v>
       </c>
       <c r="C185" t="n">
-        <v>744.4002060779153</v>
+        <v>12.71130574325024</v>
       </c>
       <c r="D185" t="n">
-        <v>207.5315223387795</v>
+        <v>58.73770657315454</v>
       </c>
       <c r="E185" t="n">
-        <v>782.8278924070942</v>
+        <v>46.78589287530946</v>
       </c>
       <c r="F185" t="n">
-        <v>925.2847339270734</v>
+        <v>51.15704452242718</v>
       </c>
       <c r="G185" t="n">
-        <v>632.677013525765</v>
+        <v>4.254618726111215</v>
       </c>
       <c r="H185" t="n">
-        <v>880.9557814195534</v>
+        <v>55.27779119522489</v>
       </c>
     </row>
     <row r="186">
@@ -5259,25 +5259,25 @@
         <v>920</v>
       </c>
       <c r="B186" t="n">
-        <v>69.88906981851818</v>
+        <v>38.54734879510417</v>
       </c>
       <c r="C186" t="n">
-        <v>741.8802143856495</v>
+        <v>12.58864710565498</v>
       </c>
       <c r="D186" t="n">
-        <v>205.5289323372242</v>
+        <v>58.61247321237875</v>
       </c>
       <c r="E186" t="n">
-        <v>781.4171070510256</v>
+        <v>46.67938004194058</v>
       </c>
       <c r="F186" t="n">
-        <v>922.3712660887397</v>
+        <v>50.98432462961259</v>
       </c>
       <c r="G186" t="n">
-        <v>629.3444701241498</v>
+        <v>4.28070552638424</v>
       </c>
       <c r="H186" t="n">
-        <v>877.310608357552</v>
+        <v>55.04211680856645</v>
       </c>
     </row>
     <row r="187">
@@ -5285,25 +5285,25 @@
         <v>925</v>
       </c>
       <c r="B187" t="n">
-        <v>70.35543044209457</v>
+        <v>38.36091246968146</v>
       </c>
       <c r="C187" t="n">
-        <v>739.1770106525831</v>
+        <v>12.4631065879114</v>
       </c>
       <c r="D187" t="n">
-        <v>203.4792912312065</v>
+        <v>58.48709508972608</v>
       </c>
       <c r="E187" t="n">
-        <v>780.4056072811076</v>
+        <v>46.57823620273224</v>
       </c>
       <c r="F187" t="n">
-        <v>919.5363574463096</v>
+        <v>50.83936690256014</v>
       </c>
       <c r="G187" t="n">
-        <v>626.3006117499013</v>
+        <v>4.309270114578291</v>
       </c>
       <c r="H187" t="n">
-        <v>873.98770995395</v>
+        <v>54.82101838257508</v>
       </c>
     </row>
     <row r="188">
@@ -5311,25 +5311,25 @@
         <v>930</v>
       </c>
       <c r="B188" t="n">
-        <v>70.86273856851781</v>
+        <v>38.19799324416574</v>
       </c>
       <c r="C188" t="n">
-        <v>736.2820381594005</v>
+        <v>12.33408961713291</v>
       </c>
       <c r="D188" t="n">
-        <v>201.3728917082924</v>
+        <v>58.36336591336736</v>
       </c>
       <c r="E188" t="n">
-        <v>779.8609190744486</v>
+        <v>46.48364885257534</v>
       </c>
       <c r="F188" t="n">
-        <v>916.8164293951795</v>
+        <v>50.72880873560572</v>
       </c>
       <c r="G188" t="n">
-        <v>623.6407060271957</v>
+        <v>4.340342737321714</v>
       </c>
       <c r="H188" t="n">
-        <v>871.0878443679975</v>
+        <v>54.61896584258182</v>
       </c>
     </row>
     <row r="189">
@@ -5337,25 +5337,25 @@
         <v>935</v>
       </c>
       <c r="B189" t="n">
-        <v>71.40605821565246</v>
+        <v>38.06139782675506</v>
       </c>
       <c r="C189" t="n">
-        <v>733.1889029481799</v>
+        <v>12.20139229150656</v>
       </c>
       <c r="D189" t="n">
-        <v>199.2064047592908</v>
+        <v>58.24238609180323</v>
       </c>
       <c r="E189" t="n">
-        <v>779.8053196547959</v>
+        <v>46.39604315955467</v>
       </c>
       <c r="F189" t="n">
-        <v>914.2182663740847</v>
+        <v>50.65572522936016</v>
       </c>
       <c r="G189" t="n">
-        <v>621.4105767633478</v>
+        <v>4.373621065708713</v>
       </c>
       <c r="H189" t="n">
-        <v>868.662097560789</v>
+        <v>54.43666686548602</v>
       </c>
     </row>
     <row r="190">
@@ -5363,25 +5363,25 @@
         <v>940</v>
       </c>
       <c r="B190" t="n">
-        <v>71.97554987703016</v>
+        <v>37.94955643404167</v>
       </c>
       <c r="C190" t="n">
-        <v>729.9321504785879</v>
+        <v>12.06553504931954</v>
       </c>
       <c r="D190" t="n">
-        <v>196.9883273358293</v>
+        <v>58.12400801530861</v>
       </c>
       <c r="E190" t="n">
-        <v>780.1716062364145</v>
+        <v>46.31505182769475</v>
       </c>
       <c r="F190" t="n">
-        <v>911.7310352242762</v>
+        <v>50.61477325972835</v>
       </c>
       <c r="G190" t="n">
-        <v>619.5845948414965</v>
+        <v>4.408502429968098</v>
       </c>
       <c r="H190" t="n">
-        <v>866.6588989239918</v>
+        <v>54.27183108792789</v>
       </c>
     </row>
     <row r="191">
@@ -5389,25 +5389,25 @@
         <v>945</v>
       </c>
       <c r="B191" t="n">
-        <v>72.56139161881637</v>
+        <v>37.86023354719627</v>
       </c>
       <c r="C191" t="n">
-        <v>726.5545836179703</v>
+        <v>11.92707341541612</v>
       </c>
       <c r="D191" t="n">
-        <v>194.7277292312835</v>
+        <v>58.00803890293245</v>
       </c>
       <c r="E191" t="n">
-        <v>780.8782145048796</v>
+        <v>46.24012218384663</v>
       </c>
       <c r="F191" t="n">
-        <v>909.3434807598273</v>
+        <v>50.59935611055148</v>
       </c>
       <c r="G191" t="n">
-        <v>618.1262619950411</v>
+        <v>4.444385236652505</v>
       </c>
       <c r="H191" t="n">
-        <v>865.011258270919</v>
+        <v>54.12194411296492</v>
       </c>
     </row>
     <row r="192">
@@ -5415,25 +5415,25 @@
         <v>950</v>
       </c>
       <c r="B192" t="n">
-        <v>73.15376150717191</v>
+        <v>37.791193647397</v>
       </c>
       <c r="C192" t="n">
-        <v>723.0990052337062</v>
+        <v>11.78656291464045</v>
       </c>
       <c r="D192" t="n">
-        <v>192.4336802390278</v>
+        <v>57.89428597372007</v>
       </c>
       <c r="E192" t="n">
-        <v>781.8435801457596</v>
+        <v>46.17070155486131</v>
       </c>
       <c r="F192" t="n">
-        <v>907.0443477947618</v>
+        <v>50.60287706567448</v>
       </c>
       <c r="G192" t="n">
-        <v>616.9990799575017</v>
+        <v>4.480667892314281</v>
       </c>
       <c r="H192" t="n">
-        <v>863.6521854149188</v>
+        <v>53.98449154365282</v>
       </c>
     </row>
     <row r="193">
@@ -5441,25 +5441,25 @@
         <v>955</v>
       </c>
       <c r="B193" t="n">
-        <v>73.74283760826135</v>
+        <v>37.74020121581626</v>
       </c>
       <c r="C193" t="n">
-        <v>719.6082181931312</v>
+        <v>11.64455907183702</v>
       </c>
       <c r="D193" t="n">
-        <v>190.1152501524411</v>
+        <v>57.7825564467208</v>
       </c>
       <c r="E193" t="n">
-        <v>782.9861388446317</v>
+        <v>46.10623726758967</v>
       </c>
       <c r="F193" t="n">
-        <v>904.8223811431544</v>
+        <v>50.61873940893909</v>
       </c>
       <c r="G193" t="n">
-        <v>616.1665504623062</v>
+        <v>4.516748803506008</v>
       </c>
       <c r="H193" t="n">
-        <v>862.5146901693148</v>
+        <v>53.85695898304916</v>
       </c>
     </row>
     <row r="194">
@@ -5467,25 +5467,25 @@
         <v>960</v>
       </c>
       <c r="B194" t="n">
-        <v>74.31879798824724</v>
+        <v>37.70502073363073</v>
       </c>
       <c r="C194" t="n">
-        <v>716.1250253636032</v>
+        <v>11.5016174118501</v>
       </c>
       <c r="D194" t="n">
-        <v>187.7815087648997</v>
+        <v>57.67265754098085</v>
       </c>
       <c r="E194" t="n">
-        <v>784.2243262870753</v>
+        <v>46.04617664888288</v>
       </c>
       <c r="F194" t="n">
-        <v>902.6663256190341</v>
+        <v>50.64034642418907</v>
       </c>
       <c r="G194" t="n">
-        <v>615.5921752429506</v>
+        <v>4.552026376780143</v>
       </c>
       <c r="H194" t="n">
-        <v>861.5317823474295</v>
+        <v>53.73683203420847</v>
       </c>
     </row>
     <row r="195">
@@ -5493,25 +5493,25 @@
         <v>965</v>
       </c>
       <c r="B195" t="n">
-        <v>74.87182071329562</v>
+        <v>37.68341668201052</v>
       </c>
       <c r="C195" t="n">
-        <v>712.6922296124669</v>
+        <v>11.35829345952413</v>
       </c>
       <c r="D195" t="n">
-        <v>185.4415258697818</v>
+        <v>57.56439647554793</v>
       </c>
       <c r="E195" t="n">
-        <v>785.4765781586669</v>
+        <v>45.98996702559184</v>
       </c>
       <c r="F195" t="n">
-        <v>900.564926036464</v>
+        <v>50.66110139526648</v>
       </c>
       <c r="G195" t="n">
-        <v>615.2394560328249</v>
+        <v>4.585899018689355</v>
       </c>
       <c r="H195" t="n">
-        <v>860.636471762587</v>
+        <v>53.62159630018868</v>
       </c>
     </row>
     <row r="196">
@@ -5519,25 +5519,25 @@
         <v>970</v>
       </c>
       <c r="B196" t="n">
-        <v>75.39208384956582</v>
+        <v>37.67315354213443</v>
       </c>
       <c r="C196" t="n">
-        <v>709.3526338070963</v>
+        <v>11.21514273970283</v>
       </c>
       <c r="D196" t="n">
-        <v>183.1043712604544</v>
+        <v>57.457580469468</v>
       </c>
       <c r="E196" t="n">
-        <v>786.6613301449738</v>
+        <v>45.93705572456749</v>
       </c>
       <c r="F196" t="n">
-        <v>898.5069272094839</v>
+        <v>50.67440760601581</v>
       </c>
       <c r="G196" t="n">
-        <v>615.0718945654602</v>
+        <v>4.617765135785905</v>
       </c>
       <c r="H196" t="n">
-        <v>859.7617682281285</v>
+        <v>53.50873738404599</v>
       </c>
     </row>
     <row r="197">
@@ -5545,25 +5545,25 @@
         <v>975</v>
       </c>
       <c r="B197" t="n">
-        <v>75.86976546322305</v>
+        <v>37.67199579517427</v>
       </c>
       <c r="C197" t="n">
-        <v>706.1490408148462</v>
+        <v>11.07272077723074</v>
       </c>
       <c r="D197" t="n">
-        <v>180.7791147302979</v>
+        <v>57.35201674178934</v>
       </c>
       <c r="E197" t="n">
-        <v>787.6970179315722</v>
+        <v>45.8868900726611</v>
       </c>
       <c r="F197" t="n">
-        <v>896.4810739521458</v>
+        <v>50.67366834027885</v>
       </c>
       <c r="G197" t="n">
-        <v>615.0529925742738</v>
+        <v>4.64702313462241</v>
       </c>
       <c r="H197" t="n">
-        <v>858.840681557382</v>
+        <v>53.39574088883717</v>
       </c>
     </row>
     <row r="198">
@@ -5571,25 +5571,25 @@
         <v>980</v>
       </c>
       <c r="B198" t="n">
-        <v>76.29504362043005</v>
+        <v>37.67770792230553</v>
       </c>
       <c r="C198" t="n">
-        <v>703.1242535030583</v>
+        <v>10.93158309695211</v>
       </c>
       <c r="D198" t="n">
-        <v>178.4748260726875</v>
+        <v>57.24751251155991</v>
       </c>
       <c r="E198" t="n">
-        <v>788.5020772040468</v>
+        <v>45.83891739672369</v>
       </c>
       <c r="F198" t="n">
-        <v>894.4761110785003</v>
+        <v>50.65228688189936</v>
       </c>
       <c r="G198" t="n">
-        <v>615.1462517927434</v>
+        <v>4.67307142175134</v>
       </c>
       <c r="H198" t="n">
-        <v>857.8062215636656</v>
+        <v>53.28009241761714</v>
       </c>
     </row>
     <row r="199">
@@ -5597,25 +5597,25 @@
         <v>985</v>
       </c>
       <c r="B199" t="n">
-        <v>76.65809638735028</v>
+        <v>37.68805440470149</v>
       </c>
       <c r="C199" t="n">
-        <v>700.3210747390923</v>
+        <v>10.79228522371135</v>
       </c>
       <c r="D199" t="n">
-        <v>176.2005750810015</v>
+        <v>57.14387499782514</v>
       </c>
       <c r="E199" t="n">
-        <v>788.9949436479652</v>
+        <v>45.7925850236061</v>
       </c>
       <c r="F199" t="n">
-        <v>892.4807834025866</v>
+        <v>50.60366651471981</v>
       </c>
       <c r="G199" t="n">
-        <v>615.3151739543099</v>
+        <v>4.695308403725204</v>
       </c>
       <c r="H199" t="n">
-        <v>856.5913980603128</v>
+        <v>53.15927757344344</v>
       </c>
     </row>
     <row r="200">
@@ -5623,25 +5623,25 @@
         <v>990</v>
       </c>
       <c r="B200" t="n">
-        <v>76.949296575685</v>
+        <v>37.70072880056361</v>
       </c>
       <c r="C200" t="n">
-        <v>697.783231568266</v>
+        <v>10.65555803412515</v>
       </c>
       <c r="D200" t="n">
-        <v>173.9682944346964</v>
+        <v>57.04069942393327</v>
       </c>
       <c r="E200" t="n">
-        <v>789.0959637172135</v>
+        <v>45.74744366066994</v>
       </c>
       <c r="F200" t="n">
-        <v>890.4893547239767</v>
+        <v>50.52089449442508</v>
       </c>
       <c r="G200" t="n">
-        <v>615.5221028663445</v>
+        <v>4.713144415260706</v>
       </c>
       <c r="H200" t="n">
-        <v>855.1270888683972</v>
+        <v>53.03150019120506</v>
       </c>
     </row>
     <row r="201">
@@ -5649,25 +5649,25 @@
         <v>995</v>
       </c>
       <c r="B201" t="n">
-        <v>77.16658103448239</v>
+        <v>37.71063181009405</v>
       </c>
       <c r="C201" t="n">
-        <v>695.5050079886797</v>
+        <v>10.5220408570538</v>
       </c>
       <c r="D201" t="n">
-        <v>171.7884221559804</v>
+        <v>56.93522704656643</v>
       </c>
       <c r="E201" t="n">
-        <v>788.7246858945797</v>
+        <v>45.70068127466257</v>
       </c>
       <c r="F201" t="n">
-        <v>888.4949181326821</v>
+        <v>50.39744336788356</v>
       </c>
       <c r="G201" t="n">
-        <v>615.6837846545967</v>
+        <v>4.726453088362044</v>
       </c>
       <c r="H201" t="n">
-        <v>853.3312529786895</v>
+        <v>52.89716760499414</v>
       </c>
     </row>
     <row r="202">
@@ -5675,25 +5675,25 @@
         <v>1000</v>
       </c>
       <c r="B202" t="n">
-        <v>77.31649582854101</v>
+        <v>37.71356214000318</v>
       </c>
       <c r="C202" t="n">
-        <v>693.394425118268</v>
+        <v>10.39161995276364</v>
       </c>
       <c r="D202" t="n">
-        <v>169.6591012696105</v>
+        <v>56.82224378039013</v>
       </c>
       <c r="E202" t="n">
-        <v>787.8289389978643</v>
+        <v>45.64668450991586</v>
       </c>
       <c r="F202" t="n">
-        <v>886.438296130829</v>
+        <v>50.23190775819376</v>
       </c>
       <c r="G202" t="n">
-        <v>615.7316267755622</v>
+        <v>4.735635369498135</v>
       </c>
       <c r="H202" t="n">
-        <v>851.1327886448203</v>
+        <v>52.75379425722185</v>
       </c>
     </row>
     <row r="203">
@@ -5701,25 +5701,25 @@
         <v>1005</v>
       </c>
       <c r="B203" t="n">
-        <v>77.40592353032022</v>
+        <v>37.70603588660124</v>
       </c>
       <c r="C203" t="n">
-        <v>691.3471279309427</v>
+        <v>10.26413768825888</v>
       </c>
       <c r="D203" t="n">
-        <v>167.5777581756552</v>
+        <v>56.69628031906205</v>
       </c>
       <c r="E203" t="n">
-        <v>786.3660740333586</v>
+        <v>45.5797547520233</v>
       </c>
       <c r="F203" t="n">
-        <v>884.2525467602754</v>
+        <v>50.02373967588253</v>
       </c>
       <c r="G203" t="n">
-        <v>615.6087491689998</v>
+        <v>4.741112816232112</v>
       </c>
       <c r="H203" t="n">
-        <v>848.4631595968592</v>
+        <v>52.59823319147471</v>
       </c>
     </row>
     <row r="204">
@@ -5727,25 +5727,25 @@
         <v>1010</v>
       </c>
       <c r="B204" t="n">
-        <v>77.44174671228473</v>
+        <v>37.68456914619428</v>
       </c>
       <c r="C204" t="n">
-        <v>689.2587614005782</v>
+        <v>10.13943643054421</v>
       </c>
       <c r="D204" t="n">
-        <v>165.5418192741912</v>
+        <v>56.55186735624191</v>
       </c>
       <c r="E204" t="n">
-        <v>784.2934420073718</v>
+        <v>45.49419338657811</v>
       </c>
       <c r="F204" t="n">
-        <v>881.8707280629321</v>
+        <v>49.77239113147523</v>
       </c>
       <c r="G204" t="n">
-        <v>615.2582717746005</v>
+        <v>4.743306986127438</v>
       </c>
       <c r="H204" t="n">
-        <v>845.2538295648152</v>
+        <v>52.42733745134063</v>
       </c>
     </row>
     <row r="205">
@@ -5753,25 +5753,25 @@
         <v>1015</v>
       </c>
       <c r="B205" t="n">
-        <v>77.43084794689254</v>
+        <v>37.64567801508898</v>
       </c>
       <c r="C205" t="n">
-        <v>687.0249705010743</v>
+        <v>10.01735854662406</v>
       </c>
       <c r="D205" t="n">
-        <v>163.5487109652909</v>
+        <v>56.38353558558889</v>
       </c>
       <c r="E205" t="n">
-        <v>781.5683939261967</v>
+        <v>45.38430179917383</v>
       </c>
       <c r="F205" t="n">
-        <v>879.2258980806582</v>
+        <v>49.47731413549769</v>
       </c>
       <c r="G205" t="n">
-        <v>614.6233145320649</v>
+        <v>4.742639436747169</v>
       </c>
       <c r="H205" t="n">
-        <v>841.4362622787468</v>
+        <v>52.23796008040541</v>
       </c>
     </row>
     <row r="206">
@@ -5779,25 +5779,25 @@
         <v>1020</v>
       </c>
       <c r="B206" t="n">
-        <v>77.38010980660765</v>
+        <v>37.5858785895912</v>
       </c>
       <c r="C206" t="n">
-        <v>684.5414002063204</v>
+        <v>9.897746403503007</v>
       </c>
       <c r="D206" t="n">
-        <v>161.5958596490287</v>
+        <v>56.18581570076596</v>
       </c>
       <c r="E206" t="n">
-        <v>778.1482807961456</v>
+        <v>45.24438137540398</v>
       </c>
       <c r="F206" t="n">
-        <v>876.2511148553868</v>
+        <v>49.13796069847625</v>
       </c>
       <c r="G206" t="n">
-        <v>613.6469973810808</v>
+        <v>4.739531725654719</v>
       </c>
       <c r="H206" t="n">
-        <v>836.9419214686681</v>
+        <v>52.02695412225678</v>
       </c>
     </row>
     <row r="207">
@@ -5805,25 +5805,25 @@
         <v>1025</v>
       </c>
       <c r="B207" t="n">
-        <v>77.29641486388915</v>
+        <v>37.50168696601129</v>
       </c>
       <c r="C207" t="n">
-        <v>681.7036954901953</v>
+        <v>9.780442368185597</v>
       </c>
       <c r="D207" t="n">
-        <v>159.6806917254792</v>
+        <v>55.95323839542896</v>
       </c>
       <c r="E207" t="n">
-        <v>773.990453623518</v>
+        <v>45.06873350086153</v>
       </c>
       <c r="F207" t="n">
-        <v>872.8794364289662</v>
+        <v>48.75378283093796</v>
       </c>
       <c r="G207" t="n">
-        <v>612.2724402614089</v>
+        <v>4.734405410413211</v>
       </c>
       <c r="H207" t="n">
-        <v>831.702270864648</v>
+        <v>51.79117262048146</v>
       </c>
     </row>
     <row r="208">
@@ -5831,25 +5831,25 @@
         <v>1030</v>
       </c>
       <c r="B208" t="n">
-        <v>77.18664569120277</v>
+        <v>37.38961924065414</v>
       </c>
       <c r="C208" t="n">
-        <v>678.4075013265884</v>
+        <v>9.665288807676287</v>
       </c>
       <c r="D208" t="n">
-        <v>157.8006335947149</v>
+        <v>55.68033436324076</v>
       </c>
       <c r="E208" t="n">
-        <v>769.0522634146214</v>
+        <v>44.85165956114007</v>
       </c>
       <c r="F208" t="n">
-        <v>869.0439208433185</v>
+        <v>48.32423254340812</v>
       </c>
       <c r="G208" t="n">
-        <v>610.4427631127207</v>
+        <v>4.727682048586171</v>
       </c>
       <c r="H208" t="n">
-        <v>825.6487741966987</v>
+        <v>51.5274686186666</v>
       </c>
     </row>
     <row r="209">
@@ -5857,25 +5857,25 @@
         <v>1035</v>
       </c>
       <c r="B209" t="n">
-        <v>77.0576848610043</v>
+        <v>37.24619150982718</v>
       </c>
       <c r="C209" t="n">
-        <v>674.5484626894042</v>
+        <v>9.552128088978913</v>
       </c>
       <c r="D209" t="n">
-        <v>155.9531116567986</v>
+        <v>55.36163429785952</v>
       </c>
       <c r="E209" t="n">
-        <v>763.2910611757427</v>
+        <v>44.5874609418329</v>
       </c>
       <c r="F209" t="n">
-        <v>864.6776261403063</v>
+        <v>47.84876184641246</v>
       </c>
       <c r="G209" t="n">
-        <v>608.1010858747295</v>
+        <v>4.719783197736516</v>
       </c>
       <c r="H209" t="n">
-        <v>818.7128951948707</v>
+        <v>51.23269516039847</v>
       </c>
     </row>
     <row r="210">
@@ -5883,25 +5883,25 @@
         <v>1040</v>
       </c>
       <c r="B210" t="n">
-        <v>76.91641494575738</v>
+        <v>37.06791986983689</v>
       </c>
       <c r="C210" t="n">
-        <v>670.0222245525185</v>
+        <v>9.440802579098506</v>
       </c>
       <c r="D210" t="n">
-        <v>154.1355523118124</v>
+        <v>54.99166889294671</v>
       </c>
       <c r="E210" t="n">
-        <v>756.6641979132002</v>
+        <v>44.27043902853361</v>
       </c>
       <c r="F210" t="n">
-        <v>859.7136103618557</v>
+        <v>47.32682275047721</v>
       </c>
       <c r="G210" t="n">
-        <v>605.1905284871328</v>
+        <v>4.71113041542764</v>
       </c>
       <c r="H210" t="n">
-        <v>810.8260975891836</v>
+        <v>50.90370528926542</v>
       </c>
     </row>
     <row r="211">
@@ -5909,25 +5909,25 @@
         <v>1045</v>
       </c>
       <c r="B211" t="n">
-        <v>76.76971851792449</v>
+        <v>36.85132041699306</v>
       </c>
       <c r="C211" t="n">
-        <v>664.724431889842</v>
+        <v>9.33115464503925</v>
       </c>
       <c r="D211" t="n">
-        <v>152.3453819598246</v>
+        <v>54.56496884216138</v>
       </c>
       <c r="E211" t="n">
-        <v>749.1290246332974</v>
+        <v>43.89489520683605</v>
       </c>
       <c r="F211" t="n">
-        <v>854.0849315498332</v>
+        <v>46.75786726612933</v>
       </c>
       <c r="G211" t="n">
-        <v>601.6542108896825</v>
+        <v>4.702145259222875</v>
       </c>
       <c r="H211" t="n">
-        <v>801.9198451096985</v>
+        <v>50.53735204885358</v>
       </c>
     </row>
     <row r="212">
@@ -5935,25 +5935,25 @@
         <v>1050</v>
       </c>
       <c r="B212" t="n">
-        <v>76.62490210824093</v>
+        <v>36.59322770928845</v>
       </c>
       <c r="C212" t="n">
-        <v>658.5562550170248</v>
+        <v>9.222862740959302</v>
       </c>
       <c r="D212" t="n">
-        <v>150.5773508728049</v>
+        <v>54.07645530260638</v>
       </c>
       <c r="E212" t="n">
-        <v>740.6427759890565</v>
+        <v>43.45524877461676</v>
       </c>
       <c r="F212" t="n">
-        <v>847.7204064375954</v>
+        <v>46.14197756658383</v>
       </c>
       <c r="G212" t="n">
-        <v>597.4404523965462</v>
+        <v>4.693275254129756</v>
       </c>
       <c r="H212" t="n">
-        <v>791.9319765694695</v>
+        <v>50.12977094053213</v>
       </c>
     </row>
     <row r="213">
@@ -5961,25 +5961,25 @@
         <v>1055</v>
       </c>
       <c r="B213" t="n">
-        <v>76.48861532054346</v>
+        <v>36.29566677675097</v>
       </c>
       <c r="C213" t="n">
-        <v>651.4996239623035</v>
+        <v>9.11531421403585</v>
       </c>
       <c r="D213" t="n">
-        <v>148.8214565556873</v>
+        <v>53.52565403537545</v>
       </c>
       <c r="E213" t="n">
-        <v>731.2285213987948</v>
+        <v>42.95120590758864</v>
       </c>
       <c r="F213" t="n">
-        <v>840.5629664678853</v>
+        <v>45.48368217042253</v>
       </c>
       <c r="G213" t="n">
-        <v>592.5823147224646</v>
+        <v>4.68492768838329</v>
       </c>
       <c r="H213" t="n">
-        <v>780.8882254985529</v>
+        <v>49.6760124321172</v>
       </c>
     </row>
     <row r="214">
@@ -5987,25 +5987,25 @@
         <v>1060</v>
       </c>
       <c r="B214" t="n">
-        <v>76.36639866065437</v>
+        <v>35.96127701205727</v>
       </c>
       <c r="C214" t="n">
-        <v>643.6423391913507</v>
+        <v>9.008091692966138</v>
       </c>
       <c r="D214" t="n">
-        <v>147.0708847831206</v>
+        <v>52.91771473221422</v>
       </c>
       <c r="E214" t="n">
-        <v>720.9919735348902</v>
+        <v>42.38950061482456</v>
       </c>
       <c r="F214" t="n">
-        <v>832.6373357244913</v>
+        <v>44.78958396866348</v>
       </c>
       <c r="G214" t="n">
-        <v>587.1228899927715</v>
+        <v>4.677441917965078</v>
       </c>
       <c r="H214" t="n">
-        <v>768.9287640122468</v>
+        <v>49.17741440096218</v>
       </c>
     </row>
     <row r="215">
@@ -6013,25 +6013,25 @@
         <v>1065</v>
       </c>
       <c r="B215" t="n">
-        <v>76.26392256237082</v>
+        <v>35.59204488445884</v>
       </c>
       <c r="C215" t="n">
-        <v>635.0870468991421</v>
+        <v>8.900763176476929</v>
       </c>
       <c r="D215" t="n">
-        <v>145.3185824730927</v>
+        <v>52.25838069608899</v>
       </c>
       <c r="E215" t="n">
-        <v>710.0431870903477</v>
+        <v>41.77750364016664</v>
       </c>
       <c r="F215" t="n">
-        <v>823.9815446579875</v>
+        <v>44.06643236805587</v>
       </c>
       <c r="G215" t="n">
-        <v>581.0946103585115</v>
+        <v>4.671165256945215</v>
       </c>
       <c r="H215" t="n">
-        <v>756.2099814481176</v>
+        <v>48.63660142085357</v>
       </c>
     </row>
     <row r="216">
@@ -6039,25 +6039,25 @@
         <v>1070</v>
       </c>
       <c r="B216" t="n">
-        <v>76.18685745948142</v>
+        <v>35.18995686320997</v>
       </c>
       <c r="C216" t="n">
-        <v>625.9363932806965</v>
+        <v>8.792896663296013</v>
       </c>
       <c r="D216" t="n">
-        <v>143.5574965436084</v>
+        <v>51.55339522996508</v>
       </c>
       <c r="E216" t="n">
-        <v>698.4922167581399</v>
+        <v>41.12258572745667</v>
       </c>
       <c r="F216" t="n">
-        <v>814.633623718954</v>
+        <v>43.32097677535128</v>
       </c>
       <c r="G216" t="n">
-        <v>574.5299079707753</v>
+        <v>4.666445019393238</v>
       </c>
       <c r="H216" t="n">
-        <v>742.8882671437729</v>
+        <v>48.05619806557861</v>
       </c>
     </row>
     <row r="217">
@@ -6065,25 +6065,25 @@
         <v>1075</v>
       </c>
       <c r="B217" t="n">
-        <v>76.14087378578213</v>
+        <v>34.75699941756571</v>
       </c>
       <c r="C217" t="n">
-        <v>616.293024531024</v>
+        <v>8.684060152149208</v>
       </c>
       <c r="D217" t="n">
-        <v>141.7805739126401</v>
+        <v>50.80850163681063</v>
       </c>
       <c r="E217" t="n">
-        <v>686.4491172312521</v>
+        <v>40.43211762053696</v>
       </c>
       <c r="F217" t="n">
-        <v>804.6316033579827</v>
+        <v>42.55996659729766</v>
       </c>
       <c r="G217" t="n">
-        <v>567.4612149806646</v>
+        <v>4.663628519379156</v>
       </c>
       <c r="H217" t="n">
-        <v>729.1200104367506</v>
+        <v>47.43882890892338</v>
       </c>
     </row>
     <row r="218">
@@ -6091,25 +6091,25 @@
         <v>1080</v>
       </c>
       <c r="B218" t="n">
-        <v>76.13164197506237</v>
+        <v>34.29515901678435</v>
       </c>
       <c r="C218" t="n">
-        <v>606.2595868451322</v>
+        <v>8.573821641764232</v>
       </c>
       <c r="D218" t="n">
-        <v>139.9807614981916</v>
+        <v>50.02944321958758</v>
       </c>
       <c r="E218" t="n">
-        <v>674.0239432026676</v>
+        <v>39.71347006324969</v>
       </c>
       <c r="F218" t="n">
-        <v>794.0135140256325</v>
+        <v>41.79015124064511</v>
       </c>
       <c r="G218" t="n">
-        <v>559.9209635393364</v>
+        <v>4.663063070972571</v>
       </c>
       <c r="H218" t="n">
-        <v>715.0616006646381</v>
+        <v>46.78711852467549</v>
       </c>
     </row>
     <row r="219">
@@ -6117,25 +6117,25 @@
         <v>1085</v>
       </c>
       <c r="B219" t="n">
-        <v>76.16483246112234</v>
+        <v>33.80642213011543</v>
       </c>
       <c r="C219" t="n">
-        <v>595.9387264180178</v>
+        <v>8.461749130867938</v>
       </c>
       <c r="D219" t="n">
-        <v>138.151006218252</v>
+        <v>49.22196328126554</v>
       </c>
       <c r="E219" t="n">
-        <v>661.3267493653926</v>
+        <v>38.97401379943746</v>
       </c>
       <c r="F219" t="n">
-        <v>782.8173861725052</v>
+        <v>41.01828011214366</v>
       </c>
       <c r="G219" t="n">
-        <v>551.941585797803</v>
+        <v>4.665095988243742</v>
       </c>
       <c r="H219" t="n">
-        <v>700.8694271650104</v>
+        <v>46.10369148662147</v>
       </c>
     </row>
     <row r="220">
@@ -6143,25 +6143,25 @@
         <v>1090</v>
       </c>
       <c r="B220" t="n">
-        <v>76.24611567774676</v>
+        <v>33.29277522681426</v>
       </c>
       <c r="C220" t="n">
-        <v>585.4330894446978</v>
+        <v>8.347410618187414</v>
       </c>
       <c r="D220" t="n">
-        <v>136.2842549908149</v>
+        <v>48.39180512480694</v>
       </c>
       <c r="E220" t="n">
-        <v>648.4675904123961</v>
+        <v>38.22111957294191</v>
       </c>
       <c r="F220" t="n">
-        <v>771.0812502491522</v>
+        <v>40.25110261854476</v>
       </c>
       <c r="G220" t="n">
-        <v>543.5555139071716</v>
+        <v>4.670074585261989</v>
       </c>
       <c r="H220" t="n">
-        <v>686.6998792754734</v>
+        <v>45.39117236854818</v>
       </c>
     </row>
     <row r="221">
@@ -6169,25 +6169,25 @@
         <v>1095</v>
       </c>
       <c r="B221" t="n">
-        <v>76.38116205873604</v>
+        <v>32.75620477613604</v>
       </c>
       <c r="C221" t="n">
-        <v>574.8453221201604</v>
+        <v>8.23037410244949</v>
       </c>
       <c r="D221" t="n">
-        <v>134.3734547338692</v>
+        <v>47.54471205317967</v>
       </c>
       <c r="E221" t="n">
-        <v>635.5565210366693</v>
+        <v>37.46215812760511</v>
       </c>
       <c r="F221" t="n">
-        <v>758.8431367061771</v>
+        <v>39.49536816659626</v>
       </c>
       <c r="G221" t="n">
-        <v>534.7951800185475</v>
+        <v>4.678346176097584</v>
       </c>
       <c r="H221" t="n">
-        <v>672.7093463335639</v>
+        <v>44.65218574424269</v>
       </c>
     </row>
     <row r="222">
@@ -6195,25 +6195,25 @@
         <v>1100</v>
       </c>
       <c r="B222" t="n">
-        <v>76.57564203787791</v>
+        <v>32.19869724733872</v>
       </c>
       <c r="C222" t="n">
-        <v>564.2780706394278</v>
+        <v>8.110207582381269</v>
       </c>
       <c r="D222" t="n">
-        <v>132.4115523654085</v>
+        <v>46.68642736934641</v>
       </c>
       <c r="E222" t="n">
-        <v>622.7035959311895</v>
+        <v>36.70450020726927</v>
       </c>
       <c r="F222" t="n">
-        <v>746.1410759941274</v>
+        <v>38.75782616304871</v>
       </c>
       <c r="G222" t="n">
-        <v>525.6930162830812</v>
+        <v>4.690258074820021</v>
       </c>
       <c r="H222" t="n">
-        <v>659.0542176768773</v>
+        <v>43.88935618749115</v>
       </c>
     </row>
     <row r="223">
@@ -6221,25 +6221,25 @@
         <v>1105</v>
       </c>
       <c r="B223" t="n">
-        <v>76.83522604897023</v>
+        <v>31.62223910967161</v>
       </c>
       <c r="C223" t="n">
-        <v>553.8339811974826</v>
+        <v>7.986479056709751</v>
       </c>
       <c r="D223" t="n">
-        <v>130.3914948034245</v>
+        <v>45.82269437627659</v>
       </c>
       <c r="E223" t="n">
-        <v>610.0188697889598</v>
+        <v>35.95551655577648</v>
       </c>
       <c r="F223" t="n">
-        <v>733.0130985636127</v>
+        <v>38.04522601465138</v>
       </c>
       <c r="G223" t="n">
-        <v>516.2814548517816</v>
+        <v>4.706157595499426</v>
       </c>
       <c r="H223" t="n">
-        <v>645.8908826429758</v>
+        <v>43.10530827208112</v>
       </c>
     </row>
     <row r="224">
@@ -6247,25 +6247,25 @@
         <v>1110</v>
       </c>
       <c r="B224" t="n">
-        <v>77.16442748054773</v>
+        <v>31.0286556062382</v>
       </c>
       <c r="C224" t="n">
-        <v>543.6089823844198</v>
+        <v>7.858888990015878</v>
       </c>
       <c r="D224" t="n">
-        <v>128.3083916737286</v>
+        <v>44.95880617720221</v>
       </c>
       <c r="E224" t="n">
-        <v>597.6127325613954</v>
+        <v>35.22244420246458</v>
       </c>
       <c r="F224" t="n">
-        <v>719.4987303273051</v>
+        <v>37.36374340344052</v>
       </c>
       <c r="G224" t="n">
-        <v>506.590295612052</v>
+        <v>4.726321183183549</v>
       </c>
       <c r="H224" t="n">
-        <v>633.3701968740335</v>
+        <v>42.30319397729431</v>
       </c>
     </row>
     <row r="225">
@@ -6273,25 +6273,25 @@
         <v>1115</v>
       </c>
       <c r="B225" t="n">
-        <v>77.55954140190924</v>
+        <v>30.41827739956208</v>
       </c>
       <c r="C225" t="n">
-        <v>533.6493595246092</v>
+        <v>7.727940661045178</v>
       </c>
       <c r="D225" t="n">
-        <v>126.1704597721662</v>
+        <v>44.09737299970644</v>
       </c>
       <c r="E225" t="n">
-        <v>585.5513705395474</v>
+        <v>34.50957756641742</v>
       </c>
       <c r="F225" t="n">
-        <v>705.6641955000432</v>
+        <v>36.71440091569559</v>
       </c>
       <c r="G225" t="n">
-        <v>496.6249371357073</v>
+        <v>4.750521910866939</v>
       </c>
       <c r="H225" t="n">
-        <v>621.5590115472595</v>
+        <v>41.48907965941646</v>
       </c>
     </row>
     <row r="226">
@@ -6299,25 +6299,25 @@
         <v>1120</v>
       </c>
       <c r="B226" t="n">
-        <v>78.00806465643352</v>
+        <v>29.79356556426612</v>
       </c>
       <c r="C226" t="n">
-        <v>523.9317501396349</v>
+        <v>7.594803380987808</v>
       </c>
       <c r="D226" t="n">
-        <v>123.9967898936784</v>
+        <v>43.23850848106784</v>
       </c>
       <c r="E226" t="n">
-        <v>573.819244877245</v>
+        <v>33.81610723820945</v>
       </c>
       <c r="F226" t="n">
-        <v>691.5686904828458</v>
+        <v>36.09295960557591</v>
       </c>
       <c r="G226" t="n">
-        <v>486.4255602329163</v>
+        <v>4.777993960206555</v>
       </c>
       <c r="H226" t="n">
-        <v>610.3879325688239</v>
+        <v>40.66651772968403</v>
       </c>
     </row>
     <row r="227">
@@ -6325,25 +6325,25 @@
         <v>1125</v>
       </c>
       <c r="B227" t="n">
-        <v>78.49660196114563</v>
+        <v>29.15760074461484</v>
       </c>
       <c r="C227" t="n">
-        <v>514.4200910746267</v>
+        <v>7.460740603939177</v>
       </c>
       <c r="D227" t="n">
-        <v>121.8080098602315</v>
+        <v>42.38198098049914</v>
       </c>
       <c r="E227" t="n">
-        <v>562.3915556493657</v>
+        <v>33.14051641222713</v>
       </c>
       <c r="F227" t="n">
-        <v>677.2637057965669</v>
+        <v>35.49445008403443</v>
       </c>
       <c r="G227" t="n">
-        <v>476.0424611365689</v>
+        <v>4.80791687012017</v>
       </c>
       <c r="H227" t="n">
-        <v>599.7657087416975</v>
+        <v>39.83807926015543</v>
       </c>
     </row>
     <row r="228">
@@ -6351,25 +6351,25 @@
         <v>1130</v>
       </c>
       <c r="B228" t="n">
-        <v>79.01175803307355</v>
+        <v>28.51346358487426</v>
       </c>
       <c r="C228" t="n">
-        <v>505.0783191747543</v>
+        <v>7.327015783995288</v>
       </c>
       <c r="D228" t="n">
-        <v>119.6247474938006</v>
+        <v>41.52755885720239</v>
       </c>
       <c r="E228" t="n">
-        <v>551.2435029307846</v>
+        <v>32.48128828285834</v>
       </c>
       <c r="F228" t="n">
-        <v>662.8007319619794</v>
+        <v>34.91390296202354</v>
       </c>
       <c r="G228" t="n">
-        <v>465.5259360795797</v>
+        <v>4.839470179525756</v>
       </c>
       <c r="H228" t="n">
-        <v>589.6010888688305</v>
+        <v>39.0063353228876</v>
       </c>
     </row>
     <row r="229">
@@ -6377,25 +6377,25 @@
         <v>1135</v>
       </c>
       <c r="B229" t="n">
-        <v>79.54013758924</v>
+        <v>27.86423472931127</v>
       </c>
       <c r="C229" t="n">
-        <v>495.8703712851295</v>
+        <v>7.194892375251602</v>
       </c>
       <c r="D229" t="n">
-        <v>117.4676306163527</v>
+        <v>40.67501047038909</v>
       </c>
       <c r="E229" t="n">
-        <v>540.3502867963743</v>
+        <v>31.83690604448945</v>
       </c>
       <c r="F229" t="n">
-        <v>648.2312594999204</v>
+        <v>34.34634885049514</v>
       </c>
       <c r="G229" t="n">
-        <v>454.9262812948777</v>
+        <v>4.871833427340953</v>
       </c>
       <c r="H229" t="n">
-        <v>579.802821753191</v>
+        <v>38.17385698993787</v>
       </c>
     </row>
     <row r="230">
@@ -6403,25 +6403,25 @@
         <v>1140</v>
       </c>
       <c r="B230" t="n">
-        <v>80.06834534666793</v>
+        <v>27.2129948221916</v>
       </c>
       <c r="C230" t="n">
-        <v>486.7601842508913</v>
+        <v>7.065633831803924</v>
       </c>
       <c r="D230" t="n">
-        <v>115.35728704986</v>
+        <v>39.82410417926619</v>
       </c>
       <c r="E230" t="n">
-        <v>529.6871073210096</v>
+        <v>31.2058528915074</v>
       </c>
       <c r="F230" t="n">
-        <v>633.606778931188</v>
+        <v>33.78681836040174</v>
       </c>
       <c r="G230" t="n">
-        <v>444.2937930153731</v>
+        <v>4.904186152483414</v>
       </c>
       <c r="H230" t="n">
-        <v>570.2796561977294</v>
+        <v>37.34321533336257</v>
       </c>
     </row>
     <row r="231">
@@ -6429,25 +6429,25 @@
         <v>1145</v>
       </c>
       <c r="B231" t="n">
-        <v>80.5829860223815</v>
+        <v>26.56282450778076</v>
       </c>
       <c r="C231" t="n">
-        <v>477.7116949171814</v>
+        <v>6.940503607748023</v>
       </c>
       <c r="D231" t="n">
-        <v>113.3143446162943</v>
+        <v>38.97460834304447</v>
       </c>
       <c r="E231" t="n">
-        <v>519.2291645795614</v>
+        <v>30.58661201829878</v>
       </c>
       <c r="F231" t="n">
-        <v>618.9787807766289</v>
+        <v>33.23034210269616</v>
       </c>
       <c r="G231" t="n">
-        <v>433.6787674739717</v>
+        <v>4.935707893870868</v>
       </c>
       <c r="H231" t="n">
-        <v>560.9403410054157</v>
+        <v>36.51698142522055</v>
       </c>
     </row>
     <row r="232">
@@ -6455,25 +6455,25 @@
         <v>1150</v>
       </c>
       <c r="B232" t="n">
-        <v>81.07066433340778</v>
+        <v>25.9168044303445</v>
       </c>
       <c r="C232" t="n">
-        <v>468.6888401291501</v>
+        <v>6.820765157179512</v>
       </c>
       <c r="D232" t="n">
-        <v>111.3594311376247</v>
+        <v>38.12629132092808</v>
       </c>
       <c r="E232" t="n">
-        <v>508.9516586469085</v>
+        <v>29.97766661925104</v>
       </c>
       <c r="F232" t="n">
-        <v>604.3987555570252</v>
+        <v>32.67195068833053</v>
       </c>
       <c r="G232" t="n">
-        <v>423.1315009035836</v>
+        <v>4.965578190421228</v>
       </c>
       <c r="H232" t="n">
-        <v>551.6936249791989</v>
+        <v>35.69772633756835</v>
       </c>
     </row>
     <row r="233">
@@ -6481,25 +6481,25 @@
         <v>1155</v>
       </c>
       <c r="B233" t="n">
-        <v>81.51798499677089</v>
+        <v>25.27801523414954</v>
       </c>
       <c r="C233" t="n">
-        <v>459.6555567319301</v>
+        <v>6.707681934193602</v>
       </c>
       <c r="D233" t="n">
-        <v>109.5131744358139</v>
+        <v>37.27892147212789</v>
       </c>
       <c r="E233" t="n">
-        <v>498.8297895979298</v>
+        <v>29.37749988875142</v>
       </c>
       <c r="F233" t="n">
-        <v>589.9181937932142</v>
+        <v>32.10667472825716</v>
       </c>
       <c r="G233" t="n">
-        <v>412.7022895371355</v>
+        <v>4.992976581052216</v>
       </c>
       <c r="H233" t="n">
-        <v>542.4482569220525</v>
+        <v>34.88802114246379</v>
       </c>
     </row>
     <row r="234">
@@ -6507,25 +6507,25 @@
         <v>1160</v>
       </c>
       <c r="B234" t="n">
-        <v>81.91155272949612</v>
+        <v>24.64953756346113</v>
       </c>
       <c r="C234" t="n">
-        <v>450.5757815706496</v>
+        <v>6.602517392886337</v>
       </c>
       <c r="D234" t="n">
-        <v>107.7962023328381</v>
+        <v>36.43226715585083</v>
       </c>
       <c r="E234" t="n">
-        <v>488.8387575074945</v>
+        <v>28.78459502118628</v>
       </c>
       <c r="F234" t="n">
-        <v>575.5885860059982</v>
+        <v>31.52954483342829</v>
       </c>
       <c r="G234" t="n">
-        <v>402.4414296075287</v>
+        <v>5.017082604681637</v>
       </c>
       <c r="H234" t="n">
-        <v>533.1129856369212</v>
+        <v>34.09043691196335</v>
       </c>
     </row>
     <row r="235">
@@ -6533,25 +6533,25 @@
         <v>1165</v>
       </c>
       <c r="B235" t="n">
-        <v>82.23797224860574</v>
+        <v>24.03445206254608</v>
       </c>
       <c r="C235" t="n">
-        <v>441.4134514904596</v>
+        <v>6.506534987353283</v>
       </c>
       <c r="D235" t="n">
-        <v>106.2291426506658</v>
+        <v>35.58609673130794</v>
       </c>
       <c r="E235" t="n">
-        <v>478.9537624504743</v>
+        <v>28.19743521094258</v>
       </c>
       <c r="F235" t="n">
-        <v>561.4614227162217</v>
+        <v>30.93559161479682</v>
       </c>
       <c r="G235" t="n">
-        <v>392.399217347691</v>
+        <v>5.037075800227103</v>
       </c>
       <c r="H235" t="n">
-        <v>523.5965599267748</v>
+        <v>33.30754471812539</v>
       </c>
     </row>
     <row r="236">
@@ -6559,25 +6559,25 @@
         <v>1170</v>
       </c>
       <c r="B236" t="n">
-        <v>82.48489790377693</v>
+        <v>23.43580303669276</v>
       </c>
       <c r="C236" t="n">
-        <v>432.1366254603539</v>
+        <v>6.420874629946022</v>
       </c>
       <c r="D236" t="n">
-        <v>104.8306062032004</v>
+        <v>34.74046653902042</v>
       </c>
       <c r="E236" t="n">
-        <v>469.1476266477846</v>
+        <v>27.61449350073442</v>
       </c>
       <c r="F236" t="n">
-        <v>547.5879866946244</v>
+        <v>30.32007798780257</v>
       </c>
       <c r="G236" t="n">
-        <v>382.6253557011063</v>
+        <v>5.052199996606335</v>
       </c>
       <c r="H236" t="n">
-        <v>513.8078307285224</v>
+        <v>32.54155767437683</v>
       </c>
     </row>
     <row r="237">
@@ -6585,25 +6585,25 @@
         <v>1175</v>
       </c>
       <c r="B237" t="n">
-        <v>82.64626850767871</v>
+        <v>22.85543712978713</v>
       </c>
       <c r="C237" t="n">
-        <v>422.7289422193667</v>
+        <v>6.345222885309016</v>
       </c>
       <c r="D237" t="n">
-        <v>103.5954756785146</v>
+        <v>33.89618845488656</v>
       </c>
       <c r="E237" t="n">
-        <v>459.3849846486032</v>
+        <v>27.03383631788591</v>
       </c>
       <c r="F237" t="n">
-        <v>533.9812341252359</v>
+        <v>29.6812991565983</v>
       </c>
       <c r="G237" t="n">
-        <v>373.1499939557083</v>
+        <v>5.06208394609532</v>
       </c>
       <c r="H237" t="n">
-        <v>503.6854468174592</v>
+        <v>31.79108460469688</v>
       </c>
     </row>
     <row r="238">
@@ -6611,25 +6611,25 @@
         <v>1180</v>
       </c>
       <c r="B238" t="n">
-        <v>82.72241699508116</v>
+        <v>22.29268722539278</v>
       </c>
       <c r="C238" t="n">
-        <v>413.2121046913805</v>
+        <v>6.277862701622894</v>
       </c>
       <c r="D238" t="n">
-        <v>102.4957175775166</v>
+        <v>33.05424918840075</v>
       </c>
       <c r="E238" t="n">
-        <v>449.6545219350177</v>
+        <v>26.45489259473623</v>
       </c>
       <c r="F238" t="n">
-        <v>520.6255093353002</v>
+        <v>29.02206017855173</v>
       </c>
       <c r="G238" t="n">
-        <v>363.962240414576</v>
+        <v>5.06674804094872</v>
       </c>
       <c r="H238" t="n">
-        <v>493.246974600029</v>
+        <v>31.05402390428029</v>
       </c>
     </row>
     <row r="239">
@@ -6637,25 +6637,25 @@
         <v>1185</v>
       </c>
       <c r="B239" t="n">
-        <v>82.71444642558654</v>
+        <v>21.74662557845438</v>
       </c>
       <c r="C239" t="n">
-        <v>403.6174403566833</v>
+        <v>6.216954874367773</v>
       </c>
       <c r="D239" t="n">
-        <v>101.5013040713106</v>
+        <v>32.21574856019053</v>
       </c>
       <c r="E239" t="n">
-        <v>439.9507307634433</v>
+        <v>25.87752765204856</v>
       </c>
       <c r="F239" t="n">
-        <v>507.508235822881</v>
+        <v>28.34586102419353</v>
       </c>
       <c r="G239" t="n">
-        <v>355.0469482196635</v>
+        <v>5.066259843567176</v>
       </c>
       <c r="H239" t="n">
-        <v>482.5244574927592</v>
+        <v>30.32874623720541</v>
       </c>
     </row>
     <row r="240">
@@ -6663,25 +6663,25 @@
         <v>1190</v>
       </c>
       <c r="B240" t="n">
-        <v>82.62345985880015</v>
+        <v>21.21632444391756</v>
       </c>
       <c r="C240" t="n">
-        <v>393.9762766955799</v>
+        <v>6.160660199024448</v>
       </c>
       <c r="D240" t="n">
-        <v>100.5822073310114</v>
+        <v>31.38178639087957</v>
       </c>
       <c r="E240" t="n">
-        <v>430.2681033902915</v>
+        <v>25.30160681058611</v>
       </c>
       <c r="F240" t="n">
-        <v>494.6168370860042</v>
+        <v>27.65620166405493</v>
       </c>
       <c r="G240" t="n">
-        <v>346.3889705129397</v>
+        <v>5.06068691635151</v>
       </c>
       <c r="H240" t="n">
-        <v>471.5499389121965</v>
+        <v>29.61362226755072</v>
       </c>
     </row>
     <row r="241">
@@ -6689,25 +6689,25 @@
         <v>1195</v>
       </c>
       <c r="B241" t="n">
-        <v>82.45056035432293</v>
+        <v>20.70085607672826</v>
       </c>
       <c r="C241" t="n">
-        <v>384.3199411883753</v>
+        <v>6.107139471071823</v>
       </c>
       <c r="D241" t="n">
-        <v>99.70839952770328</v>
+        <v>30.5534625010963</v>
       </c>
       <c r="E241" t="n">
-        <v>420.6011320719834</v>
+        <v>24.72699539111305</v>
       </c>
       <c r="F241" t="n">
-        <v>481.9387366227294</v>
+        <v>26.95658206866568</v>
       </c>
       <c r="G241" t="n">
-        <v>337.9731604363798</v>
+        <v>5.05009682170228</v>
       </c>
       <c r="H241" t="n">
-        <v>460.3554622748455</v>
+        <v>28.90702265939294</v>
       </c>
     </row>
     <row r="242">
@@ -6715,25 +6715,25 @@
         <v>1200</v>
       </c>
       <c r="B242" t="n">
-        <v>82.19685097176476</v>
+        <v>20.19929273183375</v>
       </c>
       <c r="C242" t="n">
-        <v>374.6797613153586</v>
+        <v>6.054553485990597</v>
       </c>
       <c r="D242" t="n">
-        <v>98.84985283249952</v>
+        <v>29.73187671146412</v>
       </c>
       <c r="E242" t="n">
-        <v>410.9443090649276</v>
+        <v>24.15355871439227</v>
       </c>
       <c r="F242" t="n">
-        <v>469.461357931087</v>
+        <v>26.2505022085561</v>
       </c>
       <c r="G242" t="n">
-        <v>329.7843711319796</v>
+        <v>5.03455712202059</v>
       </c>
       <c r="H242" t="n">
-        <v>448.9730709972309</v>
+        <v>28.20731807681032</v>
       </c>
     </row>
     <row r="243">
@@ -6741,25 +6741,25 @@
         <v>1205</v>
       </c>
       <c r="B243" t="n">
-        <v>81.86343477072883</v>
+        <v>19.71070666417819</v>
       </c>
       <c r="C243" t="n">
-        <v>365.0870645568548</v>
+        <v>6.001063039261007</v>
       </c>
       <c r="D243" t="n">
-        <v>97.97653941650623</v>
+        <v>28.91812884261145</v>
       </c>
       <c r="E243" t="n">
-        <v>401.2921266255426</v>
+        <v>23.58116210118805</v>
       </c>
       <c r="F243" t="n">
-        <v>457.1721245091443</v>
+        <v>25.5414620542571</v>
       </c>
       <c r="G243" t="n">
-        <v>321.8074557416848</v>
+        <v>5.01413537970714</v>
       </c>
       <c r="H243" t="n">
-        <v>437.4348084958814</v>
+        <v>27.51287918388077</v>
       </c>
     </row>
     <row r="244">
@@ -6767,25 +6767,25 @@
         <v>1210</v>
       </c>
       <c r="B244" t="n">
-        <v>81.45141481081646</v>
+        <v>19.23417012870732</v>
       </c>
       <c r="C244" t="n">
-        <v>355.5731783931343</v>
+        <v>5.944828926363069</v>
       </c>
       <c r="D244" t="n">
-        <v>97.05843145082568</v>
+        <v>28.11331871516153</v>
       </c>
       <c r="E244" t="n">
-        <v>391.6390770102352</v>
+        <v>23.00967087226256</v>
       </c>
       <c r="F244" t="n">
-        <v>445.0584598549258</v>
+        <v>24.83296157629986</v>
       </c>
       <c r="G244" t="n">
-        <v>314.0272674074665</v>
+        <v>4.98889915716251</v>
       </c>
       <c r="H244" t="n">
-        <v>425.7727181873444</v>
+        <v>26.82207664468312</v>
       </c>
     </row>
     <row r="245">
@@ -6793,25 +6793,25 @@
         <v>1215</v>
       </c>
       <c r="B245" t="n">
-        <v>80.96189415163383</v>
+        <v>18.76875538036711</v>
       </c>
       <c r="C245" t="n">
-        <v>346.1694303045123</v>
+        <v>5.884011942776863</v>
       </c>
       <c r="D245" t="n">
-        <v>96.06550110656099</v>
+        <v>27.31854614974204</v>
       </c>
       <c r="E245" t="n">
-        <v>381.9796524754273</v>
+        <v>22.43895034838013</v>
       </c>
       <c r="F245" t="n">
-        <v>433.1077874664834</v>
+        <v>24.12850074521421</v>
       </c>
       <c r="G245" t="n">
-        <v>306.4286592712997</v>
+        <v>4.958916016787573</v>
       </c>
       <c r="H245" t="n">
-        <v>414.0188434881235</v>
+        <v>26.13328112329377</v>
       </c>
     </row>
     <row r="246">
@@ -6819,25 +6819,25 @@
         <v>1220</v>
       </c>
       <c r="B246" t="n">
-        <v>80.39597585278881</v>
+        <v>18.31353467410507</v>
       </c>
       <c r="C246" t="n">
-        <v>336.907147771291</v>
+        <v>5.816772883982511</v>
       </c>
       <c r="D246" t="n">
-        <v>94.96772055481648</v>
+        <v>26.53491096697659</v>
       </c>
       <c r="E246" t="n">
-        <v>372.3083452775289</v>
+        <v>21.86886585030418</v>
       </c>
       <c r="F246" t="n">
-        <v>421.3075308418452</v>
+        <v>23.43157953153063</v>
       </c>
       <c r="G246" t="n">
-        <v>298.9964844751848</v>
+        <v>4.924253520983314</v>
       </c>
       <c r="H246" t="n">
-        <v>402.2052278147469</v>
+        <v>25.44486328379067</v>
       </c>
     </row>
     <row r="247">
@@ -6845,25 +6845,25 @@
         <v>1225</v>
       </c>
       <c r="B247" t="n">
-        <v>79.75476297388329</v>
+        <v>17.8675802648648</v>
       </c>
       <c r="C247" t="n">
-        <v>327.8176582737584</v>
+        <v>5.741272545460173</v>
       </c>
       <c r="D247" t="n">
-        <v>93.73506196669672</v>
+        <v>25.76351298749369</v>
       </c>
       <c r="E247" t="n">
-        <v>362.6196476729605</v>
+        <v>21.29928269879803</v>
       </c>
       <c r="F247" t="n">
-        <v>409.6451134790832</v>
+        <v>22.74569790577976</v>
       </c>
       <c r="G247" t="n">
-        <v>291.715596161058</v>
+        <v>4.884979232150349</v>
       </c>
       <c r="H247" t="n">
-        <v>390.363914583741</v>
+        <v>24.75519379025239</v>
       </c>
     </row>
     <row r="248">
@@ -6871,25 +6871,25 @@
         <v>1230</v>
       </c>
       <c r="B248" t="n">
-        <v>79.04812475500437</v>
+        <v>17.43004955761206</v>
       </c>
       <c r="C248" t="n">
-        <v>318.9304559526415</v>
+        <v>5.655808014994729</v>
       </c>
       <c r="D248" t="n">
-        <v>92.33972269379149</v>
+        <v>25.00539162814927</v>
       </c>
       <c r="E248" t="n">
-        <v>352.9116867415229</v>
+        <v>20.73018721894092</v>
       </c>
       <c r="F248" t="n">
-        <v>398.1087255132145</v>
+        <v>22.07440364656693</v>
       </c>
       <c r="G248" t="n">
-        <v>284.5722376752989</v>
+        <v>4.841697641244016</v>
       </c>
       <c r="H248" t="n">
-        <v>378.5313805752876</v>
+        <v>24.06292084583906</v>
       </c>
     </row>
     <row r="249">
@@ -6897,25 +6897,25 @@
         <v>1235</v>
       </c>
       <c r="B249" t="n">
-        <v>78.38571634988433</v>
+        <v>17.000781711133</v>
       </c>
       <c r="C249" t="n">
-        <v>310.2686863003365</v>
+        <v>5.560677538897604</v>
       </c>
       <c r="D249" t="n">
-        <v>90.78657206363435</v>
+        <v>24.26114999241144</v>
       </c>
       <c r="E249" t="n">
-        <v>343.2073936051825</v>
+        <v>20.16287571562665</v>
       </c>
       <c r="F249" t="n">
-        <v>386.703273012261</v>
+        <v>21.42031765382953</v>
       </c>
       <c r="G249" t="n">
-        <v>277.5637830389062</v>
+        <v>4.801125126430416</v>
       </c>
       <c r="H249" t="n">
-        <v>366.7607305076212</v>
+        <v>23.36924188131729</v>
       </c>
     </row>
     <row r="250">
@@ -6923,25 +6923,25 @@
         <v>1240</v>
       </c>
       <c r="B250" t="n">
-        <v>77.97381707561263</v>
+        <v>16.57956506384321</v>
       </c>
       <c r="C250" t="n">
-        <v>301.826733579802</v>
+        <v>5.457919633189904</v>
       </c>
       <c r="D250" t="n">
-        <v>89.10889197044742</v>
+        <v>23.53065457515943</v>
       </c>
       <c r="E250" t="n">
-        <v>333.5336533384802</v>
+        <v>19.59866752929865</v>
       </c>
       <c r="F250" t="n">
-        <v>375.4388528376454</v>
+        <v>20.78388962641078</v>
       </c>
       <c r="G250" t="n">
-        <v>270.6867765525421</v>
+        <v>4.775896295881275</v>
       </c>
       <c r="H250" t="n">
-        <v>355.093359904387</v>
+        <v>22.67631894061046</v>
       </c>
     </row>
     <row r="251">
@@ -6949,25 +6949,25 @@
         <v>1245</v>
       </c>
       <c r="B251" t="n">
-        <v>78.02606359503791</v>
+        <v>16.1659747604043</v>
       </c>
       <c r="C251" t="n">
-        <v>293.5917916982809</v>
+        <v>5.349668923830825</v>
       </c>
       <c r="D251" t="n">
-        <v>87.34153345029915</v>
+        <v>22.8136485680543</v>
       </c>
       <c r="E251" t="n">
-        <v>323.9154423060825</v>
+        <v>19.03867097682308</v>
       </c>
       <c r="F251" t="n">
-        <v>364.3226568434065</v>
+        <v>20.16525508377879</v>
       </c>
       <c r="G251" t="n">
-        <v>263.9342818025192</v>
+        <v>4.779096395196073</v>
       </c>
       <c r="H251" t="n">
-        <v>343.5670957277633</v>
+        <v>21.98612732067976</v>
       </c>
     </row>
     <row r="252">
@@ -6975,25 +6975,25 @@
         <v>1250</v>
       </c>
       <c r="B252" t="n">
-        <v>78.75609257101421</v>
+        <v>15.75958594547943</v>
       </c>
       <c r="C252" t="n">
-        <v>285.5510545630045</v>
+        <v>5.238060036779659</v>
       </c>
       <c r="D252" t="n">
-        <v>85.51934753925977</v>
+        <v>22.10987516274886</v>
       </c>
       <c r="E252" t="n">
-        <v>314.3777368726379</v>
+        <v>18.48399437506533</v>
       </c>
       <c r="F252" t="n">
-        <v>353.3618768835043</v>
+        <v>19.56454954539942</v>
       </c>
       <c r="G252" t="n">
-        <v>257.2993623751744</v>
+        <v>4.82381066997462</v>
       </c>
       <c r="H252" t="n">
-        <v>332.2197649398886</v>
+        <v>21.3006423184843</v>
       </c>
     </row>
     <row r="253">
@@ -7001,25 +7001,25 @@
         <v>1255</v>
       </c>
       <c r="B253" t="n">
-        <v>80.37754066638772</v>
+        <v>15.35997376373226</v>
       </c>
       <c r="C253" t="n">
-        <v>277.6917160811917</v>
+        <v>5.125227597996051</v>
       </c>
       <c r="D253" t="n">
-        <v>83.67718527340492</v>
+        <v>21.41907755090385</v>
       </c>
       <c r="E253" t="n">
-        <v>304.9455134028211</v>
+        <v>17.93574604089148</v>
       </c>
       <c r="F253" t="n">
-        <v>342.5637048119714</v>
+        <v>18.98190853074051</v>
       </c>
       <c r="G253" t="n">
-        <v>250.7750818568533</v>
+        <v>4.923124365816247</v>
       </c>
       <c r="H253" t="n">
-        <v>321.0891945029339</v>
+        <v>20.62183923098457</v>
       </c>
     </row>
     <row r="254">
@@ -7027,25 +7027,25 @@
         <v>1260</v>
       </c>
       <c r="B254" t="n">
-        <v>83.104044544012</v>
+        <v>14.9667133598265</v>
       </c>
       <c r="C254" t="n">
-        <v>270.0009701600731</v>
+        <v>5.013306233439312</v>
       </c>
       <c r="D254" t="n">
-        <v>81.84989768880513</v>
+        <v>20.74099892417386</v>
       </c>
       <c r="E254" t="n">
-        <v>295.6437482612807</v>
+        <v>17.39503429116682</v>
       </c>
       <c r="F254" t="n">
-        <v>331.9353324827773</v>
+        <v>18.4174675592682</v>
       </c>
       <c r="G254" t="n">
-        <v>244.354503833902</v>
+        <v>5.090122728320735</v>
       </c>
       <c r="H254" t="n">
-        <v>310.2132113790413</v>
+        <v>19.95169335513944</v>
       </c>
     </row>
     <row r="255">
@@ -7053,25 +7053,25 @@
         <v>1265</v>
       </c>
       <c r="B255" t="n">
-        <v>87.14924086673315</v>
+        <v>14.57937987842373</v>
       </c>
       <c r="C255" t="n">
-        <v>262.4660107068836</v>
+        <v>4.904430569068704</v>
       </c>
       <c r="D255" t="n">
-        <v>80.07233582152983</v>
+        <v>20.07538247421894</v>
       </c>
       <c r="E255" t="n">
-        <v>286.4974178126876</v>
+        <v>16.86296744275752</v>
       </c>
       <c r="F255" t="n">
-        <v>321.4839517499609</v>
+        <v>17.87136215044946</v>
       </c>
       <c r="G255" t="n">
-        <v>238.0306918926324</v>
+        <v>5.337891003087403</v>
       </c>
       <c r="H255" t="n">
-        <v>299.6296425303728</v>
+        <v>19.29217998791083</v>
       </c>
     </row>
     <row r="256">
@@ -7079,25 +7079,25 @@
         <v>1270</v>
       </c>
       <c r="B256" t="n">
-        <v>92.72676629740438</v>
+        <v>14.19754846418726</v>
       </c>
       <c r="C256" t="n">
-        <v>255.0740316288559</v>
+        <v>4.800735230843304</v>
       </c>
       <c r="D256" t="n">
-        <v>78.37935070764576</v>
+        <v>19.42197139269332</v>
       </c>
       <c r="E256" t="n">
-        <v>277.5314984216908</v>
+        <v>16.34065381252906</v>
       </c>
       <c r="F256" t="n">
-        <v>311.2167544674862</v>
+        <v>17.34372782375063</v>
       </c>
       <c r="G256" t="n">
-        <v>231.7967096193839</v>
+        <v>5.679514435716019</v>
       </c>
       <c r="H256" t="n">
-        <v>289.3763149190708</v>
+        <v>18.64527442625715</v>
       </c>
     </row>
     <row r="257">
@@ -7105,25 +7105,25 @@
         <v>1275</v>
       </c>
       <c r="B257" t="n">
-        <v>100.0502574988859</v>
+        <v>13.82079426178074</v>
       </c>
       <c r="C257" t="n">
-        <v>247.8122268332192</v>
+        <v>4.704354844722822</v>
       </c>
       <c r="D257" t="n">
-        <v>76.80579338322974</v>
+        <v>18.78050887125747</v>
       </c>
       <c r="E257" t="n">
-        <v>268.770966452961</v>
+        <v>15.82920171734754</v>
       </c>
       <c r="F257" t="n">
-        <v>301.1409324893895</v>
+        <v>16.83470009863958</v>
       </c>
       <c r="G257" t="n">
-        <v>225.6456206005019</v>
+        <v>6.128078271806762</v>
       </c>
       <c r="H257" t="n">
-        <v>279.4910555073093</v>
+        <v>18.01295196713944</v>
       </c>
     </row>
     <row r="258">
@@ -7131,25 +7131,25 @@
         <v>1280</v>
       </c>
       <c r="B258" t="n">
-        <v>109.3333511340132</v>
+        <v>13.44869241586742</v>
       </c>
       <c r="C258" t="n">
-        <v>240.6677902271969</v>
+        <v>4.61742403666659</v>
       </c>
       <c r="D258" t="n">
-        <v>75.38651488435249</v>
+        <v>18.1507381015659</v>
       </c>
       <c r="E258" t="n">
-        <v>260.2407982711559</v>
+        <v>15.32971947407855</v>
       </c>
       <c r="F258" t="n">
-        <v>291.2636776696448</v>
+        <v>16.34441449458209</v>
       </c>
       <c r="G258" t="n">
-        <v>219.5704884223252</v>
+        <v>6.696667756958312</v>
       </c>
       <c r="H258" t="n">
-        <v>270.0116912572249</v>
+        <v>17.39718790751697</v>
       </c>
     </row>
     <row r="259">
@@ -7157,25 +7157,25 @@
         <v>1285</v>
       </c>
       <c r="B259" t="n">
-        <v>120.7896838656428</v>
+        <v>13.08081807110971</v>
       </c>
       <c r="C259" t="n">
-        <v>233.6279157180283</v>
+        <v>4.542077432633727</v>
       </c>
       <c r="D259" t="n">
-        <v>74.15636624708127</v>
+        <v>17.53240227527908</v>
       </c>
       <c r="E259" t="n">
-        <v>251.96597024094</v>
+        <v>14.84331539958808</v>
       </c>
       <c r="F259" t="n">
-        <v>281.592181862288</v>
+        <v>15.87300653104587</v>
       </c>
       <c r="G259" t="n">
-        <v>213.564376671179</v>
+        <v>7.398368136770622</v>
       </c>
       <c r="H259" t="n">
-        <v>260.9760491309914</v>
+        <v>16.79995754435112</v>
       </c>
     </row>
     <row r="260">
@@ -7183,25 +7183,25 @@
         <v>1290</v>
       </c>
       <c r="B260" t="n">
-        <v>134.5951228741221</v>
+        <v>12.71665140922323</v>
       </c>
       <c r="C260" t="n">
-        <v>226.6811433744952</v>
+        <v>4.480184622356852</v>
       </c>
       <c r="D260" t="n">
-        <v>73.14587138541799</v>
+        <v>16.92517097401685</v>
       </c>
       <c r="E260" t="n">
-        <v>243.9687149125473</v>
+        <v>14.37099957930555</v>
       </c>
       <c r="F260" t="n">
-        <v>272.1323471257411</v>
+        <v>15.42047357440401</v>
       </c>
       <c r="G260" t="n">
-        <v>207.6187985179304</v>
+        <v>8.243951276039981</v>
       </c>
       <c r="H260" t="n">
-        <v>252.4171132087989</v>
+        <v>16.22306151686772</v>
       </c>
     </row>
     <row r="261">
@@ -7209,25 +7209,25 @@
         <v>1295</v>
       </c>
       <c r="B261" t="n">
-        <v>150.5143257735878</v>
+        <v>12.35552326657782</v>
       </c>
       <c r="C261" t="n">
-        <v>219.8252757833861</v>
+        <v>4.430929035067866</v>
       </c>
       <c r="D261" t="n">
-        <v>72.34169853172028</v>
+        <v>16.32942385958046</v>
       </c>
       <c r="E261" t="n">
-        <v>236.2571127359401</v>
+        <v>13.91316600100026</v>
       </c>
       <c r="F261" t="n">
-        <v>262.8906551892239</v>
+        <v>14.98631197373</v>
       </c>
       <c r="G261" t="n">
-        <v>201.7228288420868</v>
+        <v>9.219002453632248</v>
       </c>
       <c r="H261" t="n">
-        <v>244.3348102072913</v>
+        <v>15.66706098094876</v>
       </c>
     </row>
     <row r="262">
@@ -7235,25 +7235,25 @@
         <v>1300</v>
       </c>
       <c r="B262" t="n">
-        <v>167.9158497983184</v>
+        <v>11.99813480922785</v>
       </c>
       <c r="C262" t="n">
-        <v>213.0787217376732</v>
+        <v>4.391770705376262</v>
       </c>
       <c r="D262" t="n">
-        <v>71.70237886328594</v>
+        <v>15.74735918940104</v>
       </c>
       <c r="E262" t="n">
-        <v>228.8317051065661</v>
+        <v>13.47015205603097</v>
       </c>
       <c r="F262" t="n">
-        <v>253.8872013085567</v>
+        <v>14.56954145042985</v>
       </c>
       <c r="G262" t="n">
-        <v>195.8879152526996</v>
+        <v>10.284845800147</v>
       </c>
       <c r="H262" t="n">
-        <v>236.6995358253391</v>
+        <v>15.13188156309702</v>
       </c>
     </row>
     <row r="263">
@@ -7261,25 +7261,25 @@
         <v>1305</v>
       </c>
       <c r="B263" t="n">
-        <v>186.1366847196396</v>
+        <v>11.64557114441453</v>
       </c>
       <c r="C263" t="n">
-        <v>206.4637480105729</v>
+        <v>4.360119311262169</v>
       </c>
       <c r="D263" t="n">
-        <v>71.18562140836194</v>
+        <v>15.18136472056072</v>
       </c>
       <c r="E263" t="n">
-        <v>221.6923357248101</v>
+        <v>13.04234498020334</v>
       </c>
       <c r="F263" t="n">
-        <v>245.1445744643126</v>
+        <v>14.16906714067683</v>
       </c>
       <c r="G263" t="n">
-        <v>190.1317737863597</v>
+        <v>11.40087193907793</v>
       </c>
       <c r="H263" t="n">
-        <v>229.4778758798058</v>
+        <v>14.61746907120181</v>
       </c>
     </row>
     <row r="264">
@@ -7287,25 +7287,25 @@
         <v>1310</v>
       </c>
       <c r="B264" t="n">
-        <v>204.5138203088467</v>
+        <v>11.2989173793803</v>
       </c>
       <c r="C264" t="n">
-        <v>200.0026213753164</v>
+        <v>4.333384530705605</v>
       </c>
       <c r="D264" t="n">
-        <v>70.74913519519355</v>
+        <v>14.63382821013749</v>
       </c>
       <c r="E264" t="n">
-        <v>214.838848291047</v>
+        <v>12.63013200932298</v>
       </c>
       <c r="F264" t="n">
-        <v>236.6853636370179</v>
+        <v>13.78379418064504</v>
       </c>
       <c r="G264" t="n">
-        <v>184.4721204796784</v>
+        <v>12.52647149391686</v>
       </c>
       <c r="H264" t="n">
-        <v>222.6364161875683</v>
+        <v>14.12376931315119</v>
       </c>
     </row>
     <row r="265">
@@ -7313,25 +7313,25 @@
         <v>1315</v>
       </c>
       <c r="B265" t="n">
-        <v>222.3842463373134</v>
+        <v>10.95925862136785</v>
       </c>
       <c r="C265" t="n">
-        <v>193.717608605133</v>
+        <v>4.308976041687114</v>
       </c>
       <c r="D265" t="n">
-        <v>70.35062925203449</v>
+        <v>14.10713741521353</v>
       </c>
       <c r="E265" t="n">
-        <v>208.2710865056664</v>
+        <v>12.23390037919633</v>
       </c>
       <c r="F265" t="n">
-        <v>228.5321578072392</v>
+        <v>13.4126277065071</v>
       </c>
       <c r="G265" t="n">
-        <v>178.926671369271</v>
+        <v>13.62103508816044</v>
       </c>
       <c r="H265" t="n">
-        <v>216.1417425654834</v>
+        <v>13.65072809683378</v>
       </c>
     </row>
     <row r="266">
@@ -7339,25 +7339,25 @@
         <v>1320</v>
       </c>
       <c r="B266" t="n">
-        <v>239.0849525762934</v>
+        <v>10.62767997762011</v>
       </c>
       <c r="C266" t="n">
-        <v>187.6309764732452</v>
+        <v>4.284303522186904</v>
       </c>
       <c r="D266" t="n">
-        <v>69.9478126071331</v>
+        <v>13.60368009286709</v>
       </c>
       <c r="E266" t="n">
-        <v>201.9888940690465</v>
+        <v>11.85403732562909</v>
       </c>
       <c r="F266" t="n">
-        <v>220.7075459555124</v>
+        <v>13.05447285443683</v>
       </c>
       <c r="G266" t="n">
-        <v>173.513142491757</v>
+        <v>14.64395334529797</v>
       </c>
       <c r="H266" t="n">
-        <v>209.9604408304314</v>
+        <v>13.19829123013825</v>
       </c>
     </row>
     <row r="267">
@@ -7365,25 +7365,25 @@
         <v>1325</v>
       </c>
       <c r="B267" t="n">
-        <v>253.9529287971412</v>
+        <v>10.30526655537876</v>
       </c>
       <c r="C267" t="n">
-        <v>181.7649917528878</v>
+        <v>4.25677665018507</v>
       </c>
       <c r="D267" t="n">
-        <v>69.49839428873578</v>
+        <v>13.12584400018031</v>
       </c>
       <c r="E267" t="n">
-        <v>195.9921146815667</v>
+        <v>11.49093008442726</v>
       </c>
       <c r="F267" t="n">
-        <v>213.2341170624052</v>
+        <v>12.70823476060724</v>
       </c>
       <c r="G267" t="n">
-        <v>168.2492498837349</v>
+        <v>15.5546168888249</v>
       </c>
       <c r="H267" t="n">
-        <v>204.0590967992731</v>
+        <v>12.76640452095343</v>
       </c>
     </row>
     <row r="268">
@@ -7391,25 +7391,25 @@
         <v>1330</v>
       </c>
       <c r="B268" t="n">
-        <v>266.3251647711396</v>
+        <v>9.99310346188604</v>
       </c>
       <c r="C268" t="n">
-        <v>176.1419212172775</v>
+        <v>4.22380510366166</v>
       </c>
       <c r="D268" t="n">
-        <v>68.96008332508835</v>
+        <v>12.67601689423116</v>
       </c>
       <c r="E268" t="n">
-        <v>190.2805920436056</v>
+        <v>11.14496589139608</v>
       </c>
       <c r="F268" t="n">
-        <v>206.1344601084483</v>
+        <v>12.37281856119265</v>
       </c>
       <c r="G268" t="n">
-        <v>163.1527095818128</v>
+        <v>16.31241634223229</v>
       </c>
       <c r="H268" t="n">
-        <v>198.4042962888889</v>
+        <v>12.35501377716793</v>
       </c>
     </row>
     <row r="269">
@@ -7417,25 +7417,25 @@
         <v>1335</v>
       </c>
       <c r="B269" t="n">
-        <v>275.5386502696588</v>
+        <v>9.692275804384497</v>
       </c>
       <c r="C269" t="n">
-        <v>170.7840316396435</v>
+        <v>4.182798560597374</v>
       </c>
       <c r="D269" t="n">
-        <v>68.29058874444691</v>
+        <v>12.25658653210098</v>
       </c>
       <c r="E269" t="n">
-        <v>184.8541698555503</v>
+        <v>10.81653198234199</v>
       </c>
       <c r="F269" t="n">
-        <v>199.4311640741975</v>
+        <v>12.04712939236547</v>
       </c>
       <c r="G269" t="n">
-        <v>158.241237622604</v>
+        <v>16.8767423290166</v>
       </c>
       <c r="H269" t="n">
-        <v>192.9626251161326</v>
+        <v>11.96406480666989</v>
       </c>
     </row>
     <row r="270">
@@ -7443,25 +7443,25 @@
         <v>1340</v>
       </c>
       <c r="B270" t="n">
-        <v>280.9303750639805</v>
+        <v>9.403868690117319</v>
       </c>
       <c r="C270" t="n">
-        <v>165.7135897932183</v>
+        <v>4.131166698972225</v>
       </c>
       <c r="D270" t="n">
-        <v>67.44761957505675</v>
+        <v>11.86994067086887</v>
       </c>
       <c r="E270" t="n">
-        <v>179.71269181778</v>
+        <v>10.50601559307096</v>
       </c>
       <c r="F270" t="n">
-        <v>193.1468179401987</v>
+        <v>11.73007239029938</v>
       </c>
       <c r="G270" t="n">
-        <v>153.5325500427317</v>
+        <v>17.2069854726688</v>
       </c>
       <c r="H270" t="n">
-        <v>187.7006690978809</v>
+        <v>11.5935034173483</v>
       </c>
     </row>
     <row r="271">
@@ -7469,25 +7469,25 @@
         <v>1345</v>
       </c>
       <c r="B271" t="n">
-        <v>281.8373289254372</v>
+        <v>9.128967226325747</v>
       </c>
       <c r="C271" t="n">
-        <v>160.9528624512175</v>
+        <v>4.066319196766438</v>
       </c>
       <c r="D271" t="n">
-        <v>66.38888484516634</v>
+        <v>11.51846706761611</v>
       </c>
       <c r="E271" t="n">
-        <v>174.8560016306734</v>
+        <v>10.21380395938842</v>
       </c>
       <c r="F271" t="n">
-        <v>187.3040106870102</v>
+        <v>11.42055269116806</v>
       </c>
       <c r="G271" t="n">
-        <v>149.0443628787877</v>
+        <v>17.26253639668303</v>
       </c>
       <c r="H271" t="n">
-        <v>182.5850140510057</v>
+        <v>11.24327541709174</v>
       </c>
     </row>
     <row r="272">
@@ -7495,25 +7495,25 @@
         <v>1350</v>
       </c>
       <c r="B272" t="n">
-        <v>277.6593770118606</v>
+        <v>8.868727526359429</v>
       </c>
       <c r="C272" t="n">
-        <v>156.5215679943757</v>
+        <v>3.986094028319362</v>
       </c>
       <c r="D272" t="n">
-        <v>65.07908617664266</v>
+        <v>11.20454178100264</v>
       </c>
       <c r="E272" t="n">
-        <v>170.2844137516196</v>
+        <v>9.940251685763627</v>
       </c>
       <c r="F272" t="n">
-        <v>181.9247820263429</v>
+        <v>11.11754363477611</v>
       </c>
       <c r="G272" t="n">
-        <v>144.7955514507662</v>
+        <v>17.00663684197646</v>
       </c>
       <c r="H272" t="n">
-        <v>177.5839702443196</v>
+        <v>10.91329918115778</v>
       </c>
     </row>
     <row r="273">
@@ -7521,25 +7521,25 @@
         <v>1355</v>
       </c>
       <c r="B273" t="n">
-        <v>268.4779086607309</v>
+        <v>8.624359115375372</v>
       </c>
       <c r="C273" t="n">
-        <v>152.4163387266065</v>
+        <v>3.89154478941727</v>
       </c>
       <c r="D273" t="n">
-        <v>63.53542513334318</v>
+        <v>10.92808828319628</v>
       </c>
       <c r="E273" t="n">
-        <v>165.9880860897491</v>
+        <v>9.684868969284416</v>
       </c>
       <c r="F273" t="n">
-        <v>177.0056895894084</v>
+        <v>10.82042694544295</v>
       </c>
       <c r="G273" t="n">
-        <v>140.8058631081693</v>
+        <v>16.44427190546977</v>
       </c>
       <c r="H273" t="n">
-        <v>172.6825803824082</v>
+        <v>10.60301824801464</v>
       </c>
     </row>
     <row r="274">
@@ -7547,25 +7547,25 @@
         <v>1360</v>
       </c>
       <c r="B274" t="n">
-        <v>255.0312258675099</v>
+        <v>8.395670006721106</v>
       </c>
       <c r="C274" t="n">
-        <v>148.6142005961474</v>
+        <v>3.785147955788223</v>
       </c>
       <c r="D274" t="n">
-        <v>61.79833397205261</v>
+        <v>10.6849740516303</v>
       </c>
       <c r="E274" t="n">
-        <v>161.9477444972809</v>
+        <v>9.446424868981532</v>
       </c>
       <c r="F274" t="n">
-        <v>172.5080195147205</v>
+        <v>10.52962176167039</v>
       </c>
       <c r="G274" t="n">
-        <v>137.0721633750385</v>
+        <v>15.62066258438498</v>
       </c>
       <c r="H274" t="n">
-        <v>167.8931362012548</v>
+        <v>10.31160170595027</v>
       </c>
     </row>
     <row r="275">
@@ -7573,25 +7573,25 @@
         <v>1365</v>
       </c>
       <c r="B275" t="n">
-        <v>238.1107706905975</v>
+        <v>8.182096325509447</v>
       </c>
       <c r="C275" t="n">
-        <v>145.0907499558213</v>
+        <v>3.669370781556405</v>
       </c>
       <c r="D275" t="n">
-        <v>59.90809439275763</v>
+        <v>10.47069483923077</v>
       </c>
       <c r="E275" t="n">
-        <v>158.144602440908</v>
+        <v>9.223681482443959</v>
       </c>
       <c r="F275" t="n">
-        <v>168.3900431611717</v>
+        <v>10.24577449845172</v>
       </c>
       <c r="G275" t="n">
-        <v>133.5852461307665</v>
+        <v>14.5842847047991</v>
       </c>
       <c r="H275" t="n">
-        <v>163.2323273844135</v>
+        <v>10.03821564405847</v>
       </c>
     </row>
     <row r="276">
@@ -7599,25 +7599,25 @@
         <v>1370</v>
       </c>
       <c r="B276" t="n">
-        <v>218.5079851884404</v>
+        <v>7.983074196854145</v>
       </c>
       <c r="C276" t="n">
-        <v>141.8215831584323</v>
+        <v>3.546680520847122</v>
       </c>
       <c r="D276" t="n">
-        <v>57.90498809546321</v>
+        <v>10.28074639892117</v>
       </c>
       <c r="E276" t="n">
-        <v>154.559873387326</v>
+        <v>9.015400907260332</v>
       </c>
       <c r="F276" t="n">
-        <v>164.6100318876396</v>
+        <v>9.969531570778882</v>
       </c>
       <c r="G276" t="n">
-        <v>130.3359052547615</v>
+        <v>13.38361409279197</v>
       </c>
       <c r="H276" t="n">
-        <v>158.7168436154174</v>
+        <v>9.782026151433424</v>
       </c>
     </row>
     <row r="277">
@@ -7625,25 +7625,25 @@
         <v>1375</v>
       </c>
       <c r="B277" t="n">
-        <v>197.0143114193776</v>
+        <v>7.798039745868571</v>
       </c>
       <c r="C277" t="n">
-        <v>138.7822965567964</v>
+        <v>3.419544427783123</v>
       </c>
       <c r="D277" t="n">
-        <v>55.82929678013266</v>
+        <v>10.11062448362743</v>
       </c>
       <c r="E277" t="n">
-        <v>151.1747708032328</v>
+        <v>8.820345241019814</v>
       </c>
       <c r="F277" t="n">
-        <v>161.1262570530125</v>
+        <v>9.701539393644694</v>
       </c>
       <c r="G277" t="n">
-        <v>127.3149346264257</v>
+        <v>12.06712657443688</v>
       </c>
       <c r="H277" t="n">
-        <v>154.3633745778168</v>
+        <v>9.542199317168544</v>
       </c>
     </row>
     <row r="278">
@@ -7651,25 +7651,25 @@
         <v>1380</v>
       </c>
       <c r="B278" t="n">
-        <v>174.4211914418601</v>
+        <v>7.626429097666811</v>
       </c>
       <c r="C278" t="n">
-        <v>135.9484865037241</v>
+        <v>3.29042975648956</v>
       </c>
       <c r="D278" t="n">
-        <v>53.72130214676834</v>
+        <v>9.95582484627394</v>
       </c>
       <c r="E278" t="n">
-        <v>147.9705081553224</v>
+        <v>8.637276581311118</v>
       </c>
       <c r="F278" t="n">
-        <v>157.896990016174</v>
+        <v>9.442444382041241</v>
       </c>
       <c r="G278" t="n">
-        <v>124.5131281251724</v>
+        <v>10.68329797581393</v>
       </c>
       <c r="H278" t="n">
-        <v>150.1886099551483</v>
+        <v>9.317901230358036</v>
       </c>
     </row>
     <row r="279">
@@ -7677,25 +7677,25 @@
         <v>1385</v>
       </c>
       <c r="B279" t="n">
-        <v>151.5200673142849</v>
+        <v>7.467678377361576</v>
       </c>
       <c r="C279" t="n">
-        <v>133.2957493520313</v>
+        <v>3.161803761090879</v>
       </c>
       <c r="D279" t="n">
-        <v>51.62128589536128</v>
+        <v>9.811843239786107</v>
       </c>
       <c r="E279" t="n">
-        <v>144.9282989102909</v>
+        <v>8.464957025723159</v>
       </c>
       <c r="F279" t="n">
-        <v>154.8805021360119</v>
+        <v>9.192892950961646</v>
       </c>
       <c r="G279" t="n">
-        <v>121.9212796303931</v>
+        <v>9.280604122999955</v>
       </c>
       <c r="H279" t="n">
-        <v>146.2092394309629</v>
+        <v>9.108297980095713</v>
       </c>
     </row>
     <row r="280">
@@ -7703,25 +7703,25 @@
         <v>1390</v>
       </c>
       <c r="B280" t="n">
-        <v>129.1023810950839</v>
+        <v>7.321223710066807</v>
       </c>
       <c r="C280" t="n">
-        <v>130.7996814545288</v>
+        <v>3.036133695712023</v>
       </c>
       <c r="D280" t="n">
-        <v>49.56952972591059</v>
+        <v>9.674175417088238</v>
       </c>
       <c r="E280" t="n">
-        <v>142.029356534833</v>
+        <v>8.302148671844792</v>
       </c>
       <c r="F280" t="n">
-        <v>152.0350647714095</v>
+        <v>8.953531515397868</v>
       </c>
       <c r="G280" t="n">
-        <v>119.5301830214989</v>
+        <v>7.907520842073892</v>
       </c>
       <c r="H280" t="n">
-        <v>142.4419526887964</v>
+        <v>8.912555655475625</v>
       </c>
     </row>
     <row r="281">
@@ -7729,25 +7729,25 @@
         <v>1395</v>
       </c>
       <c r="B281" t="n">
-        <v>107.9595748426061</v>
+        <v>7.186501220895787</v>
       </c>
       <c r="C281" t="n">
-        <v>128.4358791640324</v>
+        <v>2.9158868144758</v>
       </c>
       <c r="D281" t="n">
-        <v>47.6063153383804</v>
+        <v>9.538317131106016</v>
       </c>
       <c r="E281" t="n">
-        <v>139.2548944956451</v>
+        <v>8.147613617265041</v>
       </c>
       <c r="F281" t="n">
-        <v>149.3189492812556</v>
+        <v>8.725006490342899</v>
       </c>
       <c r="G281" t="n">
-        <v>117.3306321778904</v>
+        <v>6.612523959109622</v>
       </c>
       <c r="H281" t="n">
-        <v>138.9034394122009</v>
+        <v>8.729840345591525</v>
       </c>
     </row>
     <row r="282">
@@ -7755,25 +7755,25 @@
         <v>1400</v>
       </c>
       <c r="B282" t="n">
-        <v>88.88309061532576</v>
+        <v>7.062947034962392</v>
       </c>
       <c r="C282" t="n">
-        <v>126.1799388333494</v>
+        <v>2.803530371507496</v>
       </c>
       <c r="D282" t="n">
-        <v>45.77192443277546</v>
+        <v>9.399764134763805</v>
       </c>
       <c r="E282" t="n">
-        <v>136.5861262594222</v>
+        <v>8.000113959572593</v>
       </c>
       <c r="F282" t="n">
-        <v>146.6904270244337</v>
+        <v>8.507964290788587</v>
       </c>
       <c r="G282" t="n">
-        <v>115.3134209789778</v>
+        <v>5.444089300188705</v>
       </c>
       <c r="H282" t="n">
-        <v>135.6103892847089</v>
+        <v>8.559318139537513</v>
       </c>
     </row>
     <row r="283">
@@ -7781,25 +7781,25 @@
         <v>1405</v>
       </c>
       <c r="B283" t="n">
-        <v>72.66437047161915</v>
+        <v>6.949997277379708</v>
       </c>
       <c r="C283" t="n">
-        <v>124.0074568152984</v>
+        <v>2.701531620931404</v>
       </c>
       <c r="D283" t="n">
-        <v>44.10663870908413</v>
+        <v>9.254012180987134</v>
       </c>
       <c r="E283" t="n">
-        <v>134.0042652928621</v>
+        <v>7.858411796356511</v>
       </c>
       <c r="F283" t="n">
-        <v>144.107769359832</v>
+        <v>8.303051331728282</v>
       </c>
       <c r="G283" t="n">
-        <v>113.4693433041585</v>
+        <v>4.450692691386674</v>
       </c>
       <c r="H283" t="n">
-        <v>132.5794919898739</v>
+        <v>8.400155126407352</v>
       </c>
     </row>
     <row r="284">
@@ -7807,25 +7807,25 @@
         <v>1410</v>
       </c>
       <c r="B284" t="n">
-        <v>60.04245352463149</v>
+        <v>6.847010534793589</v>
       </c>
       <c r="C284" t="n">
-        <v>121.8959714408543</v>
+        <v>2.611990163403616</v>
       </c>
       <c r="D284" t="n">
-        <v>42.6447373616917</v>
+        <v>9.096684358321795</v>
       </c>
       <c r="E284" t="n">
-        <v>131.4908544722946</v>
+        <v>7.721324306462241</v>
       </c>
       <c r="F284" t="n">
-        <v>141.5310142867289</v>
+        <v>8.110923570340928</v>
       </c>
       <c r="G284" t="n">
-        <v>111.7879270986708</v>
+        <v>3.677600278383679</v>
       </c>
       <c r="H284" t="n">
-        <v>129.8278225620184</v>
+        <v>8.251611482409135</v>
       </c>
     </row>
     <row r="285">
@@ -7833,25 +7833,25 @@
         <v>1415</v>
       </c>
       <c r="B285" t="n">
-        <v>51.18461707661036</v>
+        <v>6.752447353983225</v>
       </c>
       <c r="C285" t="n">
-        <v>119.8413003062464</v>
+        <v>2.534491229176159</v>
       </c>
       <c r="D285" t="n">
-        <v>41.37944863961076</v>
+        <v>8.926543615172944</v>
       </c>
       <c r="E285" t="n">
-        <v>129.0432167079501</v>
+        <v>7.588595397897604</v>
       </c>
       <c r="F285" t="n">
-        <v>138.9499393575536</v>
+        <v>7.932377705187709</v>
       </c>
       <c r="G285" t="n">
-        <v>110.2440384323792</v>
+        <v>3.135057795942387</v>
       </c>
       <c r="H285" t="n">
-        <v>127.3655040697087</v>
+        <v>8.113489349627219</v>
       </c>
     </row>
     <row r="286">
@@ -7859,25 +7859,25 @@
         <v>1420</v>
       </c>
       <c r="B286" t="n">
-        <v>45.70543318693132</v>
+        <v>6.665150855940905</v>
       </c>
       <c r="C286" t="n">
-        <v>117.8487864031003</v>
+        <v>2.467843991245423</v>
       </c>
       <c r="D286" t="n">
-        <v>40.29133046931303</v>
+        <v>8.746687211497088</v>
       </c>
       <c r="E286" t="n">
-        <v>126.6728595414679</v>
+        <v>7.460517044834477</v>
       </c>
       <c r="F286" t="n">
-        <v>136.3863959768226</v>
+        <v>7.76774842216779</v>
       </c>
       <c r="G286" t="n">
-        <v>108.8187894847495</v>
+        <v>2.799457782699542</v>
       </c>
       <c r="H286" t="n">
-        <v>125.1783733818017</v>
+        <v>7.98540925961845</v>
       </c>
     </row>
     <row r="287">
@@ -7885,25 +7885,25 @@
         <v>1425</v>
       </c>
       <c r="B287" t="n">
-        <v>43.17455955218669</v>
+        <v>6.584272247441135</v>
       </c>
       <c r="C287" t="n">
-        <v>115.9232943714249</v>
+        <v>2.41092712817423</v>
       </c>
       <c r="D287" t="n">
-        <v>39.36207556202825</v>
+        <v>8.560593283962495</v>
       </c>
       <c r="E287" t="n">
-        <v>124.3911318324026</v>
+        <v>7.337333644627098</v>
       </c>
       <c r="F287" t="n">
-        <v>133.8644198645742</v>
+        <v>7.617219404252451</v>
       </c>
       <c r="G287" t="n">
-        <v>107.4983224072022</v>
+        <v>2.644441772571434</v>
       </c>
       <c r="H287" t="n">
-        <v>123.2483271902996</v>
+        <v>7.866922512786251</v>
       </c>
     </row>
     <row r="288">
@@ -7911,25 +7911,25 @@
         <v>1430</v>
       </c>
       <c r="B288" t="n">
-        <v>43.16165386897846</v>
+        <v>6.508962735259144</v>
       </c>
       <c r="C288" t="n">
-        <v>114.0696888512399</v>
+        <v>2.362619318525395</v>
       </c>
       <c r="D288" t="n">
-        <v>38.57337662898603</v>
+        <v>8.371739969236538</v>
       </c>
       <c r="E288" t="n">
-        <v>122.2093824402955</v>
+        <v>7.219289594629589</v>
       </c>
       <c r="F288" t="n">
-        <v>131.4080467408423</v>
+        <v>7.48097433441244</v>
       </c>
       <c r="G288" t="n">
-        <v>106.2687793511697</v>
+        <v>2.64365129947493</v>
       </c>
       <c r="H288" t="n">
-        <v>121.557262187208</v>
+        <v>7.757580409534278</v>
       </c>
     </row>
     <row r="289">
@@ -7937,25 +7937,25 @@
         <v>1435</v>
       </c>
       <c r="B289" t="n">
-        <v>45.2363738339101</v>
+        <v>6.438373526169744</v>
       </c>
       <c r="C289" t="n">
-        <v>112.2928344825576</v>
+        <v>2.321799240861506</v>
       </c>
       <c r="D289" t="n">
-        <v>37.90692638141235</v>
+        <v>8.183605403987929</v>
       </c>
       <c r="E289" t="n">
-        <v>120.1389602246976</v>
+        <v>7.106629292196128</v>
       </c>
       <c r="F289" t="n">
-        <v>129.0413123256644</v>
+        <v>7.359196895618561</v>
       </c>
       <c r="G289" t="n">
-        <v>105.1163024680775</v>
+        <v>2.770727897326993</v>
       </c>
       <c r="H289" t="n">
-        <v>120.0870750645226</v>
+        <v>7.656934250265673</v>
       </c>
     </row>
   </sheetData>

--- a/beispieltage.xlsx
+++ b/beispieltage.xlsx
@@ -478,22 +478,22 @@
         <v>5.182419717488288</v>
       </c>
       <c r="C2" t="n">
-        <v>6.823558438738863</v>
+        <v>2.02191026620388</v>
       </c>
       <c r="D2" t="n">
-        <v>7.891784751581781</v>
+        <v>7.580426419741652</v>
       </c>
       <c r="E2" t="n">
         <v>5.364900515044981</v>
       </c>
       <c r="F2" t="n">
+        <v>7.891784751581781</v>
+      </c>
+      <c r="G2" t="n">
+        <v>6.823558438738863</v>
+      </c>
+      <c r="H2" t="n">
         <v>6.874937464524318</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2.02191026620388</v>
-      </c>
-      <c r="H2" t="n">
-        <v>7.580426419741652</v>
       </c>
     </row>
     <row r="3">
@@ -504,22 +504,22 @@
         <v>5.183608597099932</v>
       </c>
       <c r="C3" t="n">
-        <v>6.743266456937048</v>
+        <v>1.969724907197854</v>
       </c>
       <c r="D3" t="n">
-        <v>7.796199355622777</v>
+        <v>7.486008247814251</v>
       </c>
       <c r="E3" t="n">
         <v>5.456255895809289</v>
       </c>
       <c r="F3" t="n">
+        <v>7.796199355622777</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6.743266456937048</v>
+      </c>
+      <c r="H3" t="n">
         <v>6.802050262346879</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1.969724907197854</v>
-      </c>
-      <c r="H3" t="n">
-        <v>7.486008247814251</v>
       </c>
     </row>
     <row r="4">
@@ -530,22 +530,22 @@
         <v>5.198076238369463</v>
       </c>
       <c r="C4" t="n">
-        <v>6.670566221533776</v>
+        <v>1.919733547234002</v>
       </c>
       <c r="D4" t="n">
-        <v>7.707340801097913</v>
+        <v>7.399802664567696</v>
       </c>
       <c r="E4" t="n">
         <v>5.577635028174774</v>
       </c>
       <c r="F4" t="n">
+        <v>7.707340801097913</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6.670566221533776</v>
+      </c>
+      <c r="H4" t="n">
         <v>6.742914641210395</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1.919733547234002</v>
-      </c>
-      <c r="H4" t="n">
-        <v>7.399802664567696</v>
       </c>
     </row>
     <row r="5">
@@ -556,22 +556,22 @@
         <v>5.22132818802677</v>
       </c>
       <c r="C5" t="n">
-        <v>6.605063849717146</v>
+        <v>1.872421359636174</v>
       </c>
       <c r="D5" t="n">
-        <v>7.625462247494286</v>
+        <v>7.321443383224985</v>
       </c>
       <c r="E5" t="n">
         <v>5.715999267347935</v>
       </c>
       <c r="F5" t="n">
+        <v>7.625462247494286</v>
+      </c>
+      <c r="G5" t="n">
+        <v>6.605063849717146</v>
+      </c>
+      <c r="H5" t="n">
         <v>6.695191696627405</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1.872421359636174</v>
-      </c>
-      <c r="H5" t="n">
-        <v>7.321443383224985</v>
       </c>
     </row>
     <row r="6">
@@ -582,22 +582,22 @@
         <v>5.248869992801782</v>
       </c>
       <c r="C6" t="n">
-        <v>6.546365458675296</v>
+        <v>1.828273517728505</v>
       </c>
       <c r="D6" t="n">
-        <v>7.550816854297683</v>
+        <v>7.250564117008945</v>
       </c>
       <c r="E6" t="n">
         <v>5.85830996853391</v>
       </c>
       <c r="F6" t="n">
+        <v>7.550816854297683</v>
+      </c>
+      <c r="G6" t="n">
+        <v>6.546365458675296</v>
+      </c>
+      <c r="H6" t="n">
         <v>6.656542524109942</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1.828273517728505</v>
-      </c>
-      <c r="H6" t="n">
-        <v>7.250564117008945</v>
       </c>
     </row>
     <row r="7">
@@ -608,22 +608,22 @@
         <v>5.276207199423634</v>
       </c>
       <c r="C7" t="n">
-        <v>6.494077165596534</v>
+        <v>1.78777519483504</v>
       </c>
       <c r="D7" t="n">
-        <v>7.483657780995192</v>
+        <v>7.186798579142803</v>
       </c>
       <c r="E7" t="n">
         <v>5.991528486938404</v>
       </c>
       <c r="F7" t="n">
+        <v>7.483657780995192</v>
+      </c>
+      <c r="G7" t="n">
+        <v>6.494077165596534</v>
+      </c>
+      <c r="H7" t="n">
         <v>6.624628219170216</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1.78777519483504</v>
-      </c>
-      <c r="H7" t="n">
-        <v>7.186798579142803</v>
       </c>
     </row>
     <row r="8">
@@ -634,22 +634,22 @@
         <v>5.299011028423721</v>
       </c>
       <c r="C8" t="n">
-        <v>6.447756366633533</v>
+        <v>1.751418423225174</v>
       </c>
       <c r="D8" t="n">
-        <v>7.424252793685052</v>
+        <v>7.129782844673221</v>
       </c>
       <c r="E8" t="n">
         <v>6.103308184704669</v>
       </c>
       <c r="F8" t="n">
+        <v>7.424252793685052</v>
+      </c>
+      <c r="G8" t="n">
+        <v>6.447756366633533</v>
+      </c>
+      <c r="H8" t="n">
         <v>6.597270876992833</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1.751418423225174</v>
-      </c>
-      <c r="H8" t="n">
-        <v>7.129782844673221</v>
       </c>
     </row>
     <row r="9">
@@ -660,22 +660,22 @@
         <v>5.315860144613757</v>
       </c>
       <c r="C9" t="n">
-        <v>6.406797803458376</v>
+        <v>1.719464726888172</v>
       </c>
       <c r="D9" t="n">
-        <v>7.372453776497648</v>
+        <v>7.079117006874903</v>
       </c>
       <c r="E9" t="n">
         <v>6.188990893146075</v>
       </c>
       <c r="F9" t="n">
+        <v>7.372453776497648</v>
+      </c>
+      <c r="G9" t="n">
+        <v>6.406797803458376</v>
+      </c>
+      <c r="H9" t="n">
         <v>6.573648091135071</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1.719464726888172</v>
-      </c>
-      <c r="H9" t="n">
-        <v>7.079117006874903</v>
       </c>
     </row>
     <row r="10">
@@ -686,22 +686,22 @@
         <v>5.327896441960486</v>
       </c>
       <c r="C10" t="n">
-        <v>6.370781493122087</v>
+        <v>1.691636457714578</v>
       </c>
       <c r="D10" t="n">
-        <v>7.32778852432704</v>
+        <v>7.034692701199414</v>
       </c>
       <c r="E10" t="n">
         <v>6.25136041892407</v>
       </c>
       <c r="F10" t="n">
+        <v>7.32778852432704</v>
+      </c>
+      <c r="G10" t="n">
+        <v>6.370781493122087</v>
+      </c>
+      <c r="H10" t="n">
         <v>6.553916290871717</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1.691636457714578</v>
-      </c>
-      <c r="H10" t="n">
-        <v>7.034692701199414</v>
       </c>
     </row>
     <row r="11">
@@ -712,22 +712,22 @@
         <v>5.336292970222352</v>
       </c>
       <c r="C11" t="n">
-        <v>6.339344481699685</v>
+        <v>1.667587303605193</v>
       </c>
       <c r="D11" t="n">
-        <v>7.289819198679003</v>
+        <v>6.99651449803266</v>
       </c>
       <c r="E11" t="n">
         <v>6.293795548548858</v>
       </c>
       <c r="F11" t="n">
+        <v>7.289819198679003</v>
+      </c>
+      <c r="G11" t="n">
+        <v>6.339344481699685</v>
+      </c>
+      <c r="H11" t="n">
         <v>6.538281675712959</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1.667587303605193</v>
-      </c>
-      <c r="H11" t="n">
-        <v>6.99651449803266</v>
       </c>
     </row>
     <row r="12">
@@ -738,22 +738,22 @@
         <v>5.342222779158859</v>
       </c>
       <c r="C12" t="n">
-        <v>6.312123815266519</v>
+        <v>1.646970952460635</v>
       </c>
       <c r="D12" t="n">
-        <v>7.258107961058596</v>
+        <v>6.964586967759971</v>
       </c>
       <c r="E12" t="n">
         <v>6.319675068530285</v>
       </c>
       <c r="F12" t="n">
+        <v>7.258107961058596</v>
+      </c>
+      <c r="G12" t="n">
+        <v>6.312123815266519</v>
+      </c>
+      <c r="H12" t="n">
         <v>6.526950445169218</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1.646970952460635</v>
-      </c>
-      <c r="H12" t="n">
-        <v>6.964586967759971</v>
       </c>
     </row>
     <row r="13">
@@ -764,22 +764,22 @@
         <v>5.346858918528414</v>
       </c>
       <c r="C13" t="n">
-        <v>6.288756539897824</v>
+        <v>1.629441092181608</v>
       </c>
       <c r="D13" t="n">
-        <v>7.232216972971173</v>
+        <v>6.938914680767404</v>
       </c>
       <c r="E13" t="n">
         <v>6.332377765378691</v>
       </c>
       <c r="F13" t="n">
+        <v>7.232216972971173</v>
+      </c>
+      <c r="G13" t="n">
+        <v>6.288756539897824</v>
+      </c>
+      <c r="H13" t="n">
         <v>6.520128798750692</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1.629441092181608</v>
-      </c>
-      <c r="H13" t="n">
-        <v>6.938914680767404</v>
       </c>
     </row>
     <row r="14">
@@ -790,22 +790,22 @@
         <v>5.351374438090688</v>
       </c>
       <c r="C14" t="n">
-        <v>6.26887970166925</v>
+        <v>1.61465141066858</v>
       </c>
       <c r="D14" t="n">
-        <v>7.21170839592254</v>
+        <v>6.91950220744033</v>
       </c>
       <c r="E14" t="n">
         <v>6.335282425604293</v>
       </c>
       <c r="F14" t="n">
+        <v>7.21170839592254</v>
+      </c>
+      <c r="G14" t="n">
+        <v>6.26887970166925</v>
+      </c>
+      <c r="H14" t="n">
         <v>6.518022935967671</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1.61465141066858</v>
-      </c>
-      <c r="H14" t="n">
-        <v>6.91950220744033</v>
       </c>
     </row>
     <row r="15">
@@ -816,22 +816,22 @@
         <v>5.356942387604198</v>
       </c>
       <c r="C15" t="n">
-        <v>6.252130346655782</v>
+        <v>1.602255595822447</v>
       </c>
       <c r="D15" t="n">
-        <v>7.196144391418072</v>
+        <v>6.906354118164659</v>
       </c>
       <c r="E15" t="n">
         <v>6.331767835717035</v>
       </c>
       <c r="F15" t="n">
+        <v>7.196144391418072</v>
+      </c>
+      <c r="G15" t="n">
+        <v>6.252130346655782</v>
+      </c>
+      <c r="H15" t="n">
         <v>6.520839056330511</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1.602255595822447</v>
-      </c>
-      <c r="H15" t="n">
-        <v>6.906354118164659</v>
       </c>
     </row>
     <row r="16">
@@ -842,22 +842,22 @@
         <v>5.364735816828425</v>
       </c>
       <c r="C16" t="n">
-        <v>6.238145520932743</v>
+        <v>1.591907335543754</v>
       </c>
       <c r="D16" t="n">
-        <v>7.18508712096293</v>
+        <v>6.899474983325799</v>
       </c>
       <c r="E16" t="n">
         <v>6.325212782226963</v>
       </c>
       <c r="F16" t="n">
+        <v>7.18508712096293</v>
+      </c>
+      <c r="G16" t="n">
+        <v>6.238145520932743</v>
+      </c>
+      <c r="H16" t="n">
         <v>6.52878335934951</v>
-      </c>
-      <c r="G16" t="n">
-        <v>1.591907335543754</v>
-      </c>
-      <c r="H16" t="n">
-        <v>6.899474983325799</v>
       </c>
     </row>
     <row r="17">
@@ -868,22 +868,22 @@
         <v>5.375927775521757</v>
       </c>
       <c r="C17" t="n">
-        <v>6.226562270575556</v>
+        <v>1.583260317733263</v>
       </c>
       <c r="D17" t="n">
-        <v>7.178098746062752</v>
+        <v>6.89886937330968</v>
       </c>
       <c r="E17" t="n">
         <v>6.318996051644133</v>
       </c>
       <c r="F17" t="n">
+        <v>7.178098746062752</v>
+      </c>
+      <c r="G17" t="n">
+        <v>6.226562270575556</v>
+      </c>
+      <c r="H17" t="n">
         <v>6.542062044534887</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1.583260317733263</v>
-      </c>
-      <c r="H17" t="n">
-        <v>6.89886937330968</v>
       </c>
     </row>
     <row r="18">
@@ -894,22 +894,22 @@
         <v>5.391691313443775</v>
       </c>
       <c r="C18" t="n">
-        <v>6.217017641659583</v>
+        <v>1.575968230291501</v>
       </c>
       <c r="D18" t="n">
-        <v>7.174741428223225</v>
+        <v>6.904541858501752</v>
       </c>
       <c r="E18" t="n">
         <v>6.316496430478812</v>
       </c>
       <c r="F18" t="n">
+        <v>7.174741428223225</v>
+      </c>
+      <c r="G18" t="n">
+        <v>6.217017641659583</v>
+      </c>
+      <c r="H18" t="n">
         <v>6.560881311397042</v>
-      </c>
-      <c r="G18" t="n">
-        <v>1.575968230291501</v>
-      </c>
-      <c r="H18" t="n">
-        <v>6.904541858501752</v>
       </c>
     </row>
     <row r="19">
@@ -920,22 +920,22 @@
         <v>5.41319948035324</v>
       </c>
       <c r="C19" t="n">
-        <v>6.209148680260109</v>
+        <v>1.569684761119277</v>
       </c>
       <c r="D19" t="n">
-        <v>7.174577328949624</v>
+        <v>6.916497009287788</v>
       </c>
       <c r="E19" t="n">
         <v>6.321092705240963</v>
       </c>
       <c r="F19" t="n">
+        <v>7.174577328949624</v>
+      </c>
+      <c r="G19" t="n">
+        <v>6.209148680260109</v>
+      </c>
+      <c r="H19" t="n">
         <v>6.585447359446154</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1.569684761119277</v>
-      </c>
-      <c r="H19" t="n">
-        <v>6.916497009287788</v>
       </c>
     </row>
     <row r="20">
@@ -946,22 +946,22 @@
         <v>5.441665200100164</v>
       </c>
       <c r="C20" t="n">
-        <v>6.202734546584488</v>
+        <v>1.564035484325043</v>
       </c>
       <c r="D20" t="n">
-        <v>7.177179079306114</v>
+        <v>6.934780633393073</v>
       </c>
       <c r="E20" t="n">
         <v>6.336086625247554</v>
       </c>
       <c r="F20" t="n">
+        <v>7.177179079306114</v>
+      </c>
+      <c r="G20" t="n">
+        <v>6.202734546584488</v>
+      </c>
+      <c r="H20" t="n">
         <v>6.615981064825306</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1.564035484325043</v>
-      </c>
-      <c r="H20" t="n">
-        <v>6.934780633393073</v>
       </c>
     </row>
     <row r="21">
@@ -972,22 +972,22 @@
         <v>5.478235641304536</v>
       </c>
       <c r="C21" t="n">
-        <v>6.198292399209513</v>
+        <v>1.558592310211928</v>
       </c>
       <c r="D21" t="n">
-        <v>7.183256992048408</v>
+        <v>6.960169433829599</v>
       </c>
       <c r="E21" t="n">
         <v>6.36346552066484</v>
       </c>
       <c r="F21" t="n">
+        <v>7.183256992048408</v>
+      </c>
+      <c r="G21" t="n">
+        <v>6.198292399209513</v>
+      </c>
+      <c r="H21" t="n">
         <v>6.653040087078053</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1.558592310211928</v>
-      </c>
-      <c r="H21" t="n">
-        <v>6.960169433829599</v>
       </c>
     </row>
     <row r="22">
@@ -998,22 +998,22 @@
         <v>5.523971016813707</v>
       </c>
       <c r="C22" t="n">
-        <v>6.196611451150945</v>
+        <v>1.553151560632002</v>
       </c>
       <c r="D22" t="n">
-        <v>7.194997014485316</v>
+        <v>6.994022835068103</v>
       </c>
       <c r="E22" t="n">
         <v>6.403848598959172</v>
       </c>
       <c r="F22" t="n">
+        <v>7.194997014485316</v>
+      </c>
+      <c r="G22" t="n">
+        <v>6.196611451150945</v>
+      </c>
+      <c r="H22" t="n">
         <v>6.69768050091537</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1.553151560632002</v>
-      </c>
-      <c r="H22" t="n">
-        <v>6.994022835068103</v>
       </c>
     </row>
     <row r="23">
@@ -1024,22 +1024,22 @@
         <v>5.580013348389998</v>
       </c>
       <c r="C23" t="n">
-        <v>6.198461511618566</v>
+        <v>1.547549233067815</v>
       </c>
       <c r="D23" t="n">
-        <v>7.214677531846101</v>
+        <v>7.037677555989051</v>
       </c>
       <c r="E23" t="n">
         <v>6.457767362609361</v>
       </c>
       <c r="F23" t="n">
+        <v>7.214677531846101</v>
+      </c>
+      <c r="G23" t="n">
+        <v>6.198461511618566</v>
+      </c>
+      <c r="H23" t="n">
         <v>6.751022238880594</v>
-      </c>
-      <c r="G23" t="n">
-        <v>1.547549233067815</v>
-      </c>
-      <c r="H23" t="n">
-        <v>7.037677555989051</v>
       </c>
     </row>
     <row r="24">
@@ -1050,22 +1050,22 @@
         <v>5.647504657795303</v>
       </c>
       <c r="C24" t="n">
-        <v>6.204612389821606</v>
+        <v>1.541621325002015</v>
       </c>
       <c r="D24" t="n">
-        <v>7.244576929360139</v>
+        <v>7.092470315473221</v>
       </c>
       <c r="E24" t="n">
         <v>6.525753314094461</v>
       </c>
       <c r="F24" t="n">
+        <v>7.244576929360139</v>
+      </c>
+      <c r="G24" t="n">
+        <v>6.204612389821606</v>
+      </c>
+      <c r="H24" t="n">
         <v>6.814185233516445</v>
-      </c>
-      <c r="G24" t="n">
-        <v>1.541621325002015</v>
-      </c>
-      <c r="H24" t="n">
-        <v>7.092470315473221</v>
       </c>
     </row>
     <row r="25">
@@ -1076,22 +1076,22 @@
         <v>5.727586966792135</v>
       </c>
       <c r="C25" t="n">
-        <v>6.215833894969562</v>
+        <v>1.535203833917105</v>
       </c>
       <c r="D25" t="n">
-        <v>7.286973592256773</v>
+        <v>7.15973783240122</v>
       </c>
       <c r="E25" t="n">
         <v>6.608337955893077</v>
       </c>
       <c r="F25" t="n">
+        <v>7.286973592256773</v>
+      </c>
+      <c r="G25" t="n">
+        <v>6.215833894969562</v>
+      </c>
+      <c r="H25" t="n">
         <v>6.888289417366536</v>
-      </c>
-      <c r="G25" t="n">
-        <v>1.535203833917105</v>
-      </c>
-      <c r="H25" t="n">
-        <v>7.15973783240122</v>
       </c>
     </row>
     <row r="26">
@@ -1102,22 +1102,22 @@
         <v>5.821402297142589</v>
       </c>
       <c r="C26" t="n">
-        <v>6.232895836271392</v>
+        <v>1.528132757295741</v>
       </c>
       <c r="D26" t="n">
-        <v>7.344145905765552</v>
+        <v>7.240816825653575</v>
       </c>
       <c r="E26" t="n">
         <v>6.706052790484235</v>
       </c>
       <c r="F26" t="n">
+        <v>7.344145905765552</v>
+      </c>
+      <c r="G26" t="n">
+        <v>6.232895836271392</v>
+      </c>
+      <c r="H26" t="n">
         <v>6.974454722973717</v>
-      </c>
-      <c r="G26" t="n">
-        <v>1.528132757295741</v>
-      </c>
-      <c r="H26" t="n">
-        <v>7.240816825653575</v>
       </c>
     </row>
     <row r="27">
@@ -1128,22 +1128,22 @@
         <v>5.930092670609304</v>
       </c>
       <c r="C27" t="n">
-        <v>6.25656802293733</v>
+        <v>1.520244092620415</v>
       </c>
       <c r="D27" t="n">
-        <v>7.418372255115467</v>
+        <v>7.337044014110642</v>
       </c>
       <c r="E27" t="n">
         <v>6.819429320346676</v>
       </c>
       <c r="F27" t="n">
+        <v>7.418372255115467</v>
+      </c>
+      <c r="G27" t="n">
+        <v>6.25656802293733</v>
+      </c>
+      <c r="H27" t="n">
         <v>7.073801082881244</v>
-      </c>
-      <c r="G27" t="n">
-        <v>1.520244092620415</v>
-      </c>
-      <c r="H27" t="n">
-        <v>7.337044014110642</v>
       </c>
     </row>
     <row r="28">
@@ -1154,22 +1154,22 @@
         <v>6.054800108953964</v>
       </c>
       <c r="C28" t="n">
-        <v>6.287620264176429</v>
+        <v>1.511373837373734</v>
       </c>
       <c r="D28" t="n">
-        <v>7.511931025536291</v>
+        <v>7.449756116653341</v>
       </c>
       <c r="E28" t="n">
         <v>6.948999047959614</v>
       </c>
       <c r="F28" t="n">
+        <v>7.511931025536291</v>
+      </c>
+      <c r="G28" t="n">
+        <v>6.287620264176429</v>
+      </c>
+      <c r="H28" t="n">
         <v>7.187448429631816</v>
-      </c>
-      <c r="G28" t="n">
-        <v>1.511373837373734</v>
-      </c>
-      <c r="H28" t="n">
-        <v>7.449756116653341</v>
       </c>
     </row>
     <row r="29">
@@ -1180,22 +1180,22 @@
         <v>6.196666633939307</v>
       </c>
       <c r="C29" t="n">
-        <v>6.326822369198198</v>
+        <v>1.501357989038234</v>
       </c>
       <c r="D29" t="n">
-        <v>7.627100602257376</v>
+        <v>7.580289852162075</v>
       </c>
       <c r="E29" t="n">
         <v>7.095293475801555</v>
       </c>
       <c r="F29" t="n">
+        <v>7.627100602257376</v>
+      </c>
+      <c r="G29" t="n">
+        <v>6.326822369198198</v>
+      </c>
+      <c r="H29" t="n">
         <v>7.316516695769144</v>
-      </c>
-      <c r="G29" t="n">
-        <v>1.501357989038234</v>
-      </c>
-      <c r="H29" t="n">
-        <v>7.580289852162075</v>
       </c>
     </row>
     <row r="30">
@@ -1206,22 +1206,22 @@
         <v>6.35683426732701</v>
       </c>
       <c r="C30" t="n">
-        <v>6.37494414721179</v>
+        <v>1.490032545096649</v>
       </c>
       <c r="D30" t="n">
-        <v>7.76615937050828</v>
+        <v>7.729981939517534</v>
       </c>
       <c r="E30" t="n">
         <v>7.25884410635145</v>
       </c>
       <c r="F30" t="n">
+        <v>7.76615937050828</v>
+      </c>
+      <c r="G30" t="n">
+        <v>6.37494414721179</v>
+      </c>
+      <c r="H30" t="n">
         <v>7.462125813836054</v>
-      </c>
-      <c r="G30" t="n">
-        <v>1.490032545096649</v>
-      </c>
-      <c r="H30" t="n">
-        <v>7.729981939517534</v>
       </c>
     </row>
     <row r="31">
@@ -1232,22 +1232,22 @@
         <v>6.536445030880063</v>
       </c>
       <c r="C31" t="n">
-        <v>6.432755407427113</v>
+        <v>1.477233503031399</v>
       </c>
       <c r="D31" t="n">
-        <v>7.931385715517896</v>
+        <v>7.900169097600048</v>
       </c>
       <c r="E31" t="n">
         <v>7.440182442088166</v>
       </c>
       <c r="F31" t="n">
+        <v>7.931385715517896</v>
+      </c>
+      <c r="G31" t="n">
+        <v>6.432755407427113</v>
+      </c>
+      <c r="H31" t="n">
         <v>7.625395716375783</v>
-      </c>
-      <c r="G31" t="n">
-        <v>1.477233503031399</v>
-      </c>
-      <c r="H31" t="n">
-        <v>7.900169097600048</v>
       </c>
     </row>
     <row r="32">
@@ -1258,22 +1258,22 @@
         <v>6.736541000357665</v>
       </c>
       <c r="C32" t="n">
-        <v>6.500866221700126</v>
+        <v>1.462851621674551</v>
       </c>
       <c r="D32" t="n">
-        <v>8.125219260368572</v>
+        <v>8.092227551161027</v>
       </c>
       <c r="E32" t="n">
         <v>7.639844242006438</v>
       </c>
       <c r="F32" t="n">
+        <v>8.125219260368572</v>
+      </c>
+      <c r="G32" t="n">
+        <v>6.500866221700126</v>
+      </c>
+      <c r="H32" t="n">
         <v>7.807532931555128</v>
-      </c>
-      <c r="G32" t="n">
-        <v>1.462851621674551</v>
-      </c>
-      <c r="H32" t="n">
-        <v>8.092227551161027</v>
       </c>
     </row>
     <row r="33">
@@ -1284,22 +1284,22 @@
         <v>6.957391414977368</v>
       </c>
       <c r="C33" t="n">
-        <v>6.579235407714684</v>
+        <v>1.447120475873655</v>
       </c>
       <c r="D33" t="n">
-        <v>8.349958628068974</v>
+        <v>8.307550232200967</v>
       </c>
       <c r="E33" t="n">
         <v>7.85873558437491</v>
       </c>
       <c r="F33" t="n">
+        <v>8.349958628068974</v>
+      </c>
+      <c r="G33" t="n">
+        <v>6.579235407714684</v>
+      </c>
+      <c r="H33" t="n">
         <v>8.010414739199922</v>
-      </c>
-      <c r="G33" t="n">
-        <v>1.447120475873655</v>
-      </c>
-      <c r="H33" t="n">
-        <v>8.307550232200967</v>
       </c>
     </row>
     <row r="34">
@@ -1310,22 +1310,22 @@
         <v>7.198569737794878</v>
       </c>
       <c r="C34" t="n">
-        <v>6.667790728409908</v>
+        <v>1.430505571771392</v>
       </c>
       <c r="D34" t="n">
-        <v>8.606668221342854</v>
+        <v>8.547687451014474</v>
       </c>
       <c r="E34" t="n">
         <v>8.098117155880315</v>
       </c>
       <c r="F34" t="n">
+        <v>8.606668221342854</v>
+      </c>
+      <c r="G34" t="n">
+        <v>6.667790728409908</v>
+      </c>
+      <c r="H34" t="n">
         <v>8.23608396858627</v>
-      </c>
-      <c r="G34" t="n">
-        <v>1.430505571771392</v>
-      </c>
-      <c r="H34" t="n">
-        <v>8.547687451014474</v>
       </c>
     </row>
     <row r="35">
@@ -1336,22 +1336,22 @@
         <v>7.459567055312616</v>
       </c>
       <c r="C35" t="n">
-        <v>6.766501182199926</v>
+        <v>1.413504031343135</v>
       </c>
       <c r="D35" t="n">
-        <v>8.89628450652777</v>
+        <v>8.814283693658316</v>
       </c>
       <c r="E35" t="n">
         <v>8.359255540842192</v>
       </c>
       <c r="F35" t="n">
+        <v>8.89628450652777</v>
+      </c>
+      <c r="G35" t="n">
+        <v>6.766501182199926</v>
+      </c>
+      <c r="H35" t="n">
         <v>8.48654622269537</v>
-      </c>
-      <c r="G35" t="n">
-        <v>1.413504031343135</v>
-      </c>
-      <c r="H35" t="n">
-        <v>8.814283693658316</v>
       </c>
     </row>
     <row r="36">
@@ -1362,22 +1362,22 @@
         <v>7.739874454032289</v>
       </c>
       <c r="C36" t="n">
-        <v>6.87533576749945</v>
+        <v>1.396612976564422</v>
       </c>
       <c r="D36" t="n">
-        <v>9.21974394996384</v>
+        <v>9.10898344618934</v>
       </c>
       <c r="E36" t="n">
         <v>8.643417323580646</v>
       </c>
       <c r="F36" t="n">
+        <v>9.21974394996384</v>
+      </c>
+      <c r="G36" t="n">
+        <v>6.87533576749945</v>
+      </c>
+      <c r="H36" t="n">
         <v>8.763807104508345</v>
-      </c>
-      <c r="G36" t="n">
-        <v>1.396612976564422</v>
-      </c>
-      <c r="H36" t="n">
-        <v>9.10898344618934</v>
       </c>
     </row>
     <row r="37">
@@ -1388,22 +1388,22 @@
         <v>8.038983020456163</v>
       </c>
       <c r="C37" t="n">
-        <v>6.99426348272257</v>
+        <v>1.380329529410701</v>
       </c>
       <c r="D37" t="n">
-        <v>9.577983017988435</v>
+        <v>9.433431194665108</v>
       </c>
       <c r="E37" t="n">
         <v>8.951869088415226</v>
       </c>
       <c r="F37" t="n">
+        <v>9.577983017988435</v>
+      </c>
+      <c r="G37" t="n">
+        <v>6.99426348272257</v>
+      </c>
+      <c r="H37" t="n">
         <v>9.069872217006862</v>
-      </c>
-      <c r="G37" t="n">
-        <v>1.380329529410701</v>
-      </c>
-      <c r="H37" t="n">
-        <v>9.433431194665108</v>
       </c>
     </row>
     <row r="38">
@@ -1414,22 +1414,22 @@
         <v>8.356383841084739</v>
       </c>
       <c r="C38" t="n">
-        <v>7.123253326284057</v>
+        <v>1.36515081185753</v>
       </c>
       <c r="D38" t="n">
-        <v>9.971938176941643</v>
+        <v>9.789271425142601</v>
       </c>
       <c r="E38" t="n">
         <v>9.285877419665846</v>
       </c>
       <c r="F38" t="n">
+        <v>9.971938176941643</v>
+      </c>
+      <c r="G38" t="n">
+        <v>7.123253326284057</v>
+      </c>
+      <c r="H38" t="n">
         <v>9.406747163172254</v>
-      </c>
-      <c r="G38" t="n">
-        <v>1.36515081185753</v>
-      </c>
-      <c r="H38" t="n">
-        <v>9.789271425142601</v>
       </c>
     </row>
     <row r="39">
@@ -1440,22 +1440,22 @@
         <v>8.691568002421583</v>
       </c>
       <c r="C39" t="n">
-        <v>7.262274296597958</v>
+        <v>1.351573945880331</v>
       </c>
       <c r="D39" t="n">
-        <v>10.40254589316063</v>
+        <v>10.17814862367852</v>
       </c>
       <c r="E39" t="n">
         <v>9.646708901652069</v>
       </c>
       <c r="F39" t="n">
+        <v>10.40254589316063</v>
+      </c>
+      <c r="G39" t="n">
+        <v>7.262274296597958</v>
+      </c>
+      <c r="H39" t="n">
         <v>9.776437545985871</v>
-      </c>
-      <c r="G39" t="n">
-        <v>1.351573945880331</v>
-      </c>
-      <c r="H39" t="n">
-        <v>10.17814862367852</v>
       </c>
     </row>
     <row r="40">
@@ -1466,22 +1466,22 @@
         <v>9.044026590968061</v>
       </c>
       <c r="C40" t="n">
-        <v>7.411295392078928</v>
+        <v>1.340096053454564</v>
       </c>
       <c r="D40" t="n">
-        <v>10.87074263298585</v>
+        <v>10.60170727633008</v>
       </c>
       <c r="E40" t="n">
         <v>10.03563011869379</v>
       </c>
       <c r="F40" t="n">
+        <v>10.87074263298585</v>
+      </c>
+      <c r="G40" t="n">
+        <v>7.411295392078928</v>
+      </c>
+      <c r="H40" t="n">
         <v>10.18094896842866</v>
-      </c>
-      <c r="G40" t="n">
-        <v>1.340096053454564</v>
-      </c>
-      <c r="H40" t="n">
-        <v>10.60170727633008</v>
       </c>
     </row>
     <row r="41">
@@ -1492,22 +1492,22 @@
         <v>9.41325069322626</v>
       </c>
       <c r="C41" t="n">
-        <v>7.570285611141426</v>
+        <v>1.331214256555747</v>
       </c>
       <c r="D41" t="n">
-        <v>11.37746486275408</v>
+        <v>11.06159186915427</v>
       </c>
       <c r="E41" t="n">
         <v>10.45390765511061</v>
       </c>
       <c r="F41" t="n">
+        <v>11.37746486275408</v>
+      </c>
+      <c r="G41" t="n">
+        <v>7.570285611141426</v>
+      </c>
+      <c r="H41" t="n">
         <v>10.62228703348231</v>
-      </c>
-      <c r="G41" t="n">
-        <v>1.331214256555747</v>
-      </c>
-      <c r="H41" t="n">
-        <v>11.06159186915427</v>
       </c>
     </row>
     <row r="42">
@@ -1518,22 +1518,22 @@
         <v>9.798731395697201</v>
       </c>
       <c r="C42" t="n">
-        <v>7.739213952200038</v>
+        <v>1.325425677159406</v>
       </c>
       <c r="D42" t="n">
-        <v>11.9236490488061</v>
+        <v>11.55944688820811</v>
       </c>
       <c r="E42" t="n">
         <v>10.90280809522244</v>
       </c>
       <c r="F42" t="n">
+        <v>11.9236490488061</v>
+      </c>
+      <c r="G42" t="n">
+        <v>7.739213952200038</v>
+      </c>
+      <c r="H42" t="n">
         <v>11.10245734412833</v>
-      </c>
-      <c r="G42" t="n">
-        <v>1.325425677159406</v>
-      </c>
-      <c r="H42" t="n">
-        <v>11.55944688820811</v>
       </c>
     </row>
     <row r="43">
@@ -1544,22 +1544,22 @@
         <v>10.19995978488362</v>
       </c>
       <c r="C43" t="n">
-        <v>7.918049413668592</v>
+        <v>1.323227437240961</v>
       </c>
       <c r="D43" t="n">
-        <v>12.5102316574779</v>
+        <v>12.09691681954848</v>
       </c>
       <c r="E43" t="n">
         <v>11.38359802334873</v>
       </c>
       <c r="F43" t="n">
+        <v>12.5102316574779</v>
+      </c>
+      <c r="G43" t="n">
+        <v>7.918049413668592</v>
+      </c>
+      <c r="H43" t="n">
         <v>11.62346550334796</v>
-      </c>
-      <c r="G43" t="n">
-        <v>1.323227437240961</v>
-      </c>
-      <c r="H43" t="n">
-        <v>12.09691681954848</v>
       </c>
     </row>
     <row r="44">
@@ -1570,22 +1570,22 @@
         <v>10.61648122627273</v>
       </c>
       <c r="C44" t="n">
-        <v>8.10692862651505</v>
+        <v>1.325028930615747</v>
       </c>
       <c r="D44" t="n">
-        <v>13.13775459928308</v>
+        <v>12.67540880067004</v>
       </c>
       <c r="E44" t="n">
         <v>11.89742054919022</v>
       </c>
       <c r="F44" t="n">
+        <v>13.13775459928308</v>
+      </c>
+      <c r="G44" t="n">
+        <v>8.10692862651505</v>
+      </c>
+      <c r="H44" t="n">
         <v>12.187029172309</v>
-      </c>
-      <c r="G44" t="n">
-        <v>1.325028930615747</v>
-      </c>
-      <c r="H44" t="n">
-        <v>12.67540880067004</v>
       </c>
     </row>
     <row r="45">
@@ -1596,22 +1596,22 @@
         <v>11.04824474448158</v>
       </c>
       <c r="C45" t="n">
-        <v>8.306572653831054</v>
+        <v>1.330666121066892</v>
       </c>
       <c r="D45" t="n">
-        <v>13.80483311271941</v>
+        <v>13.29472494892654</v>
       </c>
       <c r="E45" t="n">
         <v>12.44417882572663</v>
       </c>
       <c r="F45" t="n">
+        <v>13.80483311271941</v>
+      </c>
+      <c r="G45" t="n">
+        <v>8.306572653831054</v>
+      </c>
+      <c r="H45" t="n">
         <v>12.79241929514574</v>
-      </c>
-      <c r="G45" t="n">
-        <v>1.330666121066892</v>
-      </c>
-      <c r="H45" t="n">
-        <v>13.29472494892654</v>
       </c>
     </row>
     <row r="46">
@@ -1622,22 +1622,22 @@
         <v>11.49580605791236</v>
       </c>
       <c r="C46" t="n">
-        <v>8.517598136188264</v>
+        <v>1.339522214443272</v>
       </c>
       <c r="D46" t="n">
-        <v>14.50963224644277</v>
+        <v>13.95346026200772</v>
       </c>
       <c r="E46" t="n">
         <v>13.02302653453837</v>
       </c>
       <c r="F46" t="n">
+        <v>14.50963224644277</v>
+      </c>
+      <c r="G46" t="n">
+        <v>8.517598136188264</v>
+      </c>
+      <c r="H46" t="n">
         <v>13.43783477829457</v>
-      </c>
-      <c r="G46" t="n">
-        <v>1.339522214443272</v>
-      </c>
-      <c r="H46" t="n">
-        <v>13.95346026200772</v>
       </c>
     </row>
     <row r="47">
@@ -1648,22 +1648,22 @@
         <v>11.95979349829584</v>
       </c>
       <c r="C47" t="n">
-        <v>8.740581075295632</v>
+        <v>1.35092110059016</v>
       </c>
       <c r="D47" t="n">
-        <v>15.25034242139664</v>
+        <v>14.65008679528817</v>
       </c>
       <c r="E47" t="n">
         <v>13.63311351729091</v>
       </c>
       <c r="F47" t="n">
+        <v>15.25034242139664</v>
+      </c>
+      <c r="G47" t="n">
+        <v>8.740581075295632</v>
+      </c>
+      <c r="H47" t="n">
         <v>14.1215288511553</v>
-      </c>
-      <c r="G47" t="n">
-        <v>1.35092110059016</v>
-      </c>
-      <c r="H47" t="n">
-        <v>14.65008679528817</v>
       </c>
     </row>
     <row r="48">
@@ -1674,22 +1674,22 @@
         <v>12.4408353973611</v>
       </c>
       <c r="C48" t="n">
-        <v>8.976097472862692</v>
+        <v>1.364186669352965</v>
       </c>
       <c r="D48" t="n">
-        <v>16.02515405853034</v>
+        <v>15.38307660414309</v>
       </c>
       <c r="E48" t="n">
         <v>14.27358961564966</v>
       </c>
       <c r="F48" t="n">
+        <v>16.02515405853034</v>
+      </c>
+      <c r="G48" t="n">
+        <v>8.976097472862692</v>
+      </c>
+      <c r="H48" t="n">
         <v>14.84175474312571</v>
-      </c>
-      <c r="G48" t="n">
-        <v>1.364186669352965</v>
-      </c>
-      <c r="H48" t="n">
-        <v>15.38307660414309</v>
       </c>
     </row>
     <row r="49">
@@ -1700,22 +1700,22 @@
         <v>12.9395600868379</v>
       </c>
       <c r="C49" t="n">
-        <v>9.224723330598973</v>
+        <v>1.378642810577104</v>
       </c>
       <c r="D49" t="n">
-        <v>16.83225757878735</v>
+        <v>16.15090174394752</v>
       </c>
       <c r="E49" t="n">
         <v>14.94360467127984</v>
       </c>
       <c r="F49" t="n">
+        <v>16.83225757878735</v>
+      </c>
+      <c r="G49" t="n">
+        <v>9.224723330598973</v>
+      </c>
+      <c r="H49" t="n">
         <v>15.59676568360565</v>
-      </c>
-      <c r="G49" t="n">
-        <v>1.378642810577104</v>
-      </c>
-      <c r="H49" t="n">
-        <v>16.15090174394752</v>
       </c>
     </row>
     <row r="50">
@@ -1726,22 +1726,22 @@
         <v>13.45659589845514</v>
       </c>
       <c r="C50" t="n">
-        <v>9.487034650213063</v>
+        <v>1.393613414107828</v>
       </c>
       <c r="D50" t="n">
-        <v>17.66984340311664</v>
+        <v>16.95203427007614</v>
       </c>
       <c r="E50" t="n">
         <v>15.64230852584763</v>
       </c>
       <c r="F50" t="n">
+        <v>17.66984340311664</v>
+      </c>
+      <c r="G50" t="n">
+        <v>9.487034650213063</v>
+      </c>
+      <c r="H50" t="n">
         <v>16.38481490199426</v>
-      </c>
-      <c r="G50" t="n">
-        <v>1.393613414107828</v>
-      </c>
-      <c r="H50" t="n">
-        <v>16.95203427007614</v>
       </c>
     </row>
     <row r="51">
@@ -1752,22 +1752,22 @@
         <v>13.99257116394318</v>
       </c>
       <c r="C51" t="n">
-        <v>9.763607433414633</v>
+        <v>1.408422369790462</v>
       </c>
       <c r="D51" t="n">
-        <v>18.53610195246105</v>
+        <v>17.78494623790341</v>
       </c>
       <c r="E51" t="n">
         <v>16.36885102101835</v>
       </c>
       <c r="F51" t="n">
+        <v>18.53610195246105</v>
+      </c>
+      <c r="G51" t="n">
+        <v>9.763607433414633</v>
+      </c>
+      <c r="H51" t="n">
         <v>17.20415562769071</v>
-      </c>
-      <c r="G51" t="n">
-        <v>1.408422369790462</v>
-      </c>
-      <c r="H51" t="n">
-        <v>17.78494623790341</v>
       </c>
     </row>
     <row r="52">
@@ -1778,22 +1778,22 @@
         <v>14.54811421503111</v>
       </c>
       <c r="C52" t="n">
-        <v>10.05501768191301</v>
+        <v>1.422393567470376</v>
       </c>
       <c r="D52" t="n">
-        <v>19.42922364777057</v>
+        <v>18.64810970280387</v>
       </c>
       <c r="E52" t="n">
         <v>17.12238199845771</v>
       </c>
       <c r="F52" t="n">
+        <v>19.42922364777057</v>
+      </c>
+      <c r="G52" t="n">
+        <v>10.05501768191301</v>
+      </c>
+      <c r="H52" t="n">
         <v>18.05304109009299</v>
-      </c>
-      <c r="G52" t="n">
-        <v>1.422393567470376</v>
-      </c>
-      <c r="H52" t="n">
-        <v>18.64810970280387</v>
       </c>
     </row>
     <row r="53">
@@ -1804,22 +1804,22 @@
         <v>15.12385338344908</v>
       </c>
       <c r="C53" t="n">
-        <v>10.36184139741742</v>
+        <v>1.43485089699291</v>
       </c>
       <c r="D53" t="n">
-        <v>20.34739890998958</v>
+        <v>19.53999672015438</v>
       </c>
       <c r="E53" t="n">
         <v>17.90205129983078</v>
       </c>
       <c r="F53" t="n">
+        <v>20.34739890998958</v>
+      </c>
+      <c r="G53" t="n">
+        <v>10.36184139741742</v>
+      </c>
+      <c r="H53" t="n">
         <v>18.92972451860112</v>
-      </c>
-      <c r="G53" t="n">
-        <v>1.43485089699291</v>
-      </c>
-      <c r="H53" t="n">
-        <v>19.53999672015438</v>
       </c>
     </row>
     <row r="54">
@@ -1830,22 +1830,22 @@
         <v>15.72041700092514</v>
       </c>
       <c r="C54" t="n">
-        <v>10.6846545816368</v>
+        <v>1.44511824820335</v>
       </c>
       <c r="D54" t="n">
-        <v>21.28881816006639</v>
+        <v>20.45907934532856</v>
       </c>
       <c r="E54" t="n">
         <v>18.70700876680404</v>
       </c>
       <c r="F54" t="n">
+        <v>21.28881816006639</v>
+      </c>
+      <c r="G54" t="n">
+        <v>10.6846545816368</v>
+      </c>
+      <c r="H54" t="n">
         <v>19.83245914261378</v>
-      </c>
-      <c r="G54" t="n">
-        <v>1.44511824820335</v>
-      </c>
-      <c r="H54" t="n">
-        <v>20.45907934532856</v>
       </c>
     </row>
     <row r="55">
@@ -1856,22 +1856,22 @@
         <v>16.33843339919051</v>
       </c>
       <c r="C55" t="n">
-        <v>11.02403323628064</v>
+        <v>1.45251951094703</v>
       </c>
       <c r="D55" t="n">
-        <v>22.25167181894425</v>
+        <v>21.40382963370079</v>
       </c>
       <c r="E55" t="n">
         <v>19.5364042410428</v>
       </c>
       <c r="F55" t="n">
+        <v>22.25167181894425</v>
+      </c>
+      <c r="G55" t="n">
+        <v>11.02403323628064</v>
+      </c>
+      <c r="H55" t="n">
         <v>20.75949819153076</v>
-      </c>
-      <c r="G55" t="n">
-        <v>1.45251951094703</v>
-      </c>
-      <c r="H55" t="n">
-        <v>21.40382963370079</v>
       </c>
     </row>
     <row r="56">
@@ -1882,22 +1882,22 @@
         <v>16.97840557093316</v>
       </c>
       <c r="C56" t="n">
-        <v>11.38028810371942</v>
+        <v>1.456520657910587</v>
       </c>
       <c r="D56" t="n">
-        <v>23.23444388443596</v>
+        <v>22.37290034461448</v>
       </c>
       <c r="E56" t="n">
         <v>20.38928245274306</v>
       </c>
       <c r="F56" t="n">
+        <v>23.23444388443596</v>
+      </c>
+      <c r="G56" t="n">
+        <v>11.38028810371942</v>
+      </c>
+      <c r="H56" t="n">
         <v>21.70928268607247</v>
-      </c>
-      <c r="G56" t="n">
-        <v>1.456520657910587</v>
-      </c>
-      <c r="H56" t="n">
-        <v>22.37290034461448</v>
       </c>
     </row>
     <row r="57">
@@ -1908,22 +1908,22 @@
         <v>17.63902403581332</v>
       </c>
       <c r="C57" t="n">
-        <v>11.75206260957444</v>
+        <v>1.457472571026196</v>
       </c>
       <c r="D57" t="n">
-        <v>24.23671563485465</v>
+        <v>23.36514622763608</v>
       </c>
       <c r="E57" t="n">
         <v>21.26329755046734</v>
       </c>
       <c r="F57" t="n">
+        <v>24.23671563485465</v>
+      </c>
+      <c r="G57" t="n">
+        <v>11.75206260957444</v>
+      </c>
+      <c r="H57" t="n">
         <v>22.68073256481715</v>
-      </c>
-      <c r="G57" t="n">
-        <v>1.457472571026196</v>
-      </c>
-      <c r="H57" t="n">
-        <v>23.36514622763608</v>
       </c>
     </row>
     <row r="58">
@@ -1934,22 +1934,22 @@
         <v>18.31691782778632</v>
       </c>
       <c r="C58" t="n">
-        <v>12.13686878770162</v>
+        <v>1.4562216077808</v>
       </c>
       <c r="D58" t="n">
-        <v>25.25776503156164</v>
+        <v>24.37796443603198</v>
       </c>
       <c r="E58" t="n">
         <v>22.15413779837942</v>
       </c>
       <c r="F58" t="n">
+        <v>25.25776503156164</v>
+      </c>
+      <c r="G58" t="n">
+        <v>12.13686878770162</v>
+      </c>
+      <c r="H58" t="n">
         <v>23.67093784997629</v>
-      </c>
-      <c r="G58" t="n">
-        <v>1.4562216077808</v>
-      </c>
-      <c r="H58" t="n">
-        <v>24.37796443603198</v>
       </c>
     </row>
     <row r="59">
@@ -1960,22 +1960,22 @@
         <v>19.00855083757527</v>
       </c>
       <c r="C59" t="n">
-        <v>12.53211774514727</v>
+        <v>1.453653044107628</v>
       </c>
       <c r="D59" t="n">
-        <v>26.29677037108645</v>
+        <v>25.40846661815386</v>
       </c>
       <c r="E59" t="n">
         <v>23.05722518889113</v>
       </c>
       <c r="F59" t="n">
+        <v>26.29677037108645</v>
+      </c>
+      <c r="G59" t="n">
+        <v>12.53211774514727</v>
+      </c>
+      <c r="H59" t="n">
         <v>24.67656528219989</v>
-      </c>
-      <c r="G59" t="n">
-        <v>1.453653044107628</v>
-      </c>
-      <c r="H59" t="n">
-        <v>25.40846661815386</v>
       </c>
     </row>
     <row r="60">
@@ -1986,22 +1986,22 @@
         <v>19.71038695590017</v>
       </c>
       <c r="C60" t="n">
-        <v>12.93522058895738</v>
+        <v>1.450652155939733</v>
       </c>
       <c r="D60" t="n">
-        <v>27.35290994996698</v>
+        <v>26.4537644223542</v>
       </c>
       <c r="E60" t="n">
         <v>23.9679817144155</v>
       </c>
       <c r="F60" t="n">
+        <v>27.35290994996698</v>
+      </c>
+      <c r="G60" t="n">
+        <v>12.93522058895738</v>
+      </c>
+      <c r="H60" t="n">
         <v>25.69428160213796</v>
-      </c>
-      <c r="G60" t="n">
-        <v>1.450652155939733</v>
-      </c>
-      <c r="H60" t="n">
-        <v>26.4537644223542</v>
       </c>
     </row>
     <row r="61">
@@ -2012,22 +2012,22 @@
         <v>20.41889007348336</v>
       </c>
       <c r="C61" t="n">
-        <v>13.34358842617729</v>
+        <v>1.448104219210377</v>
       </c>
       <c r="D61" t="n">
-        <v>28.42536206473429</v>
+        <v>27.51096949698672</v>
       </c>
       <c r="E61" t="n">
         <v>24.88182936736446</v>
       </c>
       <c r="F61" t="n">
+        <v>28.42536206473429</v>
+      </c>
+      <c r="G61" t="n">
+        <v>13.34358842617729</v>
+      </c>
+      <c r="H61" t="n">
         <v>26.72075355044172</v>
-      </c>
-      <c r="G61" t="n">
-        <v>1.448104219210377</v>
-      </c>
-      <c r="H61" t="n">
-        <v>27.51096949698672</v>
       </c>
     </row>
     <row r="62">
@@ -2038,22 +2038,22 @@
         <v>21.13052408104239</v>
       </c>
       <c r="C62" t="n">
-        <v>13.75463236385275</v>
+        <v>1.446894509852657</v>
       </c>
       <c r="D62" t="n">
-        <v>29.51330501192522</v>
+        <v>28.5771934904021</v>
       </c>
       <c r="E62" t="n">
         <v>25.79419014015015</v>
       </c>
       <c r="F62" t="n">
+        <v>29.51330501192522</v>
+      </c>
+      <c r="G62" t="n">
+        <v>13.75463236385275</v>
+      </c>
+      <c r="H62" t="n">
         <v>27.75264786776164</v>
-      </c>
-      <c r="G62" t="n">
-        <v>1.446894509852657</v>
-      </c>
-      <c r="H62" t="n">
-        <v>28.5771934904021</v>
       </c>
     </row>
     <row r="63">
@@ -2064,22 +2064,22 @@
         <v>21.84175286930228</v>
       </c>
       <c r="C63" t="n">
-        <v>14.16576350902996</v>
+        <v>1.447908303799826</v>
       </c>
       <c r="D63" t="n">
-        <v>30.61591708806963</v>
+        <v>29.64954805095218</v>
       </c>
       <c r="E63" t="n">
         <v>26.70048602518471</v>
       </c>
       <c r="F63" t="n">
+        <v>30.61591708806963</v>
+      </c>
+      <c r="G63" t="n">
+        <v>14.16576350902996</v>
+      </c>
+      <c r="H63" t="n">
         <v>28.78663129474747</v>
-      </c>
-      <c r="G63" t="n">
-        <v>1.447908303799826</v>
-      </c>
-      <c r="H63" t="n">
-        <v>29.64954805095218</v>
       </c>
     </row>
     <row r="64">
@@ -2090,22 +2090,22 @@
         <v>22.54904032898223</v>
       </c>
       <c r="C64" t="n">
-        <v>14.57439296875454</v>
+        <v>1.452030876984874</v>
       </c>
       <c r="D64" t="n">
-        <v>31.73237658970534</v>
+        <v>30.72514482699017</v>
       </c>
       <c r="E64" t="n">
         <v>27.59613901488086</v>
       </c>
       <c r="F64" t="n">
+        <v>31.73237658970534</v>
+      </c>
+      <c r="G64" t="n">
+        <v>14.57439296875454</v>
+      </c>
+      <c r="H64" t="n">
         <v>29.81937057204981</v>
-      </c>
-      <c r="G64" t="n">
-        <v>1.452030876984874</v>
-      </c>
-      <c r="H64" t="n">
-        <v>30.72514482699017</v>
       </c>
     </row>
     <row r="65">
@@ -2116,22 +2116,22 @@
         <v>23.24885035080441</v>
       </c>
       <c r="C65" t="n">
-        <v>14.97793185007277</v>
+        <v>1.460147505341095</v>
       </c>
       <c r="D65" t="n">
-        <v>32.8618618133621</v>
+        <v>31.80109546686841</v>
       </c>
       <c r="E65" t="n">
         <v>28.47657110165072</v>
       </c>
       <c r="F65" t="n">
+        <v>32.8618618133621</v>
+      </c>
+      <c r="G65" t="n">
+        <v>14.97793185007277</v>
+      </c>
+      <c r="H65" t="n">
         <v>30.84753244031941</v>
-      </c>
-      <c r="G65" t="n">
-        <v>1.460147505341095</v>
-      </c>
-      <c r="H65" t="n">
-        <v>31.80109546686841</v>
       </c>
     </row>
     <row r="66">
@@ -2142,22 +2142,22 @@
         <v>23.93764682548732</v>
       </c>
       <c r="C66" t="n">
-        <v>15.37379126003011</v>
+        <v>1.473143464801585</v>
       </c>
       <c r="D66" t="n">
-        <v>34.00355105557765</v>
+        <v>32.87451161893804</v>
       </c>
       <c r="E66" t="n">
         <v>29.33720427790589</v>
       </c>
       <c r="F66" t="n">
+        <v>34.00355105557765</v>
+      </c>
+      <c r="G66" t="n">
+        <v>15.37379126003011</v>
+      </c>
+      <c r="H66" t="n">
         <v>31.86778364020747</v>
-      </c>
-      <c r="G66" t="n">
-        <v>1.473143464801585</v>
-      </c>
-      <c r="H66" t="n">
-        <v>32.87451161893804</v>
       </c>
     </row>
     <row r="67">
@@ -2168,22 +2168,22 @@
         <v>24.61189364375418</v>
       </c>
       <c r="C67" t="n">
-        <v>15.75938230567228</v>
+        <v>1.491904031299537</v>
       </c>
       <c r="D67" t="n">
-        <v>35.15662261288129</v>
+        <v>33.94250493155124</v>
       </c>
       <c r="E67" t="n">
         <v>30.17346053605853</v>
       </c>
       <c r="F67" t="n">
+        <v>35.15662261288129</v>
+      </c>
+      <c r="G67" t="n">
+        <v>15.75938230567228</v>
+      </c>
+      <c r="H67" t="n">
         <v>32.87679091236276</v>
-      </c>
-      <c r="G67" t="n">
-        <v>1.491904031299537</v>
-      </c>
-      <c r="H67" t="n">
-        <v>33.94250493155124</v>
       </c>
     </row>
     <row r="68">
@@ -2194,22 +2194,22 @@
         <v>25.26810506530417</v>
       </c>
       <c r="C68" t="n">
-        <v>16.13241595855177</v>
+        <v>1.517120878725765</v>
       </c>
       <c r="D68" t="n">
-        <v>36.31991905355903</v>
+        <v>35.00172153048346</v>
       </c>
       <c r="E68" t="n">
         <v>30.98088015946134</v>
       </c>
       <c r="F68" t="n">
+        <v>36.31991905355903</v>
+      </c>
+      <c r="G68" t="n">
+        <v>16.13241595855177</v>
+      </c>
+      <c r="H68" t="n">
         <v>33.87088692743419</v>
-      </c>
-      <c r="G68" t="n">
-        <v>1.517120878725765</v>
-      </c>
-      <c r="H68" t="n">
-        <v>35.00172153048346</v>
       </c>
     </row>
     <row r="69">
@@ -2220,22 +2220,22 @@
         <v>25.90374682096208</v>
       </c>
       <c r="C69" t="n">
-        <v>16.49296055977607</v>
+        <v>1.548247639690246</v>
       </c>
       <c r="D69" t="n">
-        <v>37.48811348909041</v>
+        <v>36.04595907001164</v>
       </c>
       <c r="E69" t="n">
         <v>31.75616307934857</v>
       </c>
       <c r="F69" t="n">
+        <v>37.48811348909041</v>
+      </c>
+      <c r="G69" t="n">
+        <v>16.49296055977607</v>
+      </c>
+      <c r="H69" t="n">
         <v>34.84407559068372</v>
-      </c>
-      <c r="G69" t="n">
-        <v>1.548247639690246</v>
-      </c>
-      <c r="H69" t="n">
-        <v>36.04595907001164</v>
       </c>
     </row>
     <row r="70">
@@ -2246,22 +2246,22 @@
         <v>26.51737341267979</v>
       </c>
       <c r="C70" t="n">
-        <v>16.84318982480195</v>
+        <v>1.584119633869158</v>
       </c>
       <c r="D70" t="n">
-        <v>38.6508831699375</v>
+        <v>37.06904194168602</v>
       </c>
       <c r="E70" t="n">
         <v>32.49758844141426</v>
       </c>
       <c r="F70" t="n">
+        <v>38.6508831699375</v>
+      </c>
+      <c r="G70" t="n">
+        <v>16.84318982480195</v>
+      </c>
+      <c r="H70" t="n">
         <v>35.79035861075599</v>
-      </c>
-      <c r="G70" t="n">
-        <v>1.584119633869158</v>
-      </c>
-      <c r="H70" t="n">
-        <v>37.06904194168602</v>
       </c>
     </row>
     <row r="71">
@@ -2272,22 +2272,22 @@
         <v>27.10757634182583</v>
       </c>
       <c r="C71" t="n">
-        <v>17.18550799840859</v>
+        <v>1.623545490734558</v>
       </c>
       <c r="D71" t="n">
-        <v>39.79745741878518</v>
+        <v>38.06514092866283</v>
       </c>
       <c r="E71" t="n">
         <v>33.20369233372452</v>
       </c>
       <c r="F71" t="n">
+        <v>39.79745741878518</v>
+      </c>
+      <c r="G71" t="n">
+        <v>17.18550799840859</v>
+      </c>
+      <c r="H71" t="n">
         <v>36.70404607349833</v>
-      </c>
-      <c r="G71" t="n">
-        <v>1.623545490734558</v>
-      </c>
-      <c r="H71" t="n">
-        <v>38.06514092866283</v>
       </c>
     </row>
     <row r="72">
@@ -2298,22 +2298,22 @@
         <v>27.67294710976667</v>
       </c>
       <c r="C72" t="n">
-        <v>17.5223193253758</v>
+        <v>1.665333839758593</v>
       </c>
       <c r="D72" t="n">
-        <v>40.91706555832432</v>
+        <v>39.02842681409872</v>
       </c>
       <c r="E72" t="n">
         <v>33.87301084434485</v>
       </c>
       <c r="F72" t="n">
+        <v>40.91706555832432</v>
+      </c>
+      <c r="G72" t="n">
+        <v>17.5223193253758</v>
+      </c>
+      <c r="H72" t="n">
         <v>37.5794480647586</v>
-      </c>
-      <c r="G72" t="n">
-        <v>1.665333839758593</v>
-      </c>
-      <c r="H72" t="n">
-        <v>39.02842681409872</v>
       </c>
     </row>
     <row r="73">
@@ -2324,22 +2324,22 @@
         <v>28.21207721786851</v>
       </c>
       <c r="C73" t="n">
-        <v>17.85602805048394</v>
+        <v>1.708293310413552</v>
       </c>
       <c r="D73" t="n">
-        <v>41.99893691123994</v>
+        <v>39.95307038114932</v>
       </c>
       <c r="E73" t="n">
         <v>34.50408006134097</v>
       </c>
       <c r="F73" t="n">
+        <v>41.99893691123994</v>
+      </c>
+      <c r="G73" t="n">
+        <v>17.85602805048394</v>
+      </c>
+      <c r="H73" t="n">
         <v>38.41087467038513</v>
-      </c>
-      <c r="G73" t="n">
-        <v>1.708293310413552</v>
-      </c>
-      <c r="H73" t="n">
-        <v>39.95307038114932</v>
       </c>
     </row>
     <row r="74">
@@ -2350,22 +2350,22 @@
         <v>28.72355816749722</v>
       </c>
       <c r="C74" t="n">
-        <v>18.1890384185124</v>
+        <v>1.751232532171547</v>
       </c>
       <c r="D74" t="n">
-        <v>43.03230080022304</v>
+        <v>40.83324241296963</v>
       </c>
       <c r="E74" t="n">
         <v>35.09543607277863</v>
       </c>
       <c r="F74" t="n">
+        <v>43.03230080022304</v>
+      </c>
+      <c r="G74" t="n">
+        <v>18.1890384185124</v>
+      </c>
+      <c r="H74" t="n">
         <v>39.19263597622713</v>
-      </c>
-      <c r="G74" t="n">
-        <v>1.751232532171547</v>
-      </c>
-      <c r="H74" t="n">
-        <v>40.83324241296963</v>
       </c>
     </row>
     <row r="75">
@@ -2376,22 +2376,22 @@
         <v>29.20598146001959</v>
       </c>
       <c r="C75" t="n">
-        <v>18.5237546742403</v>
+        <v>1.792960134504618</v>
       </c>
       <c r="D75" t="n">
-        <v>44.00638654795811</v>
+        <v>41.66311369271608</v>
       </c>
       <c r="E75" t="n">
         <v>35.64561496672352</v>
       </c>
       <c r="F75" t="n">
+        <v>44.00638654795811</v>
+      </c>
+      <c r="G75" t="n">
+        <v>18.5237546742403</v>
+      </c>
+      <c r="H75" t="n">
         <v>39.91904206813117</v>
-      </c>
-      <c r="G75" t="n">
-        <v>1.792960134504618</v>
-      </c>
-      <c r="H75" t="n">
-        <v>41.66311369271608</v>
       </c>
     </row>
     <row r="76">
@@ -2402,22 +2402,22 @@
         <v>29.65793859680288</v>
       </c>
       <c r="C76" t="n">
-        <v>18.86258106244763</v>
+        <v>1.8322847468851</v>
       </c>
       <c r="D76" t="n">
-        <v>44.91042347713681</v>
+        <v>42.43685500354428</v>
       </c>
       <c r="E76" t="n">
         <v>36.15315283124171</v>
       </c>
       <c r="F76" t="n">
+        <v>44.91042347713681</v>
+      </c>
+      <c r="G76" t="n">
+        <v>18.86258106244763</v>
+      </c>
+      <c r="H76" t="n">
         <v>40.58440303194539</v>
-      </c>
-      <c r="G76" t="n">
-        <v>1.8322847468851</v>
-      </c>
-      <c r="H76" t="n">
-        <v>42.43685500354428</v>
       </c>
     </row>
     <row r="77">
@@ -2428,22 +2428,22 @@
         <v>30.07802107921308</v>
       </c>
       <c r="C77" t="n">
-        <v>19.20792182791416</v>
+        <v>1.868014998784906</v>
       </c>
       <c r="D77" t="n">
-        <v>45.73364091044517</v>
+        <v>43.14863712861128</v>
       </c>
       <c r="E77" t="n">
         <v>36.6165857543985</v>
       </c>
       <c r="F77" t="n">
+        <v>45.73364091044517</v>
+      </c>
+      <c r="G77" t="n">
+        <v>19.20792182791416</v>
+      </c>
+      <c r="H77" t="n">
         <v>41.1830289535183</v>
-      </c>
-      <c r="G77" t="n">
-        <v>1.868014998784906</v>
-      </c>
-      <c r="H77" t="n">
-        <v>43.14863712861128</v>
       </c>
     </row>
     <row r="78">
@@ -2454,22 +2454,22 @@
         <v>30.46482040861606</v>
       </c>
       <c r="C78" t="n">
-        <v>19.5621812154196</v>
+        <v>1.89895951967638</v>
       </c>
       <c r="D78" t="n">
-        <v>46.46526817057268</v>
+        <v>43.79263085107173</v>
       </c>
       <c r="E78" t="n">
         <v>37.03444982425997</v>
       </c>
       <c r="F78" t="n">
+        <v>46.46526817057268</v>
+      </c>
+      <c r="G78" t="n">
+        <v>19.5621812154196</v>
+      </c>
+      <c r="H78" t="n">
         <v>41.70922991869814</v>
-      </c>
-      <c r="G78" t="n">
-        <v>1.89895951967638</v>
-      </c>
-      <c r="H78" t="n">
-        <v>43.79263085107173</v>
       </c>
     </row>
     <row r="79">
@@ -2480,22 +2480,22 @@
         <v>30.81692808637939</v>
       </c>
       <c r="C79" t="n">
-        <v>19.92776346974327</v>
+        <v>1.923926939031565</v>
       </c>
       <c r="D79" t="n">
-        <v>47.09453458020527</v>
+        <v>44.36300695408192</v>
       </c>
       <c r="E79" t="n">
         <v>37.40528112889196</v>
       </c>
       <c r="F79" t="n">
+        <v>47.09453458020527</v>
+      </c>
+      <c r="G79" t="n">
+        <v>19.92776346974327</v>
+      </c>
+      <c r="H79" t="n">
         <v>42.15731601333297</v>
-      </c>
-      <c r="G79" t="n">
-        <v>1.923926939031565</v>
-      </c>
-      <c r="H79" t="n">
-        <v>44.36300695408192</v>
       </c>
     </row>
     <row r="80">
@@ -2506,22 +2506,22 @@
         <v>31.13298629643105</v>
       </c>
       <c r="C80" t="n">
-        <v>20.30667475432304</v>
+        <v>1.941911610277198</v>
       </c>
       <c r="D80" t="n">
-        <v>47.61102301856695</v>
+        <v>44.85478083384096</v>
       </c>
       <c r="E80" t="n">
         <v>37.72779099301351</v>
       </c>
       <c r="F80" t="n">
+        <v>47.61102301856695</v>
+      </c>
+      <c r="G80" t="n">
+        <v>20.30667475432304</v>
+      </c>
+      <c r="H80" t="n">
         <v>42.52216185910221</v>
-      </c>
-      <c r="G80" t="n">
-        <v>1.941911610277198</v>
-      </c>
-      <c r="H80" t="n">
-        <v>44.85478083384096</v>
       </c>
     </row>
     <row r="81">
@@ -2532,22 +2532,22 @@
         <v>31.41264128928271</v>
       </c>
       <c r="C81" t="n">
-        <v>20.69706938766397</v>
+        <v>1.953214832192073</v>
       </c>
       <c r="D81" t="n">
-        <v>48.01201677771956</v>
+        <v>45.26966699847036</v>
       </c>
       <c r="E81" t="n">
         <v>38.00293823115761</v>
       </c>
       <c r="F81" t="n">
+        <v>48.01201677771956</v>
+      </c>
+      <c r="G81" t="n">
+        <v>20.69706938766397</v>
+      </c>
+      <c r="H81" t="n">
         <v>42.80543870808508</v>
-      </c>
-      <c r="G81" t="n">
-        <v>1.953214832192073</v>
-      </c>
-      <c r="H81" t="n">
-        <v>45.26966699847036</v>
       </c>
     </row>
     <row r="82">
@@ -2558,22 +2558,22 @@
         <v>31.6564183133103</v>
       </c>
       <c r="C82" t="n">
-        <v>21.09306883742497</v>
+        <v>1.95888088564331</v>
       </c>
       <c r="D82" t="n">
-        <v>48.30612923328298</v>
+        <v>45.61208688280392</v>
       </c>
       <c r="E82" t="n">
         <v>38.23329545116928</v>
       </c>
       <c r="F82" t="n">
+        <v>48.30612923328298</v>
+      </c>
+      <c r="G82" t="n">
+        <v>21.09306883742497</v>
+      </c>
+      <c r="H82" t="n">
         <v>43.01408714844283</v>
-      </c>
-      <c r="G82" t="n">
-        <v>1.95888088564331</v>
-      </c>
-      <c r="H82" t="n">
-        <v>45.61208688280392</v>
       </c>
     </row>
     <row r="83">
@@ -2584,22 +2584,22 @@
         <v>31.86495184325316</v>
       </c>
       <c r="C83" t="n">
-        <v>21.48833567783692</v>
+        <v>1.959988969573613</v>
       </c>
       <c r="D83" t="n">
-        <v>48.50308688063771</v>
+        <v>45.88616483593026</v>
       </c>
       <c r="E83" t="n">
         <v>38.42139693990911</v>
       </c>
       <c r="F83" t="n">
+        <v>48.50308688063771</v>
+      </c>
+      <c r="G83" t="n">
+        <v>21.48833567783692</v>
+      </c>
+      <c r="H83" t="n">
         <v>43.15516899501951</v>
-      </c>
-      <c r="G83" t="n">
-        <v>1.959988969573613</v>
-      </c>
-      <c r="H83" t="n">
-        <v>45.88616483593026</v>
       </c>
     </row>
     <row r="84">
@@ -2610,22 +2610,22 @@
         <v>32.03887635384917</v>
       </c>
       <c r="C84" t="n">
-        <v>21.87653248313118</v>
+        <v>1.957618282925596</v>
       </c>
       <c r="D84" t="n">
-        <v>48.61261621516649</v>
+        <v>46.09602520693779</v>
       </c>
       <c r="E84" t="n">
         <v>38.56977698423808</v>
       </c>
       <c r="F84" t="n">
+        <v>48.61261621516649</v>
+      </c>
+      <c r="G84" t="n">
+        <v>21.87653248313118</v>
+      </c>
+      <c r="H84" t="n">
         <v>43.23574606265838</v>
-      </c>
-      <c r="G84" t="n">
-        <v>1.957618282925596</v>
-      </c>
-      <c r="H84" t="n">
-        <v>46.09602520693779</v>
       </c>
     </row>
     <row r="85">
@@ -2636,22 +2636,22 @@
         <v>32.17882631983752</v>
       </c>
       <c r="C85" t="n">
-        <v>22.25132182753777</v>
+        <v>1.952848024642127</v>
       </c>
       <c r="D85" t="n">
-        <v>48.64444373225142</v>
+        <v>46.24579234491547</v>
       </c>
       <c r="E85" t="n">
         <v>38.68096987101647</v>
       </c>
       <c r="F85" t="n">
+        <v>48.64444373225142</v>
+      </c>
+      <c r="G85" t="n">
+        <v>22.25132182753777</v>
+      </c>
+      <c r="H85" t="n">
         <v>43.26288016620367</v>
-      </c>
-      <c r="G85" t="n">
-        <v>1.952848024642127</v>
-      </c>
-      <c r="H85" t="n">
-        <v>46.24579234491547</v>
       </c>
     </row>
     <row r="86">
@@ -2662,22 +2662,22 @@
         <v>32.28543621595635</v>
       </c>
       <c r="C86" t="n">
-        <v>22.60636628528761</v>
+        <v>1.946757393665919</v>
       </c>
       <c r="D86" t="n">
-        <v>48.60829592727357</v>
+        <v>46.33959059895202</v>
       </c>
       <c r="E86" t="n">
         <v>38.75750988710551</v>
       </c>
       <c r="F86" t="n">
+        <v>48.60829592727357</v>
+      </c>
+      <c r="G86" t="n">
+        <v>22.60636628528761</v>
+      </c>
+      <c r="H86" t="n">
         <v>43.24363312049768</v>
-      </c>
-      <c r="G86" t="n">
-        <v>1.946757393665919</v>
-      </c>
-      <c r="H86" t="n">
-        <v>46.33959059895202</v>
       </c>
     </row>
     <row r="87">
@@ -2688,22 +2688,22 @@
         <v>32.35934051694569</v>
       </c>
       <c r="C87" t="n">
-        <v>22.93532843061188</v>
+        <v>1.940425588939729</v>
       </c>
       <c r="D87" t="n">
-        <v>48.51389929561437</v>
+        <v>46.38154431813568</v>
       </c>
       <c r="E87" t="n">
         <v>38.80193131936598</v>
       </c>
       <c r="F87" t="n">
+        <v>48.51389929561437</v>
+      </c>
+      <c r="G87" t="n">
+        <v>22.93532843061188</v>
+      </c>
+      <c r="H87" t="n">
         <v>43.18506674038522</v>
-      </c>
-      <c r="G87" t="n">
-        <v>1.940425588939729</v>
-      </c>
-      <c r="H87" t="n">
-        <v>46.38154431813568</v>
       </c>
     </row>
     <row r="88">
@@ -2714,22 +2714,22 @@
         <v>32.40117369754272</v>
       </c>
       <c r="C88" t="n">
-        <v>23.23187083774131</v>
+        <v>1.934931809406102</v>
       </c>
       <c r="D88" t="n">
-        <v>48.37098033265617</v>
+        <v>46.37577785155509</v>
       </c>
       <c r="E88" t="n">
         <v>38.81676845465877</v>
       </c>
       <c r="F88" t="n">
+        <v>48.37098033265617</v>
+      </c>
+      <c r="G88" t="n">
+        <v>23.23187083774131</v>
+      </c>
+      <c r="H88" t="n">
         <v>43.09424284070945</v>
-      </c>
-      <c r="G88" t="n">
-        <v>1.934931809406102</v>
-      </c>
-      <c r="H88" t="n">
-        <v>46.37577785155509</v>
       </c>
     </row>
     <row r="89">
@@ -2740,22 +2740,22 @@
         <v>32.41157023248697</v>
       </c>
       <c r="C89" t="n">
-        <v>23.48965608090652</v>
+        <v>1.931355254007953</v>
       </c>
       <c r="D89" t="n">
-        <v>48.18926553378107</v>
+        <v>46.32641554829905</v>
       </c>
       <c r="E89" t="n">
         <v>38.80455557984428</v>
       </c>
       <c r="F89" t="n">
+        <v>48.18926553378107</v>
+      </c>
+      <c r="G89" t="n">
+        <v>23.48965608090652</v>
+      </c>
+      <c r="H89" t="n">
         <v>42.97822323631406</v>
-      </c>
-      <c r="G89" t="n">
-        <v>1.931355254007953</v>
-      </c>
-      <c r="H89" t="n">
-        <v>46.32641554829905</v>
       </c>
     </row>
     <row r="90">
@@ -2766,22 +2766,22 @@
         <v>32.39116459651677</v>
       </c>
       <c r="C90" t="n">
-        <v>23.70234673433808</v>
+        <v>1.93077512168795</v>
       </c>
       <c r="D90" t="n">
-        <v>47.97848139437016</v>
+        <v>46.23758175745638</v>
       </c>
       <c r="E90" t="n">
         <v>38.76782698178373</v>
       </c>
       <c r="F90" t="n">
+        <v>47.97848139437016</v>
+      </c>
+      <c r="G90" t="n">
+        <v>23.70234673433808</v>
+      </c>
+      <c r="H90" t="n">
         <v>42.84406974204181</v>
-      </c>
-      <c r="G90" t="n">
-        <v>1.93077512168795</v>
-      </c>
-      <c r="H90" t="n">
-        <v>46.23758175745638</v>
       </c>
     </row>
     <row r="91">
@@ -2792,22 +2792,22 @@
         <v>32.34059126437142</v>
       </c>
       <c r="C91" t="n">
-        <v>23.86360537226713</v>
+        <v>1.934270611388831</v>
       </c>
       <c r="D91" t="n">
-        <v>47.74835440980572</v>
+        <v>46.11340082811518</v>
       </c>
       <c r="E91" t="n">
         <v>38.70911694733783</v>
       </c>
       <c r="F91" t="n">
+        <v>47.74835440980572</v>
+      </c>
+      <c r="G91" t="n">
+        <v>23.86360537226713</v>
+      </c>
+      <c r="H91" t="n">
         <v>42.69884417273739</v>
-      </c>
-      <c r="G91" t="n">
-        <v>1.934270611388831</v>
-      </c>
-      <c r="H91" t="n">
-        <v>46.11340082811518</v>
       </c>
     </row>
     <row r="92">
@@ -2818,22 +2818,22 @@
         <v>32.26074108381908</v>
       </c>
       <c r="C92" t="n">
-        <v>23.96762218265797</v>
+        <v>1.942799338530584</v>
       </c>
       <c r="D92" t="n">
-        <v>47.50884493814191</v>
+        <v>45.95760711547506</v>
       </c>
       <c r="E92" t="n">
         <v>38.63101562504755</v>
       </c>
       <c r="F92" t="n">
+        <v>47.50884493814191</v>
+      </c>
+      <c r="G92" t="n">
+        <v>23.96762218265797</v>
+      </c>
+      <c r="H92" t="n">
         <v>42.54962306811077</v>
-      </c>
-      <c r="G92" t="n">
-        <v>1.942799338530584</v>
-      </c>
-      <c r="H92" t="n">
-        <v>45.95760711547506</v>
       </c>
     </row>
     <row r="93">
@@ -2844,22 +2844,22 @@
         <v>32.15527727335208</v>
       </c>
       <c r="C93" t="n">
-        <v>24.01385527711596</v>
+        <v>1.956386940786693</v>
       </c>
       <c r="D93" t="n">
-        <v>47.26906033802627</v>
+        <v>45.77294284101951</v>
       </c>
       <c r="E93" t="n">
         <v>38.53642109521635</v>
       </c>
       <c r="F93" t="n">
+        <v>47.26906033802627</v>
+      </c>
+      <c r="G93" t="n">
+        <v>24.01385527711596</v>
+      </c>
+      <c r="H93" t="n">
         <v>42.40083050794182</v>
-      </c>
-      <c r="G93" t="n">
-        <v>1.956386940786693</v>
-      </c>
-      <c r="H93" t="n">
-        <v>45.77294284101951</v>
       </c>
     </row>
     <row r="94">
@@ -2870,22 +2870,22 @@
         <v>32.0306207167361</v>
       </c>
       <c r="C94" t="n">
-        <v>24.00733529178322</v>
+        <v>1.974468031453799</v>
       </c>
       <c r="D94" t="n">
-        <v>47.03423258565203</v>
+        <v>45.56606840403975</v>
       </c>
       <c r="E94" t="n">
         <v>38.42908259446878</v>
       </c>
       <c r="F94" t="n">
+        <v>47.03423258565203</v>
+      </c>
+      <c r="G94" t="n">
+        <v>24.00733529178322</v>
+      </c>
+      <c r="H94" t="n">
         <v>42.25469513147143</v>
-      </c>
-      <c r="G94" t="n">
-        <v>1.974468031453799</v>
-      </c>
-      <c r="H94" t="n">
-        <v>45.56606840403975</v>
       </c>
     </row>
     <row r="95">
@@ -2896,22 +2896,22 @@
         <v>31.89340454048352</v>
       </c>
       <c r="C95" t="n">
-        <v>23.95369738476763</v>
+        <v>1.996442950402131</v>
       </c>
       <c r="D95" t="n">
-        <v>46.80910884008362</v>
+        <v>45.34463676764278</v>
       </c>
       <c r="E95" t="n">
         <v>38.31301843028825</v>
       </c>
       <c r="F95" t="n">
+        <v>46.80910884008362</v>
+      </c>
+      <c r="G95" t="n">
+        <v>23.95369738476763</v>
+      </c>
+      <c r="H95" t="n">
         <v>42.11362975028604</v>
-      </c>
-      <c r="G95" t="n">
-        <v>1.996442950402131</v>
-      </c>
-      <c r="H95" t="n">
-        <v>45.34463676764278</v>
       </c>
     </row>
     <row r="96">
@@ -2922,22 +2922,22 @@
         <v>31.75026187110723</v>
       </c>
       <c r="C96" t="n">
-        <v>23.85857671417777</v>
+        <v>2.021712037501843</v>
       </c>
       <c r="D96" t="n">
-        <v>46.59843626038383</v>
+        <v>45.11630089493639</v>
       </c>
       <c r="E96" t="n">
         <v>38.19224691015778</v>
       </c>
       <c r="F96" t="n">
+        <v>46.59843626038383</v>
+      </c>
+      <c r="G96" t="n">
+        <v>23.85857671417777</v>
+      </c>
+      <c r="H96" t="n">
         <v>41.98004717597321</v>
-      </c>
-      <c r="G96" t="n">
-        <v>2.021712037501843</v>
-      </c>
-      <c r="H96" t="n">
-        <v>45.11630089493639</v>
       </c>
     </row>
     <row r="97">
@@ -2948,22 +2948,22 @@
         <v>31.60782583512054</v>
       </c>
       <c r="C97" t="n">
-        <v>23.72760843812187</v>
+        <v>2.049675632623234</v>
       </c>
       <c r="D97" t="n">
-        <v>46.40696200561635</v>
+        <v>44.88871374902761</v>
       </c>
       <c r="E97" t="n">
         <v>38.07078634156082</v>
       </c>
       <c r="F97" t="n">
+        <v>46.40696200561635</v>
+      </c>
+      <c r="G97" t="n">
+        <v>23.72760843812187</v>
+      </c>
+      <c r="H97" t="n">
         <v>41.85636022011844</v>
-      </c>
-      <c r="G97" t="n">
-        <v>2.049675632623234</v>
-      </c>
-      <c r="H97" t="n">
-        <v>44.88871374902761</v>
       </c>
     </row>
     <row r="98">
@@ -2974,22 +2974,22 @@
         <v>31.47272955903621</v>
       </c>
       <c r="C98" t="n">
-        <v>23.56642771470851</v>
+        <v>2.079734075636424</v>
       </c>
       <c r="D98" t="n">
-        <v>46.23943323484517</v>
+        <v>44.66952829302343</v>
       </c>
       <c r="E98" t="n">
         <v>37.95265503198022</v>
       </c>
       <c r="F98" t="n">
+        <v>46.23943323484517</v>
+      </c>
+      <c r="G98" t="n">
+        <v>23.56642771470851</v>
+      </c>
+      <c r="H98" t="n">
         <v>41.74498169431034</v>
-      </c>
-      <c r="G98" t="n">
-        <v>2.079734075636424</v>
-      </c>
-      <c r="H98" t="n">
-        <v>44.66952829302343</v>
       </c>
     </row>
     <row r="99">
@@ -3000,22 +3000,22 @@
         <v>31.35160616936703</v>
       </c>
       <c r="C99" t="n">
-        <v>23.38066970204575</v>
+        <v>2.111287706411589</v>
       </c>
       <c r="D99" t="n">
-        <v>46.10059710713379</v>
+        <v>44.46639749003113</v>
       </c>
       <c r="E99" t="n">
         <v>37.84187128889946</v>
       </c>
       <c r="F99" t="n">
+        <v>46.10059710713379</v>
+      </c>
+      <c r="G99" t="n">
+        <v>23.38066970204575</v>
+      </c>
+      <c r="H99" t="n">
         <v>41.64832441013546</v>
-      </c>
-      <c r="G99" t="n">
-        <v>2.111287706411589</v>
-      </c>
-      <c r="H99" t="n">
-        <v>44.46639749003113</v>
       </c>
     </row>
     <row r="100">
@@ -3026,22 +3026,22 @@
         <v>31.25108879262613</v>
       </c>
       <c r="C100" t="n">
-        <v>23.17596955824168</v>
+        <v>2.143736864819046</v>
       </c>
       <c r="D100" t="n">
-        <v>45.99520078154536</v>
+        <v>44.28697430315834</v>
       </c>
       <c r="E100" t="n">
         <v>37.74245341980157</v>
       </c>
       <c r="F100" t="n">
+        <v>45.99520078154536</v>
+      </c>
+      <c r="G100" t="n">
+        <v>23.17596955824168</v>
+      </c>
+      <c r="H100" t="n">
         <v>41.56880117918099</v>
-      </c>
-      <c r="G100" t="n">
-        <v>2.143736864819046</v>
-      </c>
-      <c r="H100" t="n">
-        <v>44.28697430315834</v>
       </c>
     </row>
     <row r="101">
@@ -3052,22 +3052,22 @@
         <v>31.17781055532653</v>
       </c>
       <c r="C101" t="n">
-        <v>22.95796244140505</v>
+        <v>2.176481890728898</v>
       </c>
       <c r="D101" t="n">
-        <v>45.92799141714327</v>
+        <v>44.13891169551214</v>
       </c>
       <c r="E101" t="n">
         <v>37.65841973217014</v>
       </c>
       <c r="F101" t="n">
+        <v>45.92799141714327</v>
+      </c>
+      <c r="G101" t="n">
+        <v>22.95796244140505</v>
+      </c>
+      <c r="H101" t="n">
         <v>41.50882481303288</v>
-      </c>
-      <c r="G101" t="n">
-        <v>2.176481890728898</v>
-      </c>
-      <c r="H101" t="n">
-        <v>44.13891169551214</v>
       </c>
     </row>
     <row r="102">
@@ -3078,22 +3078,22 @@
         <v>31.13840458398143</v>
       </c>
       <c r="C102" t="n">
-        <v>22.73228350964402</v>
+        <v>2.20892312401137</v>
       </c>
       <c r="D102" t="n">
-        <v>45.90371617299185</v>
+        <v>44.02986263019949</v>
       </c>
       <c r="E102" t="n">
         <v>37.59378853348785</v>
       </c>
       <c r="F102" t="n">
+        <v>45.90371617299185</v>
+      </c>
+      <c r="G102" t="n">
+        <v>22.73228350964402</v>
+      </c>
+      <c r="H102" t="n">
         <v>41.47080812327957</v>
-      </c>
-      <c r="G102" t="n">
-        <v>2.20892312401137</v>
-      </c>
-      <c r="H102" t="n">
-        <v>44.02986263019949</v>
       </c>
     </row>
     <row r="103">
@@ -3104,22 +3104,22 @@
         <v>31.1395040051024</v>
       </c>
       <c r="C103" t="n">
-        <v>22.50456792106661</v>
+        <v>2.240460904536632</v>
       </c>
       <c r="D103" t="n">
-        <v>45.92712220815442</v>
+        <v>43.96748007032802</v>
       </c>
       <c r="E103" t="n">
         <v>37.55257813123806</v>
       </c>
       <c r="F103" t="n">
+        <v>45.92712220815442</v>
+      </c>
+      <c r="G103" t="n">
+        <v>22.50456792106661</v>
+      </c>
+      <c r="H103" t="n">
         <v>41.45716392150719</v>
-      </c>
-      <c r="G103" t="n">
-        <v>2.240460904536632</v>
-      </c>
-      <c r="H103" t="n">
-        <v>43.96748007032802</v>
       </c>
     </row>
     <row r="104">
@@ -3130,22 +3130,22 @@
         <v>31.18732098686187</v>
       </c>
       <c r="C104" t="n">
-        <v>22.28012654584787</v>
+        <v>2.270572447090557</v>
       </c>
       <c r="D104" t="n">
-        <v>46.00250239459339</v>
+        <v>43.95936901242043</v>
       </c>
       <c r="E104" t="n">
         <v>37.53846493225635</v>
       </c>
       <c r="F104" t="n">
+        <v>46.00250239459339</v>
+      </c>
+      <c r="G104" t="n">
+        <v>22.28012654584787</v>
+      </c>
+      <c r="H104" t="n">
         <v>41.46968565599374</v>
-      </c>
-      <c r="G104" t="n">
-        <v>2.270572447090557</v>
-      </c>
-      <c r="H104" t="n">
-        <v>43.95936901242043</v>
       </c>
     </row>
     <row r="105">
@@ -3156,22 +3156,22 @@
         <v>31.28154625503006</v>
       </c>
       <c r="C105" t="n">
-        <v>22.06139854562067</v>
+        <v>2.299202015548444</v>
       </c>
       <c r="D105" t="n">
-        <v>46.12830175771322</v>
+        <v>44.00756456646365</v>
       </c>
       <c r="E105" t="n">
         <v>37.55169906210564</v>
       </c>
       <c r="F105" t="n">
+        <v>46.12830175771322</v>
+      </c>
+      <c r="G105" t="n">
+        <v>22.06139854562067</v>
+      </c>
+      <c r="H105" t="n">
         <v>41.50721191586867</v>
-      </c>
-      <c r="G105" t="n">
-        <v>2.299202015548444</v>
-      </c>
-      <c r="H105" t="n">
-        <v>44.00756456646365</v>
       </c>
     </row>
     <row r="106">
@@ -3182,22 +3182,22 @@
         <v>31.41505655490382</v>
       </c>
       <c r="C106" t="n">
-        <v>21.84810520500221</v>
+        <v>2.326603626201829</v>
       </c>
       <c r="D106" t="n">
-        <v>46.29689675926252</v>
+        <v>44.10334274066319</v>
       </c>
       <c r="E106" t="n">
         <v>37.58910116810539</v>
       </c>
       <c r="F106" t="n">
+        <v>46.29689675926252</v>
+      </c>
+      <c r="G106" t="n">
+        <v>21.84810520500221</v>
+      </c>
+      <c r="H106" t="n">
         <v>41.56619919730193</v>
-      </c>
-      <c r="G106" t="n">
-        <v>2.326603626201829</v>
-      </c>
-      <c r="H106" t="n">
-        <v>44.10334274066319</v>
       </c>
     </row>
     <row r="107">
@@ -3208,22 +3208,22 @@
         <v>31.58017537278026</v>
       </c>
       <c r="C107" t="n">
-        <v>21.6396974476952</v>
+        <v>2.353070282138613</v>
       </c>
       <c r="D107" t="n">
-        <v>46.50022703081136</v>
+        <v>44.23651276061759</v>
       </c>
       <c r="E107" t="n">
         <v>37.64709590854403</v>
       </c>
       <c r="F107" t="n">
+        <v>46.50022703081136</v>
+      </c>
+      <c r="G107" t="n">
+        <v>21.6396974476952</v>
+      </c>
+      <c r="H107" t="n">
         <v>41.64260383687172</v>
-      </c>
-      <c r="G107" t="n">
-        <v>2.353070282138613</v>
-      </c>
-      <c r="H107" t="n">
-        <v>44.23651276061759</v>
       </c>
     </row>
     <row r="108">
@@ -3234,22 +3234,22 @@
         <v>31.76922619495839</v>
       </c>
       <c r="C108" t="n">
-        <v>21.4356261974023</v>
+        <v>2.378894986446884</v>
       </c>
       <c r="D108" t="n">
-        <v>46.73023220393013</v>
+        <v>44.39688385192396</v>
       </c>
       <c r="E108" t="n">
         <v>37.72210794171031</v>
       </c>
       <c r="F108" t="n">
+        <v>46.73023220393013</v>
+      </c>
+      <c r="G108" t="n">
+        <v>21.4356261974023</v>
+      </c>
+      <c r="H108" t="n">
         <v>41.73238217115586</v>
-      </c>
-      <c r="G108" t="n">
-        <v>2.378894986446884</v>
-      </c>
-      <c r="H108" t="n">
-        <v>44.39688385192396</v>
       </c>
     </row>
     <row r="109">
@@ -3260,22 +3260,22 @@
         <v>31.97453250773522</v>
       </c>
       <c r="C109" t="n">
-        <v>21.23534237782655</v>
+        <v>2.404370742214556</v>
       </c>
       <c r="D109" t="n">
-        <v>46.97885191018936</v>
+        <v>44.57426524017986</v>
       </c>
       <c r="E109" t="n">
         <v>37.81056192589269</v>
       </c>
       <c r="F109" t="n">
+        <v>46.97885191018936</v>
+      </c>
+      <c r="G109" t="n">
+        <v>21.23534237782655</v>
+      </c>
+      <c r="H109" t="n">
         <v>41.83149053673384</v>
-      </c>
-      <c r="G109" t="n">
-        <v>2.404370742214556</v>
-      </c>
-      <c r="H109" t="n">
-        <v>44.57426524017986</v>
       </c>
     </row>
     <row r="110">
@@ -3286,22 +3286,22 @@
         <v>32.18841779740822</v>
       </c>
       <c r="C110" t="n">
-        <v>21.03829691267002</v>
+        <v>2.42979055252981</v>
       </c>
       <c r="D110" t="n">
-        <v>47.23802578116112</v>
+        <v>44.75846615098349</v>
       </c>
       <c r="E110" t="n">
         <v>37.9088825193804</v>
       </c>
       <c r="F110" t="n">
+        <v>47.23802578116112</v>
+      </c>
+      <c r="G110" t="n">
+        <v>21.03829691267002</v>
+      </c>
+      <c r="H110" t="n">
         <v>41.93588527018233</v>
-      </c>
-      <c r="G110" t="n">
-        <v>2.42979055252981</v>
-      </c>
-      <c r="H110" t="n">
-        <v>44.75846615098349</v>
       </c>
     </row>
     <row r="111">
@@ -3312,22 +3312,22 @@
         <v>32.40320555027496</v>
       </c>
       <c r="C111" t="n">
-        <v>20.84394072563625</v>
+        <v>2.455447420480513</v>
       </c>
       <c r="D111" t="n">
-        <v>47.49969344841447</v>
+        <v>44.93929580993335</v>
       </c>
       <c r="E111" t="n">
         <v>38.0134943804614</v>
       </c>
       <c r="F111" t="n">
+        <v>47.49969344841447</v>
+      </c>
+      <c r="G111" t="n">
+        <v>20.84394072563625</v>
+      </c>
+      <c r="H111" t="n">
         <v>42.04152270808068</v>
-      </c>
-      <c r="G111" t="n">
-        <v>2.455447420480513</v>
-      </c>
-      <c r="H111" t="n">
-        <v>44.93929580993335</v>
       </c>
     </row>
     <row r="112">
@@ -3338,22 +3338,22 @@
         <v>32.61121925263421</v>
       </c>
       <c r="C112" t="n">
-        <v>20.6517247404275</v>
+        <v>2.48163434915485</v>
       </c>
       <c r="D112" t="n">
-        <v>47.75579454352176</v>
+        <v>45.10656344262592</v>
       </c>
       <c r="E112" t="n">
         <v>38.12082216742456</v>
       </c>
       <c r="F112" t="n">
+        <v>47.75579454352176</v>
+      </c>
+      <c r="G112" t="n">
+        <v>20.6517247404275</v>
+      </c>
+      <c r="H112" t="n">
         <v>42.14435918700628</v>
-      </c>
-      <c r="G112" t="n">
-        <v>2.48163434915485</v>
-      </c>
-      <c r="H112" t="n">
-        <v>45.10656344262592</v>
       </c>
     </row>
     <row r="113">
@@ -3364,22 +3364,22 @@
         <v>32.8047823907828</v>
       </c>
       <c r="C113" t="n">
-        <v>20.46109988074667</v>
+        <v>2.508644341640557</v>
       </c>
       <c r="D113" t="n">
-        <v>47.99826869805248</v>
+        <v>45.25007827465988</v>
       </c>
       <c r="E113" t="n">
         <v>38.2272905385585</v>
       </c>
       <c r="F113" t="n">
+        <v>47.99826869805248</v>
+      </c>
+      <c r="G113" t="n">
+        <v>20.46109988074667</v>
+      </c>
+      <c r="H113" t="n">
         <v>42.24035104353893</v>
-      </c>
-      <c r="G113" t="n">
-        <v>2.508644341640557</v>
-      </c>
-      <c r="H113" t="n">
-        <v>45.25007827465988</v>
       </c>
     </row>
     <row r="114">
@@ -3390,22 +3390,22 @@
         <v>32.97621845101842</v>
       </c>
       <c r="C114" t="n">
-        <v>20.27151707029622</v>
+        <v>2.536770401025881</v>
       </c>
       <c r="D114" t="n">
-        <v>48.21905554357849</v>
+        <v>45.35964953163301</v>
       </c>
       <c r="E114" t="n">
         <v>38.32932415215203</v>
       </c>
       <c r="F114" t="n">
+        <v>48.21905554357849</v>
+      </c>
+      <c r="G114" t="n">
+        <v>20.27151707029622</v>
+      </c>
+      <c r="H114" t="n">
         <v>42.32545461425524</v>
-      </c>
-      <c r="G114" t="n">
-        <v>2.536770401025881</v>
-      </c>
-      <c r="H114" t="n">
-        <v>45.35964953163301</v>
       </c>
     </row>
     <row r="115">
@@ -3416,22 +3416,22 @@
         <v>33.11785091963903</v>
       </c>
       <c r="C115" t="n">
-        <v>20.08242723277922</v>
+        <v>2.566305530398719</v>
       </c>
       <c r="D115" t="n">
-        <v>48.41009471166911</v>
+        <v>45.42508643914341</v>
       </c>
       <c r="E115" t="n">
         <v>38.42334766649341</v>
       </c>
       <c r="F115" t="n">
+        <v>48.41009471166911</v>
+      </c>
+      <c r="G115" t="n">
+        <v>20.08242723277922</v>
+      </c>
+      <c r="H115" t="n">
         <v>42.39562623573408</v>
-      </c>
-      <c r="G115" t="n">
-        <v>2.566305530398719</v>
-      </c>
-      <c r="H115" t="n">
-        <v>45.42508643914341</v>
       </c>
     </row>
     <row r="116">
@@ -3442,22 +3442,22 @@
         <v>33.22222778216769</v>
       </c>
       <c r="C116" t="n">
-        <v>19.89346503803049</v>
+        <v>2.597480886243626</v>
       </c>
       <c r="D116" t="n">
-        <v>48.56341195539838</v>
+        <v>45.43640506896873</v>
       </c>
       <c r="E116" t="n">
         <v>38.50615436315117</v>
       </c>
       <c r="F116" t="n">
+        <v>48.56341195539838</v>
+      </c>
+      <c r="G116" t="n">
+        <v>19.89346503803049</v>
+      </c>
+      <c r="H116" t="n">
         <v>42.44747635947635</v>
-      </c>
-      <c r="G116" t="n">
-        <v>2.597480886243626</v>
-      </c>
-      <c r="H116" t="n">
-        <v>45.43640506896873</v>
       </c>
     </row>
     <row r="117">
@@ -3468,22 +3468,22 @@
         <v>33.28873192092988</v>
       </c>
       <c r="C117" t="n">
-        <v>19.70545271574247</v>
+        <v>2.630398999548127</v>
       </c>
       <c r="D117" t="n">
-        <v>48.67667981923397</v>
+        <v>45.39242292102914</v>
       </c>
       <c r="E117" t="n">
         <v>38.57840288454953</v>
       </c>
       <c r="F117" t="n">
+        <v>48.67667981923397</v>
+      </c>
+      <c r="G117" t="n">
+        <v>19.70545271574247</v>
+      </c>
+      <c r="H117" t="n">
         <v>42.48205378994792</v>
-      </c>
-      <c r="G117" t="n">
-        <v>2.630398999548127</v>
-      </c>
-      <c r="H117" t="n">
-        <v>45.39242292102914</v>
       </c>
     </row>
     <row r="118">
@@ -3494,22 +3494,22 @@
         <v>33.32476845776895</v>
       </c>
       <c r="C118" t="n">
-        <v>19.51966704526964</v>
+        <v>2.66503318369722</v>
       </c>
       <c r="D118" t="n">
-        <v>48.75615963022043</v>
+        <v>45.30592369985078</v>
       </c>
       <c r="E118" t="n">
         <v>38.64416472465653</v>
       </c>
       <c r="F118" t="n">
+        <v>48.75615963022043</v>
+      </c>
+      <c r="G118" t="n">
+        <v>19.51966704526964</v>
+      </c>
+      <c r="H118" t="n">
         <v>42.50425741839118</v>
-      </c>
-      <c r="G118" t="n">
-        <v>2.66503318369722</v>
-      </c>
-      <c r="H118" t="n">
-        <v>45.30592369985078</v>
       </c>
     </row>
     <row r="119">
@@ -3520,22 +3520,22 @@
         <v>33.33840979907438</v>
       </c>
       <c r="C119" t="n">
-        <v>19.33736873048869</v>
+        <v>2.701289949583828</v>
       </c>
       <c r="D119" t="n">
-        <v>48.80884871069529</v>
+        <v>45.19125142455572</v>
       </c>
       <c r="E119" t="n">
         <v>38.70779085127683</v>
       </c>
       <c r="F119" t="n">
+        <v>48.80884871069529</v>
+      </c>
+      <c r="G119" t="n">
+        <v>19.33736873048869</v>
+      </c>
+      <c r="H119" t="n">
         <v>42.51948935759126</v>
-      </c>
-      <c r="G119" t="n">
-        <v>2.701289949583828</v>
-      </c>
-      <c r="H119" t="n">
-        <v>45.19125142455572</v>
       </c>
     </row>
     <row r="120">
@@ -3546,22 +3546,22 @@
         <v>33.33772835123162</v>
       </c>
       <c r="C120" t="n">
-        <v>19.15981847527583</v>
+        <v>2.739075808101002</v>
       </c>
       <c r="D120" t="n">
-        <v>48.84174438299738</v>
+        <v>45.06275011426618</v>
       </c>
       <c r="E120" t="n">
         <v>38.77363223221486</v>
       </c>
       <c r="F120" t="n">
+        <v>48.84174438299738</v>
+      </c>
+      <c r="G120" t="n">
+        <v>19.15981847527583</v>
+      </c>
+      <c r="H120" t="n">
         <v>42.53315172033284</v>
-      </c>
-      <c r="G120" t="n">
-        <v>2.739075808101002</v>
-      </c>
-      <c r="H120" t="n">
-        <v>45.06275011426618</v>
       </c>
     </row>
     <row r="121">
@@ -3572,22 +3572,22 @@
         <v>33.33079652062715</v>
       </c>
       <c r="C121" t="n">
-        <v>18.98827698350789</v>
+        <v>2.778297270141951</v>
       </c>
       <c r="D121" t="n">
-        <v>48.86184396946424</v>
+        <v>44.93476378810409</v>
       </c>
       <c r="E121" t="n">
         <v>38.84603983527571</v>
       </c>
       <c r="F121" t="n">
+        <v>48.86184396946424</v>
+      </c>
+      <c r="G121" t="n">
+        <v>18.98827698350789</v>
+      </c>
+      <c r="H121" t="n">
         <v>42.55064661940099</v>
-      </c>
-      <c r="G121" t="n">
-        <v>2.778297270141951</v>
-      </c>
-      <c r="H121" t="n">
-        <v>44.93476378810409</v>
       </c>
     </row>
     <row r="122">
@@ -3598,22 +3598,22 @@
         <v>33.32568671364812</v>
       </c>
       <c r="C122" t="n">
-        <v>18.82400495906114</v>
+        <v>2.818860846599546</v>
       </c>
       <c r="D122" t="n">
-        <v>48.87614479243415</v>
+        <v>44.82163646519148</v>
       </c>
       <c r="E122" t="n">
         <v>38.92936462826433</v>
       </c>
       <c r="F122" t="n">
+        <v>48.87614479243415</v>
+      </c>
+      <c r="G122" t="n">
+        <v>18.82400495906114</v>
+      </c>
+      <c r="H122" t="n">
         <v>42.57737616758013</v>
-      </c>
-      <c r="G122" t="n">
-        <v>2.818860846599546</v>
-      </c>
-      <c r="H122" t="n">
-        <v>44.82163646519148</v>
       </c>
     </row>
     <row r="123">
@@ -3624,22 +3624,22 @@
         <v>33.33047133668247</v>
       </c>
       <c r="C123" t="n">
-        <v>18.66826310581226</v>
+        <v>2.86067304836684</v>
       </c>
       <c r="D123" t="n">
-        <v>48.89164417424408</v>
+        <v>44.73771216465025</v>
       </c>
       <c r="E123" t="n">
         <v>39.02795757898525</v>
       </c>
       <c r="F123" t="n">
+        <v>48.89164417424408</v>
+      </c>
+      <c r="G123" t="n">
+        <v>18.66826310581226</v>
+      </c>
+      <c r="H123" t="n">
         <v>42.61874247765526</v>
-      </c>
-      <c r="G123" t="n">
-        <v>2.86067304836684</v>
-      </c>
-      <c r="H123" t="n">
-        <v>44.73771216465025</v>
       </c>
     </row>
     <row r="124">
@@ -3650,22 +3650,22 @@
         <v>33.35322279611601</v>
       </c>
       <c r="C124" t="n">
-        <v>18.52231212763747</v>
+        <v>2.903640386336885</v>
       </c>
       <c r="D124" t="n">
-        <v>48.91533943723406</v>
+        <v>44.6973349056025</v>
       </c>
       <c r="E124" t="n">
         <v>39.14616965524312</v>
       </c>
       <c r="F124" t="n">
+        <v>48.91533943723406</v>
+      </c>
+      <c r="G124" t="n">
+        <v>18.52231212763747</v>
+      </c>
+      <c r="H124" t="n">
         <v>42.68014766241118</v>
-      </c>
-      <c r="G124" t="n">
-        <v>2.903640386336885</v>
-      </c>
-      <c r="H124" t="n">
-        <v>44.6973349056025</v>
       </c>
     </row>
     <row r="125">
@@ -3676,22 +3676,22 @@
         <v>33.4020134983359</v>
       </c>
       <c r="C125" t="n">
-        <v>18.38741272841331</v>
+        <v>2.94766937140273</v>
       </c>
       <c r="D125" t="n">
-        <v>48.95422790374118</v>
+        <v>44.71484870717092</v>
       </c>
       <c r="E125" t="n">
         <v>39.28835182484288</v>
       </c>
       <c r="F125" t="n">
+        <v>48.95422790374118</v>
+      </c>
+      <c r="G125" t="n">
+        <v>18.38741272841331</v>
+      </c>
+      <c r="H125" t="n">
         <v>42.76699383463252</v>
-      </c>
-      <c r="G125" t="n">
-        <v>2.94766937140273</v>
-      </c>
-      <c r="H125" t="n">
-        <v>44.71484870717092</v>
       </c>
     </row>
     <row r="126">
@@ -3702,22 +3702,22 @@
         <v>33.48491584972864</v>
       </c>
       <c r="C126" t="n">
-        <v>18.26482561201627</v>
+        <v>2.992666514457422</v>
       </c>
       <c r="D126" t="n">
-        <v>49.01530689610381</v>
+        <v>44.80459758847717</v>
       </c>
       <c r="E126" t="n">
         <v>39.45885505558938</v>
       </c>
       <c r="F126" t="n">
+        <v>49.01530689610381</v>
+      </c>
+      <c r="G126" t="n">
+        <v>18.26482561201627</v>
+      </c>
+      <c r="H126" t="n">
         <v>42.88468310710424</v>
-      </c>
-      <c r="G126" t="n">
-        <v>2.992666514457422</v>
-      </c>
-      <c r="H126" t="n">
-        <v>44.80459758847717</v>
       </c>
     </row>
     <row r="127">
@@ -3728,22 +3728,22 @@
         <v>33.61000225668243</v>
       </c>
       <c r="C127" t="n">
-        <v>18.15581148232255</v>
+        <v>3.038538326393929</v>
       </c>
       <c r="D127" t="n">
-        <v>49.10557373665935</v>
+        <v>44.98092556864309</v>
       </c>
       <c r="E127" t="n">
         <v>39.66203031528726</v>
       </c>
       <c r="F127" t="n">
+        <v>49.10557373665935</v>
+      </c>
+      <c r="G127" t="n">
+        <v>18.15581148232255</v>
+      </c>
+      <c r="H127" t="n">
         <v>43.03861759261094</v>
-      </c>
-      <c r="G127" t="n">
-        <v>3.038538326393929</v>
-      </c>
-      <c r="H127" t="n">
-        <v>44.98092556864309</v>
       </c>
     </row>
     <row r="128">
@@ -3754,22 +3754,22 @@
         <v>33.78523539717388</v>
       </c>
       <c r="C128" t="n">
-        <v>18.06129795390208</v>
+        <v>3.085216533054616</v>
       </c>
       <c r="D128" t="n">
-        <v>49.23213335134285</v>
+        <v>45.25772114638752</v>
       </c>
       <c r="E128" t="n">
         <v>39.90186432670465</v>
       </c>
       <c r="F128" t="n">
+        <v>49.23213335134285</v>
+      </c>
+      <c r="G128" t="n">
+        <v>18.06129795390208</v>
+      </c>
+      <c r="H128" t="n">
         <v>43.2338647149376</v>
-      </c>
-      <c r="G128" t="n">
-        <v>3.085216533054616</v>
-      </c>
-      <c r="H128" t="n">
-        <v>45.25772114638752</v>
       </c>
     </row>
     <row r="129">
@@ -3780,22 +3780,22 @@
         <v>34.01207145986383</v>
       </c>
       <c r="C129" t="n">
-        <v>17.98001168235459</v>
+        <v>3.132339197484702</v>
       </c>
       <c r="D129" t="n">
-        <v>49.39830832603054</v>
+        <v>45.63782047040493</v>
       </c>
       <c r="E129" t="n">
         <v>40.17789981683278</v>
       </c>
       <c r="F129" t="n">
+        <v>49.39830832603054</v>
+      </c>
+      <c r="G129" t="n">
+        <v>17.98001168235459</v>
+      </c>
+      <c r="H129" t="n">
         <v>43.47216592020053</v>
-      </c>
-      <c r="G129" t="n">
-        <v>3.132339197484702</v>
-      </c>
-      <c r="H129" t="n">
-        <v>45.63782047040493</v>
       </c>
     </row>
     <row r="130">
@@ -3806,22 +3806,22 @@
         <v>34.28366470697656</v>
       </c>
       <c r="C130" t="n">
-        <v>17.90971067009695</v>
+        <v>3.179391161688909</v>
       </c>
       <c r="D130" t="n">
-        <v>49.60031153853229</v>
+        <v>46.10821071078039</v>
       </c>
       <c r="E130" t="n">
         <v>40.48548410089992</v>
       </c>
       <c r="F130" t="n">
+        <v>49.60031153853229</v>
+      </c>
+      <c r="G130" t="n">
+        <v>17.90971067009695</v>
+      </c>
+      <c r="H130" t="n">
         <v>43.75121426920575</v>
-      </c>
-      <c r="G130" t="n">
-        <v>3.179391161688909</v>
-      </c>
-      <c r="H130" t="n">
-        <v>46.10821071078039</v>
       </c>
     </row>
     <row r="131">
@@ -3832,22 +3832,22 @@
         <v>34.59244758382846</v>
       </c>
       <c r="C131" t="n">
-        <v>17.84815130782104</v>
+        <v>3.225929860785955</v>
       </c>
       <c r="D131" t="n">
-        <v>49.83371604597496</v>
+        <v>46.65422450722625</v>
       </c>
       <c r="E131" t="n">
         <v>40.8196302491712</v>
       </c>
       <c r="F131" t="n">
+        <v>49.83371604597496</v>
+      </c>
+      <c r="G131" t="n">
+        <v>17.84815130782104</v>
+      </c>
+      <c r="H131" t="n">
         <v>44.06818981413667</v>
-      </c>
-      <c r="G131" t="n">
-        <v>3.225929860785955</v>
-      </c>
-      <c r="H131" t="n">
-        <v>46.65422450722625</v>
       </c>
     </row>
     <row r="132">
@@ -3858,22 +3858,22 @@
         <v>34.93085253573703</v>
       </c>
       <c r="C132" t="n">
-        <v>17.79308998621828</v>
+        <v>3.271512729894396</v>
       </c>
       <c r="D132" t="n">
-        <v>50.09409490548952</v>
+        <v>47.26119449945434</v>
       </c>
       <c r="E132" t="n">
         <v>41.17535133191239</v>
       </c>
       <c r="F132" t="n">
+        <v>50.09409490548952</v>
+      </c>
+      <c r="G132" t="n">
+        <v>17.79308998621828</v>
+      </c>
+      <c r="H132" t="n">
         <v>44.42027260717724</v>
-      </c>
-      <c r="G132" t="n">
-        <v>3.271512729894396</v>
-      </c>
-      <c r="H132" t="n">
-        <v>47.26119449945434</v>
       </c>
     </row>
     <row r="133">
@@ -3884,22 +3884,22 @@
         <v>35.29131200802042</v>
       </c>
       <c r="C133" t="n">
-        <v>17.74228309598054</v>
+        <v>3.315697204133322</v>
       </c>
       <c r="D133" t="n">
-        <v>50.37702117420472</v>
+        <v>47.91445332717888</v>
       </c>
       <c r="E133" t="n">
         <v>41.54766041938822</v>
       </c>
       <c r="F133" t="n">
+        <v>50.37702117420472</v>
+      </c>
+      <c r="G133" t="n">
+        <v>17.74228309598054</v>
+      </c>
+      <c r="H133" t="n">
         <v>44.8046427005111</v>
-      </c>
-      <c r="G133" t="n">
-        <v>3.315697204133322</v>
-      </c>
-      <c r="H133" t="n">
-        <v>47.91445332717888</v>
       </c>
     </row>
     <row r="134">
@@ -3910,22 +3910,22 @@
         <v>35.66625844599484</v>
       </c>
       <c r="C134" t="n">
-        <v>17.69348702779927</v>
+        <v>3.358040718621346</v>
       </c>
       <c r="D134" t="n">
-        <v>50.67806790924985</v>
+        <v>48.59933363011184</v>
       </c>
       <c r="E134" t="n">
         <v>41.93157058186446</v>
       </c>
       <c r="F134" t="n">
+        <v>50.67806790924985</v>
+      </c>
+      <c r="G134" t="n">
+        <v>17.69348702779927</v>
+      </c>
+      <c r="H134" t="n">
         <v>45.2184801463221</v>
-      </c>
-      <c r="G134" t="n">
-        <v>3.358040718621346</v>
-      </c>
-      <c r="H134" t="n">
-        <v>48.59933363011184</v>
       </c>
     </row>
     <row r="135">
@@ -3936,22 +3936,22 @@
         <v>36.0481242949758</v>
       </c>
       <c r="C135" t="n">
-        <v>17.64445817236588</v>
+        <v>3.398100708477183</v>
       </c>
       <c r="D135" t="n">
-        <v>50.99280816775246</v>
+        <v>49.3011680479654</v>
       </c>
       <c r="E135" t="n">
         <v>42.32209488960624</v>
       </c>
       <c r="F135" t="n">
+        <v>50.99280816775246</v>
+      </c>
+      <c r="G135" t="n">
+        <v>17.64445817236588</v>
+      </c>
+      <c r="H135" t="n">
         <v>45.65896499679421</v>
-      </c>
-      <c r="G135" t="n">
-        <v>3.398100708477183</v>
-      </c>
-      <c r="H135" t="n">
-        <v>49.3011680479654</v>
       </c>
     </row>
     <row r="136">
@@ -3962,22 +3962,22 @@
         <v>36.42934200028176</v>
       </c>
       <c r="C136" t="n">
-        <v>17.59295292037269</v>
+        <v>3.435434608819454</v>
       </c>
       <c r="D136" t="n">
-        <v>51.31681500684237</v>
+        <v>50.00528922045201</v>
       </c>
       <c r="E136" t="n">
         <v>42.7142464128794</v>
       </c>
       <c r="F136" t="n">
+        <v>51.31681500684237</v>
+      </c>
+      <c r="G136" t="n">
+        <v>17.59295292037269</v>
+      </c>
+      <c r="H136" t="n">
         <v>46.12327730411093</v>
-      </c>
-      <c r="G136" t="n">
-        <v>3.435434608819454</v>
-      </c>
-      <c r="H136" t="n">
-        <v>50.00528922045201</v>
       </c>
     </row>
     <row r="137">
@@ -3988,22 +3988,22 @@
         <v>36.80234400723018</v>
       </c>
       <c r="C137" t="n">
-        <v>17.53672766251126</v>
+        <v>3.469599854767126</v>
       </c>
       <c r="D137" t="n">
-        <v>51.64566148364835</v>
+        <v>50.69702978728483</v>
       </c>
       <c r="E137" t="n">
         <v>43.10303822194882</v>
       </c>
       <c r="F137" t="n">
+        <v>51.64566148364835</v>
+      </c>
+      <c r="G137" t="n">
+        <v>17.53672766251126</v>
+      </c>
+      <c r="H137" t="n">
         <v>46.60859712045622</v>
-      </c>
-      <c r="G137" t="n">
-        <v>3.469599854767126</v>
-      </c>
-      <c r="H137" t="n">
-        <v>50.69702978728483</v>
       </c>
     </row>
     <row r="138">
@@ -4014,22 +4014,22 @@
         <v>37.15956276113702</v>
       </c>
       <c r="C138" t="n">
-        <v>17.47353878947304</v>
+        <v>3.500153881438904</v>
       </c>
       <c r="D138" t="n">
-        <v>51.97492065529982</v>
+        <v>51.36172238817617</v>
       </c>
       <c r="E138" t="n">
         <v>43.48348338707971</v>
       </c>
       <c r="F138" t="n">
+        <v>51.97492065529982</v>
+      </c>
+      <c r="G138" t="n">
+        <v>17.47353878947304</v>
+      </c>
+      <c r="H138" t="n">
         <v>47.11210449801428</v>
-      </c>
-      <c r="G138" t="n">
-        <v>3.500153881438904</v>
-      </c>
-      <c r="H138" t="n">
-        <v>51.36172238817617</v>
       </c>
     </row>
     <row r="139">
@@ -4040,22 +4040,22 @@
         <v>37.49343070731922</v>
       </c>
       <c r="C139" t="n">
-        <v>17.4011426919497</v>
+        <v>3.526654123953491</v>
       </c>
       <c r="D139" t="n">
-        <v>52.30016557892441</v>
+        <v>51.9846996628383</v>
       </c>
       <c r="E139" t="n">
         <v>43.85059497853757</v>
       </c>
       <c r="F139" t="n">
+        <v>52.30016557892441</v>
+      </c>
+      <c r="G139" t="n">
+        <v>17.4011426919497</v>
+      </c>
+      <c r="H139" t="n">
         <v>47.63097948896812</v>
-      </c>
-      <c r="G139" t="n">
-        <v>3.526654123953491</v>
-      </c>
-      <c r="H139" t="n">
-        <v>51.9846996628383</v>
       </c>
     </row>
     <row r="140">
@@ -4066,22 +4066,22 @@
         <v>37.79639053918542</v>
       </c>
       <c r="C140" t="n">
-        <v>17.31770981405668</v>
+        <v>3.548664924244313</v>
       </c>
       <c r="D140" t="n">
-        <v>52.61685545112038</v>
+        <v>52.55155748993052</v>
       </c>
       <c r="E140" t="n">
         <v>44.19945774631647</v>
       </c>
       <c r="F140" t="n">
+        <v>52.61685545112038</v>
+      </c>
+      <c r="G140" t="n">
+        <v>17.31770981405668</v>
+      </c>
+      <c r="H140" t="n">
         <v>48.16207644127876</v>
-      </c>
-      <c r="G140" t="n">
-        <v>3.548664924244313</v>
-      </c>
-      <c r="H140" t="n">
-        <v>52.55155748993052</v>
       </c>
     </row>
     <row r="141">
@@ -4092,22 +4092,22 @@
         <v>38.06413960509175</v>
       </c>
       <c r="C141" t="n">
-        <v>17.22394481552919</v>
+        <v>3.566391562498622</v>
       </c>
       <c r="D141" t="n">
-        <v>52.92220569500439</v>
+        <v>53.05517607479798</v>
       </c>
       <c r="E141" t="n">
         <v>44.5275199387836</v>
       </c>
       <c r="F141" t="n">
+        <v>52.92220569500439</v>
+      </c>
+      <c r="G141" t="n">
+        <v>17.22394481552919</v>
+      </c>
+      <c r="H141" t="n">
         <v>48.69972484175576</v>
-      </c>
-      <c r="G141" t="n">
-        <v>3.566391562498622</v>
-      </c>
-      <c r="H141" t="n">
-        <v>53.05517607479798</v>
       </c>
     </row>
     <row r="142">
@@ -4118,22 +4118,22 @@
         <v>38.29784009676669</v>
       </c>
       <c r="C142" t="n">
-        <v>17.12159314502555</v>
+        <v>3.58060213257717</v>
       </c>
       <c r="D142" t="n">
-        <v>53.21707188579065</v>
+        <v>53.4993996369168</v>
       </c>
       <c r="E142" t="n">
         <v>44.83536416584338</v>
       </c>
       <c r="F142" t="n">
+        <v>53.21707188579065</v>
+      </c>
+      <c r="G142" t="n">
+        <v>17.12159314502555</v>
+      </c>
+      <c r="H142" t="n">
         <v>49.23742498781318</v>
-      </c>
-      <c r="G142" t="n">
-        <v>3.58060213257717</v>
-      </c>
-      <c r="H142" t="n">
-        <v>53.4993996369168</v>
       </c>
     </row>
     <row r="143">
@@ -4144,22 +4144,22 @@
         <v>38.49929422877503</v>
       </c>
       <c r="C143" t="n">
-        <v>17.01241777134433</v>
+        <v>3.592042040013073</v>
       </c>
       <c r="D143" t="n">
-        <v>53.50260519815122</v>
+        <v>53.88922461365829</v>
       </c>
       <c r="E143" t="n">
         <v>45.12386525774438</v>
       </c>
       <c r="F143" t="n">
+        <v>53.50260519815122</v>
+      </c>
+      <c r="G143" t="n">
+        <v>17.01241777134433</v>
+      </c>
+      <c r="H143" t="n">
         <v>49.76875764943296</v>
-      </c>
-      <c r="G143" t="n">
-        <v>3.592042040013073</v>
-      </c>
-      <c r="H143" t="n">
-        <v>53.88922461365829</v>
       </c>
     </row>
     <row r="144">
@@ -4170,22 +4170,22 @@
         <v>38.67030421568199</v>
       </c>
       <c r="C144" t="n">
-        <v>16.8981816632851</v>
+        <v>3.601456690339538</v>
       </c>
       <c r="D144" t="n">
-        <v>53.7799568067574</v>
+        <v>54.22964744239469</v>
       </c>
       <c r="E144" t="n">
         <v>45.39389804473464</v>
       </c>
       <c r="F144" t="n">
+        <v>53.7799568067574</v>
+      </c>
+      <c r="G144" t="n">
+        <v>16.8981816632851</v>
+      </c>
+      <c r="H144" t="n">
         <v>50.28730359659722</v>
-      </c>
-      <c r="G144" t="n">
-        <v>3.601456690339538</v>
-      </c>
-      <c r="H144" t="n">
-        <v>54.22964744239469</v>
       </c>
     </row>
     <row r="145">
@@ -4196,22 +4196,22 @@
         <v>38.81267227205102</v>
       </c>
       <c r="C145" t="n">
-        <v>16.78064778964644</v>
+        <v>3.60959148908977</v>
       </c>
       <c r="D145" t="n">
-        <v>54.05027788628094</v>
+        <v>54.52566456049767</v>
       </c>
       <c r="E145" t="n">
         <v>45.64633735706235</v>
       </c>
       <c r="F145" t="n">
+        <v>54.05027788628094</v>
+      </c>
+      <c r="G145" t="n">
+        <v>16.78064778964644</v>
+      </c>
+      <c r="H145" t="n">
         <v>50.78664359928958</v>
-      </c>
-      <c r="G145" t="n">
-        <v>3.60959148908977</v>
-      </c>
-      <c r="H145" t="n">
-        <v>54.52566456049767</v>
       </c>
     </row>
     <row r="146">
@@ -4222,22 +4222,22 @@
         <v>38.92820061244765</v>
       </c>
       <c r="C146" t="n">
-        <v>16.66157911922747</v>
+        <v>3.617191841796811</v>
       </c>
       <c r="D146" t="n">
-        <v>54.31471961139334</v>
+        <v>54.78227240533836</v>
       </c>
       <c r="E146" t="n">
         <v>45.88205802497527</v>
       </c>
       <c r="F146" t="n">
+        <v>54.31471961139334</v>
+      </c>
+      <c r="G146" t="n">
+        <v>16.66157911922747</v>
+      </c>
+      <c r="H146" t="n">
         <v>51.26035842749262</v>
-      </c>
-      <c r="G146" t="n">
-        <v>3.617191841796811</v>
-      </c>
-      <c r="H146" t="n">
-        <v>54.78227240533836</v>
       </c>
     </row>
     <row r="147">
@@ -4248,22 +4248,22 @@
         <v>39.01869145143774</v>
       </c>
       <c r="C147" t="n">
-        <v>16.54273862082685</v>
+        <v>3.625003153993783</v>
       </c>
       <c r="D147" t="n">
-        <v>54.57443315676658</v>
+        <v>55.00446741428852</v>
       </c>
       <c r="E147" t="n">
         <v>46.10193487872193</v>
       </c>
       <c r="F147" t="n">
+        <v>54.57443315676658</v>
+      </c>
+      <c r="G147" t="n">
+        <v>16.54273862082685</v>
+      </c>
+      <c r="H147" t="n">
         <v>51.70202885118795</v>
-      </c>
-      <c r="G147" t="n">
-        <v>3.625003153993783</v>
-      </c>
-      <c r="H147" t="n">
-        <v>55.00446741428852</v>
       </c>
     </row>
     <row r="148">
@@ -4274,22 +4274,22 @@
         <v>39.0859470035854</v>
       </c>
       <c r="C148" t="n">
-        <v>16.42588926324361</v>
+        <v>3.633770831214024</v>
       </c>
       <c r="D148" t="n">
-        <v>54.83056969707271</v>
+        <v>55.19724602472003</v>
       </c>
       <c r="E148" t="n">
         <v>46.30684274855054</v>
       </c>
       <c r="F148" t="n">
+        <v>54.83056969707271</v>
+      </c>
+      <c r="G148" t="n">
+        <v>16.42588926324361</v>
+      </c>
+      <c r="H148" t="n">
         <v>52.10523564035812</v>
-      </c>
-      <c r="G148" t="n">
-        <v>3.633770831214024</v>
-      </c>
-      <c r="H148" t="n">
-        <v>55.19724602472003</v>
       </c>
     </row>
     <row r="149">
@@ -4300,22 +4300,22 @@
         <v>39.13176948345442</v>
       </c>
       <c r="C149" t="n">
-        <v>16.31279401527688</v>
+        <v>3.644240278990415</v>
       </c>
       <c r="D149" t="n">
-        <v>55.08428040698301</v>
+        <v>55.36560467400497</v>
       </c>
       <c r="E149" t="n">
         <v>46.49765646470917</v>
       </c>
       <c r="F149" t="n">
+        <v>55.08428040698301</v>
+      </c>
+      <c r="G149" t="n">
+        <v>16.31279401527688</v>
+      </c>
+      <c r="H149" t="n">
         <v>52.46355956498616</v>
-      </c>
-      <c r="G149" t="n">
-        <v>3.644240278990415</v>
-      </c>
-      <c r="H149" t="n">
-        <v>55.36560467400497</v>
       </c>
     </row>
     <row r="150">
@@ -4326,22 +4326,22 @@
         <v>39.15796110561059</v>
       </c>
       <c r="C150" t="n">
-        <v>16.20521584572544</v>
+        <v>3.657156902856269</v>
       </c>
       <c r="D150" t="n">
-        <v>55.33671646116903</v>
+        <v>55.5145397995142</v>
       </c>
       <c r="E150" t="n">
         <v>46.67525085744611</v>
       </c>
       <c r="F150" t="n">
+        <v>55.33671646116903</v>
+      </c>
+      <c r="G150" t="n">
+        <v>16.20521584572544</v>
+      </c>
+      <c r="H150" t="n">
         <v>52.77058139505497</v>
-      </c>
-      <c r="G150" t="n">
-        <v>3.657156902856269</v>
-      </c>
-      <c r="H150" t="n">
-        <v>55.5145397995142</v>
       </c>
     </row>
     <row r="151">
@@ -4352,22 +4352,22 @@
         <v>39.16632408461897</v>
       </c>
       <c r="C151" t="n">
-        <v>16.10491772338833</v>
+        <v>3.673266108344611</v>
       </c>
       <c r="D151" t="n">
-        <v>55.58902903430269</v>
+        <v>55.64904783861958</v>
       </c>
       <c r="E151" t="n">
         <v>46.84050075700957</v>
       </c>
       <c r="F151" t="n">
+        <v>55.58902903430269</v>
+      </c>
+      <c r="G151" t="n">
+        <v>16.10491772338833</v>
+      </c>
+      <c r="H151" t="n">
         <v>53.01988190054628</v>
-      </c>
-      <c r="G151" t="n">
-        <v>3.673266108344611</v>
-      </c>
-      <c r="H151" t="n">
-        <v>55.64904783861958</v>
       </c>
     </row>
     <row r="152">
@@ -4378,22 +4378,22 @@
         <v>39.1589291462882</v>
       </c>
       <c r="C152" t="n">
-        <v>16.01334903677764</v>
+        <v>3.693315948909568</v>
       </c>
       <c r="D152" t="n">
-        <v>55.84253765995589</v>
+        <v>55.77424370063447</v>
       </c>
       <c r="E152" t="n">
         <v>46.99451614316181</v>
       </c>
       <c r="F152" t="n">
+        <v>55.84253765995589</v>
+      </c>
+      <c r="G152" t="n">
+        <v>16.01334903677764</v>
+      </c>
+      <c r="H152" t="n">
         <v>53.20572508796953</v>
-      </c>
-      <c r="G152" t="n">
-        <v>3.693315948909568</v>
-      </c>
-      <c r="H152" t="n">
-        <v>55.77424370063447</v>
       </c>
     </row>
     <row r="153">
@@ -4404,22 +4404,22 @@
         <v>39.14034551598156</v>
       </c>
       <c r="C153" t="n">
-        <v>15.92995068311134</v>
+        <v>3.717420878235196</v>
       </c>
       <c r="D153" t="n">
-        <v>56.09798980674903</v>
+        <v>55.89398677119827</v>
       </c>
       <c r="E153" t="n">
         <v>47.13865866443622</v>
       </c>
       <c r="F153" t="n">
+        <v>56.09798980674903</v>
+      </c>
+      <c r="G153" t="n">
+        <v>15.92995068311134</v>
+      </c>
+      <c r="H153" t="n">
         <v>53.32938620592284</v>
-      </c>
-      <c r="G153" t="n">
-        <v>3.717420878235196</v>
-      </c>
-      <c r="H153" t="n">
-        <v>55.89398677119827</v>
       </c>
     </row>
     <row r="154">
@@ -4430,22 +4430,22 @@
         <v>39.11454046453883</v>
       </c>
       <c r="C154" t="n">
-        <v>15.85332462701342</v>
+        <v>3.744901862415031</v>
       </c>
       <c r="D154" t="n">
-        <v>56.3541719685123</v>
+        <v>56.00907259396794</v>
       </c>
       <c r="E154" t="n">
         <v>47.27308828494454</v>
       </c>
       <c r="F154" t="n">
+        <v>56.3541719685123</v>
+      </c>
+      <c r="G154" t="n">
+        <v>15.85332462701342</v>
+      </c>
+      <c r="H154" t="n">
         <v>53.39833969205943</v>
-      </c>
-      <c r="G154" t="n">
-        <v>3.744901862415031</v>
-      </c>
-      <c r="H154" t="n">
-        <v>56.00907259396794</v>
       </c>
     </row>
     <row r="155">
@@ -4456,22 +4456,22 @@
         <v>39.0849901765309</v>
       </c>
       <c r="C155" t="n">
-        <v>15.78204609166128</v>
+        <v>3.775036709506031</v>
       </c>
       <c r="D155" t="n">
-        <v>56.60971277207791</v>
+        <v>56.12000812017855</v>
       </c>
       <c r="E155" t="n">
         <v>47.3978342436802</v>
       </c>
       <c r="F155" t="n">
+        <v>56.60971277207791</v>
+      </c>
+      <c r="G155" t="n">
+        <v>15.78204609166128</v>
+      </c>
+      <c r="H155" t="n">
         <v>53.42059074177684</v>
-      </c>
-      <c r="G155" t="n">
-        <v>3.775036709506031</v>
-      </c>
-      <c r="H155" t="n">
-        <v>56.12000812017855</v>
       </c>
     </row>
     <row r="156">
@@ -4482,22 +4482,22 @@
         <v>39.05517083652944</v>
       </c>
       <c r="C156" t="n">
-        <v>15.71469030023203</v>
+        <v>3.807103227565611</v>
       </c>
       <c r="D156" t="n">
-        <v>56.86324084428109</v>
+        <v>56.22730030106504</v>
       </c>
       <c r="E156" t="n">
         <v>47.51292577963729</v>
       </c>
       <c r="F156" t="n">
+        <v>56.86324084428109</v>
+      </c>
+      <c r="G156" t="n">
+        <v>15.71469030023203</v>
+      </c>
+      <c r="H156" t="n">
         <v>53.40414455047425</v>
-      </c>
-      <c r="G156" t="n">
-        <v>3.807103227565611</v>
-      </c>
-      <c r="H156" t="n">
-        <v>56.22730030106504</v>
       </c>
     </row>
     <row r="157">
@@ -4508,22 +4508,22 @@
         <v>39.02855862910708</v>
       </c>
       <c r="C157" t="n">
-        <v>15.64983247590306</v>
+        <v>3.840379224650803</v>
       </c>
       <c r="D157" t="n">
-        <v>57.11338481195347</v>
+        <v>56.3314560878638</v>
       </c>
       <c r="E157" t="n">
         <v>47.61839213180879</v>
       </c>
       <c r="F157" t="n">
+        <v>57.11338481195347</v>
+      </c>
+      <c r="G157" t="n">
+        <v>15.64983247590306</v>
+      </c>
+      <c r="H157" t="n">
         <v>53.35700631354867</v>
-      </c>
-      <c r="G157" t="n">
-        <v>3.840379224650803</v>
-      </c>
-      <c r="H157" t="n">
-        <v>56.3314560878638</v>
       </c>
     </row>
     <row r="158">
@@ -4534,22 +4534,22 @@
         <v>39.00862973883457</v>
       </c>
       <c r="C158" t="n">
-        <v>15.58604784185148</v>
+        <v>3.874142508819109</v>
       </c>
       <c r="D158" t="n">
-        <v>57.35877330192856</v>
+        <v>56.43298243180915</v>
       </c>
       <c r="E158" t="n">
         <v>47.71426253918923</v>
       </c>
       <c r="F158" t="n">
+        <v>57.35877330192856</v>
+      </c>
+      <c r="G158" t="n">
+        <v>15.58604784185148</v>
+      </c>
+      <c r="H158" t="n">
         <v>53.28718122639997</v>
-      </c>
-      <c r="G158" t="n">
-        <v>3.874142508819109</v>
-      </c>
-      <c r="H158" t="n">
-        <v>56.43298243180915</v>
       </c>
     </row>
     <row r="159">
@@ -4560,22 +4560,22 @@
         <v>38.99886035028356</v>
       </c>
       <c r="C159" t="n">
-        <v>15.52191162125503</v>
+        <v>3.907670888127513</v>
       </c>
       <c r="D159" t="n">
-        <v>57.59803494103858</v>
+        <v>56.53238628413606</v>
       </c>
       <c r="E159" t="n">
         <v>47.80056624077167</v>
       </c>
       <c r="F159" t="n">
+        <v>57.59803494103858</v>
+      </c>
+      <c r="G159" t="n">
+        <v>15.52191162125503</v>
+      </c>
+      <c r="H159" t="n">
         <v>53.20267448442641</v>
-      </c>
-      <c r="G159" t="n">
-        <v>3.907670888127513</v>
-      </c>
-      <c r="H159" t="n">
-        <v>56.53238628413606</v>
       </c>
     </row>
     <row r="160">
@@ -4586,22 +4586,22 @@
         <v>39.00272664802575</v>
       </c>
       <c r="C160" t="n">
-        <v>15.45599903729007</v>
+        <v>3.940242170633301</v>
       </c>
       <c r="D160" t="n">
-        <v>57.82979835611876</v>
+        <v>56.63017459607978</v>
       </c>
       <c r="E160" t="n">
         <v>47.87733247555007</v>
       </c>
       <c r="F160" t="n">
+        <v>57.82979835611876</v>
+      </c>
+      <c r="G160" t="n">
+        <v>15.45599903729007</v>
+      </c>
+      <c r="H160" t="n">
         <v>53.11149128302668</v>
-      </c>
-      <c r="G160" t="n">
-        <v>3.940242170633301</v>
-      </c>
-      <c r="H160" t="n">
-        <v>56.63017459607978</v>
       </c>
     </row>
     <row r="161">
@@ -4612,22 +4612,22 @@
         <v>39.02370481663355</v>
       </c>
       <c r="C161" t="n">
-        <v>15.38688531313448</v>
+        <v>3.971134164393583</v>
       </c>
       <c r="D161" t="n">
-        <v>58.05269217400014</v>
+        <v>56.72685431887595</v>
       </c>
       <c r="E161" t="n">
         <v>47.94459048251776</v>
       </c>
       <c r="F161" t="n">
+        <v>58.05269217400014</v>
+      </c>
+      <c r="G161" t="n">
+        <v>15.38688531313448</v>
+      </c>
+      <c r="H161" t="n">
         <v>53.02163681759814</v>
-      </c>
-      <c r="G161" t="n">
-        <v>3.971134164393583</v>
-      </c>
-      <c r="H161" t="n">
-        <v>56.72685431887595</v>
       </c>
     </row>
     <row r="162">
@@ -4638,22 +4638,22 @@
         <v>39.06527104067789</v>
       </c>
       <c r="C162" t="n">
-        <v>15.31314567196524</v>
+        <v>3.999624677465787</v>
       </c>
       <c r="D162" t="n">
-        <v>58.26534502151674</v>
+        <v>56.82293240375924</v>
       </c>
       <c r="E162" t="n">
         <v>48.00236950066897</v>
       </c>
       <c r="F162" t="n">
+        <v>58.26534502151674</v>
+      </c>
+      <c r="G162" t="n">
+        <v>15.31314567196524</v>
+      </c>
+      <c r="H162" t="n">
         <v>52.94111628354025</v>
-      </c>
-      <c r="G162" t="n">
-        <v>3.999624677465787</v>
-      </c>
-      <c r="H162" t="n">
-        <v>56.82293240375924</v>
       </c>
     </row>
     <row r="163">
@@ -4664,22 +4664,22 @@
         <v>39.13090150473019</v>
       </c>
       <c r="C163" t="n">
-        <v>15.23335533695978</v>
+        <v>4.024991517906995</v>
       </c>
       <c r="D163" t="n">
-        <v>58.46638552550053</v>
+        <v>56.91891580196476</v>
       </c>
       <c r="E163" t="n">
         <v>48.05069876899709</v>
       </c>
       <c r="F163" t="n">
+        <v>58.46638552550053</v>
+      </c>
+      <c r="G163" t="n">
+        <v>15.23335533695978</v>
+      </c>
+      <c r="H163" t="n">
         <v>52.87793487625128</v>
-      </c>
-      <c r="G163" t="n">
-        <v>4.024991517906995</v>
-      </c>
-      <c r="H163" t="n">
-        <v>56.91891580196476</v>
       </c>
     </row>
     <row r="164">
@@ -4690,22 +4690,22 @@
         <v>39.22350893179952</v>
       </c>
       <c r="C164" t="n">
-        <v>15.14622700911417</v>
+        <v>4.046491837504603</v>
       </c>
       <c r="D164" t="n">
-        <v>58.65408433030991</v>
+        <v>57.01512636855315</v>
       </c>
       <c r="E164" t="n">
         <v>48.08936541497696</v>
       </c>
       <c r="F164" t="n">
+        <v>58.65408433030991</v>
+      </c>
+      <c r="G164" t="n">
+        <v>15.14622700911417</v>
+      </c>
+      <c r="H164" t="n">
         <v>52.8396576719506</v>
-      </c>
-      <c r="G164" t="n">
-        <v>4.046491837504603</v>
-      </c>
-      <c r="H164" t="n">
-        <v>57.01512636855315</v>
       </c>
     </row>
     <row r="165">
@@ -4716,22 +4716,22 @@
         <v>39.33960524299213</v>
       </c>
       <c r="C165" t="n">
-        <v>15.05178948730195</v>
+        <v>4.063833382923803</v>
       </c>
       <c r="D165" t="n">
-        <v>58.82612724826302</v>
+        <v>57.11046493464227</v>
       </c>
       <c r="E165" t="n">
         <v>48.11765820863469</v>
       </c>
       <c r="F165" t="n">
+        <v>58.82612724826302</v>
+      </c>
+      <c r="G165" t="n">
+        <v>15.05178948730195</v>
+      </c>
+      <c r="H165" t="n">
         <v>52.82813075029201</v>
-      </c>
-      <c r="G165" t="n">
-        <v>4.063833382923803</v>
-      </c>
-      <c r="H165" t="n">
-        <v>57.11046493464227</v>
       </c>
     </row>
     <row r="166">
@@ -4742,22 +4742,22 @@
         <v>39.47269740207574</v>
       </c>
       <c r="C166" t="n">
-        <v>14.95083252953902</v>
+        <v>4.077456184396009</v>
       </c>
       <c r="D166" t="n">
-        <v>58.98190992946157</v>
+        <v>57.20217825318178</v>
       </c>
       <c r="E166" t="n">
         <v>48.13556983292695</v>
       </c>
       <c r="F166" t="n">
+        <v>58.98190992946157</v>
+      </c>
+      <c r="G166" t="n">
+        <v>14.95083252953902</v>
+      </c>
+      <c r="H166" t="n">
         <v>52.83838396514506</v>
-      </c>
-      <c r="G166" t="n">
-        <v>4.077456184396009</v>
-      </c>
-      <c r="H166" t="n">
-        <v>57.20217825318178</v>
       </c>
     </row>
     <row r="167">
@@ -4768,22 +4768,22 @@
         <v>39.6165272993414</v>
       </c>
       <c r="C167" t="n">
-        <v>14.84418685762779</v>
+        <v>4.087871491489226</v>
       </c>
       <c r="D167" t="n">
-        <v>59.12107156392802</v>
+        <v>57.28720588407941</v>
       </c>
       <c r="E167" t="n">
         <v>48.14314828614496</v>
       </c>
       <c r="F167" t="n">
+        <v>59.12107156392802</v>
+      </c>
+      <c r="G167" t="n">
+        <v>14.84418685762779</v>
+      </c>
+      <c r="H167" t="n">
         <v>52.86465943173703</v>
-      </c>
-      <c r="G167" t="n">
-        <v>4.087871491489226</v>
-      </c>
-      <c r="H167" t="n">
-        <v>57.28720588407941</v>
       </c>
     </row>
     <row r="168">
@@ -4794,22 +4794,22 @@
         <v>39.7648368250784</v>
       </c>
       <c r="C168" t="n">
-        <v>14.7326831933722</v>
+        <v>4.095590553771102</v>
       </c>
       <c r="D168" t="n">
-        <v>59.24325134168463</v>
+        <v>57.36248738724286</v>
       </c>
       <c r="E168" t="n">
         <v>48.14044156657953</v>
       </c>
       <c r="F168" t="n">
+        <v>59.24325134168463</v>
+      </c>
+      <c r="G168" t="n">
+        <v>14.7326831933722</v>
+      </c>
+      <c r="H168" t="n">
         <v>52.90119926529388</v>
-      </c>
-      <c r="G168" t="n">
-        <v>4.095590553771102</v>
-      </c>
-      <c r="H168" t="n">
-        <v>57.36248738724286</v>
       </c>
     </row>
     <row r="169">
@@ -4820,22 +4820,22 @@
         <v>39.91136786957525</v>
       </c>
       <c r="C169" t="n">
-        <v>14.61715225857443</v>
+        <v>4.101124620809857</v>
       </c>
       <c r="D169" t="n">
-        <v>59.34808845275236</v>
+        <v>57.4249623225786</v>
       </c>
       <c r="E169" t="n">
         <v>48.12749767252233</v>
       </c>
       <c r="F169" t="n">
+        <v>59.34808845275236</v>
+      </c>
+      <c r="G169" t="n">
+        <v>14.61715225857443</v>
+      </c>
+      <c r="H169" t="n">
         <v>52.94224558104392</v>
-      </c>
-      <c r="G169" t="n">
-        <v>4.101124620809857</v>
-      </c>
-      <c r="H169" t="n">
-        <v>57.4249623225786</v>
       </c>
     </row>
     <row r="170">
@@ -4846,22 +4846,22 @@
         <v>40.049862323122</v>
       </c>
       <c r="C170" t="n">
-        <v>14.49842477503764</v>
+        <v>4.104984942173138</v>
       </c>
       <c r="D170" t="n">
-        <v>59.43522208715439</v>
+        <v>57.4715702499947</v>
       </c>
       <c r="E170" t="n">
         <v>48.10436460226396</v>
       </c>
       <c r="F170" t="n">
+        <v>59.43522208715439</v>
+      </c>
+      <c r="G170" t="n">
+        <v>14.49842477503764</v>
+      </c>
+      <c r="H170" t="n">
         <v>52.9820404942119</v>
-      </c>
-      <c r="G170" t="n">
-        <v>4.104984942173138</v>
-      </c>
-      <c r="H170" t="n">
-        <v>57.4715702499947</v>
       </c>
     </row>
     <row r="171">
@@ -4872,22 +4872,22 @@
         <v>40.1740620760099</v>
       </c>
       <c r="C171" t="n">
-        <v>14.37733146456437</v>
+        <v>4.107682767429125</v>
       </c>
       <c r="D171" t="n">
-        <v>59.50429143491329</v>
+        <v>57.49925072939868</v>
       </c>
       <c r="E171" t="n">
         <v>48.07109035409564</v>
       </c>
       <c r="F171" t="n">
+        <v>59.50429143491329</v>
+      </c>
+      <c r="G171" t="n">
+        <v>14.37733146456437</v>
+      </c>
+      <c r="H171" t="n">
         <v>53.01482612002577</v>
-      </c>
-      <c r="G171" t="n">
-        <v>4.107682767429125</v>
-      </c>
-      <c r="H171" t="n">
-        <v>57.49925072939868</v>
       </c>
     </row>
     <row r="172">
@@ -4898,22 +4898,22 @@
         <v>40.27770901852757</v>
       </c>
       <c r="C172" t="n">
-        <v>14.25470304895794</v>
+        <v>4.109729346145517</v>
       </c>
       <c r="D172" t="n">
-        <v>59.5549356860511</v>
+        <v>57.50494332069829</v>
       </c>
       <c r="E172" t="n">
         <v>48.02772292630799</v>
       </c>
       <c r="F172" t="n">
+        <v>59.5549356860511</v>
+      </c>
+      <c r="G172" t="n">
+        <v>14.25470304895794</v>
+      </c>
+      <c r="H172" t="n">
         <v>53.03484457371125</v>
-      </c>
-      <c r="G172" t="n">
-        <v>4.109729346145517</v>
-      </c>
-      <c r="H172" t="n">
-        <v>57.50494332069829</v>
       </c>
     </row>
     <row r="173">
@@ -4924,22 +4924,22 @@
         <v>40.35454504096398</v>
       </c>
       <c r="C173" t="n">
-        <v>14.13137025002088</v>
+        <v>4.111635927890354</v>
       </c>
       <c r="D173" t="n">
-        <v>59.58679403059007</v>
+        <v>57.48558758379939</v>
       </c>
       <c r="E173" t="n">
         <v>47.97431031719307</v>
       </c>
       <c r="F173" t="n">
+        <v>59.58679403059007</v>
+      </c>
+      <c r="G173" t="n">
+        <v>14.13137025002088</v>
+      </c>
+      <c r="H173" t="n">
         <v>53.03633797049683</v>
-      </c>
-      <c r="G173" t="n">
-        <v>4.111635927890354</v>
-      </c>
-      <c r="H173" t="n">
-        <v>57.48558758379939</v>
       </c>
     </row>
     <row r="174">
@@ -4950,22 +4950,22 @@
         <v>40.39831203360947</v>
       </c>
       <c r="C174" t="n">
-        <v>14.00816378955616</v>
+        <v>4.113913762231459</v>
       </c>
       <c r="D174" t="n">
-        <v>59.59950565855184</v>
+        <v>57.43812307861067</v>
       </c>
       <c r="E174" t="n">
         <v>47.91090052504126</v>
       </c>
       <c r="F174" t="n">
+        <v>59.59950565855184</v>
+      </c>
+      <c r="G174" t="n">
+        <v>14.00816378955616</v>
+      </c>
+      <c r="H174" t="n">
         <v>53.01354842560738</v>
-      </c>
-      <c r="G174" t="n">
-        <v>4.113913762231459</v>
-      </c>
-      <c r="H174" t="n">
-        <v>57.43812307861067</v>
       </c>
     </row>
     <row r="175">
@@ -4976,22 +4976,22 @@
         <v>40.40275188675464</v>
       </c>
       <c r="C175" t="n">
-        <v>13.88591438936624</v>
+        <v>4.117074098736877</v>
       </c>
       <c r="D175" t="n">
-        <v>59.59270975996073</v>
+        <v>57.35948936503945</v>
       </c>
       <c r="E175" t="n">
         <v>47.8375415481438</v>
       </c>
       <c r="F175" t="n">
+        <v>59.59270975996073</v>
+      </c>
+      <c r="G175" t="n">
+        <v>13.88591438936624</v>
+      </c>
+      <c r="H175" t="n">
         <v>52.96071805427042</v>
-      </c>
-      <c r="G175" t="n">
-        <v>4.117074098736877</v>
-      </c>
-      <c r="H175" t="n">
-        <v>57.35948936503945</v>
       </c>
     </row>
     <row r="176">
@@ -5002,22 +5002,22 @@
         <v>40.36222550542592</v>
       </c>
       <c r="C176" t="n">
-        <v>13.76546172519364</v>
+        <v>4.121657149929321</v>
       </c>
       <c r="D176" t="n">
-        <v>59.56635095325855</v>
+        <v>57.24682913583199</v>
       </c>
       <c r="E176" t="n">
         <v>47.75448950077178</v>
       </c>
       <c r="F176" t="n">
+        <v>59.56635095325855</v>
+      </c>
+      <c r="G176" t="n">
+        <v>13.76546172519364</v>
+      </c>
+      <c r="H176" t="n">
         <v>52.87223231525937</v>
-      </c>
-      <c r="G176" t="n">
-        <v>4.121657149929321</v>
-      </c>
-      <c r="H176" t="n">
-        <v>57.24682913583199</v>
       </c>
     </row>
     <row r="177">
@@ -5028,22 +5028,22 @@
         <v>40.27769529979662</v>
       </c>
       <c r="C177" t="n">
-        <v>13.64694559522515</v>
+        <v>4.128084085323374</v>
       </c>
       <c r="D177" t="n">
-        <v>59.52204088093693</v>
+        <v>57.10032104026076</v>
       </c>
       <c r="E177" t="n">
         <v>47.66282579598019</v>
       </c>
       <c r="F177" t="n">
+        <v>59.52204088093693</v>
+      </c>
+      <c r="G177" t="n">
+        <v>13.64694559522515</v>
+      </c>
+      <c r="H177" t="n">
         <v>52.74654075835078</v>
-      </c>
-      <c r="G177" t="n">
-        <v>4.128084085323374</v>
-      </c>
-      <c r="H177" t="n">
-        <v>57.10032104026076</v>
       </c>
     </row>
     <row r="178">
@@ -5054,22 +5054,22 @@
         <v>40.15510191228075</v>
       </c>
       <c r="C178" t="n">
-        <v>13.52990646785015</v>
+        <v>4.136460763356352</v>
       </c>
       <c r="D178" t="n">
-        <v>59.46166196042618</v>
+        <v>56.92431891793902</v>
       </c>
       <c r="E178" t="n">
         <v>47.56389707014465</v>
       </c>
       <c r="F178" t="n">
+        <v>59.46166196042618</v>
+      </c>
+      <c r="G178" t="n">
+        <v>13.52990646785015</v>
+      </c>
+      <c r="H178" t="n">
         <v>52.58923380165049</v>
-      </c>
-      <c r="G178" t="n">
-        <v>4.136460763356352</v>
-      </c>
-      <c r="H178" t="n">
-        <v>56.92431891793902</v>
       </c>
     </row>
     <row r="179">
@@ -5080,22 +5080,22 @@
         <v>40.00063924730313</v>
       </c>
       <c r="C179" t="n">
-        <v>13.4138600227638</v>
+        <v>4.146845855726279</v>
       </c>
       <c r="D179" t="n">
-        <v>59.38698353465263</v>
+        <v>56.72371943413515</v>
       </c>
       <c r="E179" t="n">
         <v>47.45910710273254</v>
       </c>
       <c r="F179" t="n">
+        <v>59.38698353465263</v>
+      </c>
+      <c r="G179" t="n">
+        <v>13.4138600227638</v>
+      </c>
+      <c r="H179" t="n">
         <v>52.40690895244263</v>
-      </c>
-      <c r="G179" t="n">
-        <v>4.146845855726279</v>
-      </c>
-      <c r="H179" t="n">
-        <v>56.72371943413515</v>
       </c>
     </row>
     <row r="180">
@@ -5106,22 +5106,22 @@
         <v>39.82050120928559</v>
       </c>
       <c r="C180" t="n">
-        <v>13.29832193966173</v>
+        <v>4.159298034131173</v>
       </c>
       <c r="D180" t="n">
-        <v>59.29977494653721</v>
+        <v>56.50341925411719</v>
       </c>
       <c r="E180" t="n">
         <v>47.34985967321089</v>
       </c>
       <c r="F180" t="n">
+        <v>59.29977494653721</v>
+      </c>
+      <c r="G180" t="n">
+        <v>13.29832193966173</v>
+      </c>
+      <c r="H180" t="n">
         <v>52.20616371801082</v>
-      </c>
-      <c r="G180" t="n">
-        <v>4.159298034131173</v>
-      </c>
-      <c r="H180" t="n">
-        <v>56.50341925411719</v>
       </c>
     </row>
     <row r="181">
@@ -5132,22 +5132,22 @@
         <v>39.620881702654</v>
       </c>
       <c r="C181" t="n">
-        <v>13.18280789823908</v>
+        <v>4.173875970269199</v>
       </c>
       <c r="D181" t="n">
-        <v>59.20180553900434</v>
+        <v>56.26831504315363</v>
       </c>
       <c r="E181" t="n">
         <v>47.23755856104684</v>
       </c>
       <c r="F181" t="n">
+        <v>59.20180553900434</v>
+      </c>
+      <c r="G181" t="n">
+        <v>13.18280789823908</v>
+      </c>
+      <c r="H181" t="n">
         <v>51.99359560563885</v>
-      </c>
-      <c r="G181" t="n">
-        <v>4.173875970269199</v>
-      </c>
-      <c r="H181" t="n">
-        <v>56.26831504315363</v>
       </c>
     </row>
     <row r="182">
@@ -5158,22 +5158,22 @@
         <v>39.40797463183191</v>
       </c>
       <c r="C182" t="n">
-        <v>13.06683357819125</v>
+        <v>4.190638335838185</v>
       </c>
       <c r="D182" t="n">
-        <v>59.09484465497489</v>
+        <v>56.02330346651441</v>
       </c>
       <c r="E182" t="n">
         <v>47.12360754570762</v>
       </c>
       <c r="F182" t="n">
+        <v>59.09484465497489</v>
+      </c>
+      <c r="G182" t="n">
+        <v>13.06683357819125</v>
+      </c>
+      <c r="H182" t="n">
         <v>51.77580212261083</v>
-      </c>
-      <c r="G182" t="n">
-        <v>4.190638335838185</v>
-      </c>
-      <c r="H182" t="n">
-        <v>56.02330346651441</v>
       </c>
     </row>
     <row r="183">
@@ -5184,22 +5184,22 @@
         <v>39.18797390124167</v>
       </c>
       <c r="C183" t="n">
-        <v>12.94991465921371</v>
+        <v>4.20964380253609</v>
       </c>
       <c r="D183" t="n">
-        <v>58.98066163737577</v>
+        <v>55.77328118946766</v>
       </c>
       <c r="E183" t="n">
         <v>47.00941040666023</v>
       </c>
       <c r="F183" t="n">
+        <v>58.98066163737577</v>
+      </c>
+      <c r="G183" t="n">
+        <v>12.94991465921371</v>
+      </c>
+      <c r="H183" t="n">
         <v>51.5593807762103</v>
-      </c>
-      <c r="G183" t="n">
-        <v>4.20964380253609</v>
-      </c>
-      <c r="H183" t="n">
-        <v>55.77328118946766</v>
       </c>
     </row>
     <row r="184">
@@ -5210,22 +5210,22 @@
         <v>38.96707341530691</v>
       </c>
       <c r="C184" t="n">
-        <v>12.83156682100166</v>
+        <v>4.230951042061197</v>
       </c>
       <c r="D184" t="n">
-        <v>58.86102582912698</v>
+        <v>55.52314487728154</v>
       </c>
       <c r="E184" t="n">
         <v>46.89637092337179</v>
       </c>
       <c r="F184" t="n">
+        <v>58.86102582912698</v>
+      </c>
+      <c r="G184" t="n">
+        <v>12.83156682100166</v>
+      </c>
+      <c r="H184" t="n">
         <v>51.35092907372137</v>
-      </c>
-      <c r="G184" t="n">
-        <v>4.230951042061197</v>
-      </c>
-      <c r="H184" t="n">
-        <v>55.52314487728154</v>
       </c>
     </row>
     <row r="185">
@@ -5236,22 +5236,22 @@
         <v>38.75146707845311</v>
       </c>
       <c r="C185" t="n">
-        <v>12.71130574325024</v>
+        <v>4.254618726111215</v>
       </c>
       <c r="D185" t="n">
-        <v>58.73770657315454</v>
+        <v>55.27779119522489</v>
       </c>
       <c r="E185" t="n">
         <v>46.78589287530946</v>
       </c>
       <c r="F185" t="n">
+        <v>58.73770657315454</v>
+      </c>
+      <c r="G185" t="n">
+        <v>12.71130574325024</v>
+      </c>
+      <c r="H185" t="n">
         <v>51.15704452242718</v>
-      </c>
-      <c r="G185" t="n">
-        <v>4.254618726111215</v>
-      </c>
-      <c r="H185" t="n">
-        <v>55.27779119522489</v>
       </c>
     </row>
     <row r="186">
@@ -5262,22 +5262,22 @@
         <v>38.54734879510417</v>
       </c>
       <c r="C186" t="n">
-        <v>12.58864710565498</v>
+        <v>4.28070552638424</v>
       </c>
       <c r="D186" t="n">
-        <v>58.61247321237875</v>
+        <v>55.04211680856645</v>
       </c>
       <c r="E186" t="n">
         <v>46.67938004194058</v>
       </c>
       <c r="F186" t="n">
+        <v>58.61247321237875</v>
+      </c>
+      <c r="G186" t="n">
+        <v>12.58864710565498</v>
+      </c>
+      <c r="H186" t="n">
         <v>50.98432462961259</v>
-      </c>
-      <c r="G186" t="n">
-        <v>4.28070552638424</v>
-      </c>
-      <c r="H186" t="n">
-        <v>55.04211680856645</v>
       </c>
     </row>
     <row r="187">
@@ -5288,22 +5288,22 @@
         <v>38.36091246968146</v>
       </c>
       <c r="C187" t="n">
-        <v>12.4631065879114</v>
+        <v>4.309270114578291</v>
       </c>
       <c r="D187" t="n">
-        <v>58.48709508972608</v>
+        <v>54.82101838257508</v>
       </c>
       <c r="E187" t="n">
         <v>46.57823620273224</v>
       </c>
       <c r="F187" t="n">
+        <v>58.48709508972608</v>
+      </c>
+      <c r="G187" t="n">
+        <v>12.4631065879114</v>
+      </c>
+      <c r="H187" t="n">
         <v>50.83936690256014</v>
-      </c>
-      <c r="G187" t="n">
-        <v>4.309270114578291</v>
-      </c>
-      <c r="H187" t="n">
-        <v>54.82101838257508</v>
       </c>
     </row>
     <row r="188">
@@ -5314,22 +5314,22 @@
         <v>38.19799324416574</v>
       </c>
       <c r="C188" t="n">
-        <v>12.33408961713291</v>
+        <v>4.340342737321714</v>
       </c>
       <c r="D188" t="n">
-        <v>58.36336591336736</v>
+        <v>54.61896584258182</v>
       </c>
       <c r="E188" t="n">
         <v>46.48364885257534</v>
       </c>
       <c r="F188" t="n">
+        <v>58.36336591336736</v>
+      </c>
+      <c r="G188" t="n">
+        <v>12.33408961713291</v>
+      </c>
+      <c r="H188" t="n">
         <v>50.72880873560572</v>
-      </c>
-      <c r="G188" t="n">
-        <v>4.340342737321714</v>
-      </c>
-      <c r="H188" t="n">
-        <v>54.61896584258182</v>
       </c>
     </row>
     <row r="189">
@@ -5340,22 +5340,22 @@
         <v>38.06139782675506</v>
       </c>
       <c r="C189" t="n">
-        <v>12.20139229150656</v>
+        <v>4.373621065708713</v>
       </c>
       <c r="D189" t="n">
-        <v>58.24238609180323</v>
+        <v>54.43666686548602</v>
       </c>
       <c r="E189" t="n">
         <v>46.39604315955467</v>
       </c>
       <c r="F189" t="n">
+        <v>58.24238609180323</v>
+      </c>
+      <c r="G189" t="n">
+        <v>12.20139229150656</v>
+      </c>
+      <c r="H189" t="n">
         <v>50.65572522936016</v>
-      </c>
-      <c r="G189" t="n">
-        <v>4.373621065708713</v>
-      </c>
-      <c r="H189" t="n">
-        <v>54.43666686548602</v>
       </c>
     </row>
     <row r="190">
@@ -5366,22 +5366,22 @@
         <v>37.94955643404167</v>
       </c>
       <c r="C190" t="n">
-        <v>12.06553504931954</v>
+        <v>4.408502429968098</v>
       </c>
       <c r="D190" t="n">
-        <v>58.12400801530861</v>
+        <v>54.27183108792789</v>
       </c>
       <c r="E190" t="n">
         <v>46.31505182769475</v>
       </c>
       <c r="F190" t="n">
+        <v>58.12400801530861</v>
+      </c>
+      <c r="G190" t="n">
+        <v>12.06553504931954</v>
+      </c>
+      <c r="H190" t="n">
         <v>50.61477325972835</v>
-      </c>
-      <c r="G190" t="n">
-        <v>4.408502429968098</v>
-      </c>
-      <c r="H190" t="n">
-        <v>54.27183108792789</v>
       </c>
     </row>
     <row r="191">
@@ -5392,22 +5392,22 @@
         <v>37.86023354719627</v>
       </c>
       <c r="C191" t="n">
-        <v>11.92707341541612</v>
+        <v>4.444385236652505</v>
       </c>
       <c r="D191" t="n">
-        <v>58.00803890293245</v>
+        <v>54.12194411296492</v>
       </c>
       <c r="E191" t="n">
         <v>46.24012218384663</v>
       </c>
       <c r="F191" t="n">
+        <v>58.00803890293245</v>
+      </c>
+      <c r="G191" t="n">
+        <v>11.92707341541612</v>
+      </c>
+      <c r="H191" t="n">
         <v>50.59935611055148</v>
-      </c>
-      <c r="G191" t="n">
-        <v>4.444385236652505</v>
-      </c>
-      <c r="H191" t="n">
-        <v>54.12194411296492</v>
       </c>
     </row>
     <row r="192">
@@ -5418,22 +5418,22 @@
         <v>37.791193647397</v>
       </c>
       <c r="C192" t="n">
-        <v>11.78656291464045</v>
+        <v>4.480667892314281</v>
       </c>
       <c r="D192" t="n">
-        <v>57.89428597372007</v>
+        <v>53.98449154365282</v>
       </c>
       <c r="E192" t="n">
         <v>46.17070155486131</v>
       </c>
       <c r="F192" t="n">
+        <v>57.89428597372007</v>
+      </c>
+      <c r="G192" t="n">
+        <v>11.78656291464045</v>
+      </c>
+      <c r="H192" t="n">
         <v>50.60287706567448</v>
-      </c>
-      <c r="G192" t="n">
-        <v>4.480667892314281</v>
-      </c>
-      <c r="H192" t="n">
-        <v>53.98449154365282</v>
       </c>
     </row>
     <row r="193">
@@ -5444,22 +5444,22 @@
         <v>37.74020121581626</v>
       </c>
       <c r="C193" t="n">
-        <v>11.64455907183702</v>
+        <v>4.516748803506008</v>
       </c>
       <c r="D193" t="n">
-        <v>57.7825564467208</v>
+        <v>53.85695898304916</v>
       </c>
       <c r="E193" t="n">
         <v>46.10623726758967</v>
       </c>
       <c r="F193" t="n">
+        <v>57.7825564467208</v>
+      </c>
+      <c r="G193" t="n">
+        <v>11.64455907183702</v>
+      </c>
+      <c r="H193" t="n">
         <v>50.61873940893909</v>
-      </c>
-      <c r="G193" t="n">
-        <v>4.516748803506008</v>
-      </c>
-      <c r="H193" t="n">
-        <v>53.85695898304916</v>
       </c>
     </row>
     <row r="194">
@@ -5470,22 +5470,22 @@
         <v>37.70502073363073</v>
       </c>
       <c r="C194" t="n">
-        <v>11.5016174118501</v>
+        <v>4.552026376780143</v>
       </c>
       <c r="D194" t="n">
-        <v>57.67265754098085</v>
+        <v>53.73683203420847</v>
       </c>
       <c r="E194" t="n">
         <v>46.04617664888288</v>
       </c>
       <c r="F194" t="n">
+        <v>57.67265754098085</v>
+      </c>
+      <c r="G194" t="n">
+        <v>11.5016174118501</v>
+      </c>
+      <c r="H194" t="n">
         <v>50.64034642418907</v>
-      </c>
-      <c r="G194" t="n">
-        <v>4.552026376780143</v>
-      </c>
-      <c r="H194" t="n">
-        <v>53.73683203420847</v>
       </c>
     </row>
     <row r="195">
@@ -5496,22 +5496,22 @@
         <v>37.68341668201052</v>
       </c>
       <c r="C195" t="n">
-        <v>11.35829345952413</v>
+        <v>4.585899018689355</v>
       </c>
       <c r="D195" t="n">
-        <v>57.56439647554793</v>
+        <v>53.62159630018868</v>
       </c>
       <c r="E195" t="n">
         <v>45.98996702559184</v>
       </c>
       <c r="F195" t="n">
+        <v>57.56439647554793</v>
+      </c>
+      <c r="G195" t="n">
+        <v>11.35829345952413</v>
+      </c>
+      <c r="H195" t="n">
         <v>50.66110139526648</v>
-      </c>
-      <c r="G195" t="n">
-        <v>4.585899018689355</v>
-      </c>
-      <c r="H195" t="n">
-        <v>53.62159630018868</v>
       </c>
     </row>
     <row r="196">
@@ -5522,22 +5522,22 @@
         <v>37.67315354213443</v>
       </c>
       <c r="C196" t="n">
-        <v>11.21514273970283</v>
+        <v>4.617765135785905</v>
       </c>
       <c r="D196" t="n">
-        <v>57.457580469468</v>
+        <v>53.50873738404599</v>
       </c>
       <c r="E196" t="n">
         <v>45.93705572456749</v>
       </c>
       <c r="F196" t="n">
+        <v>57.457580469468</v>
+      </c>
+      <c r="G196" t="n">
+        <v>11.21514273970283</v>
+      </c>
+      <c r="H196" t="n">
         <v>50.67440760601581</v>
-      </c>
-      <c r="G196" t="n">
-        <v>4.617765135785905</v>
-      </c>
-      <c r="H196" t="n">
-        <v>53.50873738404599</v>
       </c>
     </row>
     <row r="197">
@@ -5548,22 +5548,22 @@
         <v>37.67199579517427</v>
       </c>
       <c r="C197" t="n">
-        <v>11.07272077723074</v>
+        <v>4.64702313462241</v>
       </c>
       <c r="D197" t="n">
-        <v>57.35201674178934</v>
+        <v>53.39574088883717</v>
       </c>
       <c r="E197" t="n">
         <v>45.8868900726611</v>
       </c>
       <c r="F197" t="n">
+        <v>57.35201674178934</v>
+      </c>
+      <c r="G197" t="n">
+        <v>11.07272077723074</v>
+      </c>
+      <c r="H197" t="n">
         <v>50.67366834027885</v>
-      </c>
-      <c r="G197" t="n">
-        <v>4.64702313462241</v>
-      </c>
-      <c r="H197" t="n">
-        <v>53.39574088883717</v>
       </c>
     </row>
     <row r="198">
@@ -5574,22 +5574,22 @@
         <v>37.67770792230553</v>
       </c>
       <c r="C198" t="n">
-        <v>10.93158309695211</v>
+        <v>4.67307142175134</v>
       </c>
       <c r="D198" t="n">
-        <v>57.24751251155991</v>
+        <v>53.28009241761714</v>
       </c>
       <c r="E198" t="n">
         <v>45.83891739672369</v>
       </c>
       <c r="F198" t="n">
+        <v>57.24751251155991</v>
+      </c>
+      <c r="G198" t="n">
+        <v>10.93158309695211</v>
+      </c>
+      <c r="H198" t="n">
         <v>50.65228688189936</v>
-      </c>
-      <c r="G198" t="n">
-        <v>4.67307142175134</v>
-      </c>
-      <c r="H198" t="n">
-        <v>53.28009241761714</v>
       </c>
     </row>
     <row r="199">
@@ -5600,22 +5600,22 @@
         <v>37.68805440470149</v>
       </c>
       <c r="C199" t="n">
-        <v>10.79228522371135</v>
+        <v>4.695308403725204</v>
       </c>
       <c r="D199" t="n">
-        <v>57.14387499782514</v>
+        <v>53.15927757344344</v>
       </c>
       <c r="E199" t="n">
         <v>45.7925850236061</v>
       </c>
       <c r="F199" t="n">
+        <v>57.14387499782514</v>
+      </c>
+      <c r="G199" t="n">
+        <v>10.79228522371135</v>
+      </c>
+      <c r="H199" t="n">
         <v>50.60366651471981</v>
-      </c>
-      <c r="G199" t="n">
-        <v>4.695308403725204</v>
-      </c>
-      <c r="H199" t="n">
-        <v>53.15927757344344</v>
       </c>
     </row>
     <row r="200">
@@ -5626,22 +5626,22 @@
         <v>37.70072880056361</v>
       </c>
       <c r="C200" t="n">
-        <v>10.65555803412515</v>
+        <v>4.713144415260706</v>
       </c>
       <c r="D200" t="n">
-        <v>57.04069942393327</v>
+        <v>53.03150019120506</v>
       </c>
       <c r="E200" t="n">
         <v>45.74744366066994</v>
       </c>
       <c r="F200" t="n">
+        <v>57.04069942393327</v>
+      </c>
+      <c r="G200" t="n">
+        <v>10.65555803412515</v>
+      </c>
+      <c r="H200" t="n">
         <v>50.52089449442508</v>
-      </c>
-      <c r="G200" t="n">
-        <v>4.713144415260706</v>
-      </c>
-      <c r="H200" t="n">
-        <v>53.03150019120506</v>
       </c>
     </row>
     <row r="201">
@@ -5652,22 +5652,22 @@
         <v>37.71063181009405</v>
       </c>
       <c r="C201" t="n">
-        <v>10.5220408570538</v>
+        <v>4.726453088362044</v>
       </c>
       <c r="D201" t="n">
-        <v>56.93522704656643</v>
+        <v>52.89716760499414</v>
       </c>
       <c r="E201" t="n">
         <v>45.70068127466257</v>
       </c>
       <c r="F201" t="n">
+        <v>56.93522704656643</v>
+      </c>
+      <c r="G201" t="n">
+        <v>10.5220408570538</v>
+      </c>
+      <c r="H201" t="n">
         <v>50.39744336788356</v>
-      </c>
-      <c r="G201" t="n">
-        <v>4.726453088362044</v>
-      </c>
-      <c r="H201" t="n">
-        <v>52.89716760499414</v>
       </c>
     </row>
     <row r="202">
@@ -5678,22 +5678,22 @@
         <v>37.71356214000318</v>
       </c>
       <c r="C202" t="n">
-        <v>10.39161995276364</v>
+        <v>4.735635369498135</v>
       </c>
       <c r="D202" t="n">
-        <v>56.82224378039013</v>
+        <v>52.75379425722185</v>
       </c>
       <c r="E202" t="n">
         <v>45.64668450991586</v>
       </c>
       <c r="F202" t="n">
+        <v>56.82224378039013</v>
+      </c>
+      <c r="G202" t="n">
+        <v>10.39161995276364</v>
+      </c>
+      <c r="H202" t="n">
         <v>50.23190775819376</v>
-      </c>
-      <c r="G202" t="n">
-        <v>4.735635369498135</v>
-      </c>
-      <c r="H202" t="n">
-        <v>52.75379425722185</v>
       </c>
     </row>
     <row r="203">
@@ -5704,22 +5704,22 @@
         <v>37.70603588660124</v>
       </c>
       <c r="C203" t="n">
-        <v>10.26413768825888</v>
+        <v>4.741112816232112</v>
       </c>
       <c r="D203" t="n">
-        <v>56.69628031906205</v>
+        <v>52.59823319147471</v>
       </c>
       <c r="E203" t="n">
         <v>45.5797547520233</v>
       </c>
       <c r="F203" t="n">
+        <v>56.69628031906205</v>
+      </c>
+      <c r="G203" t="n">
+        <v>10.26413768825888</v>
+      </c>
+      <c r="H203" t="n">
         <v>50.02373967588253</v>
-      </c>
-      <c r="G203" t="n">
-        <v>4.741112816232112</v>
-      </c>
-      <c r="H203" t="n">
-        <v>52.59823319147471</v>
       </c>
     </row>
     <row r="204">
@@ -5730,22 +5730,22 @@
         <v>37.68456914619428</v>
       </c>
       <c r="C204" t="n">
-        <v>10.13943643054421</v>
+        <v>4.743306986127438</v>
       </c>
       <c r="D204" t="n">
-        <v>56.55186735624191</v>
+        <v>52.42733745134063</v>
       </c>
       <c r="E204" t="n">
         <v>45.49419338657811</v>
       </c>
       <c r="F204" t="n">
+        <v>56.55186735624191</v>
+      </c>
+      <c r="G204" t="n">
+        <v>10.13943643054421</v>
+      </c>
+      <c r="H204" t="n">
         <v>49.77239113147523</v>
-      </c>
-      <c r="G204" t="n">
-        <v>4.743306986127438</v>
-      </c>
-      <c r="H204" t="n">
-        <v>52.42733745134063</v>
       </c>
     </row>
     <row r="205">
@@ -5756,22 +5756,22 @@
         <v>37.64567801508898</v>
       </c>
       <c r="C205" t="n">
-        <v>10.01735854662406</v>
+        <v>4.742639436747169</v>
       </c>
       <c r="D205" t="n">
-        <v>56.38353558558889</v>
+        <v>52.23796008040541</v>
       </c>
       <c r="E205" t="n">
         <v>45.38430179917383</v>
       </c>
       <c r="F205" t="n">
+        <v>56.38353558558889</v>
+      </c>
+      <c r="G205" t="n">
+        <v>10.01735854662406</v>
+      </c>
+      <c r="H205" t="n">
         <v>49.47731413549769</v>
-      </c>
-      <c r="G205" t="n">
-        <v>4.742639436747169</v>
-      </c>
-      <c r="H205" t="n">
-        <v>52.23796008040541</v>
       </c>
     </row>
     <row r="206">
@@ -5782,22 +5782,22 @@
         <v>37.5858785895912</v>
       </c>
       <c r="C206" t="n">
-        <v>9.897746403503007</v>
+        <v>4.739531725654719</v>
       </c>
       <c r="D206" t="n">
-        <v>56.18581570076596</v>
+        <v>52.02695412225678</v>
       </c>
       <c r="E206" t="n">
         <v>45.24438137540398</v>
       </c>
       <c r="F206" t="n">
+        <v>56.18581570076596</v>
+      </c>
+      <c r="G206" t="n">
+        <v>9.897746403503007</v>
+      </c>
+      <c r="H206" t="n">
         <v>49.13796069847625</v>
-      </c>
-      <c r="G206" t="n">
-        <v>4.739531725654719</v>
-      </c>
-      <c r="H206" t="n">
-        <v>52.02695412225678</v>
       </c>
     </row>
     <row r="207">
@@ -5808,22 +5808,22 @@
         <v>37.50168696601129</v>
       </c>
       <c r="C207" t="n">
-        <v>9.780442368185597</v>
+        <v>4.734405410413211</v>
       </c>
       <c r="D207" t="n">
-        <v>55.95323839542896</v>
+        <v>51.79117262048146</v>
       </c>
       <c r="E207" t="n">
         <v>45.06873350086153</v>
       </c>
       <c r="F207" t="n">
+        <v>55.95323839542896</v>
+      </c>
+      <c r="G207" t="n">
+        <v>9.780442368185597</v>
+      </c>
+      <c r="H207" t="n">
         <v>48.75378283093796</v>
-      </c>
-      <c r="G207" t="n">
-        <v>4.734405410413211</v>
-      </c>
-      <c r="H207" t="n">
-        <v>51.79117262048146</v>
       </c>
     </row>
     <row r="208">
@@ -5834,22 +5834,22 @@
         <v>37.38961924065414</v>
       </c>
       <c r="C208" t="n">
-        <v>9.665288807676287</v>
+        <v>4.727682048586171</v>
       </c>
       <c r="D208" t="n">
-        <v>55.68033436324076</v>
+        <v>51.5274686186666</v>
       </c>
       <c r="E208" t="n">
         <v>44.85165956114007</v>
       </c>
       <c r="F208" t="n">
+        <v>55.68033436324076</v>
+      </c>
+      <c r="G208" t="n">
+        <v>9.665288807676287</v>
+      </c>
+      <c r="H208" t="n">
         <v>48.32423254340812</v>
-      </c>
-      <c r="G208" t="n">
-        <v>4.727682048586171</v>
-      </c>
-      <c r="H208" t="n">
-        <v>51.5274686186666</v>
       </c>
     </row>
     <row r="209">
@@ -5860,22 +5860,22 @@
         <v>37.24619150982718</v>
       </c>
       <c r="C209" t="n">
-        <v>9.552128088978913</v>
+        <v>4.719783197736516</v>
       </c>
       <c r="D209" t="n">
-        <v>55.36163429785952</v>
+        <v>51.23269516039847</v>
       </c>
       <c r="E209" t="n">
         <v>44.5874609418329</v>
       </c>
       <c r="F209" t="n">
+        <v>55.36163429785952</v>
+      </c>
+      <c r="G209" t="n">
+        <v>9.552128088978913</v>
+      </c>
+      <c r="H209" t="n">
         <v>47.84876184641246</v>
-      </c>
-      <c r="G209" t="n">
-        <v>4.719783197736516</v>
-      </c>
-      <c r="H209" t="n">
-        <v>51.23269516039847</v>
       </c>
     </row>
     <row r="210">
@@ -5886,22 +5886,22 @@
         <v>37.06791986983689</v>
       </c>
       <c r="C210" t="n">
-        <v>9.440802579098506</v>
+        <v>4.71113041542764</v>
       </c>
       <c r="D210" t="n">
-        <v>54.99166889294671</v>
+        <v>50.90370528926542</v>
       </c>
       <c r="E210" t="n">
         <v>44.27043902853361</v>
       </c>
       <c r="F210" t="n">
+        <v>54.99166889294671</v>
+      </c>
+      <c r="G210" t="n">
+        <v>9.440802579098506</v>
+      </c>
+      <c r="H210" t="n">
         <v>47.32682275047721</v>
-      </c>
-      <c r="G210" t="n">
-        <v>4.71113041542764</v>
-      </c>
-      <c r="H210" t="n">
-        <v>50.90370528926542</v>
       </c>
     </row>
     <row r="211">
@@ -5912,22 +5912,22 @@
         <v>36.85132041699306</v>
       </c>
       <c r="C211" t="n">
-        <v>9.33115464503925</v>
+        <v>4.702145259222875</v>
       </c>
       <c r="D211" t="n">
-        <v>54.56496884216138</v>
+        <v>50.53735204885358</v>
       </c>
       <c r="E211" t="n">
         <v>43.89489520683605</v>
       </c>
       <c r="F211" t="n">
+        <v>54.56496884216138</v>
+      </c>
+      <c r="G211" t="n">
+        <v>9.33115464503925</v>
+      </c>
+      <c r="H211" t="n">
         <v>46.75786726612933</v>
-      </c>
-      <c r="G211" t="n">
-        <v>4.702145259222875</v>
-      </c>
-      <c r="H211" t="n">
-        <v>50.53735204885358</v>
       </c>
     </row>
     <row r="212">
@@ -5938,22 +5938,22 @@
         <v>36.59322770928845</v>
       </c>
       <c r="C212" t="n">
-        <v>9.222862740959302</v>
+        <v>4.693275254129756</v>
       </c>
       <c r="D212" t="n">
-        <v>54.07645530260638</v>
+        <v>50.12977094053213</v>
       </c>
       <c r="E212" t="n">
         <v>43.45524877461676</v>
       </c>
       <c r="F212" t="n">
+        <v>54.07645530260638</v>
+      </c>
+      <c r="G212" t="n">
+        <v>9.222862740959302</v>
+      </c>
+      <c r="H212" t="n">
         <v>46.14197756658383</v>
-      </c>
-      <c r="G212" t="n">
-        <v>4.693275254129756</v>
-      </c>
-      <c r="H212" t="n">
-        <v>50.12977094053213</v>
       </c>
     </row>
     <row r="213">
@@ -5964,22 +5964,22 @@
         <v>36.29566677675097</v>
       </c>
       <c r="C213" t="n">
-        <v>9.11531421403585</v>
+        <v>4.68492768838329</v>
       </c>
       <c r="D213" t="n">
-        <v>53.52565403537545</v>
+        <v>49.6760124321172</v>
       </c>
       <c r="E213" t="n">
         <v>42.95120590758864</v>
       </c>
       <c r="F213" t="n">
+        <v>53.52565403537545</v>
+      </c>
+      <c r="G213" t="n">
+        <v>9.11531421403585</v>
+      </c>
+      <c r="H213" t="n">
         <v>45.48368217042253</v>
-      </c>
-      <c r="G213" t="n">
-        <v>4.68492768838329</v>
-      </c>
-      <c r="H213" t="n">
-        <v>49.6760124321172</v>
       </c>
     </row>
     <row r="214">
@@ -5990,22 +5990,22 @@
         <v>35.96127701205727</v>
       </c>
       <c r="C214" t="n">
-        <v>9.008091692966138</v>
+        <v>4.677441917965078</v>
       </c>
       <c r="D214" t="n">
-        <v>52.91771473221422</v>
+        <v>49.17741440096218</v>
       </c>
       <c r="E214" t="n">
         <v>42.38950061482456</v>
       </c>
       <c r="F214" t="n">
+        <v>52.91771473221422</v>
+      </c>
+      <c r="G214" t="n">
+        <v>9.008091692966138</v>
+      </c>
+      <c r="H214" t="n">
         <v>44.78958396866348</v>
-      </c>
-      <c r="G214" t="n">
-        <v>4.677441917965078</v>
-      </c>
-      <c r="H214" t="n">
-        <v>49.17741440096218</v>
       </c>
     </row>
     <row r="215">
@@ -6016,22 +6016,22 @@
         <v>35.59204488445884</v>
       </c>
       <c r="C215" t="n">
-        <v>8.900763176476929</v>
+        <v>4.671165256945215</v>
       </c>
       <c r="D215" t="n">
-        <v>52.25838069608899</v>
+        <v>48.63660142085357</v>
       </c>
       <c r="E215" t="n">
         <v>41.77750364016664</v>
       </c>
       <c r="F215" t="n">
+        <v>52.25838069608899</v>
+      </c>
+      <c r="G215" t="n">
+        <v>8.900763176476929</v>
+      </c>
+      <c r="H215" t="n">
         <v>44.06643236805587</v>
-      </c>
-      <c r="G215" t="n">
-        <v>4.671165256945215</v>
-      </c>
-      <c r="H215" t="n">
-        <v>48.63660142085357</v>
       </c>
     </row>
     <row r="216">
@@ -6042,22 +6042,22 @@
         <v>35.18995686320997</v>
       </c>
       <c r="C216" t="n">
-        <v>8.792896663296013</v>
+        <v>4.666445019393238</v>
       </c>
       <c r="D216" t="n">
-        <v>51.55339522996508</v>
+        <v>48.05619806557861</v>
       </c>
       <c r="E216" t="n">
         <v>41.12258572745667</v>
       </c>
       <c r="F216" t="n">
+        <v>51.55339522996508</v>
+      </c>
+      <c r="G216" t="n">
+        <v>8.792896663296013</v>
+      </c>
+      <c r="H216" t="n">
         <v>43.32097677535128</v>
-      </c>
-      <c r="G216" t="n">
-        <v>4.666445019393238</v>
-      </c>
-      <c r="H216" t="n">
-        <v>48.05619806557861</v>
       </c>
     </row>
     <row r="217">
@@ -6068,22 +6068,22 @@
         <v>34.75699941756571</v>
       </c>
       <c r="C217" t="n">
-        <v>8.684060152149208</v>
+        <v>4.663628519379156</v>
       </c>
       <c r="D217" t="n">
-        <v>50.80850163681063</v>
+        <v>47.43882890892338</v>
       </c>
       <c r="E217" t="n">
         <v>40.43211762053696</v>
       </c>
       <c r="F217" t="n">
+        <v>50.80850163681063</v>
+      </c>
+      <c r="G217" t="n">
+        <v>8.684060152149208</v>
+      </c>
+      <c r="H217" t="n">
         <v>42.55996659729766</v>
-      </c>
-      <c r="G217" t="n">
-        <v>4.663628519379156</v>
-      </c>
-      <c r="H217" t="n">
-        <v>47.43882890892338</v>
       </c>
     </row>
     <row r="218">
@@ -6094,22 +6094,22 @@
         <v>34.29515901678435</v>
       </c>
       <c r="C218" t="n">
-        <v>8.573821641764232</v>
+        <v>4.663063070972571</v>
       </c>
       <c r="D218" t="n">
-        <v>50.02944321958758</v>
+        <v>46.78711852467549</v>
       </c>
       <c r="E218" t="n">
         <v>39.71347006324969</v>
       </c>
       <c r="F218" t="n">
+        <v>50.02944321958758</v>
+      </c>
+      <c r="G218" t="n">
+        <v>8.573821641764232</v>
+      </c>
+      <c r="H218" t="n">
         <v>41.79015124064511</v>
-      </c>
-      <c r="G218" t="n">
-        <v>4.663063070972571</v>
-      </c>
-      <c r="H218" t="n">
-        <v>46.78711852467549</v>
       </c>
     </row>
     <row r="219">
@@ -6120,22 +6120,22 @@
         <v>33.80642213011543</v>
       </c>
       <c r="C219" t="n">
-        <v>8.461749130867938</v>
+        <v>4.665095988243742</v>
       </c>
       <c r="D219" t="n">
-        <v>49.22196328126554</v>
+        <v>46.10369148662147</v>
       </c>
       <c r="E219" t="n">
         <v>38.97401379943746</v>
       </c>
       <c r="F219" t="n">
+        <v>49.22196328126554</v>
+      </c>
+      <c r="G219" t="n">
+        <v>8.461749130867938</v>
+      </c>
+      <c r="H219" t="n">
         <v>41.01828011214366</v>
-      </c>
-      <c r="G219" t="n">
-        <v>4.665095988243742</v>
-      </c>
-      <c r="H219" t="n">
-        <v>46.10369148662147</v>
       </c>
     </row>
     <row r="220">
@@ -6146,22 +6146,22 @@
         <v>33.29277522681426</v>
       </c>
       <c r="C220" t="n">
-        <v>8.347410618187414</v>
+        <v>4.670074585261989</v>
       </c>
       <c r="D220" t="n">
-        <v>48.39180512480694</v>
+        <v>45.39117236854818</v>
       </c>
       <c r="E220" t="n">
         <v>38.22111957294191</v>
       </c>
       <c r="F220" t="n">
+        <v>48.39180512480694</v>
+      </c>
+      <c r="G220" t="n">
+        <v>8.347410618187414</v>
+      </c>
+      <c r="H220" t="n">
         <v>40.25110261854476</v>
-      </c>
-      <c r="G220" t="n">
-        <v>4.670074585261989</v>
-      </c>
-      <c r="H220" t="n">
-        <v>45.39117236854818</v>
       </c>
     </row>
     <row r="221">
@@ -6172,22 +6172,22 @@
         <v>32.75620477613604</v>
       </c>
       <c r="C221" t="n">
-        <v>8.23037410244949</v>
+        <v>4.678346176097584</v>
       </c>
       <c r="D221" t="n">
-        <v>47.54471205317967</v>
+        <v>44.65218574424269</v>
       </c>
       <c r="E221" t="n">
         <v>37.46215812760511</v>
       </c>
       <c r="F221" t="n">
+        <v>47.54471205317967</v>
+      </c>
+      <c r="G221" t="n">
+        <v>8.23037410244949</v>
+      </c>
+      <c r="H221" t="n">
         <v>39.49536816659626</v>
-      </c>
-      <c r="G221" t="n">
-        <v>4.678346176097584</v>
-      </c>
-      <c r="H221" t="n">
-        <v>44.65218574424269</v>
       </c>
     </row>
     <row r="222">
@@ -6198,22 +6198,22 @@
         <v>32.19869724733872</v>
       </c>
       <c r="C222" t="n">
-        <v>8.110207582381269</v>
+        <v>4.690258074820021</v>
       </c>
       <c r="D222" t="n">
-        <v>46.68642736934641</v>
+        <v>43.88935618749115</v>
       </c>
       <c r="E222" t="n">
         <v>36.70450020726927</v>
       </c>
       <c r="F222" t="n">
+        <v>46.68642736934641</v>
+      </c>
+      <c r="G222" t="n">
+        <v>8.110207582381269</v>
+      </c>
+      <c r="H222" t="n">
         <v>38.75782616304871</v>
-      </c>
-      <c r="G222" t="n">
-        <v>4.690258074820021</v>
-      </c>
-      <c r="H222" t="n">
-        <v>43.88935618749115</v>
       </c>
     </row>
     <row r="223">
@@ -6224,22 +6224,22 @@
         <v>31.62223910967161</v>
       </c>
       <c r="C223" t="n">
-        <v>7.986479056709751</v>
+        <v>4.706157595499426</v>
       </c>
       <c r="D223" t="n">
-        <v>45.82269437627659</v>
+        <v>43.10530827208112</v>
       </c>
       <c r="E223" t="n">
         <v>35.95551655577648</v>
       </c>
       <c r="F223" t="n">
+        <v>45.82269437627659</v>
+      </c>
+      <c r="G223" t="n">
+        <v>7.986479056709751</v>
+      </c>
+      <c r="H223" t="n">
         <v>38.04522601465138</v>
-      </c>
-      <c r="G223" t="n">
-        <v>4.706157595499426</v>
-      </c>
-      <c r="H223" t="n">
-        <v>43.10530827208112</v>
       </c>
     </row>
     <row r="224">
@@ -6250,22 +6250,22 @@
         <v>31.0286556062382</v>
       </c>
       <c r="C224" t="n">
-        <v>7.858888990015878</v>
+        <v>4.726321183183549</v>
       </c>
       <c r="D224" t="n">
-        <v>44.95880617720221</v>
+        <v>42.30319397729431</v>
       </c>
       <c r="E224" t="n">
         <v>35.22244420246458</v>
       </c>
       <c r="F224" t="n">
+        <v>44.95880617720221</v>
+      </c>
+      <c r="G224" t="n">
+        <v>7.858888990015878</v>
+      </c>
+      <c r="H224" t="n">
         <v>37.36374340344052</v>
-      </c>
-      <c r="G224" t="n">
-        <v>4.726321183183549</v>
-      </c>
-      <c r="H224" t="n">
-        <v>42.30319397729431</v>
       </c>
     </row>
     <row r="225">
@@ -6276,22 +6276,22 @@
         <v>30.41827739956208</v>
       </c>
       <c r="C225" t="n">
-        <v>7.727940661045178</v>
+        <v>4.750521910866939</v>
       </c>
       <c r="D225" t="n">
-        <v>44.09737299970644</v>
+        <v>41.48907965941646</v>
       </c>
       <c r="E225" t="n">
         <v>34.50957756641742</v>
       </c>
       <c r="F225" t="n">
+        <v>44.09737299970644</v>
+      </c>
+      <c r="G225" t="n">
+        <v>7.727940661045178</v>
+      </c>
+      <c r="H225" t="n">
         <v>36.71440091569559</v>
-      </c>
-      <c r="G225" t="n">
-        <v>4.750521910866939</v>
-      </c>
-      <c r="H225" t="n">
-        <v>41.48907965941646</v>
       </c>
     </row>
     <row r="226">
@@ -6302,22 +6302,22 @@
         <v>29.79356556426612</v>
       </c>
       <c r="C226" t="n">
-        <v>7.594803380987808</v>
+        <v>4.777993960206555</v>
       </c>
       <c r="D226" t="n">
-        <v>43.23850848106784</v>
+        <v>40.66651772968403</v>
       </c>
       <c r="E226" t="n">
         <v>33.81610723820945</v>
       </c>
       <c r="F226" t="n">
+        <v>43.23850848106784</v>
+      </c>
+      <c r="G226" t="n">
+        <v>7.594803380987808</v>
+      </c>
+      <c r="H226" t="n">
         <v>36.09295960557591</v>
-      </c>
-      <c r="G226" t="n">
-        <v>4.777993960206555</v>
-      </c>
-      <c r="H226" t="n">
-        <v>40.66651772968403</v>
       </c>
     </row>
     <row r="227">
@@ -6328,22 +6328,22 @@
         <v>29.15760074461484</v>
       </c>
       <c r="C227" t="n">
-        <v>7.460740603939177</v>
+        <v>4.80791687012017</v>
       </c>
       <c r="D227" t="n">
-        <v>42.38198098049914</v>
+        <v>39.83807926015543</v>
       </c>
       <c r="E227" t="n">
         <v>33.14051641222713</v>
       </c>
       <c r="F227" t="n">
+        <v>42.38198098049914</v>
+      </c>
+      <c r="G227" t="n">
+        <v>7.460740603939177</v>
+      </c>
+      <c r="H227" t="n">
         <v>35.49445008403443</v>
-      </c>
-      <c r="G227" t="n">
-        <v>4.80791687012017</v>
-      </c>
-      <c r="H227" t="n">
-        <v>39.83807926015543</v>
       </c>
     </row>
     <row r="228">
@@ -6354,22 +6354,22 @@
         <v>28.51346358487426</v>
       </c>
       <c r="C228" t="n">
-        <v>7.327015783995288</v>
+        <v>4.839470179525756</v>
       </c>
       <c r="D228" t="n">
-        <v>41.52755885720239</v>
+        <v>39.0063353228876</v>
       </c>
       <c r="E228" t="n">
         <v>32.48128828285834</v>
       </c>
       <c r="F228" t="n">
+        <v>41.52755885720239</v>
+      </c>
+      <c r="G228" t="n">
+        <v>7.327015783995288</v>
+      </c>
+      <c r="H228" t="n">
         <v>34.91390296202354</v>
-      </c>
-      <c r="G228" t="n">
-        <v>4.839470179525756</v>
-      </c>
-      <c r="H228" t="n">
-        <v>39.0063353228876</v>
       </c>
     </row>
     <row r="229">
@@ -6380,22 +6380,22 @@
         <v>27.86423472931127</v>
       </c>
       <c r="C229" t="n">
-        <v>7.194892375251602</v>
+        <v>4.871833427340953</v>
       </c>
       <c r="D229" t="n">
-        <v>40.67501047038909</v>
+        <v>38.17385698993787</v>
       </c>
       <c r="E229" t="n">
         <v>31.83690604448945</v>
       </c>
       <c r="F229" t="n">
+        <v>40.67501047038909</v>
+      </c>
+      <c r="G229" t="n">
+        <v>7.194892375251602</v>
+      </c>
+      <c r="H229" t="n">
         <v>34.34634885049514</v>
-      </c>
-      <c r="G229" t="n">
-        <v>4.871833427340953</v>
-      </c>
-      <c r="H229" t="n">
-        <v>38.17385698993787</v>
       </c>
     </row>
     <row r="230">
@@ -6406,22 +6406,22 @@
         <v>27.2129948221916</v>
       </c>
       <c r="C230" t="n">
-        <v>7.065633831803924</v>
+        <v>4.904186152483414</v>
       </c>
       <c r="D230" t="n">
-        <v>39.82410417926619</v>
+        <v>37.34321533336257</v>
       </c>
       <c r="E230" t="n">
         <v>31.2058528915074</v>
       </c>
       <c r="F230" t="n">
+        <v>39.82410417926619</v>
+      </c>
+      <c r="G230" t="n">
+        <v>7.065633831803924</v>
+      </c>
+      <c r="H230" t="n">
         <v>33.78681836040174</v>
-      </c>
-      <c r="G230" t="n">
-        <v>4.904186152483414</v>
-      </c>
-      <c r="H230" t="n">
-        <v>37.34321533336257</v>
       </c>
     </row>
     <row r="231">
@@ -6432,22 +6432,22 @@
         <v>26.56282450778076</v>
       </c>
       <c r="C231" t="n">
-        <v>6.940503607748023</v>
+        <v>4.935707893870868</v>
       </c>
       <c r="D231" t="n">
-        <v>38.97460834304447</v>
+        <v>36.51698142522055</v>
       </c>
       <c r="E231" t="n">
         <v>30.58661201829878</v>
       </c>
       <c r="F231" t="n">
+        <v>38.97460834304447</v>
+      </c>
+      <c r="G231" t="n">
+        <v>6.940503607748023</v>
+      </c>
+      <c r="H231" t="n">
         <v>33.23034210269616</v>
-      </c>
-      <c r="G231" t="n">
-        <v>4.935707893870868</v>
-      </c>
-      <c r="H231" t="n">
-        <v>36.51698142522055</v>
       </c>
     </row>
     <row r="232">
@@ -6458,22 +6458,22 @@
         <v>25.9168044303445</v>
       </c>
       <c r="C232" t="n">
-        <v>6.820765157179512</v>
+        <v>4.965578190421228</v>
       </c>
       <c r="D232" t="n">
-        <v>38.12629132092808</v>
+        <v>35.69772633756835</v>
       </c>
       <c r="E232" t="n">
         <v>29.97766661925104</v>
       </c>
       <c r="F232" t="n">
+        <v>38.12629132092808</v>
+      </c>
+      <c r="G232" t="n">
+        <v>6.820765157179512</v>
+      </c>
+      <c r="H232" t="n">
         <v>32.67195068833053</v>
-      </c>
-      <c r="G232" t="n">
-        <v>4.965578190421228</v>
-      </c>
-      <c r="H232" t="n">
-        <v>35.69772633756835</v>
       </c>
     </row>
     <row r="233">
@@ -6484,22 +6484,22 @@
         <v>25.27801523414954</v>
       </c>
       <c r="C233" t="n">
-        <v>6.707681934193602</v>
+        <v>4.992976581052216</v>
       </c>
       <c r="D233" t="n">
-        <v>37.27892147212789</v>
+        <v>34.88802114246379</v>
       </c>
       <c r="E233" t="n">
         <v>29.37749988875142</v>
       </c>
       <c r="F233" t="n">
+        <v>37.27892147212789</v>
+      </c>
+      <c r="G233" t="n">
+        <v>6.707681934193602</v>
+      </c>
+      <c r="H233" t="n">
         <v>32.10667472825716</v>
-      </c>
-      <c r="G233" t="n">
-        <v>4.992976581052216</v>
-      </c>
-      <c r="H233" t="n">
-        <v>34.88802114246379</v>
       </c>
     </row>
     <row r="234">
@@ -6510,22 +6510,22 @@
         <v>24.64953756346113</v>
       </c>
       <c r="C234" t="n">
-        <v>6.602517392886337</v>
+        <v>5.017082604681637</v>
       </c>
       <c r="D234" t="n">
-        <v>36.43226715585083</v>
+        <v>34.09043691196335</v>
       </c>
       <c r="E234" t="n">
         <v>28.78459502118628</v>
       </c>
       <c r="F234" t="n">
+        <v>36.43226715585083</v>
+      </c>
+      <c r="G234" t="n">
+        <v>6.602517392886337</v>
+      </c>
+      <c r="H234" t="n">
         <v>31.52954483342829</v>
-      </c>
-      <c r="G234" t="n">
-        <v>5.017082604681637</v>
-      </c>
-      <c r="H234" t="n">
-        <v>34.09043691196335</v>
       </c>
     </row>
     <row r="235">
@@ -6536,22 +6536,22 @@
         <v>24.03445206254608</v>
       </c>
       <c r="C235" t="n">
-        <v>6.506534987353283</v>
+        <v>5.037075800227103</v>
       </c>
       <c r="D235" t="n">
-        <v>35.58609673130794</v>
+        <v>33.30754471812539</v>
       </c>
       <c r="E235" t="n">
         <v>28.19743521094258</v>
       </c>
       <c r="F235" t="n">
+        <v>35.58609673130794</v>
+      </c>
+      <c r="G235" t="n">
+        <v>6.506534987353283</v>
+      </c>
+      <c r="H235" t="n">
         <v>30.93559161479682</v>
-      </c>
-      <c r="G235" t="n">
-        <v>5.037075800227103</v>
-      </c>
-      <c r="H235" t="n">
-        <v>33.30754471812539</v>
       </c>
     </row>
     <row r="236">
@@ -6562,22 +6562,22 @@
         <v>23.43580303669276</v>
       </c>
       <c r="C236" t="n">
-        <v>6.420874629946022</v>
+        <v>5.052199996606335</v>
       </c>
       <c r="D236" t="n">
-        <v>34.74046653902042</v>
+        <v>32.54155767437683</v>
       </c>
       <c r="E236" t="n">
         <v>27.61449350073442</v>
       </c>
       <c r="F236" t="n">
+        <v>34.74046653902042</v>
+      </c>
+      <c r="G236" t="n">
+        <v>6.420874629946022</v>
+      </c>
+      <c r="H236" t="n">
         <v>30.32007798780257</v>
-      </c>
-      <c r="G236" t="n">
-        <v>5.052199996606335</v>
-      </c>
-      <c r="H236" t="n">
-        <v>32.54155767437683</v>
       </c>
     </row>
     <row r="237">
@@ -6588,22 +6588,22 @@
         <v>22.85543712978713</v>
       </c>
       <c r="C237" t="n">
-        <v>6.345222885309016</v>
+        <v>5.06208394609532</v>
       </c>
       <c r="D237" t="n">
-        <v>33.89618845488656</v>
+        <v>31.79108460469688</v>
       </c>
       <c r="E237" t="n">
         <v>27.03383631788591</v>
       </c>
       <c r="F237" t="n">
+        <v>33.89618845488656</v>
+      </c>
+      <c r="G237" t="n">
+        <v>6.345222885309016</v>
+      </c>
+      <c r="H237" t="n">
         <v>29.6812991565983</v>
-      </c>
-      <c r="G237" t="n">
-        <v>5.06208394609532</v>
-      </c>
-      <c r="H237" t="n">
-        <v>31.79108460469688</v>
       </c>
     </row>
     <row r="238">
@@ -6614,22 +6614,22 @@
         <v>22.29268722539278</v>
       </c>
       <c r="C238" t="n">
-        <v>6.277862701622894</v>
+        <v>5.06674804094872</v>
       </c>
       <c r="D238" t="n">
-        <v>33.05424918840075</v>
+        <v>31.05402390428029</v>
       </c>
       <c r="E238" t="n">
         <v>26.45489259473623</v>
       </c>
       <c r="F238" t="n">
+        <v>33.05424918840075</v>
+      </c>
+      <c r="G238" t="n">
+        <v>6.277862701622894</v>
+      </c>
+      <c r="H238" t="n">
         <v>29.02206017855173</v>
-      </c>
-      <c r="G238" t="n">
-        <v>5.06674804094872</v>
-      </c>
-      <c r="H238" t="n">
-        <v>31.05402390428029</v>
       </c>
     </row>
     <row r="239">
@@ -6640,22 +6640,22 @@
         <v>21.74662557845438</v>
       </c>
       <c r="C239" t="n">
-        <v>6.216954874367773</v>
+        <v>5.066259843567176</v>
       </c>
       <c r="D239" t="n">
-        <v>32.21574856019053</v>
+        <v>30.32874623720541</v>
       </c>
       <c r="E239" t="n">
         <v>25.87752765204856</v>
       </c>
       <c r="F239" t="n">
+        <v>32.21574856019053</v>
+      </c>
+      <c r="G239" t="n">
+        <v>6.216954874367773</v>
+      </c>
+      <c r="H239" t="n">
         <v>28.34586102419353</v>
-      </c>
-      <c r="G239" t="n">
-        <v>5.066259843567176</v>
-      </c>
-      <c r="H239" t="n">
-        <v>30.32874623720541</v>
       </c>
     </row>
     <row r="240">
@@ -6666,22 +6666,22 @@
         <v>21.21632444391756</v>
       </c>
       <c r="C240" t="n">
-        <v>6.160660199024448</v>
+        <v>5.06068691635151</v>
       </c>
       <c r="D240" t="n">
-        <v>31.38178639087957</v>
+        <v>29.61362226755072</v>
       </c>
       <c r="E240" t="n">
         <v>25.30160681058611</v>
       </c>
       <c r="F240" t="n">
+        <v>31.38178639087957</v>
+      </c>
+      <c r="G240" t="n">
+        <v>6.160660199024448</v>
+      </c>
+      <c r="H240" t="n">
         <v>27.65620166405493</v>
-      </c>
-      <c r="G240" t="n">
-        <v>5.06068691635151</v>
-      </c>
-      <c r="H240" t="n">
-        <v>29.61362226755072</v>
       </c>
     </row>
     <row r="241">
@@ -6692,22 +6692,22 @@
         <v>20.70085607672826</v>
       </c>
       <c r="C241" t="n">
-        <v>6.107139471071823</v>
+        <v>5.05009682170228</v>
       </c>
       <c r="D241" t="n">
-        <v>30.5534625010963</v>
+        <v>28.90702265939294</v>
       </c>
       <c r="E241" t="n">
         <v>24.72699539111305</v>
       </c>
       <c r="F241" t="n">
+        <v>30.5534625010963</v>
+      </c>
+      <c r="G241" t="n">
+        <v>6.107139471071823</v>
+      </c>
+      <c r="H241" t="n">
         <v>26.95658206866568</v>
-      </c>
-      <c r="G241" t="n">
-        <v>5.05009682170228</v>
-      </c>
-      <c r="H241" t="n">
-        <v>28.90702265939294</v>
       </c>
     </row>
     <row r="242">
@@ -6718,22 +6718,22 @@
         <v>20.19929273183375</v>
       </c>
       <c r="C242" t="n">
-        <v>6.054553485990597</v>
+        <v>5.03455712202059</v>
       </c>
       <c r="D242" t="n">
-        <v>29.73187671146412</v>
+        <v>28.20731807681032</v>
       </c>
       <c r="E242" t="n">
         <v>24.15355871439227</v>
       </c>
       <c r="F242" t="n">
+        <v>29.73187671146412</v>
+      </c>
+      <c r="G242" t="n">
+        <v>6.054553485990597</v>
+      </c>
+      <c r="H242" t="n">
         <v>26.2505022085561</v>
-      </c>
-      <c r="G242" t="n">
-        <v>5.03455712202059</v>
-      </c>
-      <c r="H242" t="n">
-        <v>28.20731807681032</v>
       </c>
     </row>
     <row r="243">
@@ -6744,22 +6744,22 @@
         <v>19.71070666417819</v>
       </c>
       <c r="C243" t="n">
-        <v>6.001063039261007</v>
+        <v>5.01413537970714</v>
       </c>
       <c r="D243" t="n">
-        <v>28.91812884261145</v>
+        <v>27.51287918388077</v>
       </c>
       <c r="E243" t="n">
         <v>23.58116210118805</v>
       </c>
       <c r="F243" t="n">
+        <v>28.91812884261145</v>
+      </c>
+      <c r="G243" t="n">
+        <v>6.001063039261007</v>
+      </c>
+      <c r="H243" t="n">
         <v>25.5414620542571</v>
-      </c>
-      <c r="G243" t="n">
-        <v>5.01413537970714</v>
-      </c>
-      <c r="H243" t="n">
-        <v>27.51287918388077</v>
       </c>
     </row>
     <row r="244">
@@ -6770,22 +6770,22 @@
         <v>19.23417012870732</v>
       </c>
       <c r="C244" t="n">
-        <v>5.944828926363069</v>
+        <v>4.98889915716251</v>
       </c>
       <c r="D244" t="n">
-        <v>28.11331871516153</v>
+        <v>26.82207664468312</v>
       </c>
       <c r="E244" t="n">
         <v>23.00967087226256</v>
       </c>
       <c r="F244" t="n">
+        <v>28.11331871516153</v>
+      </c>
+      <c r="G244" t="n">
+        <v>5.944828926363069</v>
+      </c>
+      <c r="H244" t="n">
         <v>24.83296157629986</v>
-      </c>
-      <c r="G244" t="n">
-        <v>4.98889915716251</v>
-      </c>
-      <c r="H244" t="n">
-        <v>26.82207664468312</v>
       </c>
     </row>
     <row r="245">
@@ -6796,22 +6796,22 @@
         <v>18.76875538036711</v>
       </c>
       <c r="C245" t="n">
-        <v>5.884011942776863</v>
+        <v>4.958916016787573</v>
       </c>
       <c r="D245" t="n">
-        <v>27.31854614974204</v>
+        <v>26.13328112329377</v>
       </c>
       <c r="E245" t="n">
         <v>22.43895034838013</v>
       </c>
       <c r="F245" t="n">
+        <v>27.31854614974204</v>
+      </c>
+      <c r="G245" t="n">
+        <v>5.884011942776863</v>
+      </c>
+      <c r="H245" t="n">
         <v>24.12850074521421</v>
-      </c>
-      <c r="G245" t="n">
-        <v>4.958916016787573</v>
-      </c>
-      <c r="H245" t="n">
-        <v>26.13328112329377</v>
       </c>
     </row>
     <row r="246">
@@ -6822,22 +6822,22 @@
         <v>18.31353467410507</v>
       </c>
       <c r="C246" t="n">
-        <v>5.816772883982511</v>
+        <v>4.924253520983314</v>
       </c>
       <c r="D246" t="n">
-        <v>26.53491096697659</v>
+        <v>25.44486328379067</v>
       </c>
       <c r="E246" t="n">
         <v>21.86886585030418</v>
       </c>
       <c r="F246" t="n">
+        <v>26.53491096697659</v>
+      </c>
+      <c r="G246" t="n">
+        <v>5.816772883982511</v>
+      </c>
+      <c r="H246" t="n">
         <v>23.43157953153063</v>
-      </c>
-      <c r="G246" t="n">
-        <v>4.924253520983314</v>
-      </c>
-      <c r="H246" t="n">
-        <v>25.44486328379067</v>
       </c>
     </row>
     <row r="247">
@@ -6848,22 +6848,22 @@
         <v>17.8675802648648</v>
       </c>
       <c r="C247" t="n">
-        <v>5.741272545460173</v>
+        <v>4.884979232150349</v>
       </c>
       <c r="D247" t="n">
-        <v>25.76351298749369</v>
+        <v>24.75519379025239</v>
       </c>
       <c r="E247" t="n">
         <v>21.29928269879803</v>
       </c>
       <c r="F247" t="n">
+        <v>25.76351298749369</v>
+      </c>
+      <c r="G247" t="n">
+        <v>5.741272545460173</v>
+      </c>
+      <c r="H247" t="n">
         <v>22.74569790577976</v>
-      </c>
-      <c r="G247" t="n">
-        <v>4.884979232150349</v>
-      </c>
-      <c r="H247" t="n">
-        <v>24.75519379025239</v>
       </c>
     </row>
     <row r="248">
@@ -6874,22 +6874,22 @@
         <v>17.43004955761206</v>
       </c>
       <c r="C248" t="n">
-        <v>5.655808014994729</v>
+        <v>4.841697641244016</v>
       </c>
       <c r="D248" t="n">
-        <v>25.00539162814927</v>
+        <v>24.06292084583906</v>
       </c>
       <c r="E248" t="n">
         <v>20.73018721894092</v>
       </c>
       <c r="F248" t="n">
+        <v>25.00539162814927</v>
+      </c>
+      <c r="G248" t="n">
+        <v>5.655808014994729</v>
+      </c>
+      <c r="H248" t="n">
         <v>22.07440364656693</v>
-      </c>
-      <c r="G248" t="n">
-        <v>4.841697641244016</v>
-      </c>
-      <c r="H248" t="n">
-        <v>24.06292084583906</v>
       </c>
     </row>
     <row r="249">
@@ -6900,22 +6900,22 @@
         <v>17.000781711133</v>
       </c>
       <c r="C249" t="n">
-        <v>5.560677538897604</v>
+        <v>4.801125126430416</v>
       </c>
       <c r="D249" t="n">
-        <v>24.26114999241144</v>
+        <v>23.36924188131729</v>
       </c>
       <c r="E249" t="n">
         <v>20.16287571562665</v>
       </c>
       <c r="F249" t="n">
+        <v>24.26114999241144</v>
+      </c>
+      <c r="G249" t="n">
+        <v>5.560677538897604</v>
+      </c>
+      <c r="H249" t="n">
         <v>21.42031765382953</v>
-      </c>
-      <c r="G249" t="n">
-        <v>4.801125126430416</v>
-      </c>
-      <c r="H249" t="n">
-        <v>23.36924188131729</v>
       </c>
     </row>
     <row r="250">
@@ -6926,22 +6926,22 @@
         <v>16.57956506384321</v>
       </c>
       <c r="C250" t="n">
-        <v>5.457919633189904</v>
+        <v>4.775896295881275</v>
       </c>
       <c r="D250" t="n">
-        <v>23.53065457515943</v>
+        <v>22.67631894061046</v>
       </c>
       <c r="E250" t="n">
         <v>19.59866752929865</v>
       </c>
       <c r="F250" t="n">
+        <v>23.53065457515943</v>
+      </c>
+      <c r="G250" t="n">
+        <v>5.457919633189904</v>
+      </c>
+      <c r="H250" t="n">
         <v>20.78388962641078</v>
-      </c>
-      <c r="G250" t="n">
-        <v>4.775896295881275</v>
-      </c>
-      <c r="H250" t="n">
-        <v>22.67631894061046</v>
       </c>
     </row>
     <row r="251">
@@ -6952,22 +6952,22 @@
         <v>16.1659747604043</v>
       </c>
       <c r="C251" t="n">
-        <v>5.349668923830825</v>
+        <v>4.779096395196073</v>
       </c>
       <c r="D251" t="n">
-        <v>22.8136485680543</v>
+        <v>21.98612732067976</v>
       </c>
       <c r="E251" t="n">
         <v>19.03867097682308</v>
       </c>
       <c r="F251" t="n">
+        <v>22.8136485680543</v>
+      </c>
+      <c r="G251" t="n">
+        <v>5.349668923830825</v>
+      </c>
+      <c r="H251" t="n">
         <v>20.16525508377879</v>
-      </c>
-      <c r="G251" t="n">
-        <v>4.779096395196073</v>
-      </c>
-      <c r="H251" t="n">
-        <v>21.98612732067976</v>
       </c>
     </row>
     <row r="252">
@@ -6978,22 +6978,22 @@
         <v>15.75958594547943</v>
       </c>
       <c r="C252" t="n">
-        <v>5.238060036779659</v>
+        <v>4.82381066997462</v>
       </c>
       <c r="D252" t="n">
-        <v>22.10987516274886</v>
+        <v>21.3006423184843</v>
       </c>
       <c r="E252" t="n">
         <v>18.48399437506533</v>
       </c>
       <c r="F252" t="n">
+        <v>22.10987516274886</v>
+      </c>
+      <c r="G252" t="n">
+        <v>5.238060036779659</v>
+      </c>
+      <c r="H252" t="n">
         <v>19.56454954539942</v>
-      </c>
-      <c r="G252" t="n">
-        <v>4.82381066997462</v>
-      </c>
-      <c r="H252" t="n">
-        <v>21.3006423184843</v>
       </c>
     </row>
     <row r="253">
@@ -7004,22 +7004,22 @@
         <v>15.35997376373226</v>
       </c>
       <c r="C253" t="n">
-        <v>5.125227597996051</v>
+        <v>4.923124365816247</v>
       </c>
       <c r="D253" t="n">
-        <v>21.41907755090385</v>
+        <v>20.62183923098457</v>
       </c>
       <c r="E253" t="n">
         <v>17.93574604089148</v>
       </c>
       <c r="F253" t="n">
+        <v>21.41907755090385</v>
+      </c>
+      <c r="G253" t="n">
+        <v>5.125227597996051</v>
+      </c>
+      <c r="H253" t="n">
         <v>18.98190853074051</v>
-      </c>
-      <c r="G253" t="n">
-        <v>4.923124365816247</v>
-      </c>
-      <c r="H253" t="n">
-        <v>20.62183923098457</v>
       </c>
     </row>
     <row r="254">
@@ -7030,22 +7030,22 @@
         <v>14.9667133598265</v>
       </c>
       <c r="C254" t="n">
-        <v>5.013306233439312</v>
+        <v>5.090122728320735</v>
       </c>
       <c r="D254" t="n">
-        <v>20.74099892417386</v>
+        <v>19.95169335513944</v>
       </c>
       <c r="E254" t="n">
         <v>17.39503429116682</v>
       </c>
       <c r="F254" t="n">
+        <v>20.74099892417386</v>
+      </c>
+      <c r="G254" t="n">
+        <v>5.013306233439312</v>
+      </c>
+      <c r="H254" t="n">
         <v>18.4174675592682</v>
-      </c>
-      <c r="G254" t="n">
-        <v>5.090122728320735</v>
-      </c>
-      <c r="H254" t="n">
-        <v>19.95169335513944</v>
       </c>
     </row>
     <row r="255">
@@ -7056,22 +7056,22 @@
         <v>14.57937987842373</v>
       </c>
       <c r="C255" t="n">
-        <v>4.904430569068704</v>
+        <v>5.337891003087403</v>
       </c>
       <c r="D255" t="n">
-        <v>20.07538247421894</v>
+        <v>19.29217998791083</v>
       </c>
       <c r="E255" t="n">
         <v>16.86296744275752</v>
       </c>
       <c r="F255" t="n">
+        <v>20.07538247421894</v>
+      </c>
+      <c r="G255" t="n">
+        <v>4.904430569068704</v>
+      </c>
+      <c r="H255" t="n">
         <v>17.87136215044946</v>
-      </c>
-      <c r="G255" t="n">
-        <v>5.337891003087403</v>
-      </c>
-      <c r="H255" t="n">
-        <v>19.29217998791083</v>
       </c>
     </row>
     <row r="256">
@@ -7082,22 +7082,22 @@
         <v>14.19754846418726</v>
       </c>
       <c r="C256" t="n">
-        <v>4.800735230843304</v>
+        <v>5.679514435716019</v>
       </c>
       <c r="D256" t="n">
-        <v>19.42197139269332</v>
+        <v>18.64527442625715</v>
       </c>
       <c r="E256" t="n">
         <v>16.34065381252906</v>
       </c>
       <c r="F256" t="n">
+        <v>19.42197139269332</v>
+      </c>
+      <c r="G256" t="n">
+        <v>4.800735230843304</v>
+      </c>
+      <c r="H256" t="n">
         <v>17.34372782375063</v>
-      </c>
-      <c r="G256" t="n">
-        <v>5.679514435716019</v>
-      </c>
-      <c r="H256" t="n">
-        <v>18.64527442625715</v>
       </c>
     </row>
     <row r="257">
@@ -7108,22 +7108,22 @@
         <v>13.82079426178074</v>
       </c>
       <c r="C257" t="n">
-        <v>4.704354844722822</v>
+        <v>6.128078271806762</v>
       </c>
       <c r="D257" t="n">
-        <v>18.78050887125747</v>
+        <v>18.01295196713944</v>
       </c>
       <c r="E257" t="n">
         <v>15.82920171734754</v>
       </c>
       <c r="F257" t="n">
+        <v>18.78050887125747</v>
+      </c>
+      <c r="G257" t="n">
+        <v>4.704354844722822</v>
+      </c>
+      <c r="H257" t="n">
         <v>16.83470009863958</v>
-      </c>
-      <c r="G257" t="n">
-        <v>6.128078271806762</v>
-      </c>
-      <c r="H257" t="n">
-        <v>18.01295196713944</v>
       </c>
     </row>
     <row r="258">
@@ -7134,22 +7134,22 @@
         <v>13.44869241586742</v>
       </c>
       <c r="C258" t="n">
-        <v>4.61742403666659</v>
+        <v>6.696667756958312</v>
       </c>
       <c r="D258" t="n">
-        <v>18.1507381015659</v>
+        <v>17.39718790751697</v>
       </c>
       <c r="E258" t="n">
         <v>15.32971947407855</v>
       </c>
       <c r="F258" t="n">
+        <v>18.1507381015659</v>
+      </c>
+      <c r="G258" t="n">
+        <v>4.61742403666659</v>
+      </c>
+      <c r="H258" t="n">
         <v>16.34441449458209</v>
-      </c>
-      <c r="G258" t="n">
-        <v>6.696667756958312</v>
-      </c>
-      <c r="H258" t="n">
-        <v>17.39718790751697</v>
       </c>
     </row>
     <row r="259">
@@ -7160,22 +7160,22 @@
         <v>13.08081807110971</v>
       </c>
       <c r="C259" t="n">
-        <v>4.542077432633727</v>
+        <v>7.398368136770622</v>
       </c>
       <c r="D259" t="n">
-        <v>17.53240227527908</v>
+        <v>16.79995754435112</v>
       </c>
       <c r="E259" t="n">
         <v>14.84331539958808</v>
       </c>
       <c r="F259" t="n">
+        <v>17.53240227527908</v>
+      </c>
+      <c r="G259" t="n">
+        <v>4.542077432633727</v>
+      </c>
+      <c r="H259" t="n">
         <v>15.87300653104587</v>
-      </c>
-      <c r="G259" t="n">
-        <v>7.398368136770622</v>
-      </c>
-      <c r="H259" t="n">
-        <v>16.79995754435112</v>
       </c>
     </row>
     <row r="260">
@@ -7186,22 +7186,22 @@
         <v>12.71665140922323</v>
       </c>
       <c r="C260" t="n">
-        <v>4.480184622356852</v>
+        <v>8.243951276039981</v>
       </c>
       <c r="D260" t="n">
-        <v>16.92517097401685</v>
+        <v>16.22306151686772</v>
       </c>
       <c r="E260" t="n">
         <v>14.37099957930555</v>
       </c>
       <c r="F260" t="n">
+        <v>16.92517097401685</v>
+      </c>
+      <c r="G260" t="n">
+        <v>4.480184622356852</v>
+      </c>
+      <c r="H260" t="n">
         <v>15.42047357440401</v>
-      </c>
-      <c r="G260" t="n">
-        <v>8.243951276039981</v>
-      </c>
-      <c r="H260" t="n">
-        <v>16.22306151686772</v>
       </c>
     </row>
     <row r="261">
@@ -7212,22 +7212,22 @@
         <v>12.35552326657782</v>
       </c>
       <c r="C261" t="n">
-        <v>4.430929035067866</v>
+        <v>9.219002453632248</v>
       </c>
       <c r="D261" t="n">
-        <v>16.32942385958046</v>
+        <v>15.66706098094876</v>
       </c>
       <c r="E261" t="n">
         <v>13.91316600100026</v>
       </c>
       <c r="F261" t="n">
+        <v>16.32942385958046</v>
+      </c>
+      <c r="G261" t="n">
+        <v>4.430929035067866</v>
+      </c>
+      <c r="H261" t="n">
         <v>14.98631197373</v>
-      </c>
-      <c r="G261" t="n">
-        <v>9.219002453632248</v>
-      </c>
-      <c r="H261" t="n">
-        <v>15.66706098094876</v>
       </c>
     </row>
     <row r="262">
@@ -7238,22 +7238,22 @@
         <v>11.99813480922785</v>
       </c>
       <c r="C262" t="n">
-        <v>4.391770705376262</v>
+        <v>10.284845800147</v>
       </c>
       <c r="D262" t="n">
-        <v>15.74735918940104</v>
+        <v>15.13188156309702</v>
       </c>
       <c r="E262" t="n">
         <v>13.47015205603097</v>
       </c>
       <c r="F262" t="n">
+        <v>15.74735918940104</v>
+      </c>
+      <c r="G262" t="n">
+        <v>4.391770705376262</v>
+      </c>
+      <c r="H262" t="n">
         <v>14.56954145042985</v>
-      </c>
-      <c r="G262" t="n">
-        <v>10.284845800147</v>
-      </c>
-      <c r="H262" t="n">
-        <v>15.13188156309702</v>
       </c>
     </row>
     <row r="263">
@@ -7264,22 +7264,22 @@
         <v>11.64557114441453</v>
       </c>
       <c r="C263" t="n">
-        <v>4.360119311262169</v>
+        <v>11.40087193907793</v>
       </c>
       <c r="D263" t="n">
-        <v>15.18136472056072</v>
+        <v>14.61746907120181</v>
       </c>
       <c r="E263" t="n">
         <v>13.04234498020334</v>
       </c>
       <c r="F263" t="n">
+        <v>15.18136472056072</v>
+      </c>
+      <c r="G263" t="n">
+        <v>4.360119311262169</v>
+      </c>
+      <c r="H263" t="n">
         <v>14.16906714067683</v>
-      </c>
-      <c r="G263" t="n">
-        <v>11.40087193907793</v>
-      </c>
-      <c r="H263" t="n">
-        <v>14.61746907120181</v>
       </c>
     </row>
     <row r="264">
@@ -7290,22 +7290,22 @@
         <v>11.2989173793803</v>
       </c>
       <c r="C264" t="n">
-        <v>4.333384530705605</v>
+        <v>12.52647149391686</v>
       </c>
       <c r="D264" t="n">
-        <v>14.63382821013749</v>
+        <v>14.12376931315119</v>
       </c>
       <c r="E264" t="n">
         <v>12.63013200932298</v>
       </c>
       <c r="F264" t="n">
+        <v>14.63382821013749</v>
+      </c>
+      <c r="G264" t="n">
+        <v>4.333384530705605</v>
+      </c>
+      <c r="H264" t="n">
         <v>13.78379418064504</v>
-      </c>
-      <c r="G264" t="n">
-        <v>12.52647149391686</v>
-      </c>
-      <c r="H264" t="n">
-        <v>14.12376931315119</v>
       </c>
     </row>
     <row r="265">
@@ -7316,22 +7316,22 @@
         <v>10.95925862136785</v>
       </c>
       <c r="C265" t="n">
-        <v>4.308976041687114</v>
+        <v>13.62103508816044</v>
       </c>
       <c r="D265" t="n">
-        <v>14.10713741521353</v>
+        <v>13.65072809683378</v>
       </c>
       <c r="E265" t="n">
         <v>12.23390037919633</v>
       </c>
       <c r="F265" t="n">
+        <v>14.10713741521353</v>
+      </c>
+      <c r="G265" t="n">
+        <v>4.308976041687114</v>
+      </c>
+      <c r="H265" t="n">
         <v>13.4126277065071</v>
-      </c>
-      <c r="G265" t="n">
-        <v>13.62103508816044</v>
-      </c>
-      <c r="H265" t="n">
-        <v>13.65072809683378</v>
       </c>
     </row>
     <row r="266">
@@ -7342,22 +7342,22 @@
         <v>10.62767997762011</v>
       </c>
       <c r="C266" t="n">
-        <v>4.284303522186904</v>
+        <v>14.64395334529797</v>
       </c>
       <c r="D266" t="n">
-        <v>13.60368009286709</v>
+        <v>13.19829123013825</v>
       </c>
       <c r="E266" t="n">
         <v>11.85403732562909</v>
       </c>
       <c r="F266" t="n">
+        <v>13.60368009286709</v>
+      </c>
+      <c r="G266" t="n">
+        <v>4.284303522186904</v>
+      </c>
+      <c r="H266" t="n">
         <v>13.05447285443683</v>
-      </c>
-      <c r="G266" t="n">
-        <v>14.64395334529797</v>
-      </c>
-      <c r="H266" t="n">
-        <v>13.19829123013825</v>
       </c>
     </row>
     <row r="267">
@@ -7368,22 +7368,22 @@
         <v>10.30526655537876</v>
       </c>
       <c r="C267" t="n">
-        <v>4.25677665018507</v>
+        <v>15.5546168888249</v>
       </c>
       <c r="D267" t="n">
-        <v>13.12584400018031</v>
+        <v>12.76640452095343</v>
       </c>
       <c r="E267" t="n">
         <v>11.49093008442726</v>
       </c>
       <c r="F267" t="n">
+        <v>13.12584400018031</v>
+      </c>
+      <c r="G267" t="n">
+        <v>4.25677665018507</v>
+      </c>
+      <c r="H267" t="n">
         <v>12.70823476060724</v>
-      </c>
-      <c r="G267" t="n">
-        <v>15.5546168888249</v>
-      </c>
-      <c r="H267" t="n">
-        <v>12.76640452095343</v>
       </c>
     </row>
     <row r="268">
@@ -7394,22 +7394,22 @@
         <v>9.99310346188604</v>
       </c>
       <c r="C268" t="n">
-        <v>4.22380510366166</v>
+        <v>16.31241634223229</v>
       </c>
       <c r="D268" t="n">
-        <v>12.67601689423116</v>
+        <v>12.35501377716793</v>
       </c>
       <c r="E268" t="n">
         <v>11.14496589139608</v>
       </c>
       <c r="F268" t="n">
+        <v>12.67601689423116</v>
+      </c>
+      <c r="G268" t="n">
+        <v>4.22380510366166</v>
+      </c>
+      <c r="H268" t="n">
         <v>12.37281856119265</v>
-      </c>
-      <c r="G268" t="n">
-        <v>16.31241634223229</v>
-      </c>
-      <c r="H268" t="n">
-        <v>12.35501377716793</v>
       </c>
     </row>
     <row r="269">
@@ -7420,22 +7420,22 @@
         <v>9.692275804384497</v>
       </c>
       <c r="C269" t="n">
-        <v>4.182798560597374</v>
+        <v>16.8767423290166</v>
       </c>
       <c r="D269" t="n">
-        <v>12.25658653210098</v>
+        <v>11.96406480666989</v>
       </c>
       <c r="E269" t="n">
         <v>10.81653198234199</v>
       </c>
       <c r="F269" t="n">
+        <v>12.25658653210098</v>
+      </c>
+      <c r="G269" t="n">
+        <v>4.182798560597374</v>
+      </c>
+      <c r="H269" t="n">
         <v>12.04712939236547</v>
-      </c>
-      <c r="G269" t="n">
-        <v>16.8767423290166</v>
-      </c>
-      <c r="H269" t="n">
-        <v>11.96406480666989</v>
       </c>
     </row>
     <row r="270">
@@ -7446,22 +7446,22 @@
         <v>9.403868690117319</v>
       </c>
       <c r="C270" t="n">
-        <v>4.131166698972225</v>
+        <v>17.2069854726688</v>
       </c>
       <c r="D270" t="n">
-        <v>11.86994067086887</v>
+        <v>11.5935034173483</v>
       </c>
       <c r="E270" t="n">
         <v>10.50601559307096</v>
       </c>
       <c r="F270" t="n">
+        <v>11.86994067086887</v>
+      </c>
+      <c r="G270" t="n">
+        <v>4.131166698972225</v>
+      </c>
+      <c r="H270" t="n">
         <v>11.73007239029938</v>
-      </c>
-      <c r="G270" t="n">
-        <v>17.2069854726688</v>
-      </c>
-      <c r="H270" t="n">
-        <v>11.5935034173483</v>
       </c>
     </row>
     <row r="271">
@@ -7472,22 +7472,22 @@
         <v>9.128967226325747</v>
       </c>
       <c r="C271" t="n">
-        <v>4.066319196766438</v>
+        <v>17.26253639668303</v>
       </c>
       <c r="D271" t="n">
-        <v>11.51846706761611</v>
+        <v>11.24327541709174</v>
       </c>
       <c r="E271" t="n">
         <v>10.21380395938842</v>
       </c>
       <c r="F271" t="n">
+        <v>11.51846706761611</v>
+      </c>
+      <c r="G271" t="n">
+        <v>4.066319196766438</v>
+      </c>
+      <c r="H271" t="n">
         <v>11.42055269116806</v>
-      </c>
-      <c r="G271" t="n">
-        <v>17.26253639668303</v>
-      </c>
-      <c r="H271" t="n">
-        <v>11.24327541709174</v>
       </c>
     </row>
     <row r="272">
@@ -7498,22 +7498,22 @@
         <v>8.868727526359429</v>
       </c>
       <c r="C272" t="n">
-        <v>3.986094028319362</v>
+        <v>17.00663684197646</v>
       </c>
       <c r="D272" t="n">
-        <v>11.20454178100264</v>
+        <v>10.91329918115778</v>
       </c>
       <c r="E272" t="n">
         <v>9.940251685763627</v>
       </c>
       <c r="F272" t="n">
+        <v>11.20454178100264</v>
+      </c>
+      <c r="G272" t="n">
+        <v>3.986094028319362</v>
+      </c>
+      <c r="H272" t="n">
         <v>11.11754363477611</v>
-      </c>
-      <c r="G272" t="n">
-        <v>17.00663684197646</v>
-      </c>
-      <c r="H272" t="n">
-        <v>10.91329918115778</v>
       </c>
     </row>
     <row r="273">
@@ -7524,22 +7524,22 @@
         <v>8.624359115375372</v>
       </c>
       <c r="C273" t="n">
-        <v>3.89154478941727</v>
+        <v>16.44427190546977</v>
       </c>
       <c r="D273" t="n">
-        <v>10.92808828319628</v>
+        <v>10.60301824801464</v>
       </c>
       <c r="E273" t="n">
         <v>9.684868969284416</v>
       </c>
       <c r="F273" t="n">
+        <v>10.92808828319628</v>
+      </c>
+      <c r="G273" t="n">
+        <v>3.89154478941727</v>
+      </c>
+      <c r="H273" t="n">
         <v>10.82042694544295</v>
-      </c>
-      <c r="G273" t="n">
-        <v>16.44427190546977</v>
-      </c>
-      <c r="H273" t="n">
-        <v>10.60301824801464</v>
       </c>
     </row>
     <row r="274">
@@ -7550,22 +7550,22 @@
         <v>8.395670006721106</v>
       </c>
       <c r="C274" t="n">
-        <v>3.785147955788223</v>
+        <v>15.62066258438498</v>
       </c>
       <c r="D274" t="n">
-        <v>10.6849740516303</v>
+        <v>10.31160170595027</v>
       </c>
       <c r="E274" t="n">
         <v>9.446424868981532</v>
       </c>
       <c r="F274" t="n">
+        <v>10.6849740516303</v>
+      </c>
+      <c r="G274" t="n">
+        <v>3.785147955788223</v>
+      </c>
+      <c r="H274" t="n">
         <v>10.52962176167039</v>
-      </c>
-      <c r="G274" t="n">
-        <v>15.62066258438498</v>
-      </c>
-      <c r="H274" t="n">
-        <v>10.31160170595027</v>
       </c>
     </row>
     <row r="275">
@@ -7576,22 +7576,22 @@
         <v>8.182096325509447</v>
       </c>
       <c r="C275" t="n">
-        <v>3.669370781556405</v>
+        <v>14.5842847047991</v>
       </c>
       <c r="D275" t="n">
-        <v>10.47069483923077</v>
+        <v>10.03821564405847</v>
       </c>
       <c r="E275" t="n">
         <v>9.223681482443959</v>
       </c>
       <c r="F275" t="n">
+        <v>10.47069483923077</v>
+      </c>
+      <c r="G275" t="n">
+        <v>3.669370781556405</v>
+      </c>
+      <c r="H275" t="n">
         <v>10.24577449845172</v>
-      </c>
-      <c r="G275" t="n">
-        <v>14.5842847047991</v>
-      </c>
-      <c r="H275" t="n">
-        <v>10.03821564405847</v>
       </c>
     </row>
     <row r="276">
@@ -7602,22 +7602,22 @@
         <v>7.983074196854145</v>
       </c>
       <c r="C276" t="n">
-        <v>3.546680520847122</v>
+        <v>13.38361409279197</v>
       </c>
       <c r="D276" t="n">
-        <v>10.28074639892117</v>
+        <v>9.782026151433424</v>
       </c>
       <c r="E276" t="n">
         <v>9.015400907260332</v>
       </c>
       <c r="F276" t="n">
+        <v>10.28074639892117</v>
+      </c>
+      <c r="G276" t="n">
+        <v>3.546680520847122</v>
+      </c>
+      <c r="H276" t="n">
         <v>9.969531570778882</v>
-      </c>
-      <c r="G276" t="n">
-        <v>13.38361409279197</v>
-      </c>
-      <c r="H276" t="n">
-        <v>9.782026151433424</v>
       </c>
     </row>
     <row r="277">
@@ -7628,22 +7628,22 @@
         <v>7.798039745868571</v>
       </c>
       <c r="C277" t="n">
-        <v>3.419544427783123</v>
+        <v>12.06712657443688</v>
       </c>
       <c r="D277" t="n">
-        <v>10.11062448362743</v>
+        <v>9.542199317168544</v>
       </c>
       <c r="E277" t="n">
         <v>8.820345241019814</v>
       </c>
       <c r="F277" t="n">
+        <v>10.11062448362743</v>
+      </c>
+      <c r="G277" t="n">
+        <v>3.419544427783123</v>
+      </c>
+      <c r="H277" t="n">
         <v>9.701539393644694</v>
-      </c>
-      <c r="G277" t="n">
-        <v>12.06712657443688</v>
-      </c>
-      <c r="H277" t="n">
-        <v>9.542199317168544</v>
       </c>
     </row>
     <row r="278">
@@ -7654,22 +7654,22 @@
         <v>7.626429097666811</v>
       </c>
       <c r="C278" t="n">
-        <v>3.29042975648956</v>
+        <v>10.68329797581393</v>
       </c>
       <c r="D278" t="n">
-        <v>9.95582484627394</v>
+        <v>9.317901230358036</v>
       </c>
       <c r="E278" t="n">
         <v>8.637276581311118</v>
       </c>
       <c r="F278" t="n">
+        <v>9.95582484627394</v>
+      </c>
+      <c r="G278" t="n">
+        <v>3.29042975648956</v>
+      </c>
+      <c r="H278" t="n">
         <v>9.442444382041241</v>
-      </c>
-      <c r="G278" t="n">
-        <v>10.68329797581393</v>
-      </c>
-      <c r="H278" t="n">
-        <v>9.317901230358036</v>
       </c>
     </row>
     <row r="279">
@@ -7680,22 +7680,22 @@
         <v>7.467678377361576</v>
       </c>
       <c r="C279" t="n">
-        <v>3.161803761090879</v>
+        <v>9.280604122999955</v>
       </c>
       <c r="D279" t="n">
-        <v>9.811843239786107</v>
+        <v>9.108297980095713</v>
       </c>
       <c r="E279" t="n">
         <v>8.464957025723159</v>
       </c>
       <c r="F279" t="n">
+        <v>9.811843239786107</v>
+      </c>
+      <c r="G279" t="n">
+        <v>3.161803761090879</v>
+      </c>
+      <c r="H279" t="n">
         <v>9.192892950961646</v>
-      </c>
-      <c r="G279" t="n">
-        <v>9.280604122999955</v>
-      </c>
-      <c r="H279" t="n">
-        <v>9.108297980095713</v>
       </c>
     </row>
     <row r="280">
@@ -7706,22 +7706,22 @@
         <v>7.321223710066807</v>
       </c>
       <c r="C280" t="n">
-        <v>3.036133695712023</v>
+        <v>7.907520842073892</v>
       </c>
       <c r="D280" t="n">
-        <v>9.674175417088238</v>
+        <v>8.912555655475625</v>
       </c>
       <c r="E280" t="n">
         <v>8.302148671844792</v>
       </c>
       <c r="F280" t="n">
+        <v>9.674175417088238</v>
+      </c>
+      <c r="G280" t="n">
+        <v>3.036133695712023</v>
+      </c>
+      <c r="H280" t="n">
         <v>8.953531515397868</v>
-      </c>
-      <c r="G280" t="n">
-        <v>7.907520842073892</v>
-      </c>
-      <c r="H280" t="n">
-        <v>8.912555655475625</v>
       </c>
     </row>
     <row r="281">
@@ -7732,22 +7732,22 @@
         <v>7.186501220895787</v>
       </c>
       <c r="C281" t="n">
-        <v>2.9158868144758</v>
+        <v>6.612523959109622</v>
       </c>
       <c r="D281" t="n">
-        <v>9.538317131106016</v>
+        <v>8.729840345591525</v>
       </c>
       <c r="E281" t="n">
         <v>8.147613617265041</v>
       </c>
       <c r="F281" t="n">
+        <v>9.538317131106016</v>
+      </c>
+      <c r="G281" t="n">
+        <v>2.9158868144758</v>
+      </c>
+      <c r="H281" t="n">
         <v>8.725006490342899</v>
-      </c>
-      <c r="G281" t="n">
-        <v>6.612523959109622</v>
-      </c>
-      <c r="H281" t="n">
-        <v>8.729840345591525</v>
       </c>
     </row>
     <row r="282">
@@ -7758,22 +7758,22 @@
         <v>7.062947034962392</v>
       </c>
       <c r="C282" t="n">
-        <v>2.803530371507496</v>
+        <v>5.444089300188705</v>
       </c>
       <c r="D282" t="n">
-        <v>9.399764134763805</v>
+        <v>8.559318139537513</v>
       </c>
       <c r="E282" t="n">
         <v>8.000113959572593</v>
       </c>
       <c r="F282" t="n">
+        <v>9.399764134763805</v>
+      </c>
+      <c r="G282" t="n">
+        <v>2.803530371507496</v>
+      </c>
+      <c r="H282" t="n">
         <v>8.507964290788587</v>
-      </c>
-      <c r="G282" t="n">
-        <v>5.444089300188705</v>
-      </c>
-      <c r="H282" t="n">
-        <v>8.559318139537513</v>
       </c>
     </row>
     <row r="283">
@@ -7784,22 +7784,22 @@
         <v>6.949997277379708</v>
       </c>
       <c r="C283" t="n">
-        <v>2.701531620931404</v>
+        <v>4.450692691386674</v>
       </c>
       <c r="D283" t="n">
-        <v>9.254012180987134</v>
+        <v>8.400155126407352</v>
       </c>
       <c r="E283" t="n">
         <v>7.858411796356511</v>
       </c>
       <c r="F283" t="n">
+        <v>9.254012180987134</v>
+      </c>
+      <c r="G283" t="n">
+        <v>2.701531620931404</v>
+      </c>
+      <c r="H283" t="n">
         <v>8.303051331728282</v>
-      </c>
-      <c r="G283" t="n">
-        <v>4.450692691386674</v>
-      </c>
-      <c r="H283" t="n">
-        <v>8.400155126407352</v>
       </c>
     </row>
     <row r="284">
@@ -7810,22 +7810,22 @@
         <v>6.847010534793589</v>
       </c>
       <c r="C284" t="n">
-        <v>2.611990163403616</v>
+        <v>3.677600278383679</v>
       </c>
       <c r="D284" t="n">
-        <v>9.096684358321795</v>
+        <v>8.251611482409135</v>
       </c>
       <c r="E284" t="n">
         <v>7.721324306462241</v>
       </c>
       <c r="F284" t="n">
+        <v>9.096684358321795</v>
+      </c>
+      <c r="G284" t="n">
+        <v>2.611990163403616</v>
+      </c>
+      <c r="H284" t="n">
         <v>8.110923570340928</v>
-      </c>
-      <c r="G284" t="n">
-        <v>3.677600278383679</v>
-      </c>
-      <c r="H284" t="n">
-        <v>8.251611482409135</v>
       </c>
     </row>
     <row r="285">
@@ -7836,22 +7836,22 @@
         <v>6.752447353983225</v>
       </c>
       <c r="C285" t="n">
-        <v>2.534491229176159</v>
+        <v>3.135057795942387</v>
       </c>
       <c r="D285" t="n">
-        <v>8.926543615172944</v>
+        <v>8.113489349627219</v>
       </c>
       <c r="E285" t="n">
         <v>7.588595397897604</v>
       </c>
       <c r="F285" t="n">
+        <v>8.926543615172944</v>
+      </c>
+      <c r="G285" t="n">
+        <v>2.534491229176159</v>
+      </c>
+      <c r="H285" t="n">
         <v>7.932377705187709</v>
-      </c>
-      <c r="G285" t="n">
-        <v>3.135057795942387</v>
-      </c>
-      <c r="H285" t="n">
-        <v>8.113489349627219</v>
       </c>
     </row>
     <row r="286">
@@ -7862,22 +7862,22 @@
         <v>6.665150855940905</v>
       </c>
       <c r="C286" t="n">
-        <v>2.467843991245423</v>
+        <v>2.799457782699542</v>
       </c>
       <c r="D286" t="n">
-        <v>8.746687211497088</v>
+        <v>7.98540925961845</v>
       </c>
       <c r="E286" t="n">
         <v>7.460517044834477</v>
       </c>
       <c r="F286" t="n">
+        <v>8.746687211497088</v>
+      </c>
+      <c r="G286" t="n">
+        <v>2.467843991245423</v>
+      </c>
+      <c r="H286" t="n">
         <v>7.76774842216779</v>
-      </c>
-      <c r="G286" t="n">
-        <v>2.799457782699542</v>
-      </c>
-      <c r="H286" t="n">
-        <v>7.98540925961845</v>
       </c>
     </row>
     <row r="287">
@@ -7888,22 +7888,22 @@
         <v>6.584272247441135</v>
       </c>
       <c r="C287" t="n">
-        <v>2.41092712817423</v>
+        <v>2.644441772571434</v>
       </c>
       <c r="D287" t="n">
-        <v>8.560593283962495</v>
+        <v>7.866922512786251</v>
       </c>
       <c r="E287" t="n">
         <v>7.337333644627098</v>
       </c>
       <c r="F287" t="n">
+        <v>8.560593283962495</v>
+      </c>
+      <c r="G287" t="n">
+        <v>2.41092712817423</v>
+      </c>
+      <c r="H287" t="n">
         <v>7.617219404252451</v>
-      </c>
-      <c r="G287" t="n">
-        <v>2.644441772571434</v>
-      </c>
-      <c r="H287" t="n">
-        <v>7.866922512786251</v>
       </c>
     </row>
     <row r="288">
@@ -7914,22 +7914,22 @@
         <v>6.508962735259144</v>
       </c>
       <c r="C288" t="n">
-        <v>2.362619318525395</v>
+        <v>2.64365129947493</v>
       </c>
       <c r="D288" t="n">
-        <v>8.371739969236538</v>
+        <v>7.757580409534278</v>
       </c>
       <c r="E288" t="n">
         <v>7.219289594629589</v>
       </c>
       <c r="F288" t="n">
+        <v>8.371739969236538</v>
+      </c>
+      <c r="G288" t="n">
+        <v>2.362619318525395</v>
+      </c>
+      <c r="H288" t="n">
         <v>7.48097433441244</v>
-      </c>
-      <c r="G288" t="n">
-        <v>2.64365129947493</v>
-      </c>
-      <c r="H288" t="n">
-        <v>7.757580409534278</v>
       </c>
     </row>
     <row r="289">
@@ -7940,22 +7940,22 @@
         <v>6.438373526169744</v>
       </c>
       <c r="C289" t="n">
-        <v>2.321799240861506</v>
+        <v>2.770727897326993</v>
       </c>
       <c r="D289" t="n">
-        <v>8.183605403987929</v>
+        <v>7.656934250265673</v>
       </c>
       <c r="E289" t="n">
         <v>7.106629292196128</v>
       </c>
       <c r="F289" t="n">
+        <v>8.183605403987929</v>
+      </c>
+      <c r="G289" t="n">
+        <v>2.321799240861506</v>
+      </c>
+      <c r="H289" t="n">
         <v>7.359196895618561</v>
-      </c>
-      <c r="G289" t="n">
-        <v>2.770727897326993</v>
-      </c>
-      <c r="H289" t="n">
-        <v>7.656934250265673</v>
       </c>
     </row>
   </sheetData>
